--- a/サンプルアプリケーション/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10101_ログイン.xlsx
+++ b/サンプルアプリケーション/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10101_ログイン.xlsx
@@ -1226,10 +1226,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>ユーザに対し、ユーザID・パスワードでのForm認証を行う。</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>システム機能設計書（画面）
 WA10101/ログイン</t>
     <rPh sb="4" eb="6">
@@ -1456,14 +1452,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>login_id</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>user_password</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>イ.「(2) 検索処理」の検索結果をもとに、パスワード＝画面入力したパスワード の場合、下記最終ログイン日時の更新を行う。</t>
     <rPh sb="7" eb="9">
       <t>ケンサク</t>
@@ -1715,6 +1703,18 @@
   </si>
   <si>
     <t>エラーメッセージを表示し、後続処理中止する。</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>loginId</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>userPassword</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>ユーザに対し、ログインID・パスワードでのForm認証を行う。</t>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -1726,7 +1726,7 @@
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -2833,6 +2833,111 @@
     <xf numFmtId="31" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2869,24 +2974,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2896,24 +2983,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2950,74 +3019,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -3028,36 +3058,6 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3109,49 +3109,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3160,197 +3127,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3364,6 +3145,42 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3406,8 +3223,191 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -4214,42 +4214,42 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="17" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="18" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="19" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="20" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="21" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="22" spans="6:12" ht="13.5" customHeight="1">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="6:12" ht="17.25" customHeight="1">
+    <row r="23" spans="6:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -4260,7 +4260,7 @@
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
     </row>
-    <row r="24" spans="6:12" ht="13.5" customHeight="1">
+    <row r="24" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -4269,7 +4269,7 @@
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
     </row>
-    <row r="25" spans="6:12" ht="18" customHeight="1">
+    <row r="25" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -4281,7 +4281,7 @@
       <c r="K25" s="195"/>
       <c r="L25" s="19"/>
     </row>
-    <row r="26" spans="6:12" ht="13.5" customHeight="1">
+    <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -4290,7 +4290,7 @@
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
     </row>
-    <row r="27" spans="6:12" ht="13.5" customHeight="1">
+    <row r="27" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -4299,7 +4299,7 @@
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
     </row>
-    <row r="28" spans="6:12" ht="13.5" customHeight="1">
+    <row r="28" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="6"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -4308,7 +4308,7 @@
       <c r="K28" s="19"/>
       <c r="L28" s="19"/>
     </row>
-    <row r="29" spans="6:12" ht="15" customHeight="1">
+    <row r="29" spans="6:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="19"/>
@@ -4316,7 +4316,7 @@
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
     </row>
-    <row r="30" spans="6:12" ht="13.5" customHeight="1">
+    <row r="30" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="5"/>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
@@ -4325,7 +4325,7 @@
       <c r="K30" s="19"/>
       <c r="L30" s="19"/>
     </row>
-    <row r="31" spans="6:12" ht="18.75" customHeight="1">
+    <row r="31" spans="6:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="5"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -4334,7 +4334,7 @@
       <c r="K31" s="19"/>
       <c r="L31" s="19"/>
     </row>
-    <row r="32" spans="6:12" ht="18.75">
+    <row r="32" spans="6:12" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F32" s="5"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -4343,7 +4343,7 @@
       <c r="K32" s="19"/>
       <c r="L32" s="19"/>
     </row>
-    <row r="33" spans="6:19" ht="18.75">
+    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="19"/>
@@ -4355,7 +4355,7 @@
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
     </row>
-    <row r="34" spans="6:19" ht="18.75">
+    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="19"/>
@@ -4370,515 +4370,515 @@
       <c r="R34" s="87"/>
       <c r="S34" s="87"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="87"/>
       <c r="R35" s="87"/>
       <c r="S35" s="87"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="88"/>
       <c r="P36" s="87"/>
       <c r="Q36" s="88"/>
       <c r="R36" s="87"/>
       <c r="S36" s="85"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="89"/>
       <c r="P37" s="90"/>
       <c r="Q37" s="89"/>
       <c r="R37" s="90"/>
       <c r="S37" s="89"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="90"/>
       <c r="P38" s="90"/>
       <c r="Q38" s="90"/>
       <c r="R38" s="90"/>
       <c r="S38" s="90"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O39" s="90"/>
       <c r="P39" s="90"/>
       <c r="Q39" s="90"/>
       <c r="R39" s="90"/>
       <c r="S39" s="90"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="49" ht="13.5" customHeight="1"/>
-    <row r="50" ht="13.5" customHeight="1"/>
-    <row r="51" ht="13.5" customHeight="1"/>
-    <row r="52" ht="13.5" customHeight="1"/>
-    <row r="53" ht="13.5" customHeight="1"/>
-    <row r="54" ht="13.5" customHeight="1"/>
-    <row r="55" ht="13.5" customHeight="1"/>
-    <row r="56" ht="13.5" customHeight="1"/>
-    <row r="57" ht="13.5" customHeight="1"/>
-    <row r="58" ht="13.5" customHeight="1"/>
-    <row r="59" ht="13.5" customHeight="1"/>
-    <row r="60" ht="13.5" customHeight="1"/>
-    <row r="61" ht="13.5" customHeight="1"/>
-    <row r="62" ht="13.5" customHeight="1"/>
-    <row r="63" ht="13.5" customHeight="1"/>
-    <row r="64" ht="13.5" customHeight="1"/>
-    <row r="65" ht="13.5" customHeight="1"/>
-    <row r="66" ht="13.5" customHeight="1"/>
-    <row r="67" ht="13.5" customHeight="1"/>
-    <row r="68" ht="13.5" customHeight="1"/>
-    <row r="69" ht="13.5" customHeight="1"/>
-    <row r="70" ht="13.5" customHeight="1"/>
-    <row r="71" ht="13.5" customHeight="1"/>
-    <row r="72" ht="13.5" customHeight="1"/>
-    <row r="73" ht="13.5" customHeight="1"/>
-    <row r="74" ht="13.5" customHeight="1"/>
-    <row r="75" ht="13.5" customHeight="1"/>
-    <row r="76" ht="13.5" customHeight="1"/>
-    <row r="77" ht="13.5" customHeight="1"/>
-    <row r="78" ht="13.5" customHeight="1"/>
-    <row r="79" ht="13.5" customHeight="1"/>
-    <row r="80" ht="13.5" customHeight="1"/>
-    <row r="81" ht="13.5" customHeight="1"/>
-    <row r="82" ht="13.5" customHeight="1"/>
-    <row r="83" ht="13.5" customHeight="1"/>
-    <row r="84" ht="13.5" customHeight="1"/>
-    <row r="85" ht="13.5" customHeight="1"/>
-    <row r="86" ht="13.5" customHeight="1"/>
-    <row r="87" ht="13.5" customHeight="1"/>
-    <row r="88" ht="13.5" customHeight="1"/>
-    <row r="89" ht="13.5" customHeight="1"/>
-    <row r="90" ht="13.5" customHeight="1"/>
-    <row r="91" ht="13.5" customHeight="1"/>
-    <row r="92" ht="13.5" customHeight="1"/>
-    <row r="93" ht="13.5" customHeight="1"/>
-    <row r="94" ht="13.5" customHeight="1"/>
-    <row r="95" ht="13.5" customHeight="1"/>
-    <row r="96" ht="13.5" customHeight="1"/>
-    <row r="97" ht="13.5" customHeight="1"/>
-    <row r="98" ht="13.5" customHeight="1"/>
-    <row r="99" ht="13.5" customHeight="1"/>
-    <row r="100" ht="13.5" customHeight="1"/>
-    <row r="101" ht="13.5" customHeight="1"/>
-    <row r="102" ht="13.5" customHeight="1"/>
-    <row r="103" ht="13.5" customHeight="1"/>
-    <row r="104" ht="13.5" customHeight="1"/>
-    <row r="105" ht="13.5" customHeight="1"/>
-    <row r="106" ht="13.5" customHeight="1"/>
-    <row r="107" ht="13.5" customHeight="1"/>
-    <row r="108" ht="13.5" customHeight="1"/>
-    <row r="109" ht="13.5" customHeight="1"/>
-    <row r="110" ht="13.5" customHeight="1"/>
-    <row r="111" ht="13.5" customHeight="1"/>
-    <row r="112" ht="13.5" customHeight="1"/>
-    <row r="113" ht="13.5" customHeight="1"/>
-    <row r="114" ht="13.5" customHeight="1"/>
-    <row r="115" ht="13.5" customHeight="1"/>
-    <row r="116" ht="13.5" customHeight="1"/>
-    <row r="117" ht="13.5" customHeight="1"/>
-    <row r="118" ht="13.5" customHeight="1"/>
-    <row r="119" ht="13.5" customHeight="1"/>
-    <row r="120" ht="13.5" customHeight="1"/>
-    <row r="121" ht="13.5" customHeight="1"/>
-    <row r="122" ht="13.5" customHeight="1"/>
-    <row r="123" ht="13.5" customHeight="1"/>
-    <row r="124" ht="13.5" customHeight="1"/>
-    <row r="125" ht="13.5" customHeight="1"/>
-    <row r="126" ht="13.5" customHeight="1"/>
-    <row r="127" ht="13.5" customHeight="1"/>
-    <row r="128" ht="13.5" customHeight="1"/>
-    <row r="129" ht="13.5" customHeight="1"/>
-    <row r="130" ht="13.5" customHeight="1"/>
-    <row r="131" ht="13.5" customHeight="1"/>
-    <row r="132" ht="13.5" customHeight="1"/>
-    <row r="133" ht="13.5" customHeight="1"/>
-    <row r="134" ht="13.5" customHeight="1"/>
-    <row r="135" ht="13.5" customHeight="1"/>
-    <row r="136" ht="13.5" customHeight="1"/>
-    <row r="137" ht="13.5" customHeight="1"/>
-    <row r="138" ht="13.5" customHeight="1"/>
-    <row r="139" ht="13.5" customHeight="1"/>
-    <row r="140" ht="13.5" customHeight="1"/>
-    <row r="141" ht="13.5" customHeight="1"/>
-    <row r="142" ht="13.5" customHeight="1"/>
-    <row r="143" ht="13.5" customHeight="1"/>
-    <row r="144" ht="13.5" customHeight="1"/>
-    <row r="145" ht="13.5" customHeight="1"/>
-    <row r="146" ht="13.5" customHeight="1"/>
-    <row r="147" ht="13.5" customHeight="1"/>
-    <row r="148" ht="13.5" customHeight="1"/>
-    <row r="149" ht="13.5" customHeight="1"/>
-    <row r="150" ht="13.5" customHeight="1"/>
-    <row r="151" ht="13.5" customHeight="1"/>
-    <row r="152" ht="13.5" customHeight="1"/>
-    <row r="153" ht="13.5" customHeight="1"/>
-    <row r="154" ht="13.5" customHeight="1"/>
-    <row r="155" ht="13.5" customHeight="1"/>
-    <row r="156" ht="13.5" customHeight="1"/>
-    <row r="157" ht="13.5" customHeight="1"/>
-    <row r="158" ht="13.5" customHeight="1"/>
-    <row r="159" ht="13.5" customHeight="1"/>
-    <row r="160" ht="13.5" customHeight="1"/>
-    <row r="161" ht="13.5" customHeight="1"/>
-    <row r="162" ht="13.5" customHeight="1"/>
-    <row r="163" ht="13.5" customHeight="1"/>
-    <row r="164" ht="13.5" customHeight="1"/>
-    <row r="165" ht="13.5" customHeight="1"/>
-    <row r="166" ht="13.5" customHeight="1"/>
-    <row r="167" ht="13.5" customHeight="1"/>
-    <row r="168" ht="13.5" customHeight="1"/>
-    <row r="169" ht="13.5" customHeight="1"/>
-    <row r="170" ht="13.5" customHeight="1"/>
-    <row r="171" ht="13.5" customHeight="1"/>
-    <row r="172" ht="13.5" customHeight="1"/>
-    <row r="173" ht="13.5" customHeight="1"/>
-    <row r="174" ht="13.5" customHeight="1"/>
-    <row r="175" ht="13.5" customHeight="1"/>
-    <row r="176" ht="13.5" customHeight="1"/>
-    <row r="177" ht="13.5" customHeight="1"/>
-    <row r="178" ht="13.5" customHeight="1"/>
-    <row r="179" ht="13.5" customHeight="1"/>
-    <row r="180" ht="13.5" customHeight="1"/>
-    <row r="181" ht="13.5" customHeight="1"/>
-    <row r="182" ht="13.5" customHeight="1"/>
-    <row r="183" ht="13.5" customHeight="1"/>
-    <row r="184" ht="13.5" customHeight="1"/>
-    <row r="185" ht="13.5" customHeight="1"/>
-    <row r="186" ht="13.5" customHeight="1"/>
-    <row r="187" ht="13.5" customHeight="1"/>
-    <row r="188" ht="13.5" customHeight="1"/>
-    <row r="189" ht="13.5" customHeight="1"/>
-    <row r="190" ht="13.5" customHeight="1"/>
-    <row r="191" ht="13.5" customHeight="1"/>
-    <row r="192" ht="13.5" customHeight="1"/>
-    <row r="193" ht="13.5" customHeight="1"/>
-    <row r="194" ht="13.5" customHeight="1"/>
-    <row r="195" ht="13.5" customHeight="1"/>
-    <row r="196" ht="13.5" customHeight="1"/>
-    <row r="197" ht="13.5" customHeight="1"/>
-    <row r="198" ht="13.5" customHeight="1"/>
-    <row r="199" ht="13.5" customHeight="1"/>
-    <row r="200" ht="13.5" customHeight="1"/>
-    <row r="201" ht="13.5" customHeight="1"/>
-    <row r="202" ht="13.5" customHeight="1"/>
-    <row r="203" ht="13.5" customHeight="1"/>
-    <row r="204" ht="13.5" customHeight="1"/>
-    <row r="205" ht="13.5" customHeight="1"/>
-    <row r="206" ht="13.5" customHeight="1"/>
-    <row r="207" ht="13.5" customHeight="1"/>
-    <row r="208" ht="13.5" customHeight="1"/>
-    <row r="209" ht="13.5" customHeight="1"/>
-    <row r="210" ht="13.5" customHeight="1"/>
-    <row r="211" ht="13.5" customHeight="1"/>
-    <row r="212" ht="13.5" customHeight="1"/>
-    <row r="213" ht="13.5" customHeight="1"/>
-    <row r="214" ht="13.5" customHeight="1"/>
-    <row r="215" ht="13.5" customHeight="1"/>
-    <row r="216" ht="13.5" customHeight="1"/>
-    <row r="217" ht="13.5" customHeight="1"/>
-    <row r="218" ht="13.5" customHeight="1"/>
-    <row r="219" ht="13.5" customHeight="1"/>
-    <row r="220" ht="13.5" customHeight="1"/>
-    <row r="221" ht="13.5" customHeight="1"/>
-    <row r="222" ht="13.5" customHeight="1"/>
-    <row r="223" ht="13.5" customHeight="1"/>
-    <row r="224" ht="13.5" customHeight="1"/>
-    <row r="225" ht="13.5" customHeight="1"/>
-    <row r="226" ht="13.5" customHeight="1"/>
-    <row r="227" ht="13.5" customHeight="1"/>
-    <row r="228" ht="13.5" customHeight="1"/>
-    <row r="229" ht="13.5" customHeight="1"/>
-    <row r="230" ht="13.5" customHeight="1"/>
-    <row r="231" ht="13.5" customHeight="1"/>
-    <row r="232" ht="13.5" customHeight="1"/>
-    <row r="233" ht="13.5" customHeight="1"/>
-    <row r="234" ht="13.5" customHeight="1"/>
-    <row r="235" ht="13.5" customHeight="1"/>
-    <row r="236" ht="13.5" customHeight="1"/>
-    <row r="237" ht="13.5" customHeight="1"/>
-    <row r="238" ht="13.5" customHeight="1"/>
-    <row r="239" ht="13.5" customHeight="1"/>
-    <row r="240" ht="13.5" customHeight="1"/>
-    <row r="241" ht="13.5" customHeight="1"/>
-    <row r="242" ht="13.5" customHeight="1"/>
-    <row r="243" ht="13.5" customHeight="1"/>
-    <row r="244" ht="13.5" customHeight="1"/>
-    <row r="245" ht="13.5" customHeight="1"/>
-    <row r="246" ht="13.5" customHeight="1"/>
-    <row r="247" ht="13.5" customHeight="1"/>
-    <row r="248" ht="13.5" customHeight="1"/>
-    <row r="249" ht="13.5" customHeight="1"/>
-    <row r="250" ht="13.5" customHeight="1"/>
-    <row r="251" ht="13.5" customHeight="1"/>
-    <row r="252" ht="13.5" customHeight="1"/>
-    <row r="253" ht="13.5" customHeight="1"/>
-    <row r="254" ht="13.5" customHeight="1"/>
-    <row r="255" ht="13.5" customHeight="1"/>
-    <row r="256" ht="13.5" customHeight="1"/>
-    <row r="257" ht="13.5" customHeight="1"/>
-    <row r="258" ht="13.5" customHeight="1"/>
-    <row r="259" ht="13.5" customHeight="1"/>
-    <row r="260" ht="13.5" customHeight="1"/>
-    <row r="261" ht="13.5" customHeight="1"/>
-    <row r="262" ht="13.5" customHeight="1"/>
-    <row r="263" ht="13.5" customHeight="1"/>
-    <row r="264" ht="13.5" customHeight="1"/>
-    <row r="265" ht="13.5" customHeight="1"/>
-    <row r="266" ht="13.5" customHeight="1"/>
-    <row r="267" ht="13.5" customHeight="1"/>
-    <row r="268" ht="13.5" customHeight="1"/>
-    <row r="269" ht="13.5" customHeight="1"/>
-    <row r="270" ht="13.5" customHeight="1"/>
-    <row r="271" ht="13.5" customHeight="1"/>
-    <row r="272" ht="13.5" customHeight="1"/>
-    <row r="273" ht="13.5" customHeight="1"/>
-    <row r="274" ht="13.5" customHeight="1"/>
-    <row r="275" ht="13.5" customHeight="1"/>
-    <row r="276" ht="13.5" customHeight="1"/>
-    <row r="277" ht="13.5" customHeight="1"/>
-    <row r="278" ht="13.5" customHeight="1"/>
-    <row r="279" ht="13.5" customHeight="1"/>
-    <row r="280" ht="13.5" customHeight="1"/>
-    <row r="281" ht="13.5" customHeight="1"/>
-    <row r="282" ht="13.5" customHeight="1"/>
-    <row r="283" ht="13.5" customHeight="1"/>
-    <row r="284" ht="13.5" customHeight="1"/>
-    <row r="285" ht="13.5" customHeight="1"/>
-    <row r="286" ht="13.5" customHeight="1"/>
-    <row r="287" ht="13.5" customHeight="1"/>
-    <row r="288" ht="13.5" customHeight="1"/>
-    <row r="289" ht="13.5" customHeight="1"/>
-    <row r="290" ht="13.5" customHeight="1"/>
-    <row r="291" ht="13.5" customHeight="1"/>
-    <row r="292" ht="13.5" customHeight="1"/>
-    <row r="293" ht="13.5" customHeight="1"/>
-    <row r="294" ht="13.5" customHeight="1"/>
-    <row r="295" ht="13.5" customHeight="1"/>
-    <row r="296" ht="13.5" customHeight="1"/>
-    <row r="297" ht="13.5" customHeight="1"/>
-    <row r="298" ht="13.5" customHeight="1"/>
-    <row r="299" ht="13.5" customHeight="1"/>
-    <row r="300" ht="13.5" customHeight="1"/>
-    <row r="301" ht="13.5" customHeight="1"/>
-    <row r="302" ht="13.5" customHeight="1"/>
-    <row r="303" ht="13.5" customHeight="1"/>
-    <row r="304" ht="13.5" customHeight="1"/>
-    <row r="305" ht="13.5" customHeight="1"/>
-    <row r="306" ht="13.5" customHeight="1"/>
-    <row r="307" ht="13.5" customHeight="1"/>
-    <row r="308" ht="13.5" customHeight="1"/>
-    <row r="309" ht="13.5" customHeight="1"/>
-    <row r="310" ht="13.5" customHeight="1"/>
-    <row r="311" ht="13.5" customHeight="1"/>
-    <row r="312" ht="13.5" customHeight="1"/>
-    <row r="313" ht="13.5" customHeight="1"/>
-    <row r="314" ht="13.5" customHeight="1"/>
-    <row r="315" ht="13.5" customHeight="1"/>
-    <row r="316" ht="13.5" customHeight="1"/>
-    <row r="317" ht="13.5" customHeight="1"/>
-    <row r="318" ht="13.5" customHeight="1"/>
-    <row r="319" ht="13.5" customHeight="1"/>
-    <row r="320" ht="13.5" customHeight="1"/>
-    <row r="321" ht="13.5" customHeight="1"/>
-    <row r="322" ht="13.5" customHeight="1"/>
-    <row r="323" ht="13.5" customHeight="1"/>
-    <row r="324" ht="13.5" customHeight="1"/>
-    <row r="325" ht="13.5" customHeight="1"/>
-    <row r="326" ht="13.5" customHeight="1"/>
-    <row r="327" ht="13.5" customHeight="1"/>
-    <row r="328" ht="13.5" customHeight="1"/>
-    <row r="329" ht="13.5" customHeight="1"/>
-    <row r="330" ht="13.5" customHeight="1"/>
-    <row r="331" ht="13.5" customHeight="1"/>
-    <row r="332" ht="13.5" customHeight="1"/>
-    <row r="333" ht="13.5" customHeight="1"/>
-    <row r="334" ht="13.5" customHeight="1"/>
-    <row r="335" ht="13.5" customHeight="1"/>
-    <row r="336" ht="13.5" customHeight="1"/>
-    <row r="337" ht="13.5" customHeight="1"/>
-    <row r="338" ht="13.5" customHeight="1"/>
-    <row r="339" ht="13.5" customHeight="1"/>
-    <row r="340" ht="13.5" customHeight="1"/>
-    <row r="341" ht="13.5" customHeight="1"/>
-    <row r="342" ht="13.5" customHeight="1"/>
-    <row r="343" ht="13.5" customHeight="1"/>
-    <row r="344" ht="13.5" customHeight="1"/>
-    <row r="345" ht="13.5" customHeight="1"/>
-    <row r="346" ht="13.5" customHeight="1"/>
-    <row r="347" ht="13.5" customHeight="1"/>
-    <row r="348" ht="13.5" customHeight="1"/>
-    <row r="349" ht="13.5" customHeight="1"/>
-    <row r="350" ht="13.5" customHeight="1"/>
-    <row r="351" ht="13.5" customHeight="1"/>
-    <row r="352" ht="13.5" customHeight="1"/>
-    <row r="353" ht="13.5" customHeight="1"/>
-    <row r="354" ht="13.5" customHeight="1"/>
-    <row r="355" ht="13.5" customHeight="1"/>
-    <row r="356" ht="13.5" customHeight="1"/>
-    <row r="357" ht="13.5" customHeight="1"/>
-    <row r="358" ht="13.5" customHeight="1"/>
-    <row r="359" ht="13.5" customHeight="1"/>
-    <row r="360" ht="13.5" customHeight="1"/>
-    <row r="361" ht="13.5" customHeight="1"/>
-    <row r="362" ht="13.5" customHeight="1"/>
-    <row r="363" ht="13.5" customHeight="1"/>
-    <row r="364" ht="13.5" customHeight="1"/>
-    <row r="365" ht="13.5" customHeight="1"/>
-    <row r="366" ht="13.5" customHeight="1"/>
-    <row r="367" ht="13.5" customHeight="1"/>
-    <row r="368" ht="13.5" customHeight="1"/>
-    <row r="369" ht="13.5" customHeight="1"/>
-    <row r="370" ht="13.5" customHeight="1"/>
-    <row r="371" ht="13.5" customHeight="1"/>
-    <row r="372" ht="13.5" customHeight="1"/>
-    <row r="373" ht="13.5" customHeight="1"/>
-    <row r="374" ht="13.5" customHeight="1"/>
-    <row r="375" ht="13.5" customHeight="1"/>
-    <row r="376" ht="13.5" customHeight="1"/>
-    <row r="377" ht="13.5" customHeight="1"/>
-    <row r="378" ht="13.5" customHeight="1"/>
-    <row r="379" ht="13.5" customHeight="1"/>
-    <row r="380" ht="13.5" customHeight="1"/>
-    <row r="381" ht="13.5" customHeight="1"/>
-    <row r="382" ht="13.5" customHeight="1"/>
-    <row r="383" ht="13.5" customHeight="1"/>
-    <row r="384" ht="13.5" customHeight="1"/>
-    <row r="385" ht="13.5" customHeight="1"/>
-    <row r="386" ht="13.5" customHeight="1"/>
-    <row r="387" ht="13.5" customHeight="1"/>
-    <row r="388" ht="13.5" customHeight="1"/>
-    <row r="389" ht="13.5" customHeight="1"/>
-    <row r="390" ht="13.5" customHeight="1"/>
-    <row r="391" ht="13.5" customHeight="1"/>
-    <row r="392" ht="13.5" customHeight="1"/>
-    <row r="393" ht="13.5" customHeight="1"/>
-    <row r="394" ht="13.5" customHeight="1"/>
-    <row r="395" ht="13.5" customHeight="1"/>
-    <row r="396" ht="13.5" customHeight="1"/>
-    <row r="397" ht="13.5" customHeight="1"/>
-    <row r="398" ht="13.5" customHeight="1"/>
-    <row r="399" ht="13.5" customHeight="1"/>
-    <row r="400" ht="13.5" customHeight="1"/>
-    <row r="401" ht="13.5" customHeight="1"/>
-    <row r="402" ht="13.5" customHeight="1"/>
-    <row r="403" ht="13.5" customHeight="1"/>
-    <row r="404" ht="13.5" customHeight="1"/>
-    <row r="405" ht="13.5" customHeight="1"/>
-    <row r="406" ht="13.5" customHeight="1"/>
-    <row r="407" ht="13.5" customHeight="1"/>
-    <row r="408" ht="13.5" customHeight="1"/>
-    <row r="409" ht="13.5" customHeight="1"/>
-    <row r="410" ht="13.5" customHeight="1"/>
-    <row r="411" ht="13.5" customHeight="1"/>
-    <row r="412" ht="13.5" customHeight="1"/>
-    <row r="413" ht="13.5" customHeight="1"/>
-    <row r="414" ht="13.5" customHeight="1"/>
-    <row r="415" ht="13.5" customHeight="1"/>
-    <row r="416" ht="13.5" customHeight="1"/>
-    <row r="417" ht="13.5" customHeight="1"/>
-    <row r="418" ht="13.5" customHeight="1"/>
-    <row r="419" ht="13.5" customHeight="1"/>
-    <row r="420" ht="13.5" customHeight="1"/>
-    <row r="421" ht="13.5" customHeight="1"/>
-    <row r="422" ht="13.5" customHeight="1"/>
-    <row r="423" ht="13.5" customHeight="1"/>
-    <row r="424" ht="13.5" customHeight="1"/>
-    <row r="425" ht="13.5" customHeight="1"/>
-    <row r="426" ht="13.5" customHeight="1"/>
-    <row r="427" ht="13.5" customHeight="1"/>
-    <row r="428" ht="13.5" customHeight="1"/>
-    <row r="429" ht="13.5" customHeight="1"/>
-    <row r="430" ht="13.5" customHeight="1"/>
-    <row r="431" ht="13.5" customHeight="1"/>
-    <row r="432" ht="13.5" customHeight="1"/>
-    <row r="433" ht="13.5" customHeight="1"/>
-    <row r="434" ht="13.5" customHeight="1"/>
-    <row r="435" ht="13.5" customHeight="1"/>
-    <row r="436" ht="13.5" customHeight="1"/>
-    <row r="437" ht="13.5" customHeight="1"/>
-    <row r="438" ht="13.5" customHeight="1"/>
-    <row r="439" ht="13.5" customHeight="1"/>
-    <row r="440" ht="13.5" customHeight="1"/>
-    <row r="441" ht="13.5" customHeight="1"/>
-    <row r="442" ht="13.5" customHeight="1"/>
-    <row r="443" ht="13.5" customHeight="1"/>
-    <row r="444" ht="13.5" customHeight="1"/>
-    <row r="445" ht="13.5" customHeight="1"/>
-    <row r="446" ht="13.5" customHeight="1"/>
-    <row r="447" ht="13.5" customHeight="1"/>
-    <row r="448" ht="13.5" customHeight="1"/>
-    <row r="449" ht="13.5" customHeight="1"/>
-    <row r="450" ht="13.5" customHeight="1"/>
-    <row r="451" ht="13.5" customHeight="1"/>
-    <row r="452" ht="13.5" customHeight="1"/>
-    <row r="453" ht="13.5" customHeight="1"/>
-    <row r="454" ht="13.5" customHeight="1"/>
-    <row r="455" ht="13.5" customHeight="1"/>
-    <row r="456" ht="13.5" customHeight="1"/>
-    <row r="457" ht="13.5" customHeight="1"/>
-    <row r="458" ht="13.5" customHeight="1"/>
-    <row r="459" ht="13.5" customHeight="1"/>
-    <row r="460" ht="13.5" customHeight="1"/>
-    <row r="461" ht="13.5" customHeight="1"/>
-    <row r="462" ht="13.5" customHeight="1"/>
-    <row r="463" ht="13.5" customHeight="1"/>
-    <row r="464" ht="13.5" customHeight="1"/>
-    <row r="465" ht="13.5" customHeight="1"/>
-    <row r="466" ht="13.5" customHeight="1"/>
-    <row r="467" ht="13.5" customHeight="1"/>
-    <row r="468" ht="13.5" customHeight="1"/>
-    <row r="469" ht="13.5" customHeight="1"/>
-    <row r="470" ht="13.5" customHeight="1"/>
-    <row r="471" ht="13.5" customHeight="1"/>
-    <row r="472" ht="13.5" customHeight="1"/>
-    <row r="473" ht="13.5" customHeight="1"/>
-    <row r="474" ht="13.5" customHeight="1"/>
-    <row r="475" ht="13.5" customHeight="1"/>
-    <row r="476" ht="13.5" customHeight="1"/>
-    <row r="477" ht="13.5" customHeight="1"/>
-    <row r="478" ht="13.5" customHeight="1"/>
-    <row r="479" ht="13.5" customHeight="1"/>
-    <row r="480" ht="13.5" customHeight="1"/>
-    <row r="481" ht="13.5" customHeight="1"/>
-    <row r="482" ht="13.5" customHeight="1"/>
-    <row r="483" ht="13.5" customHeight="1"/>
-    <row r="484" ht="13.5" customHeight="1"/>
-    <row r="485" ht="13.5" customHeight="1"/>
-    <row r="486" ht="13.5" customHeight="1"/>
-    <row r="487" ht="13.5" customHeight="1"/>
-    <row r="488" ht="13.5" customHeight="1"/>
-    <row r="489" ht="13.5" customHeight="1"/>
-    <row r="490" ht="13.5" customHeight="1"/>
-    <row r="491" ht="13.5" customHeight="1"/>
-    <row r="492" ht="13.5" customHeight="1"/>
-    <row r="493" ht="13.5" customHeight="1"/>
-    <row r="494" ht="13.5" customHeight="1"/>
-    <row r="495" ht="13.5" customHeight="1"/>
-    <row r="496" ht="13.5" customHeight="1"/>
-    <row r="497" ht="13.5" customHeight="1"/>
-    <row r="498" ht="13.5" customHeight="1"/>
-    <row r="499" ht="13.5" customHeight="1"/>
-    <row r="500" ht="13.5" customHeight="1"/>
-    <row r="501" ht="13.5" customHeight="1"/>
-    <row r="502" ht="13.5" customHeight="1"/>
-    <row r="503" ht="13.5" customHeight="1"/>
-    <row r="504" ht="13.5" customHeight="1"/>
-    <row r="505" ht="13.5" customHeight="1"/>
-    <row r="506" ht="13.5" customHeight="1"/>
-    <row r="507" ht="13.5" customHeight="1"/>
-    <row r="508" ht="13.5" customHeight="1"/>
-    <row r="509" ht="13.5" customHeight="1"/>
-    <row r="510" ht="13.5" customHeight="1"/>
-    <row r="511" ht="13.5" customHeight="1"/>
-    <row r="512" ht="13.5" customHeight="1"/>
-    <row r="513" ht="13.5" customHeight="1"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
@@ -4903,170 +4903,170 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="11" customFormat="1">
-      <c r="A1" s="244" t="s">
+    <row r="1" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="196" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="245"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="246"/>
-      <c r="E1" s="214" t="s">
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="243" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
-      <c r="I1" s="215"/>
-      <c r="J1" s="215"/>
-      <c r="K1" s="215"/>
-      <c r="L1" s="215"/>
-      <c r="M1" s="215"/>
-      <c r="N1" s="216"/>
-      <c r="O1" s="247" t="s">
+      <c r="F1" s="244"/>
+      <c r="G1" s="244"/>
+      <c r="H1" s="244"/>
+      <c r="I1" s="244"/>
+      <c r="J1" s="244"/>
+      <c r="K1" s="244"/>
+      <c r="L1" s="244"/>
+      <c r="M1" s="244"/>
+      <c r="N1" s="245"/>
+      <c r="O1" s="199" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="248"/>
-      <c r="Q1" s="248"/>
-      <c r="R1" s="249"/>
-      <c r="S1" s="226" t="s">
-        <v>141</v>
-      </c>
-      <c r="T1" s="227"/>
-      <c r="U1" s="227"/>
-      <c r="V1" s="227"/>
-      <c r="W1" s="227"/>
-      <c r="X1" s="227"/>
-      <c r="Y1" s="227"/>
-      <c r="Z1" s="228"/>
-      <c r="AA1" s="244" t="s">
+      <c r="P1" s="200"/>
+      <c r="Q1" s="200"/>
+      <c r="R1" s="201"/>
+      <c r="S1" s="249" t="s">
+        <v>140</v>
+      </c>
+      <c r="T1" s="250"/>
+      <c r="U1" s="250"/>
+      <c r="V1" s="250"/>
+      <c r="W1" s="250"/>
+      <c r="X1" s="250"/>
+      <c r="Y1" s="250"/>
+      <c r="Z1" s="251"/>
+      <c r="AA1" s="196" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="246"/>
-      <c r="AC1" s="196" t="str">
+      <c r="AB1" s="198"/>
+      <c r="AC1" s="231" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="197"/>
-      <c r="AE1" s="197"/>
-      <c r="AF1" s="198"/>
-      <c r="AG1" s="202">
+      <c r="AD1" s="232"/>
+      <c r="AE1" s="232"/>
+      <c r="AF1" s="233"/>
+      <c r="AG1" s="237">
         <f>IF(D8="","",D8)</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="203"/>
-      <c r="AI1" s="204"/>
+      <c r="AH1" s="238"/>
+      <c r="AI1" s="239"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
       <c r="AM1" s="9"/>
       <c r="AN1" s="10"/>
     </row>
-    <row r="2" spans="1:40" s="11" customFormat="1">
-      <c r="A2" s="244" t="s">
+    <row r="2" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="245"/>
-      <c r="C2" s="245"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="214" t="s">
+      <c r="B2" s="197"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="243" t="s">
         <v>113</v>
       </c>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
-      <c r="H2" s="215"/>
-      <c r="I2" s="215"/>
-      <c r="J2" s="215"/>
-      <c r="K2" s="215"/>
-      <c r="L2" s="215"/>
-      <c r="M2" s="215"/>
-      <c r="N2" s="216"/>
-      <c r="O2" s="250"/>
-      <c r="P2" s="251"/>
-      <c r="Q2" s="251"/>
-      <c r="R2" s="252"/>
-      <c r="S2" s="229"/>
-      <c r="T2" s="230"/>
-      <c r="U2" s="230"/>
-      <c r="V2" s="230"/>
-      <c r="W2" s="230"/>
-      <c r="X2" s="230"/>
-      <c r="Y2" s="230"/>
-      <c r="Z2" s="231"/>
-      <c r="AA2" s="244" t="s">
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
+      <c r="H2" s="244"/>
+      <c r="I2" s="244"/>
+      <c r="J2" s="244"/>
+      <c r="K2" s="244"/>
+      <c r="L2" s="244"/>
+      <c r="M2" s="244"/>
+      <c r="N2" s="245"/>
+      <c r="O2" s="202"/>
+      <c r="P2" s="203"/>
+      <c r="Q2" s="203"/>
+      <c r="R2" s="204"/>
+      <c r="S2" s="252"/>
+      <c r="T2" s="253"/>
+      <c r="U2" s="253"/>
+      <c r="V2" s="253"/>
+      <c r="W2" s="253"/>
+      <c r="X2" s="253"/>
+      <c r="Y2" s="253"/>
+      <c r="Z2" s="254"/>
+      <c r="AA2" s="196" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="246"/>
-      <c r="AC2" s="205" t="str">
+      <c r="AB2" s="198"/>
+      <c r="AC2" s="240" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="206"/>
-      <c r="AE2" s="206"/>
-      <c r="AF2" s="207"/>
-      <c r="AG2" s="202" t="str">
+      <c r="AD2" s="241"/>
+      <c r="AE2" s="241"/>
+      <c r="AF2" s="242"/>
+      <c r="AG2" s="237" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="203"/>
-      <c r="AI2" s="204"/>
+      <c r="AH2" s="238"/>
+      <c r="AI2" s="239"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
       <c r="AM2" s="9"/>
       <c r="AN2" s="9"/>
     </row>
-    <row r="3" spans="1:40" s="11" customFormat="1">
-      <c r="A3" s="244" t="s">
+    <row r="3" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="196" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="245"/>
-      <c r="C3" s="245"/>
-      <c r="D3" s="246"/>
-      <c r="E3" s="214" t="s">
+      <c r="B3" s="197"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="243" t="s">
         <v>135</v>
       </c>
-      <c r="F3" s="215"/>
-      <c r="G3" s="215"/>
-      <c r="H3" s="215"/>
-      <c r="I3" s="215"/>
-      <c r="J3" s="215"/>
-      <c r="K3" s="215"/>
-      <c r="L3" s="215"/>
-      <c r="M3" s="215"/>
-      <c r="N3" s="216"/>
-      <c r="O3" s="253"/>
-      <c r="P3" s="254"/>
-      <c r="Q3" s="254"/>
-      <c r="R3" s="255"/>
-      <c r="S3" s="232"/>
-      <c r="T3" s="233"/>
-      <c r="U3" s="233"/>
-      <c r="V3" s="233"/>
-      <c r="W3" s="233"/>
-      <c r="X3" s="233"/>
-      <c r="Y3" s="233"/>
-      <c r="Z3" s="234"/>
-      <c r="AA3" s="256"/>
-      <c r="AB3" s="257"/>
-      <c r="AC3" s="196"/>
-      <c r="AD3" s="197"/>
-      <c r="AE3" s="197"/>
-      <c r="AF3" s="198"/>
-      <c r="AG3" s="202"/>
-      <c r="AH3" s="203"/>
-      <c r="AI3" s="204"/>
+      <c r="F3" s="244"/>
+      <c r="G3" s="244"/>
+      <c r="H3" s="244"/>
+      <c r="I3" s="244"/>
+      <c r="J3" s="244"/>
+      <c r="K3" s="244"/>
+      <c r="L3" s="244"/>
+      <c r="M3" s="244"/>
+      <c r="N3" s="245"/>
+      <c r="O3" s="205"/>
+      <c r="P3" s="206"/>
+      <c r="Q3" s="206"/>
+      <c r="R3" s="207"/>
+      <c r="S3" s="255"/>
+      <c r="T3" s="256"/>
+      <c r="U3" s="256"/>
+      <c r="V3" s="256"/>
+      <c r="W3" s="256"/>
+      <c r="X3" s="256"/>
+      <c r="Y3" s="256"/>
+      <c r="Z3" s="257"/>
+      <c r="AA3" s="208"/>
+      <c r="AB3" s="209"/>
+      <c r="AC3" s="231"/>
+      <c r="AD3" s="232"/>
+      <c r="AE3" s="232"/>
+      <c r="AF3" s="233"/>
+      <c r="AG3" s="237"/>
+      <c r="AH3" s="238"/>
+      <c r="AI3" s="239"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
       <c r="AM3" s="9"/>
       <c r="AN3" s="9"/>
     </row>
-    <row r="4" spans="1:40" s="16" customFormat="1">
+    <row r="4" spans="1:40" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -5108,7 +5108,7 @@
       <c r="AM4" s="17"/>
       <c r="AN4" s="17"/>
     </row>
-    <row r="5" spans="1:40" s="18" customFormat="1" ht="22.5" customHeight="1">
+    <row r="5" spans="1:40" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -5152,7 +5152,7 @@
       <c r="AM5" s="13"/>
       <c r="AN5" s="13"/>
     </row>
-    <row r="6" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -5194,1034 +5194,1034 @@
       <c r="AM6" s="13"/>
       <c r="AN6" s="13"/>
     </row>
-    <row r="7" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="7" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="211" t="s">
+      <c r="B7" s="222" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="213"/>
-      <c r="D7" s="211" t="s">
+      <c r="C7" s="223"/>
+      <c r="D7" s="222" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="212"/>
-      <c r="F7" s="213"/>
-      <c r="G7" s="211" t="s">
+      <c r="E7" s="224"/>
+      <c r="F7" s="223"/>
+      <c r="G7" s="222" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="212"/>
-      <c r="I7" s="213"/>
-      <c r="J7" s="211" t="s">
+      <c r="H7" s="224"/>
+      <c r="I7" s="223"/>
+      <c r="J7" s="222" t="s">
         <v>86</v>
       </c>
-      <c r="K7" s="212"/>
-      <c r="L7" s="212"/>
-      <c r="M7" s="212"/>
-      <c r="N7" s="212"/>
-      <c r="O7" s="212"/>
-      <c r="P7" s="213"/>
-      <c r="Q7" s="211" t="s">
+      <c r="K7" s="224"/>
+      <c r="L7" s="224"/>
+      <c r="M7" s="224"/>
+      <c r="N7" s="224"/>
+      <c r="O7" s="224"/>
+      <c r="P7" s="223"/>
+      <c r="Q7" s="222" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="212"/>
-      <c r="S7" s="212"/>
-      <c r="T7" s="212"/>
-      <c r="U7" s="212"/>
-      <c r="V7" s="212"/>
-      <c r="W7" s="212"/>
-      <c r="X7" s="212"/>
-      <c r="Y7" s="212"/>
-      <c r="Z7" s="212"/>
-      <c r="AA7" s="212"/>
-      <c r="AB7" s="212"/>
-      <c r="AC7" s="212"/>
-      <c r="AD7" s="212"/>
-      <c r="AE7" s="213"/>
-      <c r="AF7" s="211" t="s">
+      <c r="R7" s="224"/>
+      <c r="S7" s="224"/>
+      <c r="T7" s="224"/>
+      <c r="U7" s="224"/>
+      <c r="V7" s="224"/>
+      <c r="W7" s="224"/>
+      <c r="X7" s="224"/>
+      <c r="Y7" s="224"/>
+      <c r="Z7" s="224"/>
+      <c r="AA7" s="224"/>
+      <c r="AB7" s="224"/>
+      <c r="AC7" s="224"/>
+      <c r="AD7" s="224"/>
+      <c r="AE7" s="223"/>
+      <c r="AF7" s="222" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="212"/>
-      <c r="AH7" s="212"/>
-      <c r="AI7" s="213"/>
-    </row>
-    <row r="8" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" thickTop="1">
+      <c r="AG7" s="224"/>
+      <c r="AH7" s="224"/>
+      <c r="AI7" s="223"/>
+    </row>
+    <row r="8" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="56">
         <v>1</v>
       </c>
-      <c r="B8" s="238" t="s">
+      <c r="B8" s="225" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="239"/>
-      <c r="D8" s="240">
+      <c r="C8" s="226"/>
+      <c r="D8" s="227">
         <v>43656</v>
       </c>
-      <c r="E8" s="241"/>
-      <c r="F8" s="242"/>
-      <c r="G8" s="238" t="s">
+      <c r="E8" s="228"/>
+      <c r="F8" s="229"/>
+      <c r="G8" s="225" t="s">
         <v>108</v>
       </c>
-      <c r="H8" s="243"/>
-      <c r="I8" s="239"/>
-      <c r="J8" s="223" t="s">
+      <c r="H8" s="230"/>
+      <c r="I8" s="226"/>
+      <c r="J8" s="246" t="s">
         <v>109</v>
       </c>
-      <c r="K8" s="224"/>
-      <c r="L8" s="224"/>
-      <c r="M8" s="224"/>
-      <c r="N8" s="224"/>
-      <c r="O8" s="224"/>
-      <c r="P8" s="225"/>
-      <c r="Q8" s="199" t="s">
+      <c r="K8" s="247"/>
+      <c r="L8" s="247"/>
+      <c r="M8" s="247"/>
+      <c r="N8" s="247"/>
+      <c r="O8" s="247"/>
+      <c r="P8" s="248"/>
+      <c r="Q8" s="234" t="s">
         <v>110</v>
       </c>
-      <c r="R8" s="200"/>
-      <c r="S8" s="200"/>
-      <c r="T8" s="200"/>
-      <c r="U8" s="200"/>
-      <c r="V8" s="200"/>
-      <c r="W8" s="200"/>
-      <c r="X8" s="200"/>
-      <c r="Y8" s="200"/>
-      <c r="Z8" s="200"/>
-      <c r="AA8" s="200"/>
-      <c r="AB8" s="200"/>
-      <c r="AC8" s="200"/>
-      <c r="AD8" s="200"/>
-      <c r="AE8" s="201"/>
-      <c r="AF8" s="223" t="s">
+      <c r="R8" s="235"/>
+      <c r="S8" s="235"/>
+      <c r="T8" s="235"/>
+      <c r="U8" s="235"/>
+      <c r="V8" s="235"/>
+      <c r="W8" s="235"/>
+      <c r="X8" s="235"/>
+      <c r="Y8" s="235"/>
+      <c r="Z8" s="235"/>
+      <c r="AA8" s="235"/>
+      <c r="AB8" s="235"/>
+      <c r="AC8" s="235"/>
+      <c r="AD8" s="235"/>
+      <c r="AE8" s="236"/>
+      <c r="AF8" s="246" t="s">
         <v>111</v>
       </c>
-      <c r="AG8" s="224"/>
-      <c r="AH8" s="224"/>
-      <c r="AI8" s="225"/>
-    </row>
-    <row r="9" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="AG8" s="247"/>
+      <c r="AH8" s="247"/>
+      <c r="AI8" s="248"/>
+    </row>
+    <row r="9" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="57"/>
-      <c r="B9" s="208"/>
-      <c r="C9" s="210"/>
-      <c r="D9" s="235"/>
-      <c r="E9" s="236"/>
-      <c r="F9" s="237"/>
-      <c r="G9" s="208"/>
-      <c r="H9" s="209"/>
-      <c r="I9" s="210"/>
-      <c r="J9" s="220"/>
-      <c r="K9" s="221"/>
-      <c r="L9" s="221"/>
-      <c r="M9" s="221"/>
-      <c r="N9" s="221"/>
-      <c r="O9" s="221"/>
-      <c r="P9" s="222"/>
-      <c r="Q9" s="217"/>
-      <c r="R9" s="218"/>
-      <c r="S9" s="218"/>
-      <c r="T9" s="218"/>
-      <c r="U9" s="218"/>
-      <c r="V9" s="218"/>
-      <c r="W9" s="218"/>
-      <c r="X9" s="218"/>
-      <c r="Y9" s="218"/>
-      <c r="Z9" s="218"/>
-      <c r="AA9" s="218"/>
-      <c r="AB9" s="218"/>
-      <c r="AC9" s="218"/>
-      <c r="AD9" s="218"/>
-      <c r="AE9" s="219"/>
-      <c r="AF9" s="220"/>
-      <c r="AG9" s="221"/>
-      <c r="AH9" s="221"/>
-      <c r="AI9" s="222"/>
-    </row>
-    <row r="10" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B9" s="216"/>
+      <c r="C9" s="217"/>
+      <c r="D9" s="218"/>
+      <c r="E9" s="219"/>
+      <c r="F9" s="220"/>
+      <c r="G9" s="216"/>
+      <c r="H9" s="221"/>
+      <c r="I9" s="217"/>
+      <c r="J9" s="213"/>
+      <c r="K9" s="214"/>
+      <c r="L9" s="214"/>
+      <c r="M9" s="214"/>
+      <c r="N9" s="214"/>
+      <c r="O9" s="214"/>
+      <c r="P9" s="215"/>
+      <c r="Q9" s="210"/>
+      <c r="R9" s="211"/>
+      <c r="S9" s="211"/>
+      <c r="T9" s="211"/>
+      <c r="U9" s="211"/>
+      <c r="V9" s="211"/>
+      <c r="W9" s="211"/>
+      <c r="X9" s="211"/>
+      <c r="Y9" s="211"/>
+      <c r="Z9" s="211"/>
+      <c r="AA9" s="211"/>
+      <c r="AB9" s="211"/>
+      <c r="AC9" s="211"/>
+      <c r="AD9" s="211"/>
+      <c r="AE9" s="212"/>
+      <c r="AF9" s="213"/>
+      <c r="AG9" s="214"/>
+      <c r="AH9" s="214"/>
+      <c r="AI9" s="215"/>
+    </row>
+    <row r="10" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="57"/>
-      <c r="B10" s="208"/>
-      <c r="C10" s="210"/>
-      <c r="D10" s="235"/>
-      <c r="E10" s="236"/>
-      <c r="F10" s="237"/>
-      <c r="G10" s="208"/>
-      <c r="H10" s="209"/>
-      <c r="I10" s="210"/>
-      <c r="J10" s="220"/>
-      <c r="K10" s="221"/>
-      <c r="L10" s="221"/>
-      <c r="M10" s="221"/>
-      <c r="N10" s="221"/>
-      <c r="O10" s="221"/>
-      <c r="P10" s="222"/>
-      <c r="Q10" s="217"/>
-      <c r="R10" s="218"/>
-      <c r="S10" s="218"/>
-      <c r="T10" s="218"/>
-      <c r="U10" s="218"/>
-      <c r="V10" s="218"/>
-      <c r="W10" s="218"/>
-      <c r="X10" s="218"/>
-      <c r="Y10" s="218"/>
-      <c r="Z10" s="218"/>
-      <c r="AA10" s="218"/>
-      <c r="AB10" s="218"/>
-      <c r="AC10" s="218"/>
-      <c r="AD10" s="218"/>
-      <c r="AE10" s="219"/>
-      <c r="AF10" s="220"/>
-      <c r="AG10" s="221"/>
-      <c r="AH10" s="221"/>
-      <c r="AI10" s="222"/>
-    </row>
-    <row r="11" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B10" s="216"/>
+      <c r="C10" s="217"/>
+      <c r="D10" s="218"/>
+      <c r="E10" s="219"/>
+      <c r="F10" s="220"/>
+      <c r="G10" s="216"/>
+      <c r="H10" s="221"/>
+      <c r="I10" s="217"/>
+      <c r="J10" s="213"/>
+      <c r="K10" s="214"/>
+      <c r="L10" s="214"/>
+      <c r="M10" s="214"/>
+      <c r="N10" s="214"/>
+      <c r="O10" s="214"/>
+      <c r="P10" s="215"/>
+      <c r="Q10" s="210"/>
+      <c r="R10" s="211"/>
+      <c r="S10" s="211"/>
+      <c r="T10" s="211"/>
+      <c r="U10" s="211"/>
+      <c r="V10" s="211"/>
+      <c r="W10" s="211"/>
+      <c r="X10" s="211"/>
+      <c r="Y10" s="211"/>
+      <c r="Z10" s="211"/>
+      <c r="AA10" s="211"/>
+      <c r="AB10" s="211"/>
+      <c r="AC10" s="211"/>
+      <c r="AD10" s="211"/>
+      <c r="AE10" s="212"/>
+      <c r="AF10" s="213"/>
+      <c r="AG10" s="214"/>
+      <c r="AH10" s="214"/>
+      <c r="AI10" s="215"/>
+    </row>
+    <row r="11" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="57"/>
-      <c r="B11" s="208"/>
-      <c r="C11" s="210"/>
-      <c r="D11" s="235"/>
-      <c r="E11" s="236"/>
-      <c r="F11" s="237"/>
-      <c r="G11" s="208"/>
-      <c r="H11" s="209"/>
-      <c r="I11" s="210"/>
-      <c r="J11" s="220"/>
-      <c r="K11" s="221"/>
-      <c r="L11" s="221"/>
-      <c r="M11" s="221"/>
-      <c r="N11" s="221"/>
-      <c r="O11" s="221"/>
-      <c r="P11" s="222"/>
-      <c r="Q11" s="217"/>
-      <c r="R11" s="218"/>
-      <c r="S11" s="218"/>
-      <c r="T11" s="218"/>
-      <c r="U11" s="218"/>
-      <c r="V11" s="218"/>
-      <c r="W11" s="218"/>
-      <c r="X11" s="218"/>
-      <c r="Y11" s="218"/>
-      <c r="Z11" s="218"/>
-      <c r="AA11" s="218"/>
-      <c r="AB11" s="218"/>
-      <c r="AC11" s="218"/>
-      <c r="AD11" s="218"/>
-      <c r="AE11" s="219"/>
-      <c r="AF11" s="220"/>
-      <c r="AG11" s="221"/>
-      <c r="AH11" s="221"/>
-      <c r="AI11" s="222"/>
-    </row>
-    <row r="12" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B11" s="216"/>
+      <c r="C11" s="217"/>
+      <c r="D11" s="218"/>
+      <c r="E11" s="219"/>
+      <c r="F11" s="220"/>
+      <c r="G11" s="216"/>
+      <c r="H11" s="221"/>
+      <c r="I11" s="217"/>
+      <c r="J11" s="213"/>
+      <c r="K11" s="214"/>
+      <c r="L11" s="214"/>
+      <c r="M11" s="214"/>
+      <c r="N11" s="214"/>
+      <c r="O11" s="214"/>
+      <c r="P11" s="215"/>
+      <c r="Q11" s="210"/>
+      <c r="R11" s="211"/>
+      <c r="S11" s="211"/>
+      <c r="T11" s="211"/>
+      <c r="U11" s="211"/>
+      <c r="V11" s="211"/>
+      <c r="W11" s="211"/>
+      <c r="X11" s="211"/>
+      <c r="Y11" s="211"/>
+      <c r="Z11" s="211"/>
+      <c r="AA11" s="211"/>
+      <c r="AB11" s="211"/>
+      <c r="AC11" s="211"/>
+      <c r="AD11" s="211"/>
+      <c r="AE11" s="212"/>
+      <c r="AF11" s="213"/>
+      <c r="AG11" s="214"/>
+      <c r="AH11" s="214"/>
+      <c r="AI11" s="215"/>
+    </row>
+    <row r="12" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="57"/>
-      <c r="B12" s="208"/>
-      <c r="C12" s="210"/>
-      <c r="D12" s="235"/>
-      <c r="E12" s="236"/>
-      <c r="F12" s="237"/>
-      <c r="G12" s="208"/>
-      <c r="H12" s="209"/>
-      <c r="I12" s="210"/>
-      <c r="J12" s="220"/>
-      <c r="K12" s="221"/>
-      <c r="L12" s="221"/>
-      <c r="M12" s="221"/>
-      <c r="N12" s="221"/>
-      <c r="O12" s="221"/>
-      <c r="P12" s="222"/>
-      <c r="Q12" s="217"/>
-      <c r="R12" s="218"/>
-      <c r="S12" s="218"/>
-      <c r="T12" s="218"/>
-      <c r="U12" s="218"/>
-      <c r="V12" s="218"/>
-      <c r="W12" s="218"/>
-      <c r="X12" s="218"/>
-      <c r="Y12" s="218"/>
-      <c r="Z12" s="218"/>
-      <c r="AA12" s="218"/>
-      <c r="AB12" s="218"/>
-      <c r="AC12" s="218"/>
-      <c r="AD12" s="218"/>
-      <c r="AE12" s="219"/>
-      <c r="AF12" s="220"/>
-      <c r="AG12" s="221"/>
-      <c r="AH12" s="221"/>
-      <c r="AI12" s="222"/>
-    </row>
-    <row r="13" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B12" s="216"/>
+      <c r="C12" s="217"/>
+      <c r="D12" s="218"/>
+      <c r="E12" s="219"/>
+      <c r="F12" s="220"/>
+      <c r="G12" s="216"/>
+      <c r="H12" s="221"/>
+      <c r="I12" s="217"/>
+      <c r="J12" s="213"/>
+      <c r="K12" s="214"/>
+      <c r="L12" s="214"/>
+      <c r="M12" s="214"/>
+      <c r="N12" s="214"/>
+      <c r="O12" s="214"/>
+      <c r="P12" s="215"/>
+      <c r="Q12" s="210"/>
+      <c r="R12" s="211"/>
+      <c r="S12" s="211"/>
+      <c r="T12" s="211"/>
+      <c r="U12" s="211"/>
+      <c r="V12" s="211"/>
+      <c r="W12" s="211"/>
+      <c r="X12" s="211"/>
+      <c r="Y12" s="211"/>
+      <c r="Z12" s="211"/>
+      <c r="AA12" s="211"/>
+      <c r="AB12" s="211"/>
+      <c r="AC12" s="211"/>
+      <c r="AD12" s="211"/>
+      <c r="AE12" s="212"/>
+      <c r="AF12" s="213"/>
+      <c r="AG12" s="214"/>
+      <c r="AH12" s="214"/>
+      <c r="AI12" s="215"/>
+    </row>
+    <row r="13" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="57"/>
-      <c r="B13" s="208"/>
-      <c r="C13" s="210"/>
-      <c r="D13" s="235"/>
-      <c r="E13" s="236"/>
-      <c r="F13" s="237"/>
-      <c r="G13" s="208"/>
-      <c r="H13" s="209"/>
-      <c r="I13" s="210"/>
-      <c r="J13" s="220"/>
-      <c r="K13" s="221"/>
-      <c r="L13" s="221"/>
-      <c r="M13" s="221"/>
-      <c r="N13" s="221"/>
-      <c r="O13" s="221"/>
-      <c r="P13" s="222"/>
-      <c r="Q13" s="217"/>
-      <c r="R13" s="218"/>
-      <c r="S13" s="218"/>
-      <c r="T13" s="218"/>
-      <c r="U13" s="218"/>
-      <c r="V13" s="218"/>
-      <c r="W13" s="218"/>
-      <c r="X13" s="218"/>
-      <c r="Y13" s="218"/>
-      <c r="Z13" s="218"/>
-      <c r="AA13" s="218"/>
-      <c r="AB13" s="218"/>
-      <c r="AC13" s="218"/>
-      <c r="AD13" s="218"/>
-      <c r="AE13" s="219"/>
-      <c r="AF13" s="220"/>
-      <c r="AG13" s="221"/>
-      <c r="AH13" s="221"/>
-      <c r="AI13" s="222"/>
-    </row>
-    <row r="14" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B13" s="216"/>
+      <c r="C13" s="217"/>
+      <c r="D13" s="218"/>
+      <c r="E13" s="219"/>
+      <c r="F13" s="220"/>
+      <c r="G13" s="216"/>
+      <c r="H13" s="221"/>
+      <c r="I13" s="217"/>
+      <c r="J13" s="213"/>
+      <c r="K13" s="214"/>
+      <c r="L13" s="214"/>
+      <c r="M13" s="214"/>
+      <c r="N13" s="214"/>
+      <c r="O13" s="214"/>
+      <c r="P13" s="215"/>
+      <c r="Q13" s="210"/>
+      <c r="R13" s="211"/>
+      <c r="S13" s="211"/>
+      <c r="T13" s="211"/>
+      <c r="U13" s="211"/>
+      <c r="V13" s="211"/>
+      <c r="W13" s="211"/>
+      <c r="X13" s="211"/>
+      <c r="Y13" s="211"/>
+      <c r="Z13" s="211"/>
+      <c r="AA13" s="211"/>
+      <c r="AB13" s="211"/>
+      <c r="AC13" s="211"/>
+      <c r="AD13" s="211"/>
+      <c r="AE13" s="212"/>
+      <c r="AF13" s="213"/>
+      <c r="AG13" s="214"/>
+      <c r="AH13" s="214"/>
+      <c r="AI13" s="215"/>
+    </row>
+    <row r="14" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="57"/>
-      <c r="B14" s="208"/>
-      <c r="C14" s="210"/>
-      <c r="D14" s="235"/>
-      <c r="E14" s="236"/>
-      <c r="F14" s="237"/>
-      <c r="G14" s="208"/>
-      <c r="H14" s="209"/>
-      <c r="I14" s="210"/>
-      <c r="J14" s="220"/>
-      <c r="K14" s="221"/>
-      <c r="L14" s="221"/>
-      <c r="M14" s="221"/>
-      <c r="N14" s="221"/>
-      <c r="O14" s="221"/>
-      <c r="P14" s="222"/>
-      <c r="Q14" s="217"/>
-      <c r="R14" s="218"/>
-      <c r="S14" s="218"/>
-      <c r="T14" s="218"/>
-      <c r="U14" s="218"/>
-      <c r="V14" s="218"/>
-      <c r="W14" s="218"/>
-      <c r="X14" s="218"/>
-      <c r="Y14" s="218"/>
-      <c r="Z14" s="218"/>
-      <c r="AA14" s="218"/>
-      <c r="AB14" s="218"/>
-      <c r="AC14" s="218"/>
-      <c r="AD14" s="218"/>
-      <c r="AE14" s="219"/>
-      <c r="AF14" s="220"/>
-      <c r="AG14" s="221"/>
-      <c r="AH14" s="221"/>
-      <c r="AI14" s="222"/>
-    </row>
-    <row r="15" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B14" s="216"/>
+      <c r="C14" s="217"/>
+      <c r="D14" s="218"/>
+      <c r="E14" s="219"/>
+      <c r="F14" s="220"/>
+      <c r="G14" s="216"/>
+      <c r="H14" s="221"/>
+      <c r="I14" s="217"/>
+      <c r="J14" s="213"/>
+      <c r="K14" s="214"/>
+      <c r="L14" s="214"/>
+      <c r="M14" s="214"/>
+      <c r="N14" s="214"/>
+      <c r="O14" s="214"/>
+      <c r="P14" s="215"/>
+      <c r="Q14" s="210"/>
+      <c r="R14" s="211"/>
+      <c r="S14" s="211"/>
+      <c r="T14" s="211"/>
+      <c r="U14" s="211"/>
+      <c r="V14" s="211"/>
+      <c r="W14" s="211"/>
+      <c r="X14" s="211"/>
+      <c r="Y14" s="211"/>
+      <c r="Z14" s="211"/>
+      <c r="AA14" s="211"/>
+      <c r="AB14" s="211"/>
+      <c r="AC14" s="211"/>
+      <c r="AD14" s="211"/>
+      <c r="AE14" s="212"/>
+      <c r="AF14" s="213"/>
+      <c r="AG14" s="214"/>
+      <c r="AH14" s="214"/>
+      <c r="AI14" s="215"/>
+    </row>
+    <row r="15" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="57"/>
-      <c r="B15" s="208"/>
-      <c r="C15" s="210"/>
-      <c r="D15" s="235"/>
-      <c r="E15" s="236"/>
-      <c r="F15" s="237"/>
-      <c r="G15" s="208"/>
-      <c r="H15" s="209"/>
-      <c r="I15" s="210"/>
-      <c r="J15" s="220"/>
-      <c r="K15" s="221"/>
-      <c r="L15" s="221"/>
-      <c r="M15" s="221"/>
-      <c r="N15" s="221"/>
-      <c r="O15" s="221"/>
-      <c r="P15" s="222"/>
-      <c r="Q15" s="217"/>
-      <c r="R15" s="218"/>
-      <c r="S15" s="218"/>
-      <c r="T15" s="218"/>
-      <c r="U15" s="218"/>
-      <c r="V15" s="218"/>
-      <c r="W15" s="218"/>
-      <c r="X15" s="218"/>
-      <c r="Y15" s="218"/>
-      <c r="Z15" s="218"/>
-      <c r="AA15" s="218"/>
-      <c r="AB15" s="218"/>
-      <c r="AC15" s="218"/>
-      <c r="AD15" s="218"/>
-      <c r="AE15" s="219"/>
-      <c r="AF15" s="220"/>
-      <c r="AG15" s="221"/>
-      <c r="AH15" s="221"/>
-      <c r="AI15" s="222"/>
-    </row>
-    <row r="16" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B15" s="216"/>
+      <c r="C15" s="217"/>
+      <c r="D15" s="218"/>
+      <c r="E15" s="219"/>
+      <c r="F15" s="220"/>
+      <c r="G15" s="216"/>
+      <c r="H15" s="221"/>
+      <c r="I15" s="217"/>
+      <c r="J15" s="213"/>
+      <c r="K15" s="214"/>
+      <c r="L15" s="214"/>
+      <c r="M15" s="214"/>
+      <c r="N15" s="214"/>
+      <c r="O15" s="214"/>
+      <c r="P15" s="215"/>
+      <c r="Q15" s="210"/>
+      <c r="R15" s="211"/>
+      <c r="S15" s="211"/>
+      <c r="T15" s="211"/>
+      <c r="U15" s="211"/>
+      <c r="V15" s="211"/>
+      <c r="W15" s="211"/>
+      <c r="X15" s="211"/>
+      <c r="Y15" s="211"/>
+      <c r="Z15" s="211"/>
+      <c r="AA15" s="211"/>
+      <c r="AB15" s="211"/>
+      <c r="AC15" s="211"/>
+      <c r="AD15" s="211"/>
+      <c r="AE15" s="212"/>
+      <c r="AF15" s="213"/>
+      <c r="AG15" s="214"/>
+      <c r="AH15" s="214"/>
+      <c r="AI15" s="215"/>
+    </row>
+    <row r="16" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="57"/>
-      <c r="B16" s="208"/>
-      <c r="C16" s="210"/>
-      <c r="D16" s="235"/>
-      <c r="E16" s="236"/>
-      <c r="F16" s="237"/>
-      <c r="G16" s="208"/>
-      <c r="H16" s="209"/>
-      <c r="I16" s="210"/>
-      <c r="J16" s="220"/>
-      <c r="K16" s="221"/>
-      <c r="L16" s="221"/>
-      <c r="M16" s="221"/>
-      <c r="N16" s="221"/>
-      <c r="O16" s="221"/>
-      <c r="P16" s="222"/>
-      <c r="Q16" s="217"/>
-      <c r="R16" s="218"/>
-      <c r="S16" s="218"/>
-      <c r="T16" s="218"/>
-      <c r="U16" s="218"/>
-      <c r="V16" s="218"/>
-      <c r="W16" s="218"/>
-      <c r="X16" s="218"/>
-      <c r="Y16" s="218"/>
-      <c r="Z16" s="218"/>
-      <c r="AA16" s="218"/>
-      <c r="AB16" s="218"/>
-      <c r="AC16" s="218"/>
-      <c r="AD16" s="218"/>
-      <c r="AE16" s="219"/>
-      <c r="AF16" s="220"/>
-      <c r="AG16" s="221"/>
-      <c r="AH16" s="221"/>
-      <c r="AI16" s="222"/>
-    </row>
-    <row r="17" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B16" s="216"/>
+      <c r="C16" s="217"/>
+      <c r="D16" s="218"/>
+      <c r="E16" s="219"/>
+      <c r="F16" s="220"/>
+      <c r="G16" s="216"/>
+      <c r="H16" s="221"/>
+      <c r="I16" s="217"/>
+      <c r="J16" s="213"/>
+      <c r="K16" s="214"/>
+      <c r="L16" s="214"/>
+      <c r="M16" s="214"/>
+      <c r="N16" s="214"/>
+      <c r="O16" s="214"/>
+      <c r="P16" s="215"/>
+      <c r="Q16" s="210"/>
+      <c r="R16" s="211"/>
+      <c r="S16" s="211"/>
+      <c r="T16" s="211"/>
+      <c r="U16" s="211"/>
+      <c r="V16" s="211"/>
+      <c r="W16" s="211"/>
+      <c r="X16" s="211"/>
+      <c r="Y16" s="211"/>
+      <c r="Z16" s="211"/>
+      <c r="AA16" s="211"/>
+      <c r="AB16" s="211"/>
+      <c r="AC16" s="211"/>
+      <c r="AD16" s="211"/>
+      <c r="AE16" s="212"/>
+      <c r="AF16" s="213"/>
+      <c r="AG16" s="214"/>
+      <c r="AH16" s="214"/>
+      <c r="AI16" s="215"/>
+    </row>
+    <row r="17" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="57"/>
-      <c r="B17" s="208"/>
-      <c r="C17" s="210"/>
-      <c r="D17" s="235"/>
-      <c r="E17" s="236"/>
-      <c r="F17" s="237"/>
-      <c r="G17" s="208"/>
-      <c r="H17" s="209"/>
-      <c r="I17" s="210"/>
-      <c r="J17" s="220"/>
-      <c r="K17" s="221"/>
-      <c r="L17" s="221"/>
-      <c r="M17" s="221"/>
-      <c r="N17" s="221"/>
-      <c r="O17" s="221"/>
-      <c r="P17" s="222"/>
-      <c r="Q17" s="217"/>
-      <c r="R17" s="218"/>
-      <c r="S17" s="218"/>
-      <c r="T17" s="218"/>
-      <c r="U17" s="218"/>
-      <c r="V17" s="218"/>
-      <c r="W17" s="218"/>
-      <c r="X17" s="218"/>
-      <c r="Y17" s="218"/>
-      <c r="Z17" s="218"/>
-      <c r="AA17" s="218"/>
-      <c r="AB17" s="218"/>
-      <c r="AC17" s="218"/>
-      <c r="AD17" s="218"/>
-      <c r="AE17" s="219"/>
-      <c r="AF17" s="220"/>
-      <c r="AG17" s="221"/>
-      <c r="AH17" s="221"/>
-      <c r="AI17" s="222"/>
-    </row>
-    <row r="18" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B17" s="216"/>
+      <c r="C17" s="217"/>
+      <c r="D17" s="218"/>
+      <c r="E17" s="219"/>
+      <c r="F17" s="220"/>
+      <c r="G17" s="216"/>
+      <c r="H17" s="221"/>
+      <c r="I17" s="217"/>
+      <c r="J17" s="213"/>
+      <c r="K17" s="214"/>
+      <c r="L17" s="214"/>
+      <c r="M17" s="214"/>
+      <c r="N17" s="214"/>
+      <c r="O17" s="214"/>
+      <c r="P17" s="215"/>
+      <c r="Q17" s="210"/>
+      <c r="R17" s="211"/>
+      <c r="S17" s="211"/>
+      <c r="T17" s="211"/>
+      <c r="U17" s="211"/>
+      <c r="V17" s="211"/>
+      <c r="W17" s="211"/>
+      <c r="X17" s="211"/>
+      <c r="Y17" s="211"/>
+      <c r="Z17" s="211"/>
+      <c r="AA17" s="211"/>
+      <c r="AB17" s="211"/>
+      <c r="AC17" s="211"/>
+      <c r="AD17" s="211"/>
+      <c r="AE17" s="212"/>
+      <c r="AF17" s="213"/>
+      <c r="AG17" s="214"/>
+      <c r="AH17" s="214"/>
+      <c r="AI17" s="215"/>
+    </row>
+    <row r="18" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="57"/>
-      <c r="B18" s="208"/>
-      <c r="C18" s="210"/>
-      <c r="D18" s="235"/>
-      <c r="E18" s="236"/>
-      <c r="F18" s="237"/>
-      <c r="G18" s="208"/>
-      <c r="H18" s="209"/>
-      <c r="I18" s="210"/>
-      <c r="J18" s="220"/>
-      <c r="K18" s="221"/>
-      <c r="L18" s="221"/>
-      <c r="M18" s="221"/>
-      <c r="N18" s="221"/>
-      <c r="O18" s="221"/>
-      <c r="P18" s="222"/>
-      <c r="Q18" s="217"/>
-      <c r="R18" s="218"/>
-      <c r="S18" s="218"/>
-      <c r="T18" s="218"/>
-      <c r="U18" s="218"/>
-      <c r="V18" s="218"/>
-      <c r="W18" s="218"/>
-      <c r="X18" s="218"/>
-      <c r="Y18" s="218"/>
-      <c r="Z18" s="218"/>
-      <c r="AA18" s="218"/>
-      <c r="AB18" s="218"/>
-      <c r="AC18" s="218"/>
-      <c r="AD18" s="218"/>
-      <c r="AE18" s="219"/>
-      <c r="AF18" s="220"/>
-      <c r="AG18" s="221"/>
-      <c r="AH18" s="221"/>
-      <c r="AI18" s="222"/>
-    </row>
-    <row r="19" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B18" s="216"/>
+      <c r="C18" s="217"/>
+      <c r="D18" s="218"/>
+      <c r="E18" s="219"/>
+      <c r="F18" s="220"/>
+      <c r="G18" s="216"/>
+      <c r="H18" s="221"/>
+      <c r="I18" s="217"/>
+      <c r="J18" s="213"/>
+      <c r="K18" s="214"/>
+      <c r="L18" s="214"/>
+      <c r="M18" s="214"/>
+      <c r="N18" s="214"/>
+      <c r="O18" s="214"/>
+      <c r="P18" s="215"/>
+      <c r="Q18" s="210"/>
+      <c r="R18" s="211"/>
+      <c r="S18" s="211"/>
+      <c r="T18" s="211"/>
+      <c r="U18" s="211"/>
+      <c r="V18" s="211"/>
+      <c r="W18" s="211"/>
+      <c r="X18" s="211"/>
+      <c r="Y18" s="211"/>
+      <c r="Z18" s="211"/>
+      <c r="AA18" s="211"/>
+      <c r="AB18" s="211"/>
+      <c r="AC18" s="211"/>
+      <c r="AD18" s="211"/>
+      <c r="AE18" s="212"/>
+      <c r="AF18" s="213"/>
+      <c r="AG18" s="214"/>
+      <c r="AH18" s="214"/>
+      <c r="AI18" s="215"/>
+    </row>
+    <row r="19" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="57"/>
-      <c r="B19" s="208"/>
-      <c r="C19" s="210"/>
-      <c r="D19" s="235"/>
-      <c r="E19" s="236"/>
-      <c r="F19" s="237"/>
-      <c r="G19" s="208"/>
-      <c r="H19" s="209"/>
-      <c r="I19" s="210"/>
-      <c r="J19" s="220"/>
-      <c r="K19" s="221"/>
-      <c r="L19" s="221"/>
-      <c r="M19" s="221"/>
-      <c r="N19" s="221"/>
-      <c r="O19" s="221"/>
-      <c r="P19" s="222"/>
-      <c r="Q19" s="217"/>
-      <c r="R19" s="218"/>
-      <c r="S19" s="218"/>
-      <c r="T19" s="218"/>
-      <c r="U19" s="218"/>
-      <c r="V19" s="218"/>
-      <c r="W19" s="218"/>
-      <c r="X19" s="218"/>
-      <c r="Y19" s="218"/>
-      <c r="Z19" s="218"/>
-      <c r="AA19" s="218"/>
-      <c r="AB19" s="218"/>
-      <c r="AC19" s="218"/>
-      <c r="AD19" s="218"/>
-      <c r="AE19" s="219"/>
-      <c r="AF19" s="220"/>
-      <c r="AG19" s="221"/>
-      <c r="AH19" s="221"/>
-      <c r="AI19" s="222"/>
-    </row>
-    <row r="20" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B19" s="216"/>
+      <c r="C19" s="217"/>
+      <c r="D19" s="218"/>
+      <c r="E19" s="219"/>
+      <c r="F19" s="220"/>
+      <c r="G19" s="216"/>
+      <c r="H19" s="221"/>
+      <c r="I19" s="217"/>
+      <c r="J19" s="213"/>
+      <c r="K19" s="214"/>
+      <c r="L19" s="214"/>
+      <c r="M19" s="214"/>
+      <c r="N19" s="214"/>
+      <c r="O19" s="214"/>
+      <c r="P19" s="215"/>
+      <c r="Q19" s="210"/>
+      <c r="R19" s="211"/>
+      <c r="S19" s="211"/>
+      <c r="T19" s="211"/>
+      <c r="U19" s="211"/>
+      <c r="V19" s="211"/>
+      <c r="W19" s="211"/>
+      <c r="X19" s="211"/>
+      <c r="Y19" s="211"/>
+      <c r="Z19" s="211"/>
+      <c r="AA19" s="211"/>
+      <c r="AB19" s="211"/>
+      <c r="AC19" s="211"/>
+      <c r="AD19" s="211"/>
+      <c r="AE19" s="212"/>
+      <c r="AF19" s="213"/>
+      <c r="AG19" s="214"/>
+      <c r="AH19" s="214"/>
+      <c r="AI19" s="215"/>
+    </row>
+    <row r="20" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="57"/>
-      <c r="B20" s="208"/>
-      <c r="C20" s="210"/>
-      <c r="D20" s="235"/>
-      <c r="E20" s="236"/>
-      <c r="F20" s="237"/>
-      <c r="G20" s="208"/>
-      <c r="H20" s="209"/>
-      <c r="I20" s="210"/>
-      <c r="J20" s="220"/>
-      <c r="K20" s="221"/>
-      <c r="L20" s="221"/>
-      <c r="M20" s="221"/>
-      <c r="N20" s="221"/>
-      <c r="O20" s="221"/>
-      <c r="P20" s="222"/>
-      <c r="Q20" s="217"/>
-      <c r="R20" s="218"/>
-      <c r="S20" s="218"/>
-      <c r="T20" s="218"/>
-      <c r="U20" s="218"/>
-      <c r="V20" s="218"/>
-      <c r="W20" s="218"/>
-      <c r="X20" s="218"/>
-      <c r="Y20" s="218"/>
-      <c r="Z20" s="218"/>
-      <c r="AA20" s="218"/>
-      <c r="AB20" s="218"/>
-      <c r="AC20" s="218"/>
-      <c r="AD20" s="218"/>
-      <c r="AE20" s="219"/>
-      <c r="AF20" s="220"/>
-      <c r="AG20" s="221"/>
-      <c r="AH20" s="221"/>
-      <c r="AI20" s="222"/>
-    </row>
-    <row r="21" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B20" s="216"/>
+      <c r="C20" s="217"/>
+      <c r="D20" s="218"/>
+      <c r="E20" s="219"/>
+      <c r="F20" s="220"/>
+      <c r="G20" s="216"/>
+      <c r="H20" s="221"/>
+      <c r="I20" s="217"/>
+      <c r="J20" s="213"/>
+      <c r="K20" s="214"/>
+      <c r="L20" s="214"/>
+      <c r="M20" s="214"/>
+      <c r="N20" s="214"/>
+      <c r="O20" s="214"/>
+      <c r="P20" s="215"/>
+      <c r="Q20" s="210"/>
+      <c r="R20" s="211"/>
+      <c r="S20" s="211"/>
+      <c r="T20" s="211"/>
+      <c r="U20" s="211"/>
+      <c r="V20" s="211"/>
+      <c r="W20" s="211"/>
+      <c r="X20" s="211"/>
+      <c r="Y20" s="211"/>
+      <c r="Z20" s="211"/>
+      <c r="AA20" s="211"/>
+      <c r="AB20" s="211"/>
+      <c r="AC20" s="211"/>
+      <c r="AD20" s="211"/>
+      <c r="AE20" s="212"/>
+      <c r="AF20" s="213"/>
+      <c r="AG20" s="214"/>
+      <c r="AH20" s="214"/>
+      <c r="AI20" s="215"/>
+    </row>
+    <row r="21" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="57"/>
-      <c r="B21" s="208"/>
-      <c r="C21" s="210"/>
-      <c r="D21" s="235"/>
-      <c r="E21" s="236"/>
-      <c r="F21" s="237"/>
-      <c r="G21" s="208"/>
-      <c r="H21" s="209"/>
-      <c r="I21" s="210"/>
-      <c r="J21" s="220"/>
-      <c r="K21" s="221"/>
-      <c r="L21" s="221"/>
-      <c r="M21" s="221"/>
-      <c r="N21" s="221"/>
-      <c r="O21" s="221"/>
-      <c r="P21" s="222"/>
-      <c r="Q21" s="217"/>
-      <c r="R21" s="218"/>
-      <c r="S21" s="218"/>
-      <c r="T21" s="218"/>
-      <c r="U21" s="218"/>
-      <c r="V21" s="218"/>
-      <c r="W21" s="218"/>
-      <c r="X21" s="218"/>
-      <c r="Y21" s="218"/>
-      <c r="Z21" s="218"/>
-      <c r="AA21" s="218"/>
-      <c r="AB21" s="218"/>
-      <c r="AC21" s="218"/>
-      <c r="AD21" s="218"/>
-      <c r="AE21" s="219"/>
-      <c r="AF21" s="220"/>
-      <c r="AG21" s="221"/>
-      <c r="AH21" s="221"/>
-      <c r="AI21" s="222"/>
-    </row>
-    <row r="22" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B21" s="216"/>
+      <c r="C21" s="217"/>
+      <c r="D21" s="218"/>
+      <c r="E21" s="219"/>
+      <c r="F21" s="220"/>
+      <c r="G21" s="216"/>
+      <c r="H21" s="221"/>
+      <c r="I21" s="217"/>
+      <c r="J21" s="213"/>
+      <c r="K21" s="214"/>
+      <c r="L21" s="214"/>
+      <c r="M21" s="214"/>
+      <c r="N21" s="214"/>
+      <c r="O21" s="214"/>
+      <c r="P21" s="215"/>
+      <c r="Q21" s="210"/>
+      <c r="R21" s="211"/>
+      <c r="S21" s="211"/>
+      <c r="T21" s="211"/>
+      <c r="U21" s="211"/>
+      <c r="V21" s="211"/>
+      <c r="W21" s="211"/>
+      <c r="X21" s="211"/>
+      <c r="Y21" s="211"/>
+      <c r="Z21" s="211"/>
+      <c r="AA21" s="211"/>
+      <c r="AB21" s="211"/>
+      <c r="AC21" s="211"/>
+      <c r="AD21" s="211"/>
+      <c r="AE21" s="212"/>
+      <c r="AF21" s="213"/>
+      <c r="AG21" s="214"/>
+      <c r="AH21" s="214"/>
+      <c r="AI21" s="215"/>
+    </row>
+    <row r="22" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="57"/>
-      <c r="B22" s="208"/>
-      <c r="C22" s="210"/>
-      <c r="D22" s="235"/>
-      <c r="E22" s="236"/>
-      <c r="F22" s="237"/>
-      <c r="G22" s="208"/>
-      <c r="H22" s="209"/>
-      <c r="I22" s="210"/>
-      <c r="J22" s="220"/>
-      <c r="K22" s="221"/>
-      <c r="L22" s="221"/>
-      <c r="M22" s="221"/>
-      <c r="N22" s="221"/>
-      <c r="O22" s="221"/>
-      <c r="P22" s="222"/>
-      <c r="Q22" s="217"/>
-      <c r="R22" s="218"/>
-      <c r="S22" s="218"/>
-      <c r="T22" s="218"/>
-      <c r="U22" s="218"/>
-      <c r="V22" s="218"/>
-      <c r="W22" s="218"/>
-      <c r="X22" s="218"/>
-      <c r="Y22" s="218"/>
-      <c r="Z22" s="218"/>
-      <c r="AA22" s="218"/>
-      <c r="AB22" s="218"/>
-      <c r="AC22" s="218"/>
-      <c r="AD22" s="218"/>
-      <c r="AE22" s="219"/>
-      <c r="AF22" s="220"/>
-      <c r="AG22" s="221"/>
-      <c r="AH22" s="221"/>
-      <c r="AI22" s="222"/>
-    </row>
-    <row r="23" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B22" s="216"/>
+      <c r="C22" s="217"/>
+      <c r="D22" s="218"/>
+      <c r="E22" s="219"/>
+      <c r="F22" s="220"/>
+      <c r="G22" s="216"/>
+      <c r="H22" s="221"/>
+      <c r="I22" s="217"/>
+      <c r="J22" s="213"/>
+      <c r="K22" s="214"/>
+      <c r="L22" s="214"/>
+      <c r="M22" s="214"/>
+      <c r="N22" s="214"/>
+      <c r="O22" s="214"/>
+      <c r="P22" s="215"/>
+      <c r="Q22" s="210"/>
+      <c r="R22" s="211"/>
+      <c r="S22" s="211"/>
+      <c r="T22" s="211"/>
+      <c r="U22" s="211"/>
+      <c r="V22" s="211"/>
+      <c r="W22" s="211"/>
+      <c r="X22" s="211"/>
+      <c r="Y22" s="211"/>
+      <c r="Z22" s="211"/>
+      <c r="AA22" s="211"/>
+      <c r="AB22" s="211"/>
+      <c r="AC22" s="211"/>
+      <c r="AD22" s="211"/>
+      <c r="AE22" s="212"/>
+      <c r="AF22" s="213"/>
+      <c r="AG22" s="214"/>
+      <c r="AH22" s="214"/>
+      <c r="AI22" s="215"/>
+    </row>
+    <row r="23" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="57"/>
-      <c r="B23" s="208"/>
-      <c r="C23" s="210"/>
-      <c r="D23" s="235"/>
-      <c r="E23" s="236"/>
-      <c r="F23" s="237"/>
-      <c r="G23" s="208"/>
-      <c r="H23" s="209"/>
-      <c r="I23" s="210"/>
-      <c r="J23" s="220"/>
-      <c r="K23" s="221"/>
-      <c r="L23" s="221"/>
-      <c r="M23" s="221"/>
-      <c r="N23" s="221"/>
-      <c r="O23" s="221"/>
-      <c r="P23" s="222"/>
-      <c r="Q23" s="217"/>
-      <c r="R23" s="218"/>
-      <c r="S23" s="218"/>
-      <c r="T23" s="218"/>
-      <c r="U23" s="218"/>
-      <c r="V23" s="218"/>
-      <c r="W23" s="218"/>
-      <c r="X23" s="218"/>
-      <c r="Y23" s="218"/>
-      <c r="Z23" s="218"/>
-      <c r="AA23" s="218"/>
-      <c r="AB23" s="218"/>
-      <c r="AC23" s="218"/>
-      <c r="AD23" s="218"/>
-      <c r="AE23" s="219"/>
-      <c r="AF23" s="220"/>
-      <c r="AG23" s="221"/>
-      <c r="AH23" s="221"/>
-      <c r="AI23" s="222"/>
-    </row>
-    <row r="24" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B23" s="216"/>
+      <c r="C23" s="217"/>
+      <c r="D23" s="218"/>
+      <c r="E23" s="219"/>
+      <c r="F23" s="220"/>
+      <c r="G23" s="216"/>
+      <c r="H23" s="221"/>
+      <c r="I23" s="217"/>
+      <c r="J23" s="213"/>
+      <c r="K23" s="214"/>
+      <c r="L23" s="214"/>
+      <c r="M23" s="214"/>
+      <c r="N23" s="214"/>
+      <c r="O23" s="214"/>
+      <c r="P23" s="215"/>
+      <c r="Q23" s="210"/>
+      <c r="R23" s="211"/>
+      <c r="S23" s="211"/>
+      <c r="T23" s="211"/>
+      <c r="U23" s="211"/>
+      <c r="V23" s="211"/>
+      <c r="W23" s="211"/>
+      <c r="X23" s="211"/>
+      <c r="Y23" s="211"/>
+      <c r="Z23" s="211"/>
+      <c r="AA23" s="211"/>
+      <c r="AB23" s="211"/>
+      <c r="AC23" s="211"/>
+      <c r="AD23" s="211"/>
+      <c r="AE23" s="212"/>
+      <c r="AF23" s="213"/>
+      <c r="AG23" s="214"/>
+      <c r="AH23" s="214"/>
+      <c r="AI23" s="215"/>
+    </row>
+    <row r="24" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="57"/>
-      <c r="B24" s="208"/>
-      <c r="C24" s="210"/>
-      <c r="D24" s="235"/>
-      <c r="E24" s="236"/>
-      <c r="F24" s="237"/>
-      <c r="G24" s="208"/>
-      <c r="H24" s="209"/>
-      <c r="I24" s="210"/>
-      <c r="J24" s="220"/>
-      <c r="K24" s="221"/>
-      <c r="L24" s="221"/>
-      <c r="M24" s="221"/>
-      <c r="N24" s="221"/>
-      <c r="O24" s="221"/>
-      <c r="P24" s="222"/>
-      <c r="Q24" s="217"/>
-      <c r="R24" s="218"/>
-      <c r="S24" s="218"/>
-      <c r="T24" s="218"/>
-      <c r="U24" s="218"/>
-      <c r="V24" s="218"/>
-      <c r="W24" s="218"/>
-      <c r="X24" s="218"/>
-      <c r="Y24" s="218"/>
-      <c r="Z24" s="218"/>
-      <c r="AA24" s="218"/>
-      <c r="AB24" s="218"/>
-      <c r="AC24" s="218"/>
-      <c r="AD24" s="218"/>
-      <c r="AE24" s="219"/>
-      <c r="AF24" s="220"/>
-      <c r="AG24" s="221"/>
-      <c r="AH24" s="221"/>
-      <c r="AI24" s="222"/>
-    </row>
-    <row r="25" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B24" s="216"/>
+      <c r="C24" s="217"/>
+      <c r="D24" s="218"/>
+      <c r="E24" s="219"/>
+      <c r="F24" s="220"/>
+      <c r="G24" s="216"/>
+      <c r="H24" s="221"/>
+      <c r="I24" s="217"/>
+      <c r="J24" s="213"/>
+      <c r="K24" s="214"/>
+      <c r="L24" s="214"/>
+      <c r="M24" s="214"/>
+      <c r="N24" s="214"/>
+      <c r="O24" s="214"/>
+      <c r="P24" s="215"/>
+      <c r="Q24" s="210"/>
+      <c r="R24" s="211"/>
+      <c r="S24" s="211"/>
+      <c r="T24" s="211"/>
+      <c r="U24" s="211"/>
+      <c r="V24" s="211"/>
+      <c r="W24" s="211"/>
+      <c r="X24" s="211"/>
+      <c r="Y24" s="211"/>
+      <c r="Z24" s="211"/>
+      <c r="AA24" s="211"/>
+      <c r="AB24" s="211"/>
+      <c r="AC24" s="211"/>
+      <c r="AD24" s="211"/>
+      <c r="AE24" s="212"/>
+      <c r="AF24" s="213"/>
+      <c r="AG24" s="214"/>
+      <c r="AH24" s="214"/>
+      <c r="AI24" s="215"/>
+    </row>
+    <row r="25" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="57"/>
-      <c r="B25" s="208"/>
-      <c r="C25" s="210"/>
-      <c r="D25" s="235"/>
-      <c r="E25" s="236"/>
-      <c r="F25" s="237"/>
-      <c r="G25" s="208"/>
-      <c r="H25" s="209"/>
-      <c r="I25" s="210"/>
-      <c r="J25" s="220"/>
-      <c r="K25" s="221"/>
-      <c r="L25" s="221"/>
-      <c r="M25" s="221"/>
-      <c r="N25" s="221"/>
-      <c r="O25" s="221"/>
-      <c r="P25" s="222"/>
-      <c r="Q25" s="217"/>
-      <c r="R25" s="218"/>
-      <c r="S25" s="218"/>
-      <c r="T25" s="218"/>
-      <c r="U25" s="218"/>
-      <c r="V25" s="218"/>
-      <c r="W25" s="218"/>
-      <c r="X25" s="218"/>
-      <c r="Y25" s="218"/>
-      <c r="Z25" s="218"/>
-      <c r="AA25" s="218"/>
-      <c r="AB25" s="218"/>
-      <c r="AC25" s="218"/>
-      <c r="AD25" s="218"/>
-      <c r="AE25" s="219"/>
-      <c r="AF25" s="220"/>
-      <c r="AG25" s="221"/>
-      <c r="AH25" s="221"/>
-      <c r="AI25" s="222"/>
-    </row>
-    <row r="26" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B25" s="216"/>
+      <c r="C25" s="217"/>
+      <c r="D25" s="218"/>
+      <c r="E25" s="219"/>
+      <c r="F25" s="220"/>
+      <c r="G25" s="216"/>
+      <c r="H25" s="221"/>
+      <c r="I25" s="217"/>
+      <c r="J25" s="213"/>
+      <c r="K25" s="214"/>
+      <c r="L25" s="214"/>
+      <c r="M25" s="214"/>
+      <c r="N25" s="214"/>
+      <c r="O25" s="214"/>
+      <c r="P25" s="215"/>
+      <c r="Q25" s="210"/>
+      <c r="R25" s="211"/>
+      <c r="S25" s="211"/>
+      <c r="T25" s="211"/>
+      <c r="U25" s="211"/>
+      <c r="V25" s="211"/>
+      <c r="W25" s="211"/>
+      <c r="X25" s="211"/>
+      <c r="Y25" s="211"/>
+      <c r="Z25" s="211"/>
+      <c r="AA25" s="211"/>
+      <c r="AB25" s="211"/>
+      <c r="AC25" s="211"/>
+      <c r="AD25" s="211"/>
+      <c r="AE25" s="212"/>
+      <c r="AF25" s="213"/>
+      <c r="AG25" s="214"/>
+      <c r="AH25" s="214"/>
+      <c r="AI25" s="215"/>
+    </row>
+    <row r="26" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="57"/>
-      <c r="B26" s="208"/>
-      <c r="C26" s="210"/>
-      <c r="D26" s="235"/>
-      <c r="E26" s="236"/>
-      <c r="F26" s="237"/>
-      <c r="G26" s="208"/>
-      <c r="H26" s="209"/>
-      <c r="I26" s="210"/>
-      <c r="J26" s="220"/>
-      <c r="K26" s="221"/>
-      <c r="L26" s="221"/>
-      <c r="M26" s="221"/>
-      <c r="N26" s="221"/>
-      <c r="O26" s="221"/>
-      <c r="P26" s="222"/>
-      <c r="Q26" s="217"/>
-      <c r="R26" s="218"/>
-      <c r="S26" s="218"/>
-      <c r="T26" s="218"/>
-      <c r="U26" s="218"/>
-      <c r="V26" s="218"/>
-      <c r="W26" s="218"/>
-      <c r="X26" s="218"/>
-      <c r="Y26" s="218"/>
-      <c r="Z26" s="218"/>
-      <c r="AA26" s="218"/>
-      <c r="AB26" s="218"/>
-      <c r="AC26" s="218"/>
-      <c r="AD26" s="218"/>
-      <c r="AE26" s="219"/>
-      <c r="AF26" s="220"/>
-      <c r="AG26" s="221"/>
-      <c r="AH26" s="221"/>
-      <c r="AI26" s="222"/>
-    </row>
-    <row r="27" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B26" s="216"/>
+      <c r="C26" s="217"/>
+      <c r="D26" s="218"/>
+      <c r="E26" s="219"/>
+      <c r="F26" s="220"/>
+      <c r="G26" s="216"/>
+      <c r="H26" s="221"/>
+      <c r="I26" s="217"/>
+      <c r="J26" s="213"/>
+      <c r="K26" s="214"/>
+      <c r="L26" s="214"/>
+      <c r="M26" s="214"/>
+      <c r="N26" s="214"/>
+      <c r="O26" s="214"/>
+      <c r="P26" s="215"/>
+      <c r="Q26" s="210"/>
+      <c r="R26" s="211"/>
+      <c r="S26" s="211"/>
+      <c r="T26" s="211"/>
+      <c r="U26" s="211"/>
+      <c r="V26" s="211"/>
+      <c r="W26" s="211"/>
+      <c r="X26" s="211"/>
+      <c r="Y26" s="211"/>
+      <c r="Z26" s="211"/>
+      <c r="AA26" s="211"/>
+      <c r="AB26" s="211"/>
+      <c r="AC26" s="211"/>
+      <c r="AD26" s="211"/>
+      <c r="AE26" s="212"/>
+      <c r="AF26" s="213"/>
+      <c r="AG26" s="214"/>
+      <c r="AH26" s="214"/>
+      <c r="AI26" s="215"/>
+    </row>
+    <row r="27" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="57"/>
-      <c r="B27" s="208"/>
-      <c r="C27" s="210"/>
-      <c r="D27" s="235"/>
-      <c r="E27" s="236"/>
-      <c r="F27" s="237"/>
-      <c r="G27" s="208"/>
-      <c r="H27" s="209"/>
-      <c r="I27" s="210"/>
-      <c r="J27" s="220"/>
-      <c r="K27" s="221"/>
-      <c r="L27" s="221"/>
-      <c r="M27" s="221"/>
-      <c r="N27" s="221"/>
-      <c r="O27" s="221"/>
-      <c r="P27" s="222"/>
-      <c r="Q27" s="217"/>
-      <c r="R27" s="218"/>
-      <c r="S27" s="218"/>
-      <c r="T27" s="218"/>
-      <c r="U27" s="218"/>
-      <c r="V27" s="218"/>
-      <c r="W27" s="218"/>
-      <c r="X27" s="218"/>
-      <c r="Y27" s="218"/>
-      <c r="Z27" s="218"/>
-      <c r="AA27" s="218"/>
-      <c r="AB27" s="218"/>
-      <c r="AC27" s="218"/>
-      <c r="AD27" s="218"/>
-      <c r="AE27" s="219"/>
-      <c r="AF27" s="220"/>
-      <c r="AG27" s="221"/>
-      <c r="AH27" s="221"/>
-      <c r="AI27" s="222"/>
-    </row>
-    <row r="28" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B27" s="216"/>
+      <c r="C27" s="217"/>
+      <c r="D27" s="218"/>
+      <c r="E27" s="219"/>
+      <c r="F27" s="220"/>
+      <c r="G27" s="216"/>
+      <c r="H27" s="221"/>
+      <c r="I27" s="217"/>
+      <c r="J27" s="213"/>
+      <c r="K27" s="214"/>
+      <c r="L27" s="214"/>
+      <c r="M27" s="214"/>
+      <c r="N27" s="214"/>
+      <c r="O27" s="214"/>
+      <c r="P27" s="215"/>
+      <c r="Q27" s="210"/>
+      <c r="R27" s="211"/>
+      <c r="S27" s="211"/>
+      <c r="T27" s="211"/>
+      <c r="U27" s="211"/>
+      <c r="V27" s="211"/>
+      <c r="W27" s="211"/>
+      <c r="X27" s="211"/>
+      <c r="Y27" s="211"/>
+      <c r="Z27" s="211"/>
+      <c r="AA27" s="211"/>
+      <c r="AB27" s="211"/>
+      <c r="AC27" s="211"/>
+      <c r="AD27" s="211"/>
+      <c r="AE27" s="212"/>
+      <c r="AF27" s="213"/>
+      <c r="AG27" s="214"/>
+      <c r="AH27" s="214"/>
+      <c r="AI27" s="215"/>
+    </row>
+    <row r="28" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="57"/>
-      <c r="B28" s="208"/>
-      <c r="C28" s="210"/>
-      <c r="D28" s="235"/>
-      <c r="E28" s="236"/>
-      <c r="F28" s="237"/>
-      <c r="G28" s="208"/>
-      <c r="H28" s="209"/>
-      <c r="I28" s="210"/>
-      <c r="J28" s="220"/>
-      <c r="K28" s="221"/>
-      <c r="L28" s="221"/>
-      <c r="M28" s="221"/>
-      <c r="N28" s="221"/>
-      <c r="O28" s="221"/>
-      <c r="P28" s="222"/>
-      <c r="Q28" s="217"/>
-      <c r="R28" s="218"/>
-      <c r="S28" s="218"/>
-      <c r="T28" s="218"/>
-      <c r="U28" s="218"/>
-      <c r="V28" s="218"/>
-      <c r="W28" s="218"/>
-      <c r="X28" s="218"/>
-      <c r="Y28" s="218"/>
-      <c r="Z28" s="218"/>
-      <c r="AA28" s="218"/>
-      <c r="AB28" s="218"/>
-      <c r="AC28" s="218"/>
-      <c r="AD28" s="218"/>
-      <c r="AE28" s="219"/>
-      <c r="AF28" s="220"/>
-      <c r="AG28" s="221"/>
-      <c r="AH28" s="221"/>
-      <c r="AI28" s="222"/>
-    </row>
-    <row r="29" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B28" s="216"/>
+      <c r="C28" s="217"/>
+      <c r="D28" s="218"/>
+      <c r="E28" s="219"/>
+      <c r="F28" s="220"/>
+      <c r="G28" s="216"/>
+      <c r="H28" s="221"/>
+      <c r="I28" s="217"/>
+      <c r="J28" s="213"/>
+      <c r="K28" s="214"/>
+      <c r="L28" s="214"/>
+      <c r="M28" s="214"/>
+      <c r="N28" s="214"/>
+      <c r="O28" s="214"/>
+      <c r="P28" s="215"/>
+      <c r="Q28" s="210"/>
+      <c r="R28" s="211"/>
+      <c r="S28" s="211"/>
+      <c r="T28" s="211"/>
+      <c r="U28" s="211"/>
+      <c r="V28" s="211"/>
+      <c r="W28" s="211"/>
+      <c r="X28" s="211"/>
+      <c r="Y28" s="211"/>
+      <c r="Z28" s="211"/>
+      <c r="AA28" s="211"/>
+      <c r="AB28" s="211"/>
+      <c r="AC28" s="211"/>
+      <c r="AD28" s="211"/>
+      <c r="AE28" s="212"/>
+      <c r="AF28" s="213"/>
+      <c r="AG28" s="214"/>
+      <c r="AH28" s="214"/>
+      <c r="AI28" s="215"/>
+    </row>
+    <row r="29" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="57"/>
-      <c r="B29" s="208"/>
-      <c r="C29" s="210"/>
-      <c r="D29" s="235"/>
-      <c r="E29" s="236"/>
-      <c r="F29" s="237"/>
-      <c r="G29" s="208"/>
-      <c r="H29" s="209"/>
-      <c r="I29" s="210"/>
-      <c r="J29" s="220"/>
-      <c r="K29" s="221"/>
-      <c r="L29" s="221"/>
-      <c r="M29" s="221"/>
-      <c r="N29" s="221"/>
-      <c r="O29" s="221"/>
-      <c r="P29" s="222"/>
-      <c r="Q29" s="217"/>
-      <c r="R29" s="218"/>
-      <c r="S29" s="218"/>
-      <c r="T29" s="218"/>
-      <c r="U29" s="218"/>
-      <c r="V29" s="218"/>
-      <c r="W29" s="218"/>
-      <c r="X29" s="218"/>
-      <c r="Y29" s="218"/>
-      <c r="Z29" s="218"/>
-      <c r="AA29" s="218"/>
-      <c r="AB29" s="218"/>
-      <c r="AC29" s="218"/>
-      <c r="AD29" s="218"/>
-      <c r="AE29" s="219"/>
-      <c r="AF29" s="220"/>
-      <c r="AG29" s="221"/>
-      <c r="AH29" s="221"/>
-      <c r="AI29" s="222"/>
-    </row>
-    <row r="30" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B29" s="216"/>
+      <c r="C29" s="217"/>
+      <c r="D29" s="218"/>
+      <c r="E29" s="219"/>
+      <c r="F29" s="220"/>
+      <c r="G29" s="216"/>
+      <c r="H29" s="221"/>
+      <c r="I29" s="217"/>
+      <c r="J29" s="213"/>
+      <c r="K29" s="214"/>
+      <c r="L29" s="214"/>
+      <c r="M29" s="214"/>
+      <c r="N29" s="214"/>
+      <c r="O29" s="214"/>
+      <c r="P29" s="215"/>
+      <c r="Q29" s="210"/>
+      <c r="R29" s="211"/>
+      <c r="S29" s="211"/>
+      <c r="T29" s="211"/>
+      <c r="U29" s="211"/>
+      <c r="V29" s="211"/>
+      <c r="W29" s="211"/>
+      <c r="X29" s="211"/>
+      <c r="Y29" s="211"/>
+      <c r="Z29" s="211"/>
+      <c r="AA29" s="211"/>
+      <c r="AB29" s="211"/>
+      <c r="AC29" s="211"/>
+      <c r="AD29" s="211"/>
+      <c r="AE29" s="212"/>
+      <c r="AF29" s="213"/>
+      <c r="AG29" s="214"/>
+      <c r="AH29" s="214"/>
+      <c r="AI29" s="215"/>
+    </row>
+    <row r="30" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="57"/>
-      <c r="B30" s="208"/>
-      <c r="C30" s="210"/>
-      <c r="D30" s="235"/>
-      <c r="E30" s="236"/>
-      <c r="F30" s="237"/>
-      <c r="G30" s="208"/>
-      <c r="H30" s="209"/>
-      <c r="I30" s="210"/>
-      <c r="J30" s="220"/>
-      <c r="K30" s="221"/>
-      <c r="L30" s="221"/>
-      <c r="M30" s="221"/>
-      <c r="N30" s="221"/>
-      <c r="O30" s="221"/>
-      <c r="P30" s="222"/>
-      <c r="Q30" s="217"/>
-      <c r="R30" s="218"/>
-      <c r="S30" s="218"/>
-      <c r="T30" s="218"/>
-      <c r="U30" s="218"/>
-      <c r="V30" s="218"/>
-      <c r="W30" s="218"/>
-      <c r="X30" s="218"/>
-      <c r="Y30" s="218"/>
-      <c r="Z30" s="218"/>
-      <c r="AA30" s="218"/>
-      <c r="AB30" s="218"/>
-      <c r="AC30" s="218"/>
-      <c r="AD30" s="218"/>
-      <c r="AE30" s="219"/>
-      <c r="AF30" s="220"/>
-      <c r="AG30" s="221"/>
-      <c r="AH30" s="221"/>
-      <c r="AI30" s="222"/>
-    </row>
-    <row r="31" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B30" s="216"/>
+      <c r="C30" s="217"/>
+      <c r="D30" s="218"/>
+      <c r="E30" s="219"/>
+      <c r="F30" s="220"/>
+      <c r="G30" s="216"/>
+      <c r="H30" s="221"/>
+      <c r="I30" s="217"/>
+      <c r="J30" s="213"/>
+      <c r="K30" s="214"/>
+      <c r="L30" s="214"/>
+      <c r="M30" s="214"/>
+      <c r="N30" s="214"/>
+      <c r="O30" s="214"/>
+      <c r="P30" s="215"/>
+      <c r="Q30" s="210"/>
+      <c r="R30" s="211"/>
+      <c r="S30" s="211"/>
+      <c r="T30" s="211"/>
+      <c r="U30" s="211"/>
+      <c r="V30" s="211"/>
+      <c r="W30" s="211"/>
+      <c r="X30" s="211"/>
+      <c r="Y30" s="211"/>
+      <c r="Z30" s="211"/>
+      <c r="AA30" s="211"/>
+      <c r="AB30" s="211"/>
+      <c r="AC30" s="211"/>
+      <c r="AD30" s="211"/>
+      <c r="AE30" s="212"/>
+      <c r="AF30" s="213"/>
+      <c r="AG30" s="214"/>
+      <c r="AH30" s="214"/>
+      <c r="AI30" s="215"/>
+    </row>
+    <row r="31" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="57"/>
-      <c r="B31" s="208"/>
-      <c r="C31" s="210"/>
-      <c r="D31" s="235"/>
-      <c r="E31" s="236"/>
-      <c r="F31" s="237"/>
-      <c r="G31" s="208"/>
-      <c r="H31" s="209"/>
-      <c r="I31" s="210"/>
-      <c r="J31" s="220"/>
-      <c r="K31" s="221"/>
-      <c r="L31" s="221"/>
-      <c r="M31" s="221"/>
-      <c r="N31" s="221"/>
-      <c r="O31" s="221"/>
-      <c r="P31" s="222"/>
-      <c r="Q31" s="217"/>
-      <c r="R31" s="218"/>
-      <c r="S31" s="218"/>
-      <c r="T31" s="218"/>
-      <c r="U31" s="218"/>
-      <c r="V31" s="218"/>
-      <c r="W31" s="218"/>
-      <c r="X31" s="218"/>
-      <c r="Y31" s="218"/>
-      <c r="Z31" s="218"/>
-      <c r="AA31" s="218"/>
-      <c r="AB31" s="218"/>
-      <c r="AC31" s="218"/>
-      <c r="AD31" s="218"/>
-      <c r="AE31" s="219"/>
-      <c r="AF31" s="220"/>
-      <c r="AG31" s="221"/>
-      <c r="AH31" s="221"/>
-      <c r="AI31" s="222"/>
-    </row>
-    <row r="32" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B31" s="216"/>
+      <c r="C31" s="217"/>
+      <c r="D31" s="218"/>
+      <c r="E31" s="219"/>
+      <c r="F31" s="220"/>
+      <c r="G31" s="216"/>
+      <c r="H31" s="221"/>
+      <c r="I31" s="217"/>
+      <c r="J31" s="213"/>
+      <c r="K31" s="214"/>
+      <c r="L31" s="214"/>
+      <c r="M31" s="214"/>
+      <c r="N31" s="214"/>
+      <c r="O31" s="214"/>
+      <c r="P31" s="215"/>
+      <c r="Q31" s="210"/>
+      <c r="R31" s="211"/>
+      <c r="S31" s="211"/>
+      <c r="T31" s="211"/>
+      <c r="U31" s="211"/>
+      <c r="V31" s="211"/>
+      <c r="W31" s="211"/>
+      <c r="X31" s="211"/>
+      <c r="Y31" s="211"/>
+      <c r="Z31" s="211"/>
+      <c r="AA31" s="211"/>
+      <c r="AB31" s="211"/>
+      <c r="AC31" s="211"/>
+      <c r="AD31" s="211"/>
+      <c r="AE31" s="212"/>
+      <c r="AF31" s="213"/>
+      <c r="AG31" s="214"/>
+      <c r="AH31" s="214"/>
+      <c r="AI31" s="215"/>
+    </row>
+    <row r="32" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="57"/>
-      <c r="B32" s="208"/>
-      <c r="C32" s="210"/>
-      <c r="D32" s="235"/>
-      <c r="E32" s="236"/>
-      <c r="F32" s="237"/>
-      <c r="G32" s="208"/>
-      <c r="H32" s="209"/>
-      <c r="I32" s="210"/>
-      <c r="J32" s="220"/>
-      <c r="K32" s="221"/>
-      <c r="L32" s="221"/>
-      <c r="M32" s="221"/>
-      <c r="N32" s="221"/>
-      <c r="O32" s="221"/>
-      <c r="P32" s="222"/>
-      <c r="Q32" s="217"/>
-      <c r="R32" s="218"/>
-      <c r="S32" s="218"/>
-      <c r="T32" s="218"/>
-      <c r="U32" s="218"/>
-      <c r="V32" s="218"/>
-      <c r="W32" s="218"/>
-      <c r="X32" s="218"/>
-      <c r="Y32" s="218"/>
-      <c r="Z32" s="218"/>
-      <c r="AA32" s="218"/>
-      <c r="AB32" s="218"/>
-      <c r="AC32" s="218"/>
-      <c r="AD32" s="218"/>
-      <c r="AE32" s="219"/>
-      <c r="AF32" s="220"/>
-      <c r="AG32" s="221"/>
-      <c r="AH32" s="221"/>
-      <c r="AI32" s="222"/>
-    </row>
-    <row r="33" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B32" s="216"/>
+      <c r="C32" s="217"/>
+      <c r="D32" s="218"/>
+      <c r="E32" s="219"/>
+      <c r="F32" s="220"/>
+      <c r="G32" s="216"/>
+      <c r="H32" s="221"/>
+      <c r="I32" s="217"/>
+      <c r="J32" s="213"/>
+      <c r="K32" s="214"/>
+      <c r="L32" s="214"/>
+      <c r="M32" s="214"/>
+      <c r="N32" s="214"/>
+      <c r="O32" s="214"/>
+      <c r="P32" s="215"/>
+      <c r="Q32" s="210"/>
+      <c r="R32" s="211"/>
+      <c r="S32" s="211"/>
+      <c r="T32" s="211"/>
+      <c r="U32" s="211"/>
+      <c r="V32" s="211"/>
+      <c r="W32" s="211"/>
+      <c r="X32" s="211"/>
+      <c r="Y32" s="211"/>
+      <c r="Z32" s="211"/>
+      <c r="AA32" s="211"/>
+      <c r="AB32" s="211"/>
+      <c r="AC32" s="211"/>
+      <c r="AD32" s="211"/>
+      <c r="AE32" s="212"/>
+      <c r="AF32" s="213"/>
+      <c r="AG32" s="214"/>
+      <c r="AH32" s="214"/>
+      <c r="AI32" s="215"/>
+    </row>
+    <row r="33" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="57"/>
-      <c r="B33" s="208"/>
-      <c r="C33" s="210"/>
-      <c r="D33" s="235"/>
-      <c r="E33" s="236"/>
-      <c r="F33" s="237"/>
-      <c r="G33" s="208"/>
-      <c r="H33" s="209"/>
-      <c r="I33" s="210"/>
-      <c r="J33" s="220"/>
-      <c r="K33" s="221"/>
-      <c r="L33" s="221"/>
-      <c r="M33" s="221"/>
-      <c r="N33" s="221"/>
-      <c r="O33" s="221"/>
-      <c r="P33" s="222"/>
-      <c r="Q33" s="217"/>
-      <c r="R33" s="218"/>
-      <c r="S33" s="218"/>
-      <c r="T33" s="218"/>
-      <c r="U33" s="218"/>
-      <c r="V33" s="218"/>
-      <c r="W33" s="218"/>
-      <c r="X33" s="218"/>
-      <c r="Y33" s="218"/>
-      <c r="Z33" s="218"/>
-      <c r="AA33" s="218"/>
-      <c r="AB33" s="218"/>
-      <c r="AC33" s="218"/>
-      <c r="AD33" s="218"/>
-      <c r="AE33" s="219"/>
-      <c r="AF33" s="220"/>
-      <c r="AG33" s="221"/>
-      <c r="AH33" s="221"/>
-      <c r="AI33" s="222"/>
-    </row>
-    <row r="34" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="B33" s="216"/>
+      <c r="C33" s="217"/>
+      <c r="D33" s="218"/>
+      <c r="E33" s="219"/>
+      <c r="F33" s="220"/>
+      <c r="G33" s="216"/>
+      <c r="H33" s="221"/>
+      <c r="I33" s="217"/>
+      <c r="J33" s="213"/>
+      <c r="K33" s="214"/>
+      <c r="L33" s="214"/>
+      <c r="M33" s="214"/>
+      <c r="N33" s="214"/>
+      <c r="O33" s="214"/>
+      <c r="P33" s="215"/>
+      <c r="Q33" s="210"/>
+      <c r="R33" s="211"/>
+      <c r="S33" s="211"/>
+      <c r="T33" s="211"/>
+      <c r="U33" s="211"/>
+      <c r="V33" s="211"/>
+      <c r="W33" s="211"/>
+      <c r="X33" s="211"/>
+      <c r="Y33" s="211"/>
+      <c r="Z33" s="211"/>
+      <c r="AA33" s="211"/>
+      <c r="AB33" s="211"/>
+      <c r="AC33" s="211"/>
+      <c r="AD33" s="211"/>
+      <c r="AE33" s="212"/>
+      <c r="AF33" s="213"/>
+      <c r="AG33" s="214"/>
+      <c r="AH33" s="214"/>
+      <c r="AI33" s="215"/>
+    </row>
+    <row r="34" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="28"/>
       <c r="B34" s="28"/>
       <c r="C34" s="28"/>
@@ -6260,6 +6260,161 @@
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -6284,166 +6439,11 @@
     <mergeCell ref="AF22:AI22"/>
     <mergeCell ref="J23:P23"/>
     <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -6459,7 +6459,7 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16" width="4.83203125" style="63" customWidth="1"/>
     <col min="17" max="17" width="4.83203125" style="48" customWidth="1"/>
@@ -6594,161 +6594,161 @@
     <col min="16163" max="16384" width="4.83203125" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="32" customFormat="1" ht="11.25">
-      <c r="A1" s="244" t="s">
+    <row r="1" spans="1:35" s="32" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="196" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="245"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="246"/>
-      <c r="E1" s="261" t="str">
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="267" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
-      <c r="I1" s="215"/>
-      <c r="J1" s="215"/>
-      <c r="K1" s="215"/>
-      <c r="L1" s="215"/>
-      <c r="M1" s="215"/>
-      <c r="N1" s="216"/>
-      <c r="O1" s="247" t="s">
+      <c r="F1" s="244"/>
+      <c r="G1" s="244"/>
+      <c r="H1" s="244"/>
+      <c r="I1" s="244"/>
+      <c r="J1" s="244"/>
+      <c r="K1" s="244"/>
+      <c r="L1" s="244"/>
+      <c r="M1" s="244"/>
+      <c r="N1" s="245"/>
+      <c r="O1" s="199" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="248"/>
-      <c r="Q1" s="248"/>
-      <c r="R1" s="249"/>
-      <c r="S1" s="262" t="str">
+      <c r="P1" s="200"/>
+      <c r="Q1" s="200"/>
+      <c r="R1" s="201"/>
+      <c r="S1" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10101/ログイン</v>
       </c>
-      <c r="T1" s="263"/>
-      <c r="U1" s="263"/>
-      <c r="V1" s="263"/>
-      <c r="W1" s="263"/>
-      <c r="X1" s="263"/>
-      <c r="Y1" s="263"/>
-      <c r="Z1" s="264"/>
-      <c r="AA1" s="244" t="s">
+      <c r="T1" s="259"/>
+      <c r="U1" s="259"/>
+      <c r="V1" s="259"/>
+      <c r="W1" s="259"/>
+      <c r="X1" s="259"/>
+      <c r="Y1" s="259"/>
+      <c r="Z1" s="260"/>
+      <c r="AA1" s="196" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="246"/>
-      <c r="AC1" s="196" t="str">
+      <c r="AB1" s="198"/>
+      <c r="AC1" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="197"/>
-      <c r="AE1" s="197"/>
-      <c r="AF1" s="198"/>
-      <c r="AG1" s="258">
+      <c r="AD1" s="232"/>
+      <c r="AE1" s="232"/>
+      <c r="AF1" s="233"/>
+      <c r="AG1" s="268">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="259"/>
-      <c r="AI1" s="260"/>
-    </row>
-    <row r="2" spans="1:35" s="32" customFormat="1" ht="11.25">
-      <c r="A2" s="244" t="s">
+      <c r="AH1" s="269"/>
+      <c r="AI1" s="270"/>
+    </row>
+    <row r="2" spans="1:35" s="32" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="245"/>
-      <c r="C2" s="245"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="261" t="str">
+      <c r="B2" s="197"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="267" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
-      <c r="H2" s="215"/>
-      <c r="I2" s="215"/>
-      <c r="J2" s="215"/>
-      <c r="K2" s="215"/>
-      <c r="L2" s="215"/>
-      <c r="M2" s="215"/>
-      <c r="N2" s="216"/>
-      <c r="O2" s="250"/>
-      <c r="P2" s="251"/>
-      <c r="Q2" s="251"/>
-      <c r="R2" s="252"/>
-      <c r="S2" s="265"/>
-      <c r="T2" s="266"/>
-      <c r="U2" s="266"/>
-      <c r="V2" s="266"/>
-      <c r="W2" s="266"/>
-      <c r="X2" s="266"/>
-      <c r="Y2" s="266"/>
-      <c r="Z2" s="267"/>
-      <c r="AA2" s="244" t="s">
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
+      <c r="H2" s="244"/>
+      <c r="I2" s="244"/>
+      <c r="J2" s="244"/>
+      <c r="K2" s="244"/>
+      <c r="L2" s="244"/>
+      <c r="M2" s="244"/>
+      <c r="N2" s="245"/>
+      <c r="O2" s="202"/>
+      <c r="P2" s="203"/>
+      <c r="Q2" s="203"/>
+      <c r="R2" s="204"/>
+      <c r="S2" s="261"/>
+      <c r="T2" s="262"/>
+      <c r="U2" s="262"/>
+      <c r="V2" s="262"/>
+      <c r="W2" s="262"/>
+      <c r="X2" s="262"/>
+      <c r="Y2" s="262"/>
+      <c r="Z2" s="263"/>
+      <c r="AA2" s="196" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="246"/>
-      <c r="AC2" s="196" t="str">
+      <c r="AB2" s="198"/>
+      <c r="AC2" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="197"/>
-      <c r="AE2" s="197"/>
-      <c r="AF2" s="198"/>
-      <c r="AG2" s="258" t="str">
+      <c r="AD2" s="232"/>
+      <c r="AE2" s="232"/>
+      <c r="AF2" s="233"/>
+      <c r="AG2" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="259"/>
-      <c r="AI2" s="260"/>
-    </row>
-    <row r="3" spans="1:35" s="32" customFormat="1" ht="11.25">
-      <c r="A3" s="244" t="s">
+      <c r="AH2" s="269"/>
+      <c r="AI2" s="270"/>
+    </row>
+    <row r="3" spans="1:35" s="32" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="196" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="245"/>
-      <c r="C3" s="245"/>
-      <c r="D3" s="246"/>
-      <c r="E3" s="261" t="str">
+      <c r="B3" s="197"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="267" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="215"/>
-      <c r="G3" s="215"/>
-      <c r="H3" s="215"/>
-      <c r="I3" s="215"/>
-      <c r="J3" s="215"/>
-      <c r="K3" s="215"/>
-      <c r="L3" s="215"/>
-      <c r="M3" s="215"/>
-      <c r="N3" s="216"/>
-      <c r="O3" s="253"/>
-      <c r="P3" s="254"/>
-      <c r="Q3" s="254"/>
-      <c r="R3" s="255"/>
-      <c r="S3" s="268"/>
-      <c r="T3" s="269"/>
-      <c r="U3" s="269"/>
-      <c r="V3" s="269"/>
-      <c r="W3" s="269"/>
-      <c r="X3" s="269"/>
-      <c r="Y3" s="269"/>
-      <c r="Z3" s="270"/>
-      <c r="AA3" s="244"/>
-      <c r="AB3" s="246"/>
-      <c r="AC3" s="196" t="str">
+      <c r="F3" s="244"/>
+      <c r="G3" s="244"/>
+      <c r="H3" s="244"/>
+      <c r="I3" s="244"/>
+      <c r="J3" s="244"/>
+      <c r="K3" s="244"/>
+      <c r="L3" s="244"/>
+      <c r="M3" s="244"/>
+      <c r="N3" s="245"/>
+      <c r="O3" s="205"/>
+      <c r="P3" s="206"/>
+      <c r="Q3" s="206"/>
+      <c r="R3" s="207"/>
+      <c r="S3" s="264"/>
+      <c r="T3" s="265"/>
+      <c r="U3" s="265"/>
+      <c r="V3" s="265"/>
+      <c r="W3" s="265"/>
+      <c r="X3" s="265"/>
+      <c r="Y3" s="265"/>
+      <c r="Z3" s="266"/>
+      <c r="AA3" s="196"/>
+      <c r="AB3" s="198"/>
+      <c r="AC3" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="197"/>
-      <c r="AE3" s="197"/>
-      <c r="AF3" s="198"/>
-      <c r="AG3" s="258" t="str">
+      <c r="AD3" s="232"/>
+      <c r="AE3" s="232"/>
+      <c r="AF3" s="233"/>
+      <c r="AG3" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="259"/>
-      <c r="AI3" s="260"/>
-    </row>
-    <row r="4" spans="1:35" s="35" customFormat="1" ht="19.5" customHeight="1">
+      <c r="AH3" s="269"/>
+      <c r="AI3" s="270"/>
+    </row>
+    <row r="4" spans="1:35" s="35" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="29"/>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
@@ -6785,7 +6785,7 @@
       <c r="AH4" s="29"/>
       <c r="AI4" s="29"/>
     </row>
-    <row r="5" spans="1:35" s="35" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:35" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="29"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
@@ -6824,7 +6824,7 @@
       <c r="AH5" s="29"/>
       <c r="AI5" s="29"/>
     </row>
-    <row r="6" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="58"/>
       <c r="B6" s="58"/>
       <c r="C6" s="58"/>
@@ -6861,7 +6861,7 @@
       <c r="AH6" s="58"/>
       <c r="AI6" s="58"/>
     </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1">
+    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="31"/>
       <c r="B7" s="37" t="s">
         <v>43</v>
@@ -6900,7 +6900,7 @@
       <c r="AH7" s="38"/>
       <c r="AI7" s="62"/>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1">
+    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="31"/>
       <c r="B8" s="37"/>
       <c r="C8" s="37" t="s">
@@ -6939,7 +6939,7 @@
       <c r="AH8" s="39"/>
       <c r="AI8" s="62"/>
     </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1">
+    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="31"/>
       <c r="B9" s="53"/>
       <c r="C9" s="37"/>
@@ -6976,10 +6976,10 @@
       <c r="AH9" s="40"/>
       <c r="AI9" s="31"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1">
+    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="31"/>
       <c r="B10" s="41" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C10" s="53"/>
       <c r="D10" s="31"/>
@@ -7015,7 +7015,7 @@
       <c r="AH10" s="38"/>
       <c r="AI10" s="62"/>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1">
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="31"/>
       <c r="B11" s="53"/>
       <c r="C11" s="41" t="s">
@@ -7054,7 +7054,7 @@
       <c r="AH11" s="38"/>
       <c r="AI11" s="62"/>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1">
+    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="31"/>
       <c r="B12" s="53"/>
       <c r="C12" s="31" t="s">
@@ -7088,7 +7088,7 @@
       <c r="AH12" s="38"/>
       <c r="AI12" s="62"/>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1">
+    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="31"/>
       <c r="B13" s="62"/>
       <c r="C13" s="28" t="s">
@@ -7127,7 +7127,7 @@
       <c r="AH13" s="38"/>
       <c r="AI13" s="62"/>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1">
+    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="31"/>
       <c r="B14" s="41"/>
       <c r="C14" s="28" t="s">
@@ -7166,7 +7166,7 @@
       <c r="AH14" s="38"/>
       <c r="AI14" s="62"/>
     </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1">
+    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="31"/>
       <c r="B15" s="41"/>
       <c r="C15" s="28" t="s">
@@ -7201,7 +7201,7 @@
       <c r="AH15" s="38"/>
       <c r="AI15" s="62"/>
     </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1">
+    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="31"/>
       <c r="B16" s="58"/>
       <c r="C16" s="31" t="s">
@@ -7240,7 +7240,7 @@
       <c r="AH16" s="38"/>
       <c r="AI16" s="62"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="31"/>
       <c r="B17" s="58"/>
       <c r="C17" s="33"/>
@@ -7276,7 +7276,7 @@
       <c r="AH17" s="38"/>
       <c r="AI17" s="62"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="26"/>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
@@ -7313,7 +7313,7 @@
       <c r="AH18" s="42"/>
       <c r="AI18" s="68"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="71"/>
       <c r="E19" s="71"/>
       <c r="F19" s="71"/>
@@ -7347,7 +7347,7 @@
       <c r="AH19" s="42"/>
       <c r="AI19" s="68"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J20" s="71"/>
       <c r="K20" s="69"/>
       <c r="L20" s="69"/>
@@ -7375,7 +7375,7 @@
       <c r="AH20" s="42"/>
       <c r="AI20" s="68"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K21" s="26"/>
       <c r="L21" s="26"/>
       <c r="M21" s="26"/>
@@ -7402,7 +7402,7 @@
       <c r="AH21" s="46"/>
       <c r="AI21" s="26"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K22" s="71"/>
       <c r="L22" s="71"/>
       <c r="M22" s="71"/>
@@ -7427,7 +7427,7 @@
       <c r="AH22" s="49"/>
       <c r="AI22" s="72"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S23" s="72"/>
       <c r="T23" s="72"/>
       <c r="U23" s="73"/>
@@ -7446,7 +7446,7 @@
       <c r="AH23" s="51"/>
       <c r="AI23" s="72"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J24" s="71"/>
       <c r="Q24" s="52"/>
       <c r="S24" s="72"/>
@@ -7467,7 +7467,7 @@
       <c r="AH24" s="51"/>
       <c r="AI24" s="72"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S25" s="72"/>
       <c r="T25" s="72"/>
       <c r="U25" s="72"/>
@@ -7486,7 +7486,7 @@
       <c r="AH25" s="51"/>
       <c r="AI25" s="72"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="71"/>
       <c r="K26" s="71"/>
       <c r="L26" s="71"/>
@@ -7500,7 +7500,7 @@
       <c r="AH26" s="51"/>
       <c r="AI26" s="72"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1">
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="71"/>
       <c r="AE27" s="72"/>
       <c r="AF27" s="76"/>
@@ -7508,28 +7508,28 @@
       <c r="AH27" s="51"/>
       <c r="AI27" s="72"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE28" s="72"/>
       <c r="AF28" s="76"/>
       <c r="AG28" s="76"/>
       <c r="AH28" s="51"/>
       <c r="AI28" s="72"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AF29" s="77"/>
       <c r="AG29" s="77"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1">
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AG30" s="77"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1">
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AF31" s="77"/>
       <c r="AG31" s="77"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AG32" s="77"/>
     </row>
-    <row r="33" spans="1:34" ht="15" customHeight="1">
+    <row r="33" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S33" s="71"/>
       <c r="T33" s="71"/>
       <c r="V33" s="71"/>
@@ -7542,7 +7542,7 @@
       <c r="AC33" s="71"/>
       <c r="AD33" s="71"/>
     </row>
-    <row r="34" spans="1:34" ht="15" customHeight="1">
+    <row r="34" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R34" s="71"/>
       <c r="S34" s="71"/>
       <c r="T34" s="71"/>
@@ -7557,10 +7557,10 @@
       <c r="AD34" s="71"/>
       <c r="AG34" s="77"/>
     </row>
-    <row r="35" spans="1:34" ht="15" customHeight="1">
+    <row r="35" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R35" s="71"/>
     </row>
-    <row r="36" spans="1:34" s="71" customFormat="1" ht="15" customHeight="1">
+    <row r="36" spans="1:34" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="63"/>
       <c r="B36" s="63"/>
       <c r="C36" s="63"/>
@@ -7593,7 +7593,7 @@
       <c r="AD36" s="63"/>
       <c r="AH36" s="52"/>
     </row>
-    <row r="37" spans="1:34" s="71" customFormat="1" ht="15" customHeight="1">
+    <row r="37" spans="1:34" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="63"/>
       <c r="B37" s="63"/>
       <c r="C37" s="63"/>
@@ -7628,6 +7628,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -7637,19 +7645,11 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -7665,178 +7665,178 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="32" customFormat="1">
-      <c r="A1" s="244" t="s">
+    <row r="1" spans="1:35" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="245"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="246"/>
-      <c r="E1" s="261" t="str">
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="267" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
-      <c r="I1" s="215"/>
-      <c r="J1" s="215"/>
-      <c r="K1" s="215"/>
-      <c r="L1" s="215"/>
-      <c r="M1" s="215"/>
-      <c r="N1" s="216"/>
-      <c r="O1" s="247" t="s">
+      <c r="F1" s="244"/>
+      <c r="G1" s="244"/>
+      <c r="H1" s="244"/>
+      <c r="I1" s="244"/>
+      <c r="J1" s="244"/>
+      <c r="K1" s="244"/>
+      <c r="L1" s="244"/>
+      <c r="M1" s="244"/>
+      <c r="N1" s="245"/>
+      <c r="O1" s="199" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="248"/>
-      <c r="Q1" s="248"/>
-      <c r="R1" s="249"/>
-      <c r="S1" s="262" t="str">
+      <c r="P1" s="200"/>
+      <c r="Q1" s="200"/>
+      <c r="R1" s="201"/>
+      <c r="S1" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10101/ログイン</v>
       </c>
-      <c r="T1" s="263"/>
-      <c r="U1" s="263"/>
-      <c r="V1" s="263"/>
-      <c r="W1" s="263"/>
-      <c r="X1" s="263"/>
-      <c r="Y1" s="263"/>
-      <c r="Z1" s="264"/>
-      <c r="AA1" s="244" t="s">
+      <c r="T1" s="259"/>
+      <c r="U1" s="259"/>
+      <c r="V1" s="259"/>
+      <c r="W1" s="259"/>
+      <c r="X1" s="259"/>
+      <c r="Y1" s="259"/>
+      <c r="Z1" s="260"/>
+      <c r="AA1" s="196" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="246"/>
-      <c r="AC1" s="196" t="str">
+      <c r="AB1" s="198"/>
+      <c r="AC1" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="197"/>
-      <c r="AE1" s="197"/>
-      <c r="AF1" s="198"/>
-      <c r="AG1" s="258">
+      <c r="AD1" s="232"/>
+      <c r="AE1" s="232"/>
+      <c r="AF1" s="233"/>
+      <c r="AG1" s="268">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="259"/>
-      <c r="AI1" s="260"/>
-    </row>
-    <row r="2" spans="1:35" s="32" customFormat="1">
-      <c r="A2" s="244" t="s">
+      <c r="AH1" s="269"/>
+      <c r="AI1" s="270"/>
+    </row>
+    <row r="2" spans="1:35" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="245"/>
-      <c r="C2" s="245"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="261" t="str">
+      <c r="B2" s="197"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="267" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
-      <c r="H2" s="215"/>
-      <c r="I2" s="215"/>
-      <c r="J2" s="215"/>
-      <c r="K2" s="215"/>
-      <c r="L2" s="215"/>
-      <c r="M2" s="215"/>
-      <c r="N2" s="216"/>
-      <c r="O2" s="250"/>
-      <c r="P2" s="251"/>
-      <c r="Q2" s="251"/>
-      <c r="R2" s="252"/>
-      <c r="S2" s="265"/>
-      <c r="T2" s="266"/>
-      <c r="U2" s="266"/>
-      <c r="V2" s="266"/>
-      <c r="W2" s="266"/>
-      <c r="X2" s="266"/>
-      <c r="Y2" s="266"/>
-      <c r="Z2" s="267"/>
-      <c r="AA2" s="244" t="s">
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
+      <c r="H2" s="244"/>
+      <c r="I2" s="244"/>
+      <c r="J2" s="244"/>
+      <c r="K2" s="244"/>
+      <c r="L2" s="244"/>
+      <c r="M2" s="244"/>
+      <c r="N2" s="245"/>
+      <c r="O2" s="202"/>
+      <c r="P2" s="203"/>
+      <c r="Q2" s="203"/>
+      <c r="R2" s="204"/>
+      <c r="S2" s="261"/>
+      <c r="T2" s="262"/>
+      <c r="U2" s="262"/>
+      <c r="V2" s="262"/>
+      <c r="W2" s="262"/>
+      <c r="X2" s="262"/>
+      <c r="Y2" s="262"/>
+      <c r="Z2" s="263"/>
+      <c r="AA2" s="196" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="246"/>
-      <c r="AC2" s="196" t="str">
+      <c r="AB2" s="198"/>
+      <c r="AC2" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="197"/>
-      <c r="AE2" s="197"/>
-      <c r="AF2" s="198"/>
-      <c r="AG2" s="258" t="str">
+      <c r="AD2" s="232"/>
+      <c r="AE2" s="232"/>
+      <c r="AF2" s="233"/>
+      <c r="AG2" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="259"/>
-      <c r="AI2" s="260"/>
-    </row>
-    <row r="3" spans="1:35" s="32" customFormat="1">
-      <c r="A3" s="244" t="s">
+      <c r="AH2" s="269"/>
+      <c r="AI2" s="270"/>
+    </row>
+    <row r="3" spans="1:35" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="196" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="245"/>
-      <c r="C3" s="245"/>
-      <c r="D3" s="246"/>
-      <c r="E3" s="261" t="str">
+      <c r="B3" s="197"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="267" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="215"/>
-      <c r="G3" s="215"/>
-      <c r="H3" s="215"/>
-      <c r="I3" s="215"/>
-      <c r="J3" s="215"/>
-      <c r="K3" s="215"/>
-      <c r="L3" s="215"/>
-      <c r="M3" s="215"/>
-      <c r="N3" s="216"/>
-      <c r="O3" s="253"/>
-      <c r="P3" s="254"/>
-      <c r="Q3" s="254"/>
-      <c r="R3" s="255"/>
-      <c r="S3" s="268"/>
-      <c r="T3" s="269"/>
-      <c r="U3" s="269"/>
-      <c r="V3" s="269"/>
-      <c r="W3" s="269"/>
-      <c r="X3" s="269"/>
-      <c r="Y3" s="269"/>
-      <c r="Z3" s="270"/>
-      <c r="AA3" s="244"/>
-      <c r="AB3" s="246"/>
-      <c r="AC3" s="196" t="str">
+      <c r="F3" s="244"/>
+      <c r="G3" s="244"/>
+      <c r="H3" s="244"/>
+      <c r="I3" s="244"/>
+      <c r="J3" s="244"/>
+      <c r="K3" s="244"/>
+      <c r="L3" s="244"/>
+      <c r="M3" s="244"/>
+      <c r="N3" s="245"/>
+      <c r="O3" s="205"/>
+      <c r="P3" s="206"/>
+      <c r="Q3" s="206"/>
+      <c r="R3" s="207"/>
+      <c r="S3" s="264"/>
+      <c r="T3" s="265"/>
+      <c r="U3" s="265"/>
+      <c r="V3" s="265"/>
+      <c r="W3" s="265"/>
+      <c r="X3" s="265"/>
+      <c r="Y3" s="265"/>
+      <c r="Z3" s="266"/>
+      <c r="AA3" s="196"/>
+      <c r="AB3" s="198"/>
+      <c r="AC3" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="197"/>
-      <c r="AE3" s="197"/>
-      <c r="AF3" s="198"/>
-      <c r="AG3" s="258" t="str">
+      <c r="AD3" s="232"/>
+      <c r="AE3" s="232"/>
+      <c r="AF3" s="233"/>
+      <c r="AG3" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="259"/>
-      <c r="AI3" s="260"/>
-    </row>
-    <row r="4" spans="1:35" ht="12" customHeight="1"/>
-    <row r="5" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1">
+      <c r="AH3" s="269"/>
+      <c r="AI3" s="270"/>
+    </row>
+    <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="91" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1">
+    <row r="6" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="91" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1"/>
-    <row r="8" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1">
+    <row r="7" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="92"/>
       <c r="C8" s="281" t="s">
         <v>46</v>
@@ -7844,7 +7844,7 @@
       <c r="D8" s="282"/>
       <c r="E8" s="282"/>
       <c r="F8" s="283"/>
-      <c r="G8" s="220" t="s">
+      <c r="G8" s="213" t="s">
         <v>138</v>
       </c>
       <c r="H8" s="284"/>
@@ -7874,7 +7874,7 @@
       <c r="AF8" s="282"/>
       <c r="AG8" s="283"/>
     </row>
-    <row r="9" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1">
+    <row r="9" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="92"/>
       <c r="C9" s="285" t="s">
         <v>47</v>
@@ -7882,7 +7882,7 @@
       <c r="D9" s="286"/>
       <c r="E9" s="286"/>
       <c r="F9" s="287"/>
-      <c r="G9" s="220" t="s">
+      <c r="G9" s="213" t="s">
         <v>139</v>
       </c>
       <c r="H9" s="282"/>
@@ -7912,7 +7912,7 @@
       <c r="AF9" s="282"/>
       <c r="AG9" s="283"/>
     </row>
-    <row r="10" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1">
+    <row r="10" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="92"/>
       <c r="C10" s="272" t="s">
         <v>48</v>
@@ -7921,7 +7921,7 @@
       <c r="E10" s="273"/>
       <c r="F10" s="274"/>
       <c r="G10" s="163" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="H10" s="93"/>
       <c r="I10" s="93"/>
@@ -7950,7 +7950,7 @@
       <c r="AF10" s="93"/>
       <c r="AG10" s="94"/>
     </row>
-    <row r="11" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1">
+    <row r="11" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="92"/>
       <c r="C11" s="275"/>
       <c r="D11" s="276"/>
@@ -7984,7 +7984,7 @@
       <c r="AF11" s="35"/>
       <c r="AG11" s="96"/>
     </row>
-    <row r="12" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1">
+    <row r="12" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="92"/>
       <c r="C12" s="275"/>
       <c r="D12" s="276"/>
@@ -8018,7 +8018,7 @@
       <c r="AF12" s="35"/>
       <c r="AG12" s="96"/>
     </row>
-    <row r="13" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1">
+    <row r="13" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="92"/>
       <c r="C13" s="278"/>
       <c r="D13" s="279"/>
@@ -8052,7 +8052,7 @@
       <c r="AF13" s="98"/>
       <c r="AG13" s="99"/>
     </row>
-    <row r="14" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1">
+    <row r="14" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="92"/>
       <c r="C14" s="271" t="s">
         <v>57</v>
@@ -8061,7 +8061,7 @@
       <c r="E14" s="271"/>
       <c r="F14" s="271"/>
       <c r="G14" s="100" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H14" s="101"/>
       <c r="I14" s="101"/>
@@ -8090,46 +8090,58 @@
       <c r="AF14" s="101"/>
       <c r="AG14" s="102"/>
     </row>
-    <row r="15" spans="1:35" ht="12" customHeight="1"/>
-    <row r="16" spans="1:35" ht="12" customHeight="1"/>
-    <row r="17" ht="12" customHeight="1"/>
-    <row r="18" ht="12" customHeight="1"/>
-    <row r="19" ht="12" customHeight="1"/>
-    <row r="20" ht="12" customHeight="1"/>
-    <row r="21" ht="12" customHeight="1"/>
-    <row r="22" ht="12" customHeight="1"/>
-    <row r="23" ht="12" customHeight="1"/>
-    <row r="24" ht="12" customHeight="1"/>
-    <row r="25" ht="12" customHeight="1"/>
-    <row r="26" ht="12" customHeight="1"/>
-    <row r="27" ht="12" customHeight="1"/>
-    <row r="28" ht="12" customHeight="1"/>
-    <row r="29" ht="12" customHeight="1"/>
-    <row r="30" ht="12" customHeight="1"/>
-    <row r="31" ht="12" customHeight="1"/>
-    <row r="32" ht="12" customHeight="1"/>
-    <row r="33" ht="12" customHeight="1"/>
-    <row r="34" ht="12" customHeight="1"/>
-    <row r="35" ht="12" customHeight="1"/>
-    <row r="36" ht="12" customHeight="1"/>
-    <row r="37" ht="12" customHeight="1"/>
-    <row r="38" ht="12" customHeight="1"/>
-    <row r="39" ht="12" customHeight="1"/>
-    <row r="40" ht="12" customHeight="1"/>
-    <row r="41" ht="12" customHeight="1"/>
-    <row r="42" ht="12" customHeight="1"/>
-    <row r="43" ht="12" customHeight="1"/>
-    <row r="44" ht="12" customHeight="1"/>
-    <row r="45" ht="12" customHeight="1"/>
-    <row r="46" ht="12" customHeight="1"/>
-    <row r="47" ht="12" customHeight="1"/>
-    <row r="48" ht="12" customHeight="1"/>
-    <row r="49" ht="12" customHeight="1"/>
-    <row r="50" ht="12" customHeight="1"/>
-    <row r="51" ht="12" customHeight="1"/>
-    <row r="52" ht="12" customHeight="1"/>
+    <row r="15" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C10:F13"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:AG8"/>
+    <mergeCell ref="G9:AG9"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -8141,23 +8153,11 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C10:F13"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:AG8"/>
-    <mergeCell ref="G9:AG9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
@@ -8175,215 +8175,215 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="7" width="4.83203125" style="17"/>
     <col min="8" max="9" width="4.83203125" style="17" customWidth="1"/>
     <col min="10" max="16384" width="4.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="32" customFormat="1">
-      <c r="A1" s="311" t="s">
+    <row r="1" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="384" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="312"/>
-      <c r="C1" s="312"/>
-      <c r="D1" s="313"/>
-      <c r="E1" s="261" t="str">
+      <c r="B1" s="385"/>
+      <c r="C1" s="385"/>
+      <c r="D1" s="386"/>
+      <c r="E1" s="267" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
-      <c r="I1" s="215"/>
-      <c r="J1" s="215"/>
-      <c r="K1" s="215"/>
-      <c r="L1" s="215"/>
-      <c r="M1" s="215"/>
-      <c r="N1" s="216"/>
-      <c r="O1" s="247" t="s">
+      <c r="F1" s="244"/>
+      <c r="G1" s="244"/>
+      <c r="H1" s="244"/>
+      <c r="I1" s="244"/>
+      <c r="J1" s="244"/>
+      <c r="K1" s="244"/>
+      <c r="L1" s="244"/>
+      <c r="M1" s="244"/>
+      <c r="N1" s="245"/>
+      <c r="O1" s="199" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="248"/>
-      <c r="Q1" s="248"/>
-      <c r="R1" s="249"/>
-      <c r="S1" s="262" t="str">
+      <c r="P1" s="200"/>
+      <c r="Q1" s="200"/>
+      <c r="R1" s="201"/>
+      <c r="S1" s="258" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10101/ログイン</v>
       </c>
-      <c r="T1" s="263"/>
-      <c r="U1" s="263"/>
-      <c r="V1" s="263"/>
-      <c r="W1" s="263"/>
-      <c r="X1" s="263"/>
-      <c r="Y1" s="263"/>
-      <c r="Z1" s="264"/>
-      <c r="AA1" s="244" t="s">
+      <c r="T1" s="259"/>
+      <c r="U1" s="259"/>
+      <c r="V1" s="259"/>
+      <c r="W1" s="259"/>
+      <c r="X1" s="259"/>
+      <c r="Y1" s="259"/>
+      <c r="Z1" s="260"/>
+      <c r="AA1" s="196" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="246"/>
-      <c r="AC1" s="196" t="str">
+      <c r="AB1" s="198"/>
+      <c r="AC1" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="197"/>
-      <c r="AE1" s="197"/>
-      <c r="AF1" s="198"/>
-      <c r="AG1" s="308">
+      <c r="AD1" s="232"/>
+      <c r="AE1" s="232"/>
+      <c r="AF1" s="233"/>
+      <c r="AG1" s="381">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="309"/>
-      <c r="AI1" s="310"/>
+      <c r="AH1" s="382"/>
+      <c r="AI1" s="383"/>
       <c r="AJ1" s="30"/>
     </row>
-    <row r="2" spans="1:36" s="32" customFormat="1">
-      <c r="A2" s="311" t="s">
+    <row r="2" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="384" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="312"/>
-      <c r="C2" s="312"/>
-      <c r="D2" s="313"/>
-      <c r="E2" s="261" t="str">
+      <c r="B2" s="385"/>
+      <c r="C2" s="385"/>
+      <c r="D2" s="386"/>
+      <c r="E2" s="267" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
-      <c r="H2" s="215"/>
-      <c r="I2" s="215"/>
-      <c r="J2" s="215"/>
-      <c r="K2" s="215"/>
-      <c r="L2" s="215"/>
-      <c r="M2" s="215"/>
-      <c r="N2" s="216"/>
-      <c r="O2" s="250"/>
-      <c r="P2" s="251"/>
-      <c r="Q2" s="251"/>
-      <c r="R2" s="252"/>
-      <c r="S2" s="265"/>
-      <c r="T2" s="266"/>
-      <c r="U2" s="266"/>
-      <c r="V2" s="266"/>
-      <c r="W2" s="266"/>
-      <c r="X2" s="266"/>
-      <c r="Y2" s="266"/>
-      <c r="Z2" s="267"/>
-      <c r="AA2" s="244" t="s">
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
+      <c r="H2" s="244"/>
+      <c r="I2" s="244"/>
+      <c r="J2" s="244"/>
+      <c r="K2" s="244"/>
+      <c r="L2" s="244"/>
+      <c r="M2" s="244"/>
+      <c r="N2" s="245"/>
+      <c r="O2" s="202"/>
+      <c r="P2" s="203"/>
+      <c r="Q2" s="203"/>
+      <c r="R2" s="204"/>
+      <c r="S2" s="261"/>
+      <c r="T2" s="262"/>
+      <c r="U2" s="262"/>
+      <c r="V2" s="262"/>
+      <c r="W2" s="262"/>
+      <c r="X2" s="262"/>
+      <c r="Y2" s="262"/>
+      <c r="Z2" s="263"/>
+      <c r="AA2" s="196" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="246"/>
-      <c r="AC2" s="196" t="str">
+      <c r="AB2" s="198"/>
+      <c r="AC2" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="197"/>
-      <c r="AE2" s="197"/>
-      <c r="AF2" s="198"/>
-      <c r="AG2" s="308" t="str">
+      <c r="AD2" s="232"/>
+      <c r="AE2" s="232"/>
+      <c r="AF2" s="233"/>
+      <c r="AG2" s="381" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="309"/>
-      <c r="AI2" s="310"/>
+      <c r="AH2" s="382"/>
+      <c r="AI2" s="383"/>
       <c r="AJ2" s="30"/>
     </row>
-    <row r="3" spans="1:36" s="32" customFormat="1">
-      <c r="A3" s="311" t="s">
+    <row r="3" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="384" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="312"/>
-      <c r="C3" s="312"/>
-      <c r="D3" s="313"/>
-      <c r="E3" s="261" t="str">
+      <c r="B3" s="385"/>
+      <c r="C3" s="385"/>
+      <c r="D3" s="386"/>
+      <c r="E3" s="267" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="215"/>
-      <c r="G3" s="215"/>
-      <c r="H3" s="215"/>
-      <c r="I3" s="215"/>
-      <c r="J3" s="215"/>
-      <c r="K3" s="215"/>
-      <c r="L3" s="215"/>
-      <c r="M3" s="215"/>
-      <c r="N3" s="216"/>
-      <c r="O3" s="253"/>
-      <c r="P3" s="254"/>
-      <c r="Q3" s="254"/>
-      <c r="R3" s="255"/>
-      <c r="S3" s="268"/>
-      <c r="T3" s="269"/>
-      <c r="U3" s="269"/>
-      <c r="V3" s="269"/>
-      <c r="W3" s="269"/>
-      <c r="X3" s="269"/>
-      <c r="Y3" s="269"/>
-      <c r="Z3" s="270"/>
-      <c r="AA3" s="244"/>
-      <c r="AB3" s="246"/>
-      <c r="AC3" s="196" t="str">
+      <c r="F3" s="244"/>
+      <c r="G3" s="244"/>
+      <c r="H3" s="244"/>
+      <c r="I3" s="244"/>
+      <c r="J3" s="244"/>
+      <c r="K3" s="244"/>
+      <c r="L3" s="244"/>
+      <c r="M3" s="244"/>
+      <c r="N3" s="245"/>
+      <c r="O3" s="205"/>
+      <c r="P3" s="206"/>
+      <c r="Q3" s="206"/>
+      <c r="R3" s="207"/>
+      <c r="S3" s="264"/>
+      <c r="T3" s="265"/>
+      <c r="U3" s="265"/>
+      <c r="V3" s="265"/>
+      <c r="W3" s="265"/>
+      <c r="X3" s="265"/>
+      <c r="Y3" s="265"/>
+      <c r="Z3" s="266"/>
+      <c r="AA3" s="196"/>
+      <c r="AB3" s="198"/>
+      <c r="AC3" s="231" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="197"/>
-      <c r="AE3" s="197"/>
-      <c r="AF3" s="198"/>
-      <c r="AG3" s="308" t="str">
+      <c r="AD3" s="232"/>
+      <c r="AE3" s="232"/>
+      <c r="AF3" s="233"/>
+      <c r="AG3" s="381" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="309"/>
-      <c r="AI3" s="310"/>
+      <c r="AH3" s="382"/>
+      <c r="AI3" s="383"/>
       <c r="AJ3" s="30"/>
     </row>
-    <row r="4" spans="1:36" ht="12" customHeight="1"/>
-    <row r="5" spans="1:36" ht="12" customHeight="1">
+    <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="160" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" ht="12" customHeight="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="17" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="12" customHeight="1"/>
-    <row r="8" spans="1:36" ht="12" customHeight="1"/>
-    <row r="9" spans="1:36" ht="12" customHeight="1"/>
-    <row r="10" spans="1:36" ht="12" customHeight="1"/>
-    <row r="11" spans="1:36" ht="12" customHeight="1"/>
-    <row r="12" spans="1:36" ht="12" customHeight="1"/>
-    <row r="13" spans="1:36" ht="12" customHeight="1"/>
-    <row r="14" spans="1:36" ht="12" customHeight="1"/>
-    <row r="15" spans="1:36" ht="12" customHeight="1"/>
-    <row r="16" spans="1:36" ht="12" customHeight="1"/>
-    <row r="17" ht="12" customHeight="1"/>
-    <row r="18" ht="12" customHeight="1"/>
-    <row r="19" ht="12" customHeight="1"/>
-    <row r="20" ht="12" customHeight="1"/>
-    <row r="21" ht="12" customHeight="1"/>
-    <row r="22" ht="12" customHeight="1"/>
-    <row r="23" ht="12" customHeight="1"/>
-    <row r="24" ht="12" customHeight="1"/>
-    <row r="25" ht="12" customHeight="1"/>
-    <row r="26" ht="12" customHeight="1"/>
-    <row r="27" ht="12" customHeight="1"/>
-    <row r="28" ht="12" customHeight="1"/>
-    <row r="29" ht="12" customHeight="1"/>
-    <row r="30" ht="12" customHeight="1"/>
-    <row r="31" ht="12" customHeight="1"/>
-    <row r="32" ht="12" customHeight="1"/>
-    <row r="33" spans="3:53" ht="12" customHeight="1"/>
-    <row r="34" spans="3:53" ht="12" customHeight="1"/>
-    <row r="35" spans="3:53" ht="12" customHeight="1"/>
-    <row r="36" spans="3:53" ht="12" customHeight="1"/>
-    <row r="37" spans="3:53" ht="12" customHeight="1"/>
-    <row r="38" spans="3:53" ht="12" customHeight="1"/>
-    <row r="39" spans="3:53" ht="12" customHeight="1"/>
-    <row r="40" spans="3:53" ht="12" customHeight="1">
+    <row r="7" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D40" s="135"/>
       <c r="E40" s="135"/>
       <c r="F40" s="135"/>
@@ -8416,7 +8416,7 @@
       <c r="AG40" s="135"/>
       <c r="AH40" s="135"/>
     </row>
-    <row r="41" spans="3:53">
+    <row r="41" spans="3:53" x14ac:dyDescent="0.15">
       <c r="C41" s="161" t="s">
         <v>58</v>
       </c>
@@ -8451,7 +8451,7 @@
       <c r="AG41" s="135"/>
       <c r="AH41" s="135"/>
     </row>
-    <row r="42" spans="3:53">
+    <row r="42" spans="3:53" x14ac:dyDescent="0.15">
       <c r="C42" s="35"/>
       <c r="D42" s="135"/>
       <c r="E42" s="135"/>
@@ -8484,89 +8484,89 @@
       <c r="AG42" s="135"/>
       <c r="AH42" s="135"/>
     </row>
-    <row r="43" spans="3:53">
+    <row r="43" spans="3:53" x14ac:dyDescent="0.15">
       <c r="D43" s="131" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="288" t="s">
+      <c r="E43" s="387" t="s">
         <v>70</v>
       </c>
-      <c r="F43" s="288"/>
-      <c r="G43" s="288"/>
-      <c r="H43" s="288"/>
-      <c r="I43" s="288"/>
-      <c r="J43" s="288"/>
-      <c r="K43" s="288"/>
-      <c r="L43" s="288"/>
-      <c r="M43" s="288"/>
-      <c r="N43" s="288" t="s">
+      <c r="F43" s="387"/>
+      <c r="G43" s="387"/>
+      <c r="H43" s="387"/>
+      <c r="I43" s="387"/>
+      <c r="J43" s="387"/>
+      <c r="K43" s="387"/>
+      <c r="L43" s="387"/>
+      <c r="M43" s="387"/>
+      <c r="N43" s="387" t="s">
         <v>44</v>
       </c>
-      <c r="O43" s="288"/>
-      <c r="P43" s="288"/>
-      <c r="Q43" s="288" t="s">
+      <c r="O43" s="387"/>
+      <c r="P43" s="387"/>
+      <c r="Q43" s="387" t="s">
         <v>26</v>
       </c>
-      <c r="R43" s="288"/>
-      <c r="S43" s="288"/>
-      <c r="T43" s="288"/>
-      <c r="U43" s="288"/>
-      <c r="V43" s="288" t="s">
+      <c r="R43" s="387"/>
+      <c r="S43" s="387"/>
+      <c r="T43" s="387"/>
+      <c r="U43" s="387"/>
+      <c r="V43" s="387" t="s">
         <v>15</v>
       </c>
-      <c r="W43" s="288"/>
-      <c r="X43" s="288"/>
-      <c r="Y43" s="288"/>
-      <c r="Z43" s="288"/>
-      <c r="AA43" s="288"/>
-      <c r="AB43" s="288"/>
-      <c r="AC43" s="288"/>
+      <c r="W43" s="387"/>
+      <c r="X43" s="387"/>
+      <c r="Y43" s="387"/>
+      <c r="Z43" s="387"/>
+      <c r="AA43" s="387"/>
+      <c r="AB43" s="387"/>
+      <c r="AC43" s="387"/>
       <c r="AD43" s="135"/>
       <c r="AE43" s="135"/>
       <c r="AF43" s="135"/>
       <c r="AG43" s="135"/>
       <c r="AH43" s="135"/>
     </row>
-    <row r="44" spans="3:53" ht="11.25" customHeight="1">
+    <row r="44" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D44" s="153">
         <v>1</v>
       </c>
-      <c r="E44" s="289" t="s">
+      <c r="E44" s="388" t="s">
         <v>120</v>
       </c>
-      <c r="F44" s="290"/>
-      <c r="G44" s="290"/>
-      <c r="H44" s="290"/>
-      <c r="I44" s="290"/>
-      <c r="J44" s="290"/>
-      <c r="K44" s="290"/>
-      <c r="L44" s="290"/>
-      <c r="M44" s="290"/>
-      <c r="N44" s="290" t="s">
+      <c r="F44" s="354"/>
+      <c r="G44" s="354"/>
+      <c r="H44" s="354"/>
+      <c r="I44" s="354"/>
+      <c r="J44" s="354"/>
+      <c r="K44" s="354"/>
+      <c r="L44" s="354"/>
+      <c r="M44" s="354"/>
+      <c r="N44" s="354" t="s">
         <v>90</v>
       </c>
-      <c r="O44" s="290"/>
-      <c r="P44" s="290"/>
-      <c r="Q44" s="359" t="s">
+      <c r="O44" s="354"/>
+      <c r="P44" s="354"/>
+      <c r="Q44" s="344" t="s">
         <v>114</v>
       </c>
-      <c r="R44" s="359"/>
-      <c r="S44" s="359"/>
-      <c r="T44" s="359"/>
-      <c r="U44" s="359"/>
-      <c r="V44" s="360" t="s">
+      <c r="R44" s="344"/>
+      <c r="S44" s="344"/>
+      <c r="T44" s="344"/>
+      <c r="U44" s="344"/>
+      <c r="V44" s="345" t="s">
         <v>124</v>
       </c>
-      <c r="W44" s="359"/>
-      <c r="X44" s="359"/>
-      <c r="Y44" s="359"/>
-      <c r="Z44" s="359"/>
-      <c r="AA44" s="359"/>
-      <c r="AB44" s="359"/>
-      <c r="AC44" s="359"/>
+      <c r="W44" s="344"/>
+      <c r="X44" s="344"/>
+      <c r="Y44" s="344"/>
+      <c r="Z44" s="344"/>
+      <c r="AA44" s="344"/>
+      <c r="AB44" s="344"/>
+      <c r="AC44" s="344"/>
       <c r="AM44" s="35"/>
     </row>
-    <row r="45" spans="3:53" ht="11.25" customHeight="1">
+    <row r="45" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D45" s="156"/>
       <c r="E45" s="146"/>
       <c r="F45" s="155"/>
@@ -8595,10 +8595,10 @@
       <c r="AC45" s="135"/>
       <c r="AM45" s="35"/>
     </row>
-    <row r="46" spans="3:53" ht="11.25" customHeight="1">
+    <row r="46" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O46" s="155"/>
     </row>
-    <row r="47" spans="3:53">
+    <row r="47" spans="3:53" x14ac:dyDescent="0.15">
       <c r="C47" s="103" t="s">
         <v>122</v>
       </c>
@@ -8620,7 +8620,7 @@
       <c r="AZ47" s="92"/>
       <c r="BA47" s="92"/>
     </row>
-    <row r="48" spans="3:53" s="91" customFormat="1">
+    <row r="48" spans="3:53" s="91" customFormat="1" x14ac:dyDescent="0.15">
       <c r="AJ48" s="133"/>
       <c r="AK48" s="133"/>
       <c r="AL48" s="133"/>
@@ -8639,37 +8639,37 @@
       <c r="AY48" s="133"/>
       <c r="AZ48" s="133"/>
     </row>
-    <row r="49" spans="3:53" s="91" customFormat="1">
-      <c r="D49" s="350" t="s">
+    <row r="49" spans="3:53" s="91" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D49" s="294" t="s">
         <v>42</v>
       </c>
-      <c r="E49" s="320" t="s">
+      <c r="E49" s="351" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="321"/>
-      <c r="G49" s="321"/>
-      <c r="H49" s="321"/>
-      <c r="I49" s="321"/>
-      <c r="J49" s="321"/>
-      <c r="K49" s="321"/>
-      <c r="L49" s="321"/>
-      <c r="M49" s="321"/>
-      <c r="N49" s="321"/>
-      <c r="O49" s="321"/>
-      <c r="P49" s="321"/>
-      <c r="Q49" s="321"/>
-      <c r="R49" s="321"/>
-      <c r="S49" s="321"/>
-      <c r="T49" s="321"/>
-      <c r="U49" s="321"/>
-      <c r="V49" s="321"/>
-      <c r="W49" s="321"/>
-      <c r="X49" s="321"/>
-      <c r="Y49" s="321"/>
-      <c r="Z49" s="321"/>
-      <c r="AA49" s="321"/>
-      <c r="AB49" s="321"/>
-      <c r="AC49" s="322"/>
+      <c r="F49" s="352"/>
+      <c r="G49" s="352"/>
+      <c r="H49" s="352"/>
+      <c r="I49" s="352"/>
+      <c r="J49" s="352"/>
+      <c r="K49" s="352"/>
+      <c r="L49" s="352"/>
+      <c r="M49" s="352"/>
+      <c r="N49" s="352"/>
+      <c r="O49" s="352"/>
+      <c r="P49" s="352"/>
+      <c r="Q49" s="352"/>
+      <c r="R49" s="352"/>
+      <c r="S49" s="352"/>
+      <c r="T49" s="352"/>
+      <c r="U49" s="352"/>
+      <c r="V49" s="352"/>
+      <c r="W49" s="352"/>
+      <c r="X49" s="352"/>
+      <c r="Y49" s="352"/>
+      <c r="Z49" s="352"/>
+      <c r="AA49" s="352"/>
+      <c r="AB49" s="352"/>
+      <c r="AC49" s="353"/>
       <c r="AD49" s="272" t="s">
         <v>34</v>
       </c>
@@ -8686,30 +8686,30 @@
       <c r="AM49" s="133"/>
       <c r="AN49" s="133"/>
     </row>
-    <row r="50" spans="3:53" s="91" customFormat="1" ht="11.25" customHeight="1">
-      <c r="D50" s="351"/>
+    <row r="50" spans="3:53" s="91" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D50" s="337"/>
       <c r="E50" s="272" t="s">
         <v>32</v>
       </c>
       <c r="F50" s="273"/>
       <c r="G50" s="273"/>
       <c r="H50" s="274"/>
-      <c r="I50" s="361" t="s">
+      <c r="I50" s="350" t="s">
         <v>40</v>
       </c>
-      <c r="J50" s="354"/>
-      <c r="K50" s="354"/>
-      <c r="L50" s="355"/>
-      <c r="M50" s="353" t="s">
+      <c r="J50" s="339"/>
+      <c r="K50" s="339"/>
+      <c r="L50" s="340"/>
+      <c r="M50" s="338" t="s">
         <v>119</v>
       </c>
-      <c r="N50" s="354"/>
-      <c r="O50" s="354"/>
-      <c r="P50" s="354"/>
-      <c r="Q50" s="354"/>
-      <c r="R50" s="354"/>
-      <c r="S50" s="354"/>
-      <c r="T50" s="355"/>
+      <c r="N50" s="339"/>
+      <c r="O50" s="339"/>
+      <c r="P50" s="339"/>
+      <c r="Q50" s="339"/>
+      <c r="R50" s="339"/>
+      <c r="S50" s="339"/>
+      <c r="T50" s="340"/>
       <c r="U50" s="272" t="s">
         <v>33</v>
       </c>
@@ -8722,7 +8722,7 @@
       </c>
       <c r="AA50" s="273"/>
       <c r="AB50" s="274"/>
-      <c r="AC50" s="350" t="s">
+      <c r="AC50" s="294" t="s">
         <v>45</v>
       </c>
       <c r="AD50" s="275"/>
@@ -8743,24 +8743,24 @@
       <c r="AS50" s="133"/>
       <c r="AT50" s="133"/>
     </row>
-    <row r="51" spans="3:53" s="91" customFormat="1">
-      <c r="D51" s="352"/>
+    <row r="51" spans="3:53" s="91" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D51" s="295"/>
       <c r="E51" s="278"/>
       <c r="F51" s="279"/>
       <c r="G51" s="279"/>
       <c r="H51" s="280"/>
-      <c r="I51" s="356"/>
-      <c r="J51" s="357"/>
-      <c r="K51" s="357"/>
-      <c r="L51" s="358"/>
-      <c r="M51" s="356"/>
-      <c r="N51" s="357"/>
-      <c r="O51" s="357"/>
-      <c r="P51" s="357"/>
-      <c r="Q51" s="357"/>
-      <c r="R51" s="357"/>
-      <c r="S51" s="357"/>
-      <c r="T51" s="358"/>
+      <c r="I51" s="341"/>
+      <c r="J51" s="342"/>
+      <c r="K51" s="342"/>
+      <c r="L51" s="343"/>
+      <c r="M51" s="341"/>
+      <c r="N51" s="342"/>
+      <c r="O51" s="342"/>
+      <c r="P51" s="342"/>
+      <c r="Q51" s="342"/>
+      <c r="R51" s="342"/>
+      <c r="S51" s="342"/>
+      <c r="T51" s="343"/>
       <c r="U51" s="278"/>
       <c r="V51" s="279"/>
       <c r="W51" s="279"/>
@@ -8769,7 +8769,7 @@
       <c r="Z51" s="278"/>
       <c r="AA51" s="279"/>
       <c r="AB51" s="280"/>
-      <c r="AC51" s="352"/>
+      <c r="AC51" s="295"/>
       <c r="AD51" s="278"/>
       <c r="AE51" s="279"/>
       <c r="AF51" s="279"/>
@@ -8790,59 +8790,59 @@
       <c r="AS51" s="133"/>
       <c r="AT51" s="133"/>
     </row>
-    <row r="52" spans="3:53" s="91" customFormat="1" ht="11.25" customHeight="1">
+    <row r="52" spans="3:53" s="91" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D52" s="138">
         <v>1</v>
       </c>
-      <c r="E52" s="220" t="s">
-        <v>143</v>
+      <c r="E52" s="213" t="s">
+        <v>142</v>
       </c>
       <c r="F52" s="284"/>
       <c r="G52" s="284"/>
-      <c r="H52" s="307"/>
-      <c r="I52" s="306" t="s">
+      <c r="H52" s="348"/>
+      <c r="I52" s="349" t="s">
         <v>89</v>
       </c>
-      <c r="J52" s="306"/>
-      <c r="K52" s="306"/>
-      <c r="L52" s="306"/>
-      <c r="M52" s="362" t="s">
+      <c r="J52" s="349"/>
+      <c r="K52" s="349"/>
+      <c r="L52" s="349"/>
+      <c r="M52" s="355" t="s">
         <v>137</v>
       </c>
-      <c r="N52" s="363"/>
-      <c r="O52" s="363"/>
-      <c r="P52" s="363"/>
-      <c r="Q52" s="363"/>
-      <c r="R52" s="363"/>
-      <c r="S52" s="363"/>
-      <c r="T52" s="363"/>
-      <c r="U52" s="301" t="s">
+      <c r="N52" s="356"/>
+      <c r="O52" s="356"/>
+      <c r="P52" s="356"/>
+      <c r="Q52" s="356"/>
+      <c r="R52" s="356"/>
+      <c r="S52" s="356"/>
+      <c r="T52" s="356"/>
+      <c r="U52" s="346" t="s">
         <v>136</v>
       </c>
-      <c r="V52" s="302"/>
-      <c r="W52" s="302"/>
-      <c r="X52" s="302"/>
-      <c r="Y52" s="302"/>
-      <c r="Z52" s="301" t="s">
+      <c r="V52" s="347"/>
+      <c r="W52" s="347"/>
+      <c r="X52" s="347"/>
+      <c r="Y52" s="347"/>
+      <c r="Z52" s="346" t="s">
         <v>136</v>
       </c>
-      <c r="AA52" s="302"/>
-      <c r="AB52" s="302"/>
+      <c r="AA52" s="347"/>
+      <c r="AB52" s="347"/>
       <c r="AC52" s="176" t="s">
         <v>91</v>
       </c>
-      <c r="AD52" s="217" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE52" s="303"/>
-      <c r="AF52" s="303"/>
-      <c r="AG52" s="304"/>
+      <c r="AD52" s="210" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE52" s="292"/>
+      <c r="AF52" s="292"/>
+      <c r="AG52" s="293"/>
       <c r="AH52" s="133"/>
       <c r="AI52" s="133"/>
       <c r="AJ52" s="133"/>
       <c r="AK52" s="133"/>
       <c r="AL52" s="100" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="AM52" s="164"/>
       <c r="AN52" s="164"/>
@@ -8853,59 +8853,59 @@
       <c r="AS52" s="133"/>
       <c r="AT52" s="133"/>
     </row>
-    <row r="53" spans="3:53" s="91" customFormat="1" ht="36" customHeight="1">
+    <row r="53" spans="3:53" s="91" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D53" s="138">
         <v>2</v>
       </c>
-      <c r="E53" s="220" t="s">
-        <v>144</v>
+      <c r="E53" s="213" t="s">
+        <v>143</v>
       </c>
       <c r="F53" s="284"/>
       <c r="G53" s="284"/>
-      <c r="H53" s="307"/>
-      <c r="I53" s="305" t="s">
-        <v>183</v>
-      </c>
-      <c r="J53" s="306"/>
-      <c r="K53" s="306"/>
-      <c r="L53" s="306"/>
-      <c r="M53" s="346" t="s">
+      <c r="H53" s="348"/>
+      <c r="I53" s="393" t="s">
+        <v>180</v>
+      </c>
+      <c r="J53" s="349"/>
+      <c r="K53" s="349"/>
+      <c r="L53" s="349"/>
+      <c r="M53" s="332" t="s">
         <v>80</v>
       </c>
-      <c r="N53" s="347"/>
-      <c r="O53" s="347"/>
-      <c r="P53" s="347"/>
-      <c r="Q53" s="347"/>
-      <c r="R53" s="347"/>
-      <c r="S53" s="347"/>
-      <c r="T53" s="348"/>
-      <c r="U53" s="217" t="s">
-        <v>185</v>
-      </c>
-      <c r="V53" s="303"/>
-      <c r="W53" s="303"/>
-      <c r="X53" s="303"/>
-      <c r="Y53" s="304"/>
-      <c r="Z53" s="301" t="s">
+      <c r="N53" s="333"/>
+      <c r="O53" s="333"/>
+      <c r="P53" s="333"/>
+      <c r="Q53" s="333"/>
+      <c r="R53" s="333"/>
+      <c r="S53" s="333"/>
+      <c r="T53" s="334"/>
+      <c r="U53" s="210" t="s">
+        <v>182</v>
+      </c>
+      <c r="V53" s="292"/>
+      <c r="W53" s="292"/>
+      <c r="X53" s="292"/>
+      <c r="Y53" s="293"/>
+      <c r="Z53" s="346" t="s">
         <v>136</v>
       </c>
-      <c r="AA53" s="302"/>
-      <c r="AB53" s="302"/>
+      <c r="AA53" s="347"/>
+      <c r="AB53" s="347"/>
       <c r="AC53" s="176" t="s">
         <v>91</v>
       </c>
-      <c r="AD53" s="217" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE53" s="303"/>
-      <c r="AF53" s="303"/>
-      <c r="AG53" s="304"/>
+      <c r="AD53" s="210" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE53" s="292"/>
+      <c r="AF53" s="292"/>
+      <c r="AG53" s="293"/>
       <c r="AH53" s="133"/>
       <c r="AI53" s="133"/>
       <c r="AJ53" s="133"/>
       <c r="AK53" s="133"/>
       <c r="AL53" s="100" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="AM53" s="164"/>
       <c r="AN53" s="164"/>
@@ -8916,10 +8916,10 @@
       <c r="AS53" s="133"/>
       <c r="AT53" s="133"/>
     </row>
-    <row r="54" spans="3:53" ht="11.25" customHeight="1">
+    <row r="54" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AY54" s="108"/>
     </row>
-    <row r="55" spans="3:53">
+    <row r="55" spans="3:53" x14ac:dyDescent="0.15">
       <c r="D55" s="129"/>
       <c r="E55" s="130"/>
       <c r="F55" s="134"/>
@@ -8961,7 +8961,7 @@
       <c r="AR55" s="105"/>
       <c r="AS55" s="105"/>
     </row>
-    <row r="56" spans="3:53">
+    <row r="56" spans="3:53" x14ac:dyDescent="0.15">
       <c r="C56" s="17" t="s">
         <v>67</v>
       </c>
@@ -9006,7 +9006,7 @@
       <c r="AR56" s="105"/>
       <c r="AS56" s="105"/>
     </row>
-    <row r="57" spans="3:53" ht="11.25" customHeight="1">
+    <row r="57" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AI57" s="134"/>
       <c r="AJ57" s="134"/>
       <c r="AK57" s="105"/>
@@ -9023,25 +9023,25 @@
       <c r="AV57" s="105"/>
       <c r="AW57" s="105"/>
     </row>
-    <row r="58" spans="3:53">
-      <c r="D58" s="364" t="s">
+    <row r="58" spans="3:53" x14ac:dyDescent="0.15">
+      <c r="D58" s="302" t="s">
         <v>118</v>
       </c>
-      <c r="E58" s="293" t="s">
+      <c r="E58" s="304" t="s">
         <v>50</v>
       </c>
-      <c r="F58" s="294"/>
-      <c r="G58" s="294"/>
-      <c r="H58" s="294"/>
-      <c r="I58" s="294"/>
-      <c r="J58" s="295"/>
-      <c r="K58" s="293" t="s">
+      <c r="F58" s="305"/>
+      <c r="G58" s="305"/>
+      <c r="H58" s="305"/>
+      <c r="I58" s="305"/>
+      <c r="J58" s="306"/>
+      <c r="K58" s="304" t="s">
         <v>51</v>
       </c>
-      <c r="L58" s="294"/>
-      <c r="M58" s="294"/>
-      <c r="N58" s="295"/>
-      <c r="O58" s="291" t="s">
+      <c r="L58" s="305"/>
+      <c r="M58" s="305"/>
+      <c r="N58" s="306"/>
+      <c r="O58" s="389" t="s">
         <v>52</v>
       </c>
       <c r="P58" s="139" t="s">
@@ -9052,21 +9052,21 @@
       <c r="S58" s="140"/>
       <c r="T58" s="140"/>
       <c r="U58" s="140"/>
-      <c r="V58" s="293" t="s">
+      <c r="V58" s="304" t="s">
         <v>31</v>
       </c>
-      <c r="W58" s="294"/>
-      <c r="X58" s="294"/>
-      <c r="Y58" s="294"/>
-      <c r="Z58" s="294"/>
-      <c r="AA58" s="294"/>
-      <c r="AB58" s="294"/>
-      <c r="AC58" s="294"/>
-      <c r="AD58" s="294"/>
-      <c r="AE58" s="294"/>
-      <c r="AF58" s="294"/>
-      <c r="AG58" s="294"/>
-      <c r="AH58" s="295"/>
+      <c r="W58" s="305"/>
+      <c r="X58" s="305"/>
+      <c r="Y58" s="305"/>
+      <c r="Z58" s="305"/>
+      <c r="AA58" s="305"/>
+      <c r="AB58" s="305"/>
+      <c r="AC58" s="305"/>
+      <c r="AD58" s="305"/>
+      <c r="AE58" s="305"/>
+      <c r="AF58" s="305"/>
+      <c r="AG58" s="305"/>
+      <c r="AH58" s="306"/>
       <c r="AK58" s="105"/>
       <c r="AL58" s="105"/>
       <c r="AM58" s="105"/>
@@ -9081,19 +9081,19 @@
       <c r="AV58" s="105"/>
       <c r="AW58" s="105"/>
     </row>
-    <row r="59" spans="3:53">
-      <c r="D59" s="365"/>
-      <c r="E59" s="296"/>
-      <c r="F59" s="297"/>
-      <c r="G59" s="297"/>
-      <c r="H59" s="297"/>
-      <c r="I59" s="297"/>
-      <c r="J59" s="298"/>
-      <c r="K59" s="296"/>
-      <c r="L59" s="297"/>
-      <c r="M59" s="297"/>
-      <c r="N59" s="298"/>
-      <c r="O59" s="292"/>
+    <row r="59" spans="3:53" x14ac:dyDescent="0.15">
+      <c r="D59" s="303"/>
+      <c r="E59" s="307"/>
+      <c r="F59" s="308"/>
+      <c r="G59" s="308"/>
+      <c r="H59" s="308"/>
+      <c r="I59" s="308"/>
+      <c r="J59" s="309"/>
+      <c r="K59" s="307"/>
+      <c r="L59" s="308"/>
+      <c r="M59" s="308"/>
+      <c r="N59" s="309"/>
+      <c r="O59" s="390"/>
       <c r="P59" s="141" t="s">
         <v>53</v>
       </c>
@@ -9106,23 +9106,23 @@
       <c r="S59" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="T59" s="299" t="s">
+      <c r="T59" s="391" t="s">
         <v>60</v>
       </c>
-      <c r="U59" s="300"/>
-      <c r="V59" s="296"/>
-      <c r="W59" s="297"/>
-      <c r="X59" s="297"/>
-      <c r="Y59" s="297"/>
-      <c r="Z59" s="297"/>
-      <c r="AA59" s="297"/>
-      <c r="AB59" s="297"/>
-      <c r="AC59" s="297"/>
-      <c r="AD59" s="297"/>
-      <c r="AE59" s="297"/>
-      <c r="AF59" s="297"/>
-      <c r="AG59" s="297"/>
-      <c r="AH59" s="298"/>
+      <c r="U59" s="392"/>
+      <c r="V59" s="307"/>
+      <c r="W59" s="308"/>
+      <c r="X59" s="308"/>
+      <c r="Y59" s="308"/>
+      <c r="Z59" s="308"/>
+      <c r="AA59" s="308"/>
+      <c r="AB59" s="308"/>
+      <c r="AC59" s="308"/>
+      <c r="AD59" s="308"/>
+      <c r="AE59" s="308"/>
+      <c r="AF59" s="308"/>
+      <c r="AG59" s="308"/>
+      <c r="AH59" s="309"/>
       <c r="AK59" s="105"/>
       <c r="AL59" s="105"/>
       <c r="AM59" s="105"/>
@@ -9137,24 +9137,24 @@
       <c r="AV59" s="105"/>
       <c r="AW59" s="105"/>
     </row>
-    <row r="60" spans="3:53">
+    <row r="60" spans="3:53" x14ac:dyDescent="0.15">
       <c r="D60" s="142">
         <v>1</v>
       </c>
-      <c r="E60" s="330" t="s">
-        <v>146</v>
-      </c>
-      <c r="F60" s="331"/>
-      <c r="G60" s="331"/>
-      <c r="H60" s="331"/>
-      <c r="I60" s="331"/>
-      <c r="J60" s="332"/>
-      <c r="K60" s="329" t="s">
+      <c r="E60" s="313" t="s">
+        <v>145</v>
+      </c>
+      <c r="F60" s="314"/>
+      <c r="G60" s="314"/>
+      <c r="H60" s="314"/>
+      <c r="I60" s="314"/>
+      <c r="J60" s="315"/>
+      <c r="K60" s="366" t="s">
         <v>92</v>
       </c>
-      <c r="L60" s="303"/>
-      <c r="M60" s="303"/>
-      <c r="N60" s="304"/>
+      <c r="L60" s="292"/>
+      <c r="M60" s="292"/>
+      <c r="N60" s="293"/>
       <c r="O60" s="137" t="s">
         <v>93</v>
       </c>
@@ -9170,25 +9170,25 @@
       <c r="S60" s="162" t="s">
         <v>90</v>
       </c>
-      <c r="T60" s="333" t="s">
+      <c r="T60" s="367" t="s">
         <v>90</v>
       </c>
-      <c r="U60" s="334"/>
-      <c r="V60" s="329" t="s">
+      <c r="U60" s="368"/>
+      <c r="V60" s="366" t="s">
         <v>80</v>
       </c>
-      <c r="W60" s="303"/>
-      <c r="X60" s="303"/>
-      <c r="Y60" s="303"/>
-      <c r="Z60" s="303"/>
-      <c r="AA60" s="303"/>
-      <c r="AB60" s="303"/>
-      <c r="AC60" s="303"/>
-      <c r="AD60" s="303"/>
-      <c r="AE60" s="303"/>
-      <c r="AF60" s="303"/>
-      <c r="AG60" s="303"/>
-      <c r="AH60" s="304"/>
+      <c r="W60" s="292"/>
+      <c r="X60" s="292"/>
+      <c r="Y60" s="292"/>
+      <c r="Z60" s="292"/>
+      <c r="AA60" s="292"/>
+      <c r="AB60" s="292"/>
+      <c r="AC60" s="292"/>
+      <c r="AD60" s="292"/>
+      <c r="AE60" s="292"/>
+      <c r="AF60" s="292"/>
+      <c r="AG60" s="292"/>
+      <c r="AH60" s="293"/>
       <c r="AK60" s="105"/>
       <c r="AL60" s="105"/>
       <c r="AM60" s="105"/>
@@ -9203,7 +9203,7 @@
       <c r="AV60" s="105"/>
       <c r="AW60" s="105"/>
     </row>
-    <row r="61" spans="3:53">
+    <row r="61" spans="3:53" x14ac:dyDescent="0.15">
       <c r="D61" s="132"/>
       <c r="E61" s="159"/>
       <c r="F61" s="159"/>
@@ -9251,7 +9251,7 @@
       <c r="AZ61" s="105"/>
       <c r="BA61" s="105"/>
     </row>
-    <row r="62" spans="3:53">
+    <row r="62" spans="3:53" x14ac:dyDescent="0.15">
       <c r="D62" s="129"/>
       <c r="E62" s="130"/>
       <c r="F62" s="134"/>
@@ -9295,7 +9295,7 @@
       <c r="AZ62" s="105"/>
       <c r="BA62" s="105"/>
     </row>
-    <row r="63" spans="3:53">
+    <row r="63" spans="3:53" x14ac:dyDescent="0.15">
       <c r="C63" s="17" t="s">
         <v>68</v>
       </c>
@@ -9309,143 +9309,143 @@
       <c r="AZ63" s="105"/>
       <c r="BA63" s="105"/>
     </row>
-    <row r="65" spans="1:58" ht="11.25" customHeight="1">
+    <row r="65" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C65" s="143"/>
       <c r="D65" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="E65" s="326" t="s">
+      <c r="E65" s="310" t="s">
         <v>73</v>
       </c>
-      <c r="F65" s="327"/>
-      <c r="G65" s="327"/>
-      <c r="H65" s="327"/>
-      <c r="I65" s="327"/>
-      <c r="J65" s="366"/>
-      <c r="K65" s="326" t="s">
+      <c r="F65" s="311"/>
+      <c r="G65" s="311"/>
+      <c r="H65" s="311"/>
+      <c r="I65" s="311"/>
+      <c r="J65" s="312"/>
+      <c r="K65" s="310" t="s">
         <v>39</v>
       </c>
-      <c r="L65" s="327"/>
-      <c r="M65" s="327"/>
-      <c r="N65" s="327"/>
-      <c r="O65" s="327"/>
-      <c r="P65" s="327"/>
-      <c r="Q65" s="328"/>
+      <c r="L65" s="311"/>
+      <c r="M65" s="311"/>
+      <c r="N65" s="311"/>
+      <c r="O65" s="311"/>
+      <c r="P65" s="311"/>
+      <c r="Q65" s="335"/>
       <c r="R65" s="281" t="s">
         <v>74</v>
       </c>
-      <c r="S65" s="327"/>
-      <c r="T65" s="327"/>
-      <c r="U65" s="327"/>
-      <c r="V65" s="327"/>
-      <c r="W65" s="327"/>
-      <c r="X65" s="327"/>
-      <c r="Y65" s="328"/>
-      <c r="Z65" s="320" t="s">
+      <c r="S65" s="311"/>
+      <c r="T65" s="311"/>
+      <c r="U65" s="311"/>
+      <c r="V65" s="311"/>
+      <c r="W65" s="311"/>
+      <c r="X65" s="311"/>
+      <c r="Y65" s="335"/>
+      <c r="Z65" s="351" t="s">
         <v>27</v>
       </c>
-      <c r="AA65" s="321"/>
-      <c r="AB65" s="321"/>
-      <c r="AC65" s="321"/>
-      <c r="AD65" s="322"/>
-      <c r="AE65" s="317" t="s">
+      <c r="AA65" s="352"/>
+      <c r="AB65" s="352"/>
+      <c r="AC65" s="352"/>
+      <c r="AD65" s="353"/>
+      <c r="AE65" s="360" t="s">
         <v>130</v>
       </c>
-      <c r="AF65" s="318"/>
-      <c r="AG65" s="318"/>
-      <c r="AH65" s="319"/>
-    </row>
-    <row r="66" spans="1:58" ht="27" customHeight="1">
+      <c r="AF65" s="361"/>
+      <c r="AG65" s="361"/>
+      <c r="AH65" s="362"/>
+    </row>
+    <row r="66" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D66" s="145">
         <v>1</v>
       </c>
-      <c r="E66" s="339" t="s">
+      <c r="E66" s="373" t="s">
         <v>95</v>
       </c>
-      <c r="F66" s="336"/>
-      <c r="G66" s="336"/>
-      <c r="H66" s="336"/>
-      <c r="I66" s="336"/>
-      <c r="J66" s="337"/>
-      <c r="K66" s="329" t="s">
+      <c r="F66" s="370"/>
+      <c r="G66" s="370"/>
+      <c r="H66" s="370"/>
+      <c r="I66" s="370"/>
+      <c r="J66" s="371"/>
+      <c r="K66" s="366" t="s">
         <v>96</v>
       </c>
-      <c r="L66" s="303"/>
-      <c r="M66" s="303"/>
-      <c r="N66" s="303"/>
-      <c r="O66" s="303"/>
-      <c r="P66" s="303"/>
-      <c r="Q66" s="304"/>
-      <c r="R66" s="217" t="s">
-        <v>148</v>
-      </c>
-      <c r="S66" s="303"/>
-      <c r="T66" s="303"/>
-      <c r="U66" s="303"/>
-      <c r="V66" s="303"/>
-      <c r="W66" s="303"/>
-      <c r="X66" s="303"/>
-      <c r="Y66" s="304"/>
-      <c r="Z66" s="329" t="s">
+      <c r="L66" s="292"/>
+      <c r="M66" s="292"/>
+      <c r="N66" s="292"/>
+      <c r="O66" s="292"/>
+      <c r="P66" s="292"/>
+      <c r="Q66" s="293"/>
+      <c r="R66" s="210" t="s">
+        <v>147</v>
+      </c>
+      <c r="S66" s="292"/>
+      <c r="T66" s="292"/>
+      <c r="U66" s="292"/>
+      <c r="V66" s="292"/>
+      <c r="W66" s="292"/>
+      <c r="X66" s="292"/>
+      <c r="Y66" s="293"/>
+      <c r="Z66" s="366" t="s">
         <v>94</v>
       </c>
-      <c r="AA66" s="303"/>
-      <c r="AB66" s="303"/>
-      <c r="AC66" s="303"/>
-      <c r="AD66" s="304"/>
-      <c r="AE66" s="323" t="s">
+      <c r="AA66" s="292"/>
+      <c r="AB66" s="292"/>
+      <c r="AC66" s="292"/>
+      <c r="AD66" s="293"/>
+      <c r="AE66" s="363" t="s">
         <v>72</v>
       </c>
-      <c r="AF66" s="324"/>
-      <c r="AG66" s="324"/>
-      <c r="AH66" s="325"/>
-    </row>
-    <row r="67" spans="1:58" ht="27" customHeight="1">
+      <c r="AF66" s="364"/>
+      <c r="AG66" s="364"/>
+      <c r="AH66" s="365"/>
+    </row>
+    <row r="67" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D67" s="145">
         <v>2</v>
       </c>
-      <c r="E67" s="335" t="s">
+      <c r="E67" s="369" t="s">
         <v>139</v>
       </c>
-      <c r="F67" s="336"/>
-      <c r="G67" s="336"/>
-      <c r="H67" s="336"/>
-      <c r="I67" s="336"/>
-      <c r="J67" s="337"/>
-      <c r="K67" s="217" t="s">
-        <v>147</v>
-      </c>
-      <c r="L67" s="303"/>
-      <c r="M67" s="303"/>
-      <c r="N67" s="303"/>
-      <c r="O67" s="303"/>
-      <c r="P67" s="303"/>
-      <c r="Q67" s="304"/>
-      <c r="R67" s="217" t="s">
-        <v>149</v>
-      </c>
-      <c r="S67" s="303"/>
-      <c r="T67" s="303"/>
-      <c r="U67" s="303"/>
-      <c r="V67" s="303"/>
-      <c r="W67" s="303"/>
-      <c r="X67" s="303"/>
-      <c r="Y67" s="304"/>
-      <c r="Z67" s="217" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA67" s="303"/>
-      <c r="AB67" s="303"/>
-      <c r="AC67" s="303"/>
-      <c r="AD67" s="304"/>
-      <c r="AE67" s="323" t="s">
+      <c r="F67" s="370"/>
+      <c r="G67" s="370"/>
+      <c r="H67" s="370"/>
+      <c r="I67" s="370"/>
+      <c r="J67" s="371"/>
+      <c r="K67" s="210" t="s">
+        <v>146</v>
+      </c>
+      <c r="L67" s="292"/>
+      <c r="M67" s="292"/>
+      <c r="N67" s="292"/>
+      <c r="O67" s="292"/>
+      <c r="P67" s="292"/>
+      <c r="Q67" s="293"/>
+      <c r="R67" s="210" t="s">
+        <v>148</v>
+      </c>
+      <c r="S67" s="292"/>
+      <c r="T67" s="292"/>
+      <c r="U67" s="292"/>
+      <c r="V67" s="292"/>
+      <c r="W67" s="292"/>
+      <c r="X67" s="292"/>
+      <c r="Y67" s="293"/>
+      <c r="Z67" s="210" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA67" s="292"/>
+      <c r="AB67" s="292"/>
+      <c r="AC67" s="292"/>
+      <c r="AD67" s="293"/>
+      <c r="AE67" s="363" t="s">
         <v>72</v>
       </c>
-      <c r="AF67" s="324"/>
-      <c r="AG67" s="324"/>
-      <c r="AH67" s="325"/>
-    </row>
-    <row r="68" spans="1:58" s="108" customFormat="1">
+      <c r="AF67" s="364"/>
+      <c r="AG67" s="364"/>
+      <c r="AH67" s="365"/>
+    </row>
+    <row r="68" spans="1:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D68" s="128"/>
       <c r="E68" s="150"/>
       <c r="F68" s="150"/>
@@ -9481,7 +9481,7 @@
       <c r="AO68" s="29"/>
       <c r="AP68" s="29"/>
     </row>
-    <row r="69" spans="1:58">
+    <row r="69" spans="1:58" x14ac:dyDescent="0.15">
       <c r="A69" s="105"/>
       <c r="B69" s="105"/>
       <c r="C69" s="105"/>
@@ -9533,7 +9533,7 @@
       <c r="BA69" s="105"/>
       <c r="BB69" s="105"/>
     </row>
-    <row r="70" spans="1:58">
+    <row r="70" spans="1:58" x14ac:dyDescent="0.15">
       <c r="C70" s="105" t="s">
         <v>66</v>
       </c>
@@ -9559,7 +9559,7 @@
       <c r="BC70" s="105"/>
       <c r="BD70" s="105"/>
     </row>
-    <row r="71" spans="1:58" ht="11.25" customHeight="1">
+    <row r="71" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C71" s="105"/>
       <c r="D71" s="152" t="s">
         <v>97</v>
@@ -9581,7 +9581,7 @@
       <c r="BC71" s="105"/>
       <c r="BD71" s="105"/>
     </row>
-    <row r="72" spans="1:58" ht="11.25" customHeight="1">
+    <row r="72" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C72" s="105"/>
       <c r="D72" s="106"/>
       <c r="E72" s="106"/>
@@ -9601,7 +9601,7 @@
       <c r="BC72" s="105"/>
       <c r="BD72" s="105"/>
     </row>
-    <row r="73" spans="1:58" s="108" customFormat="1" ht="11.25" customHeight="1">
+    <row r="73" spans="1:58" s="108" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C73" s="29"/>
       <c r="D73" s="106"/>
       <c r="E73" s="106" t="s">
@@ -9609,13 +9609,13 @@
       </c>
       <c r="AP73" s="29"/>
     </row>
-    <row r="74" spans="1:58">
+    <row r="74" spans="1:58" x14ac:dyDescent="0.15">
       <c r="C74" s="105"/>
       <c r="D74" s="106"/>
       <c r="E74" s="106"/>
       <c r="F74" s="106"/>
     </row>
-    <row r="75" spans="1:58" ht="11.25" customHeight="1">
+    <row r="75" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C75" s="105"/>
       <c r="D75" s="106"/>
       <c r="E75" s="106"/>
@@ -9624,7 +9624,7 @@
       </c>
       <c r="AP75" s="105"/>
     </row>
-    <row r="76" spans="1:58" s="108" customFormat="1">
+    <row r="76" spans="1:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A76" s="29"/>
       <c r="B76" s="107"/>
       <c r="C76" s="29"/>
@@ -9661,7 +9661,7 @@
       <c r="AI76" s="149"/>
       <c r="AJ76" s="130"/>
     </row>
-    <row r="77" spans="1:58" s="108" customFormat="1">
+    <row r="77" spans="1:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
       <c r="AI77" s="125"/>
       <c r="AJ77" s="125"/>
       <c r="AK77" s="125"/>
@@ -9686,9 +9686,9 @@
       <c r="BD77" s="125"/>
       <c r="BE77" s="125"/>
     </row>
-    <row r="78" spans="1:58">
+    <row r="78" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E78" s="103" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G78" s="107"/>
       <c r="AJ78" s="110"/>
@@ -9715,7 +9715,7 @@
       <c r="BE78" s="110"/>
       <c r="BF78" s="110"/>
     </row>
-    <row r="79" spans="1:58">
+    <row r="79" spans="1:58" x14ac:dyDescent="0.15">
       <c r="H79" s="107"/>
       <c r="AJ79" s="110"/>
       <c r="AK79" s="110"/>
@@ -9741,10 +9741,10 @@
       <c r="BE79" s="110"/>
       <c r="BF79" s="110"/>
     </row>
-    <row r="80" spans="1:58">
+    <row r="80" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E80" s="126"/>
       <c r="F80" s="71" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AJ80" s="110"/>
       <c r="AK80" s="110"/>
@@ -9770,7 +9770,7 @@
       <c r="BE80" s="110"/>
       <c r="BF80" s="110"/>
     </row>
-    <row r="81" spans="1:58">
+    <row r="81" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E81" s="126"/>
       <c r="F81" s="127"/>
       <c r="G81" s="71"/>
@@ -9798,7 +9798,7 @@
       <c r="BE81" s="110"/>
       <c r="BF81" s="110"/>
     </row>
-    <row r="82" spans="1:58">
+    <row r="82" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E82" s="126"/>
       <c r="AJ82" s="110"/>
       <c r="AK82" s="110"/>
@@ -9824,10 +9824,10 @@
       <c r="BE82" s="110"/>
       <c r="BF82" s="110"/>
     </row>
-    <row r="83" spans="1:58" ht="11.25" customHeight="1">
+    <row r="83" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C83" s="105"/>
       <c r="D83" s="152" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E83" s="106"/>
       <c r="AP83" s="105"/>
@@ -9846,7 +9846,7 @@
       <c r="BC83" s="105"/>
       <c r="BD83" s="105"/>
     </row>
-    <row r="84" spans="1:58" ht="11.25" customHeight="1">
+    <row r="84" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C84" s="105"/>
       <c r="D84" s="106"/>
       <c r="E84" s="106"/>
@@ -9866,7 +9866,7 @@
       <c r="BC84" s="105"/>
       <c r="BD84" s="105"/>
     </row>
-    <row r="85" spans="1:58" s="108" customFormat="1" ht="11.25" customHeight="1">
+    <row r="85" spans="1:58" s="108" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C85" s="29"/>
       <c r="D85" s="106"/>
       <c r="E85" s="106" t="s">
@@ -9874,13 +9874,13 @@
       </c>
       <c r="AP85" s="29"/>
     </row>
-    <row r="86" spans="1:58">
+    <row r="86" spans="1:58" x14ac:dyDescent="0.15">
       <c r="C86" s="105"/>
       <c r="D86" s="106"/>
       <c r="E86" s="106"/>
       <c r="F86" s="106"/>
     </row>
-    <row r="87" spans="1:58" ht="41.25" customHeight="1">
+    <row r="87" spans="1:58" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="103"/>
       <c r="D87" s="105"/>
       <c r="E87" s="106"/>
@@ -9890,40 +9890,40 @@
       <c r="G87" s="281" t="s">
         <v>69</v>
       </c>
-      <c r="H87" s="327"/>
-      <c r="I87" s="327"/>
-      <c r="J87" s="327"/>
-      <c r="K87" s="327"/>
-      <c r="L87" s="328"/>
-      <c r="M87" s="338" t="s">
+      <c r="H87" s="311"/>
+      <c r="I87" s="311"/>
+      <c r="J87" s="311"/>
+      <c r="K87" s="311"/>
+      <c r="L87" s="335"/>
+      <c r="M87" s="372" t="s">
         <v>77</v>
       </c>
-      <c r="N87" s="327"/>
-      <c r="O87" s="327"/>
-      <c r="P87" s="327"/>
-      <c r="Q87" s="327"/>
-      <c r="R87" s="327"/>
-      <c r="S87" s="327"/>
-      <c r="T87" s="327"/>
-      <c r="U87" s="327"/>
-      <c r="V87" s="328"/>
-      <c r="W87" s="349" t="s">
-        <v>169</v>
-      </c>
-      <c r="X87" s="344"/>
-      <c r="Y87" s="345"/>
-      <c r="Z87" s="343" t="s">
+      <c r="N87" s="311"/>
+      <c r="O87" s="311"/>
+      <c r="P87" s="311"/>
+      <c r="Q87" s="311"/>
+      <c r="R87" s="311"/>
+      <c r="S87" s="311"/>
+      <c r="T87" s="311"/>
+      <c r="U87" s="311"/>
+      <c r="V87" s="335"/>
+      <c r="W87" s="380" t="s">
+        <v>168</v>
+      </c>
+      <c r="X87" s="378"/>
+      <c r="Y87" s="379"/>
+      <c r="Z87" s="377" t="s">
         <v>78</v>
       </c>
-      <c r="AA87" s="344"/>
-      <c r="AB87" s="344"/>
-      <c r="AC87" s="345"/>
-      <c r="AD87" s="390" t="s">
+      <c r="AA87" s="378"/>
+      <c r="AB87" s="378"/>
+      <c r="AC87" s="379"/>
+      <c r="AD87" s="329" t="s">
         <v>131</v>
       </c>
-      <c r="AE87" s="391"/>
-      <c r="AF87" s="391"/>
-      <c r="AG87" s="392"/>
+      <c r="AE87" s="330"/>
+      <c r="AF87" s="330"/>
+      <c r="AG87" s="331"/>
       <c r="AJ87" s="125"/>
       <c r="AK87" s="125"/>
       <c r="AL87" s="125"/>
@@ -9947,49 +9947,49 @@
       <c r="BD87" s="110"/>
       <c r="BE87" s="110"/>
     </row>
-    <row r="88" spans="1:58" ht="47.25" customHeight="1">
+    <row r="88" spans="1:58" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D88" s="105"/>
       <c r="E88" s="106"/>
       <c r="F88" s="148">
         <v>1</v>
       </c>
-      <c r="G88" s="393" t="s">
+      <c r="G88" s="336" t="s">
         <v>71</v>
       </c>
-      <c r="H88" s="347"/>
-      <c r="I88" s="347"/>
-      <c r="J88" s="347"/>
-      <c r="K88" s="347"/>
-      <c r="L88" s="348"/>
-      <c r="M88" s="346" t="s">
+      <c r="H88" s="333"/>
+      <c r="I88" s="333"/>
+      <c r="J88" s="333"/>
+      <c r="K88" s="333"/>
+      <c r="L88" s="334"/>
+      <c r="M88" s="332" t="s">
         <v>87</v>
       </c>
-      <c r="N88" s="347"/>
-      <c r="O88" s="347"/>
-      <c r="P88" s="347"/>
-      <c r="Q88" s="347"/>
-      <c r="R88" s="347"/>
-      <c r="S88" s="347"/>
-      <c r="T88" s="347"/>
-      <c r="U88" s="347"/>
-      <c r="V88" s="348"/>
-      <c r="W88" s="314" t="s">
+      <c r="N88" s="333"/>
+      <c r="O88" s="333"/>
+      <c r="P88" s="333"/>
+      <c r="Q88" s="333"/>
+      <c r="R88" s="333"/>
+      <c r="S88" s="333"/>
+      <c r="T88" s="333"/>
+      <c r="U88" s="333"/>
+      <c r="V88" s="334"/>
+      <c r="W88" s="357" t="s">
         <v>133</v>
       </c>
-      <c r="X88" s="315"/>
-      <c r="Y88" s="316"/>
-      <c r="Z88" s="340" t="s">
+      <c r="X88" s="358"/>
+      <c r="Y88" s="359"/>
+      <c r="Z88" s="374" t="s">
         <v>132</v>
       </c>
-      <c r="AA88" s="341"/>
-      <c r="AB88" s="341"/>
-      <c r="AC88" s="342"/>
-      <c r="AD88" s="346" t="s">
+      <c r="AA88" s="375"/>
+      <c r="AB88" s="375"/>
+      <c r="AC88" s="376"/>
+      <c r="AD88" s="332" t="s">
         <v>121</v>
       </c>
-      <c r="AE88" s="347"/>
-      <c r="AF88" s="347"/>
-      <c r="AG88" s="348"/>
+      <c r="AE88" s="333"/>
+      <c r="AF88" s="333"/>
+      <c r="AG88" s="334"/>
       <c r="AI88" s="125"/>
       <c r="AJ88" s="125"/>
       <c r="AK88" s="125"/>
@@ -10014,7 +10014,7 @@
       <c r="BD88" s="110"/>
       <c r="BE88" s="110"/>
     </row>
-    <row r="89" spans="1:58">
+    <row r="89" spans="1:58" x14ac:dyDescent="0.15">
       <c r="D89" s="105"/>
       <c r="E89" s="106"/>
       <c r="F89" s="108"/>
@@ -10070,20 +10070,20 @@
       <c r="BD89" s="110"/>
       <c r="BE89" s="110"/>
     </row>
-    <row r="90" spans="1:58" s="108" customFormat="1">
+    <row r="90" spans="1:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D90" s="29"/>
       <c r="E90" s="106"/>
       <c r="F90" s="104" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="91" spans="1:58" s="108" customFormat="1">
+    <row r="91" spans="1:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D91" s="29"/>
       <c r="E91" s="106"/>
       <c r="F91" s="106"/>
       <c r="G91" s="104"/>
     </row>
-    <row r="92" spans="1:58" s="108" customFormat="1">
+    <row r="92" spans="1:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A92" s="29"/>
       <c r="B92" s="107"/>
       <c r="C92" s="29"/>
@@ -10120,89 +10120,89 @@
       <c r="AI92" s="149"/>
       <c r="AJ92" s="130"/>
     </row>
-    <row r="93" spans="1:58" ht="11.25" customHeight="1">
+    <row r="93" spans="1:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C93" s="105"/>
       <c r="D93" s="106"/>
       <c r="E93" s="106"/>
       <c r="AP93" s="105"/>
     </row>
-    <row r="94" spans="1:58">
+    <row r="94" spans="1:58" x14ac:dyDescent="0.15">
       <c r="E94" s="103" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="1:58">
+    <row r="95" spans="1:58" x14ac:dyDescent="0.15">
       <c r="F95" s="103" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="97" spans="4:58" s="108" customFormat="1">
-      <c r="G97" s="374" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="97" spans="4:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G97" s="299" t="s">
         <v>100</v>
       </c>
-      <c r="H97" s="375"/>
-      <c r="I97" s="375"/>
-      <c r="J97" s="375"/>
-      <c r="K97" s="375"/>
-      <c r="L97" s="375"/>
-      <c r="M97" s="375"/>
-      <c r="N97" s="375"/>
-      <c r="O97" s="375"/>
-      <c r="P97" s="376"/>
-      <c r="Q97" s="377" t="s">
+      <c r="H97" s="300"/>
+      <c r="I97" s="300"/>
+      <c r="J97" s="300"/>
+      <c r="K97" s="300"/>
+      <c r="L97" s="300"/>
+      <c r="M97" s="300"/>
+      <c r="N97" s="300"/>
+      <c r="O97" s="300"/>
+      <c r="P97" s="301"/>
+      <c r="Q97" s="316" t="s">
         <v>101</v>
       </c>
-      <c r="R97" s="378"/>
-      <c r="S97" s="378"/>
-      <c r="T97" s="378"/>
-      <c r="U97" s="378"/>
-      <c r="V97" s="378"/>
-      <c r="W97" s="378"/>
-      <c r="X97" s="378"/>
-      <c r="Y97" s="378"/>
-      <c r="Z97" s="379"/>
-    </row>
-    <row r="98" spans="4:58" ht="11.25" customHeight="1">
-      <c r="G98" s="380" t="s">
-        <v>146</v>
-      </c>
-      <c r="H98" s="381"/>
-      <c r="I98" s="381"/>
-      <c r="J98" s="381"/>
-      <c r="K98" s="381"/>
-      <c r="L98" s="381"/>
-      <c r="M98" s="381"/>
-      <c r="N98" s="381"/>
-      <c r="O98" s="381"/>
-      <c r="P98" s="382"/>
-      <c r="Q98" s="330" t="s">
-        <v>180</v>
-      </c>
-      <c r="R98" s="331"/>
-      <c r="S98" s="331"/>
-      <c r="T98" s="331"/>
-      <c r="U98" s="331"/>
-      <c r="V98" s="331"/>
-      <c r="W98" s="331"/>
-      <c r="X98" s="331"/>
-      <c r="Y98" s="331"/>
-      <c r="Z98" s="332"/>
+      <c r="R97" s="317"/>
+      <c r="S97" s="317"/>
+      <c r="T97" s="317"/>
+      <c r="U97" s="317"/>
+      <c r="V97" s="317"/>
+      <c r="W97" s="317"/>
+      <c r="X97" s="317"/>
+      <c r="Y97" s="317"/>
+      <c r="Z97" s="318"/>
+    </row>
+    <row r="98" spans="4:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G98" s="319" t="s">
+        <v>145</v>
+      </c>
+      <c r="H98" s="320"/>
+      <c r="I98" s="320"/>
+      <c r="J98" s="320"/>
+      <c r="K98" s="320"/>
+      <c r="L98" s="320"/>
+      <c r="M98" s="320"/>
+      <c r="N98" s="320"/>
+      <c r="O98" s="320"/>
+      <c r="P98" s="321"/>
+      <c r="Q98" s="313" t="s">
+        <v>177</v>
+      </c>
+      <c r="R98" s="314"/>
+      <c r="S98" s="314"/>
+      <c r="T98" s="314"/>
+      <c r="U98" s="314"/>
+      <c r="V98" s="314"/>
+      <c r="W98" s="314"/>
+      <c r="X98" s="314"/>
+      <c r="Y98" s="314"/>
+      <c r="Z98" s="315"/>
       <c r="AG98" s="109"/>
       <c r="AH98" s="109"/>
     </row>
-    <row r="99" spans="4:58" ht="11.25" customHeight="1">
-      <c r="G99" s="383"/>
-      <c r="H99" s="384"/>
-      <c r="I99" s="384"/>
-      <c r="J99" s="384"/>
-      <c r="K99" s="384"/>
-      <c r="L99" s="384"/>
-      <c r="M99" s="384"/>
-      <c r="N99" s="384"/>
-      <c r="O99" s="384"/>
-      <c r="P99" s="385"/>
+    <row r="99" spans="4:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G99" s="322"/>
+      <c r="H99" s="323"/>
+      <c r="I99" s="323"/>
+      <c r="J99" s="323"/>
+      <c r="K99" s="323"/>
+      <c r="L99" s="323"/>
+      <c r="M99" s="323"/>
+      <c r="N99" s="323"/>
+      <c r="O99" s="323"/>
+      <c r="P99" s="324"/>
       <c r="Q99" s="190" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="R99" s="191"/>
       <c r="S99" s="191"/>
@@ -10216,19 +10216,19 @@
       <c r="AG99" s="109"/>
       <c r="AH99" s="109"/>
     </row>
-    <row r="100" spans="4:58" ht="11.25" customHeight="1">
-      <c r="G100" s="383"/>
-      <c r="H100" s="384"/>
-      <c r="I100" s="384"/>
-      <c r="J100" s="384"/>
-      <c r="K100" s="384"/>
-      <c r="L100" s="384"/>
-      <c r="M100" s="384"/>
-      <c r="N100" s="384"/>
-      <c r="O100" s="384"/>
-      <c r="P100" s="385"/>
+    <row r="100" spans="4:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G100" s="322"/>
+      <c r="H100" s="323"/>
+      <c r="I100" s="323"/>
+      <c r="J100" s="323"/>
+      <c r="K100" s="323"/>
+      <c r="L100" s="323"/>
+      <c r="M100" s="323"/>
+      <c r="N100" s="323"/>
+      <c r="O100" s="323"/>
+      <c r="P100" s="324"/>
       <c r="Q100" s="174" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R100" s="166"/>
       <c r="S100" s="166"/>
@@ -10242,19 +10242,19 @@
       <c r="AG100" s="109"/>
       <c r="AH100" s="109"/>
     </row>
-    <row r="101" spans="4:58" ht="11.25" customHeight="1">
-      <c r="G101" s="383"/>
-      <c r="H101" s="384"/>
-      <c r="I101" s="384"/>
-      <c r="J101" s="384"/>
-      <c r="K101" s="384"/>
-      <c r="L101" s="384"/>
-      <c r="M101" s="384"/>
-      <c r="N101" s="384"/>
-      <c r="O101" s="384"/>
-      <c r="P101" s="385"/>
+    <row r="101" spans="4:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G101" s="322"/>
+      <c r="H101" s="323"/>
+      <c r="I101" s="323"/>
+      <c r="J101" s="323"/>
+      <c r="K101" s="323"/>
+      <c r="L101" s="323"/>
+      <c r="M101" s="323"/>
+      <c r="N101" s="323"/>
+      <c r="O101" s="323"/>
+      <c r="P101" s="324"/>
       <c r="Q101" s="174" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R101" s="166"/>
       <c r="S101" s="166"/>
@@ -10268,55 +10268,55 @@
       <c r="AG101" s="109"/>
       <c r="AH101" s="109"/>
     </row>
-    <row r="102" spans="4:58" ht="11.25" customHeight="1">
-      <c r="G102" s="383"/>
-      <c r="H102" s="384"/>
-      <c r="I102" s="384"/>
-      <c r="J102" s="384"/>
-      <c r="K102" s="384"/>
-      <c r="L102" s="384"/>
-      <c r="M102" s="384"/>
-      <c r="N102" s="384"/>
-      <c r="O102" s="384"/>
-      <c r="P102" s="385"/>
-      <c r="Q102" s="330" t="s">
-        <v>156</v>
-      </c>
-      <c r="R102" s="331"/>
-      <c r="S102" s="331"/>
-      <c r="T102" s="331"/>
-      <c r="U102" s="331"/>
-      <c r="V102" s="331"/>
-      <c r="W102" s="331"/>
-      <c r="X102" s="331"/>
-      <c r="Y102" s="331"/>
-      <c r="Z102" s="332"/>
+    <row r="102" spans="4:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G102" s="322"/>
+      <c r="H102" s="323"/>
+      <c r="I102" s="323"/>
+      <c r="J102" s="323"/>
+      <c r="K102" s="323"/>
+      <c r="L102" s="323"/>
+      <c r="M102" s="323"/>
+      <c r="N102" s="323"/>
+      <c r="O102" s="323"/>
+      <c r="P102" s="324"/>
+      <c r="Q102" s="313" t="s">
+        <v>155</v>
+      </c>
+      <c r="R102" s="314"/>
+      <c r="S102" s="314"/>
+      <c r="T102" s="314"/>
+      <c r="U102" s="314"/>
+      <c r="V102" s="314"/>
+      <c r="W102" s="314"/>
+      <c r="X102" s="314"/>
+      <c r="Y102" s="314"/>
+      <c r="Z102" s="315"/>
       <c r="AG102" s="109"/>
       <c r="AH102" s="109"/>
     </row>
-    <row r="103" spans="4:58">
-      <c r="G103" s="386"/>
-      <c r="H103" s="384"/>
-      <c r="I103" s="384"/>
-      <c r="J103" s="384"/>
-      <c r="K103" s="384"/>
-      <c r="L103" s="384"/>
-      <c r="M103" s="384"/>
-      <c r="N103" s="384"/>
-      <c r="O103" s="384"/>
-      <c r="P103" s="385"/>
-      <c r="Q103" s="330" t="s">
-        <v>157</v>
-      </c>
-      <c r="R103" s="331"/>
-      <c r="S103" s="331"/>
-      <c r="T103" s="331"/>
-      <c r="U103" s="331"/>
-      <c r="V103" s="331"/>
-      <c r="W103" s="331"/>
-      <c r="X103" s="331"/>
-      <c r="Y103" s="331"/>
-      <c r="Z103" s="332"/>
+    <row r="103" spans="4:58" x14ac:dyDescent="0.15">
+      <c r="G103" s="325"/>
+      <c r="H103" s="323"/>
+      <c r="I103" s="323"/>
+      <c r="J103" s="323"/>
+      <c r="K103" s="323"/>
+      <c r="L103" s="323"/>
+      <c r="M103" s="323"/>
+      <c r="N103" s="323"/>
+      <c r="O103" s="323"/>
+      <c r="P103" s="324"/>
+      <c r="Q103" s="313" t="s">
+        <v>156</v>
+      </c>
+      <c r="R103" s="314"/>
+      <c r="S103" s="314"/>
+      <c r="T103" s="314"/>
+      <c r="U103" s="314"/>
+      <c r="V103" s="314"/>
+      <c r="W103" s="314"/>
+      <c r="X103" s="314"/>
+      <c r="Y103" s="314"/>
+      <c r="Z103" s="315"/>
       <c r="AC103" s="110"/>
       <c r="AD103" s="110"/>
       <c r="AE103" s="110"/>
@@ -10334,29 +10334,29 @@
       <c r="AX103" s="110"/>
       <c r="AY103" s="110"/>
     </row>
-    <row r="104" spans="4:58">
-      <c r="G104" s="387" t="s">
+    <row r="104" spans="4:58" x14ac:dyDescent="0.15">
+      <c r="G104" s="326" t="s">
         <v>102</v>
       </c>
-      <c r="H104" s="388"/>
-      <c r="I104" s="388"/>
-      <c r="J104" s="388"/>
-      <c r="K104" s="388"/>
-      <c r="L104" s="388"/>
-      <c r="M104" s="388"/>
-      <c r="N104" s="388"/>
-      <c r="O104" s="388"/>
-      <c r="P104" s="388"/>
-      <c r="Q104" s="388"/>
-      <c r="R104" s="388"/>
-      <c r="S104" s="388"/>
-      <c r="T104" s="388"/>
-      <c r="U104" s="388"/>
-      <c r="V104" s="388"/>
-      <c r="W104" s="388"/>
-      <c r="X104" s="388"/>
-      <c r="Y104" s="388"/>
-      <c r="Z104" s="389"/>
+      <c r="H104" s="327"/>
+      <c r="I104" s="327"/>
+      <c r="J104" s="327"/>
+      <c r="K104" s="327"/>
+      <c r="L104" s="327"/>
+      <c r="M104" s="327"/>
+      <c r="N104" s="327"/>
+      <c r="O104" s="327"/>
+      <c r="P104" s="327"/>
+      <c r="Q104" s="327"/>
+      <c r="R104" s="327"/>
+      <c r="S104" s="327"/>
+      <c r="T104" s="327"/>
+      <c r="U104" s="327"/>
+      <c r="V104" s="327"/>
+      <c r="W104" s="327"/>
+      <c r="X104" s="327"/>
+      <c r="Y104" s="327"/>
+      <c r="Z104" s="328"/>
       <c r="AJ104" s="110"/>
       <c r="AK104" s="110"/>
       <c r="AL104" s="110"/>
@@ -10381,7 +10381,7 @@
       <c r="BE104" s="110"/>
       <c r="BF104" s="110"/>
     </row>
-    <row r="105" spans="4:58">
+    <row r="105" spans="4:58" x14ac:dyDescent="0.15">
       <c r="G105" s="111"/>
       <c r="H105" s="112"/>
       <c r="I105" s="112"/>
@@ -10426,10 +10426,10 @@
       <c r="BE105" s="110"/>
       <c r="BF105" s="110"/>
     </row>
-    <row r="106" spans="4:58">
+    <row r="106" spans="4:58" x14ac:dyDescent="0.15">
       <c r="G106" s="114"/>
       <c r="H106" s="177" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I106" s="115"/>
       <c r="J106" s="115"/>
@@ -10440,7 +10440,7 @@
         <v>103</v>
       </c>
       <c r="Q106" s="177" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="R106" s="115"/>
       <c r="S106" s="115"/>
@@ -10475,7 +10475,7 @@
       <c r="BE106" s="110"/>
       <c r="BF106" s="110"/>
     </row>
-    <row r="107" spans="4:58">
+    <row r="107" spans="4:58" x14ac:dyDescent="0.15">
       <c r="G107" s="119"/>
       <c r="H107" s="120"/>
       <c r="I107" s="120"/>
@@ -10520,7 +10520,7 @@
       <c r="BE107" s="110"/>
       <c r="BF107" s="110"/>
     </row>
-    <row r="108" spans="4:58">
+    <row r="108" spans="4:58" x14ac:dyDescent="0.15">
       <c r="G108" s="115"/>
       <c r="H108" s="115"/>
       <c r="I108" s="115"/>
@@ -10565,7 +10565,7 @@
       <c r="BE108" s="110"/>
       <c r="BF108" s="110"/>
     </row>
-    <row r="109" spans="4:58" s="108" customFormat="1">
+    <row r="109" spans="4:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
       <c r="AI109" s="125"/>
       <c r="AJ109" s="125"/>
       <c r="AK109" s="125"/>
@@ -10590,7 +10590,7 @@
       <c r="BD109" s="125"/>
       <c r="BE109" s="125"/>
     </row>
-    <row r="110" spans="4:58">
+    <row r="110" spans="4:58" x14ac:dyDescent="0.15">
       <c r="E110" s="17" t="s">
         <v>104</v>
       </c>
@@ -10619,15 +10619,15 @@
       <c r="BE110" s="110"/>
       <c r="BF110" s="110"/>
     </row>
-    <row r="111" spans="4:58" s="108" customFormat="1">
+    <row r="111" spans="4:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D111" s="29"/>
       <c r="E111" s="106"/>
       <c r="F111" s="104"/>
     </row>
-    <row r="112" spans="4:58">
+    <row r="112" spans="4:58" x14ac:dyDescent="0.15">
       <c r="E112" s="126"/>
       <c r="F112" s="71" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AJ112" s="110"/>
       <c r="AK112" s="110"/>
@@ -10653,11 +10653,11 @@
       <c r="BE112" s="110"/>
       <c r="BF112" s="110"/>
     </row>
-    <row r="113" spans="5:58">
+    <row r="113" spans="5:58" x14ac:dyDescent="0.15">
       <c r="E113" s="126"/>
       <c r="F113" s="127"/>
       <c r="G113" s="71" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="AJ113" s="110"/>
       <c r="AK113" s="110"/>
@@ -10683,11 +10683,11 @@
       <c r="BE113" s="110"/>
       <c r="BF113" s="110"/>
     </row>
-    <row r="114" spans="5:58">
+    <row r="114" spans="5:58" x14ac:dyDescent="0.15">
       <c r="E114" s="126"/>
       <c r="F114" s="127"/>
       <c r="H114" s="74" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I114" s="193"/>
       <c r="J114" s="193"/>
@@ -10720,7 +10720,7 @@
       <c r="BE114" s="110"/>
       <c r="BF114" s="110"/>
     </row>
-    <row r="115" spans="5:58">
+    <row r="115" spans="5:58" x14ac:dyDescent="0.15">
       <c r="E115" s="126"/>
       <c r="F115" s="127"/>
       <c r="G115" s="71"/>
@@ -10748,10 +10748,10 @@
       <c r="BE115" s="110"/>
       <c r="BF115" s="110"/>
     </row>
-    <row r="116" spans="5:58">
+    <row r="116" spans="5:58" x14ac:dyDescent="0.15">
       <c r="E116" s="126"/>
       <c r="F116" s="71" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AJ116" s="110"/>
       <c r="AK116" s="110"/>
@@ -10777,11 +10777,11 @@
       <c r="BE116" s="110"/>
       <c r="BF116" s="110"/>
     </row>
-    <row r="117" spans="5:58">
+    <row r="117" spans="5:58" x14ac:dyDescent="0.15">
       <c r="E117" s="126"/>
       <c r="F117" s="127"/>
       <c r="G117" s="71" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AJ117" s="110"/>
       <c r="AK117" s="110"/>
@@ -10807,11 +10807,11 @@
       <c r="BE117" s="110"/>
       <c r="BF117" s="110"/>
     </row>
-    <row r="118" spans="5:58">
+    <row r="118" spans="5:58" x14ac:dyDescent="0.15">
       <c r="E118" s="126"/>
       <c r="F118" s="127"/>
       <c r="H118" s="74" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I118" s="193"/>
       <c r="J118" s="193"/>
@@ -10843,7 +10843,7 @@
       <c r="BE118" s="110"/>
       <c r="BF118" s="110"/>
     </row>
-    <row r="119" spans="5:58">
+    <row r="119" spans="5:58" x14ac:dyDescent="0.15">
       <c r="E119" s="126"/>
       <c r="F119" s="127"/>
       <c r="G119" s="71"/>
@@ -10871,10 +10871,10 @@
       <c r="BE119" s="110"/>
       <c r="BF119" s="110"/>
     </row>
-    <row r="120" spans="5:58">
+    <row r="120" spans="5:58" x14ac:dyDescent="0.15">
       <c r="E120" s="126"/>
       <c r="F120" s="71" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AJ120" s="110"/>
       <c r="AK120" s="110"/>
@@ -10900,11 +10900,11 @@
       <c r="BE120" s="110"/>
       <c r="BF120" s="110"/>
     </row>
-    <row r="121" spans="5:58">
+    <row r="121" spans="5:58" x14ac:dyDescent="0.15">
       <c r="E121" s="126"/>
       <c r="F121" s="127"/>
       <c r="G121" s="71" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AJ121" s="110"/>
       <c r="AK121" s="110"/>
@@ -10930,11 +10930,11 @@
       <c r="BE121" s="110"/>
       <c r="BF121" s="110"/>
     </row>
-    <row r="122" spans="5:58">
+    <row r="122" spans="5:58" x14ac:dyDescent="0.15">
       <c r="E122" s="126"/>
       <c r="F122" s="127"/>
       <c r="H122" s="74" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I122" s="193"/>
       <c r="J122" s="193"/>
@@ -10966,7 +10966,7 @@
       <c r="BE122" s="110"/>
       <c r="BF122" s="110"/>
     </row>
-    <row r="123" spans="5:58">
+    <row r="123" spans="5:58" x14ac:dyDescent="0.15">
       <c r="E123" s="126"/>
       <c r="F123" s="127"/>
       <c r="G123" s="71"/>
@@ -10994,10 +10994,10 @@
       <c r="BE123" s="110"/>
       <c r="BF123" s="110"/>
     </row>
-    <row r="124" spans="5:58">
+    <row r="124" spans="5:58" x14ac:dyDescent="0.15">
       <c r="E124" s="126"/>
       <c r="F124" s="71" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AJ124" s="110"/>
       <c r="AK124" s="110"/>
@@ -11023,11 +11023,11 @@
       <c r="BE124" s="110"/>
       <c r="BF124" s="110"/>
     </row>
-    <row r="125" spans="5:58">
+    <row r="125" spans="5:58" x14ac:dyDescent="0.15">
       <c r="E125" s="126"/>
       <c r="F125" s="127"/>
       <c r="G125" s="71" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AJ125" s="110"/>
       <c r="AK125" s="194"/>
@@ -11053,12 +11053,12 @@
       <c r="BE125" s="110"/>
       <c r="BF125" s="110"/>
     </row>
-    <row r="126" spans="5:58">
+    <row r="126" spans="5:58" x14ac:dyDescent="0.15">
       <c r="E126" s="126"/>
       <c r="F126" s="127"/>
       <c r="G126" s="71"/>
       <c r="H126" s="103" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="AJ126" s="110"/>
       <c r="AK126" s="110"/>
@@ -11084,11 +11084,11 @@
       <c r="BE126" s="110"/>
       <c r="BF126" s="110"/>
     </row>
-    <row r="127" spans="5:58">
+    <row r="127" spans="5:58" x14ac:dyDescent="0.15">
       <c r="E127" s="126"/>
       <c r="F127" s="127"/>
       <c r="H127" s="74" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I127" s="193"/>
       <c r="J127" s="193"/>
@@ -11120,7 +11120,7 @@
       <c r="BE127" s="110"/>
       <c r="BF127" s="110"/>
     </row>
-    <row r="128" spans="5:58">
+    <row r="128" spans="5:58" x14ac:dyDescent="0.15">
       <c r="E128" s="126"/>
       <c r="F128" s="127"/>
       <c r="G128" s="71"/>
@@ -11148,9 +11148,9 @@
       <c r="BE128" s="110"/>
       <c r="BF128" s="110"/>
     </row>
-    <row r="129" spans="5:59" ht="12" customHeight="1">
-      <c r="H129" s="350" t="s">
-        <v>163</v>
+    <row r="129" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H129" s="294" t="s">
+        <v>162</v>
       </c>
       <c r="I129" s="272" t="s">
         <v>105</v>
@@ -11160,19 +11160,19 @@
       <c r="L129" s="273"/>
       <c r="M129" s="273"/>
       <c r="N129" s="274"/>
-      <c r="O129" s="371" t="s">
+      <c r="O129" s="296" t="s">
         <v>115</v>
       </c>
-      <c r="P129" s="372"/>
-      <c r="Q129" s="372"/>
-      <c r="R129" s="372"/>
-      <c r="S129" s="372"/>
-      <c r="T129" s="372"/>
-      <c r="U129" s="372"/>
-      <c r="V129" s="372"/>
-      <c r="W129" s="372"/>
-      <c r="X129" s="372"/>
-      <c r="Y129" s="373"/>
+      <c r="P129" s="297"/>
+      <c r="Q129" s="297"/>
+      <c r="R129" s="297"/>
+      <c r="S129" s="297"/>
+      <c r="T129" s="297"/>
+      <c r="U129" s="297"/>
+      <c r="V129" s="297"/>
+      <c r="W129" s="297"/>
+      <c r="X129" s="297"/>
+      <c r="Y129" s="298"/>
       <c r="Z129" s="272" t="s">
         <v>33</v>
       </c>
@@ -11187,29 +11187,29 @@
       <c r="AG129" s="185"/>
       <c r="AH129" s="186"/>
     </row>
-    <row r="130" spans="5:59" ht="12" customHeight="1">
-      <c r="H130" s="352"/>
+    <row r="130" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H130" s="295"/>
       <c r="I130" s="278"/>
       <c r="J130" s="279"/>
       <c r="K130" s="279"/>
       <c r="L130" s="279"/>
       <c r="M130" s="279"/>
       <c r="N130" s="280"/>
-      <c r="O130" s="371" t="s">
+      <c r="O130" s="296" t="s">
         <v>116</v>
       </c>
-      <c r="P130" s="372"/>
-      <c r="Q130" s="372"/>
-      <c r="R130" s="372"/>
-      <c r="S130" s="373"/>
-      <c r="T130" s="374" t="s">
+      <c r="P130" s="297"/>
+      <c r="Q130" s="297"/>
+      <c r="R130" s="297"/>
+      <c r="S130" s="298"/>
+      <c r="T130" s="299" t="s">
         <v>106</v>
       </c>
-      <c r="U130" s="375"/>
-      <c r="V130" s="375"/>
-      <c r="W130" s="375"/>
-      <c r="X130" s="375"/>
-      <c r="Y130" s="376"/>
+      <c r="U130" s="300"/>
+      <c r="V130" s="300"/>
+      <c r="W130" s="300"/>
+      <c r="X130" s="300"/>
+      <c r="Y130" s="301"/>
       <c r="Z130" s="278"/>
       <c r="AA130" s="279"/>
       <c r="AB130" s="279"/>
@@ -11220,46 +11220,46 @@
       <c r="AG130" s="188"/>
       <c r="AH130" s="189"/>
     </row>
-    <row r="131" spans="5:59" ht="12" customHeight="1">
+    <row r="131" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H131" s="138">
         <v>1</v>
       </c>
-      <c r="I131" s="367" t="s">
-        <v>164</v>
-      </c>
-      <c r="J131" s="368"/>
-      <c r="K131" s="368"/>
-      <c r="L131" s="368"/>
-      <c r="M131" s="368"/>
-      <c r="N131" s="369"/>
+      <c r="I131" s="288" t="s">
+        <v>163</v>
+      </c>
+      <c r="J131" s="289"/>
+      <c r="K131" s="289"/>
+      <c r="L131" s="289"/>
+      <c r="M131" s="289"/>
+      <c r="N131" s="290"/>
       <c r="O131" s="178" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P131" s="179"/>
       <c r="Q131" s="179"/>
       <c r="R131" s="179"/>
       <c r="S131" s="180"/>
-      <c r="T131" s="367" t="s">
+      <c r="T131" s="288" t="s">
+        <v>164</v>
+      </c>
+      <c r="U131" s="289"/>
+      <c r="V131" s="289"/>
+      <c r="W131" s="289"/>
+      <c r="X131" s="289"/>
+      <c r="Y131" s="290"/>
+      <c r="Z131" s="291" t="s">
         <v>165</v>
       </c>
-      <c r="U131" s="368"/>
-      <c r="V131" s="368"/>
-      <c r="W131" s="368"/>
-      <c r="X131" s="368"/>
-      <c r="Y131" s="369"/>
-      <c r="Z131" s="370" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA131" s="303"/>
-      <c r="AB131" s="303"/>
-      <c r="AC131" s="303"/>
-      <c r="AD131" s="303"/>
-      <c r="AE131" s="304"/>
+      <c r="AA131" s="292"/>
+      <c r="AB131" s="292"/>
+      <c r="AC131" s="292"/>
+      <c r="AD131" s="292"/>
+      <c r="AE131" s="293"/>
       <c r="AF131" s="170"/>
       <c r="AG131" s="168"/>
       <c r="AH131" s="169"/>
     </row>
-    <row r="132" spans="5:59">
+    <row r="132" spans="5:59" x14ac:dyDescent="0.15">
       <c r="H132" s="181" t="s">
         <v>102</v>
       </c>
@@ -11313,7 +11313,7 @@
       <c r="BF132" s="110"/>
       <c r="BG132" s="110"/>
     </row>
-    <row r="133" spans="5:59">
+    <row r="133" spans="5:59" x14ac:dyDescent="0.15">
       <c r="H133" s="111"/>
       <c r="I133" s="112"/>
       <c r="J133" s="112"/>
@@ -11365,10 +11365,10 @@
       <c r="BF133" s="110"/>
       <c r="BG133" s="110"/>
     </row>
-    <row r="134" spans="5:59">
+    <row r="134" spans="5:59" x14ac:dyDescent="0.15">
       <c r="H134" s="114"/>
       <c r="I134" s="177" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J134" s="115"/>
       <c r="K134" s="115"/>
@@ -11379,7 +11379,7 @@
         <v>103</v>
       </c>
       <c r="R134" s="177" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S134" s="115"/>
       <c r="T134" s="115"/>
@@ -11421,7 +11421,7 @@
       <c r="BF134" s="110"/>
       <c r="BG134" s="110"/>
     </row>
-    <row r="135" spans="5:59">
+    <row r="135" spans="5:59" x14ac:dyDescent="0.15">
       <c r="H135" s="119"/>
       <c r="I135" s="120"/>
       <c r="J135" s="120"/>
@@ -11473,7 +11473,7 @@
       <c r="BF135" s="110"/>
       <c r="BG135" s="110"/>
     </row>
-    <row r="136" spans="5:59">
+    <row r="136" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E136" s="126"/>
       <c r="F136" s="127"/>
       <c r="G136" s="71"/>
@@ -11501,11 +11501,11 @@
       <c r="BE136" s="110"/>
       <c r="BF136" s="110"/>
     </row>
-    <row r="137" spans="5:59">
+    <row r="137" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E137" s="126"/>
       <c r="F137" s="127"/>
       <c r="G137" s="71" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AJ137" s="110"/>
       <c r="AK137" s="110"/>
@@ -11531,7 +11531,7 @@
       <c r="BE137" s="110"/>
       <c r="BF137" s="110"/>
     </row>
-    <row r="138" spans="5:59">
+    <row r="138" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E138" s="126"/>
       <c r="F138" s="127"/>
       <c r="G138" s="71"/>
@@ -11559,9 +11559,9 @@
       <c r="BE138" s="110"/>
       <c r="BF138" s="110"/>
     </row>
-    <row r="139" spans="5:59" ht="12" customHeight="1">
-      <c r="H139" s="350" t="s">
-        <v>163</v>
+    <row r="139" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H139" s="294" t="s">
+        <v>162</v>
       </c>
       <c r="I139" s="272" t="s">
         <v>105</v>
@@ -11571,19 +11571,19 @@
       <c r="L139" s="273"/>
       <c r="M139" s="273"/>
       <c r="N139" s="274"/>
-      <c r="O139" s="371" t="s">
+      <c r="O139" s="296" t="s">
         <v>115</v>
       </c>
-      <c r="P139" s="372"/>
-      <c r="Q139" s="372"/>
-      <c r="R139" s="372"/>
-      <c r="S139" s="372"/>
-      <c r="T139" s="372"/>
-      <c r="U139" s="372"/>
-      <c r="V139" s="372"/>
-      <c r="W139" s="372"/>
-      <c r="X139" s="372"/>
-      <c r="Y139" s="373"/>
+      <c r="P139" s="297"/>
+      <c r="Q139" s="297"/>
+      <c r="R139" s="297"/>
+      <c r="S139" s="297"/>
+      <c r="T139" s="297"/>
+      <c r="U139" s="297"/>
+      <c r="V139" s="297"/>
+      <c r="W139" s="297"/>
+      <c r="X139" s="297"/>
+      <c r="Y139" s="298"/>
       <c r="Z139" s="272" t="s">
         <v>33</v>
       </c>
@@ -11598,29 +11598,29 @@
       <c r="AG139" s="185"/>
       <c r="AH139" s="186"/>
     </row>
-    <row r="140" spans="5:59" ht="12" customHeight="1">
-      <c r="H140" s="352"/>
+    <row r="140" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H140" s="295"/>
       <c r="I140" s="278"/>
       <c r="J140" s="279"/>
       <c r="K140" s="279"/>
       <c r="L140" s="279"/>
       <c r="M140" s="279"/>
       <c r="N140" s="280"/>
-      <c r="O140" s="371" t="s">
+      <c r="O140" s="296" t="s">
         <v>116</v>
       </c>
-      <c r="P140" s="372"/>
-      <c r="Q140" s="372"/>
-      <c r="R140" s="372"/>
-      <c r="S140" s="373"/>
-      <c r="T140" s="374" t="s">
+      <c r="P140" s="297"/>
+      <c r="Q140" s="297"/>
+      <c r="R140" s="297"/>
+      <c r="S140" s="298"/>
+      <c r="T140" s="299" t="s">
         <v>106</v>
       </c>
-      <c r="U140" s="375"/>
-      <c r="V140" s="375"/>
-      <c r="W140" s="375"/>
-      <c r="X140" s="375"/>
-      <c r="Y140" s="376"/>
+      <c r="U140" s="300"/>
+      <c r="V140" s="300"/>
+      <c r="W140" s="300"/>
+      <c r="X140" s="300"/>
+      <c r="Y140" s="301"/>
       <c r="Z140" s="278"/>
       <c r="AA140" s="279"/>
       <c r="AB140" s="279"/>
@@ -11631,46 +11631,46 @@
       <c r="AG140" s="188"/>
       <c r="AH140" s="189"/>
     </row>
-    <row r="141" spans="5:59" ht="12" customHeight="1">
+    <row r="141" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H141" s="138">
         <v>1</v>
       </c>
-      <c r="I141" s="367" t="s">
-        <v>173</v>
-      </c>
-      <c r="J141" s="368"/>
-      <c r="K141" s="368"/>
-      <c r="L141" s="368"/>
-      <c r="M141" s="368"/>
-      <c r="N141" s="369"/>
+      <c r="I141" s="288" t="s">
+        <v>170</v>
+      </c>
+      <c r="J141" s="289"/>
+      <c r="K141" s="289"/>
+      <c r="L141" s="289"/>
+      <c r="M141" s="289"/>
+      <c r="N141" s="290"/>
       <c r="O141" s="178" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P141" s="179"/>
       <c r="Q141" s="179"/>
       <c r="R141" s="179"/>
       <c r="S141" s="180"/>
-      <c r="T141" s="367" t="s">
-        <v>165</v>
-      </c>
-      <c r="U141" s="368"/>
-      <c r="V141" s="368"/>
-      <c r="W141" s="368"/>
-      <c r="X141" s="368"/>
-      <c r="Y141" s="369"/>
-      <c r="Z141" s="370" t="s">
-        <v>175</v>
-      </c>
-      <c r="AA141" s="303"/>
-      <c r="AB141" s="303"/>
-      <c r="AC141" s="303"/>
-      <c r="AD141" s="303"/>
-      <c r="AE141" s="304"/>
+      <c r="T141" s="288" t="s">
+        <v>164</v>
+      </c>
+      <c r="U141" s="289"/>
+      <c r="V141" s="289"/>
+      <c r="W141" s="289"/>
+      <c r="X141" s="289"/>
+      <c r="Y141" s="290"/>
+      <c r="Z141" s="291" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA141" s="292"/>
+      <c r="AB141" s="292"/>
+      <c r="AC141" s="292"/>
+      <c r="AD141" s="292"/>
+      <c r="AE141" s="293"/>
       <c r="AF141" s="170"/>
       <c r="AG141" s="168"/>
       <c r="AH141" s="169"/>
     </row>
-    <row r="142" spans="5:59">
+    <row r="142" spans="5:59" x14ac:dyDescent="0.15">
       <c r="H142" s="181" t="s">
         <v>102</v>
       </c>
@@ -11724,7 +11724,7 @@
       <c r="BF142" s="110"/>
       <c r="BG142" s="110"/>
     </row>
-    <row r="143" spans="5:59">
+    <row r="143" spans="5:59" x14ac:dyDescent="0.15">
       <c r="H143" s="111"/>
       <c r="I143" s="112"/>
       <c r="J143" s="112"/>
@@ -11776,10 +11776,10 @@
       <c r="BF143" s="110"/>
       <c r="BG143" s="110"/>
     </row>
-    <row r="144" spans="5:59">
+    <row r="144" spans="5:59" x14ac:dyDescent="0.15">
       <c r="H144" s="114"/>
       <c r="I144" s="177" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J144" s="115"/>
       <c r="K144" s="115"/>
@@ -11790,7 +11790,7 @@
         <v>103</v>
       </c>
       <c r="R144" s="177" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S144" s="115"/>
       <c r="T144" s="115"/>
@@ -11832,7 +11832,7 @@
       <c r="BF144" s="110"/>
       <c r="BG144" s="110"/>
     </row>
-    <row r="145" spans="5:59">
+    <row r="145" spans="5:59" x14ac:dyDescent="0.15">
       <c r="H145" s="119"/>
       <c r="I145" s="120"/>
       <c r="J145" s="120"/>
@@ -11884,7 +11884,7 @@
       <c r="BF145" s="110"/>
       <c r="BG145" s="110"/>
     </row>
-    <row r="146" spans="5:59">
+    <row r="146" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E146" s="126"/>
       <c r="F146" s="127"/>
       <c r="G146" s="71"/>
@@ -11912,11 +11912,11 @@
       <c r="BE146" s="110"/>
       <c r="BF146" s="110"/>
     </row>
-    <row r="147" spans="5:59">
+    <row r="147" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E147" s="126"/>
       <c r="F147" s="127"/>
       <c r="G147" s="71" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AJ147" s="110"/>
       <c r="AK147" s="110"/>
@@ -11942,7 +11942,7 @@
       <c r="BE147" s="110"/>
       <c r="BF147" s="110"/>
     </row>
-    <row r="148" spans="5:59">
+    <row r="148" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E148" s="126"/>
       <c r="F148" s="127"/>
       <c r="G148" s="71"/>
@@ -11970,10 +11970,10 @@
       <c r="BE148" s="110"/>
       <c r="BF148" s="110"/>
     </row>
-    <row r="149" spans="5:59">
+    <row r="149" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E149" s="126"/>
       <c r="F149" s="71" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AJ149" s="110"/>
       <c r="AK149" s="110"/>
@@ -11999,7 +11999,7 @@
       <c r="BE149" s="110"/>
       <c r="BF149" s="110"/>
     </row>
-    <row r="150" spans="5:59">
+    <row r="150" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E150" s="126"/>
       <c r="F150" s="127"/>
       <c r="G150" s="71"/>
@@ -12027,7 +12027,7 @@
       <c r="BE150" s="110"/>
       <c r="BF150" s="110"/>
     </row>
-    <row r="151" spans="5:59">
+    <row r="151" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E151" s="126"/>
       <c r="F151" s="71"/>
       <c r="AJ151" s="110"/>
@@ -12054,7 +12054,7 @@
       <c r="BE151" s="110"/>
       <c r="BF151" s="110"/>
     </row>
-    <row r="152" spans="5:59">
+    <row r="152" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E152" s="126"/>
       <c r="F152" s="127"/>
       <c r="G152" s="71"/>
@@ -12082,7 +12082,7 @@
       <c r="BE152" s="110"/>
       <c r="BF152" s="110"/>
     </row>
-    <row r="153" spans="5:59">
+    <row r="153" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E153" s="126"/>
       <c r="F153" s="127"/>
       <c r="G153" s="71"/>
@@ -12110,7 +12110,7 @@
       <c r="BE153" s="110"/>
       <c r="BF153" s="110"/>
     </row>
-    <row r="154" spans="5:59">
+    <row r="154" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E154" s="126"/>
       <c r="AJ154" s="110"/>
       <c r="AK154" s="110"/>
@@ -12138,15 +12138,79 @@
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="I141:N141"/>
-    <mergeCell ref="T141:Y141"/>
-    <mergeCell ref="Z141:AE141"/>
-    <mergeCell ref="H139:H140"/>
-    <mergeCell ref="I139:N140"/>
-    <mergeCell ref="O139:Y139"/>
-    <mergeCell ref="Z139:AE140"/>
-    <mergeCell ref="O140:S140"/>
-    <mergeCell ref="T140:Y140"/>
+    <mergeCell ref="E43:M43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="Q43:U43"/>
+    <mergeCell ref="V43:AC43"/>
+    <mergeCell ref="E44:M44"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="V58:AH59"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="AD49:AG51"/>
+    <mergeCell ref="Z52:AB52"/>
+    <mergeCell ref="AD53:AG53"/>
+    <mergeCell ref="AD52:AG52"/>
+    <mergeCell ref="U50:Y51"/>
+    <mergeCell ref="U52:Y52"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="W88:Y88"/>
+    <mergeCell ref="AE65:AH65"/>
+    <mergeCell ref="Z65:AD65"/>
+    <mergeCell ref="AE66:AH66"/>
+    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="R65:Y65"/>
+    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="E60:J60"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="V60:AH60"/>
+    <mergeCell ref="E67:J67"/>
+    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="R67:Y67"/>
+    <mergeCell ref="Z67:AD67"/>
+    <mergeCell ref="AE67:AH67"/>
+    <mergeCell ref="M87:V87"/>
+    <mergeCell ref="E66:J66"/>
+    <mergeCell ref="Z88:AC88"/>
+    <mergeCell ref="Z87:AC87"/>
+    <mergeCell ref="M88:V88"/>
+    <mergeCell ref="R66:Y66"/>
+    <mergeCell ref="Z66:AD66"/>
+    <mergeCell ref="W87:Y87"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="M50:T51"/>
+    <mergeCell ref="Q44:U44"/>
+    <mergeCell ref="V44:AC44"/>
+    <mergeCell ref="U53:Y53"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="I50:L51"/>
+    <mergeCell ref="E50:H51"/>
+    <mergeCell ref="E49:AC49"/>
+    <mergeCell ref="Z50:AB51"/>
+    <mergeCell ref="AC50:AC51"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="M53:T53"/>
+    <mergeCell ref="M52:T52"/>
     <mergeCell ref="D58:D59"/>
     <mergeCell ref="E58:J59"/>
     <mergeCell ref="K58:N59"/>
@@ -12171,79 +12235,15 @@
     <mergeCell ref="AD88:AG88"/>
     <mergeCell ref="G87:L87"/>
     <mergeCell ref="G88:L88"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="M50:T51"/>
-    <mergeCell ref="Q44:U44"/>
-    <mergeCell ref="V44:AC44"/>
-    <mergeCell ref="U53:Y53"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="I50:L51"/>
-    <mergeCell ref="E50:H51"/>
-    <mergeCell ref="E49:AC49"/>
-    <mergeCell ref="Z50:AB51"/>
-    <mergeCell ref="AC50:AC51"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="M53:T53"/>
-    <mergeCell ref="M52:T52"/>
-    <mergeCell ref="W88:Y88"/>
-    <mergeCell ref="AE65:AH65"/>
-    <mergeCell ref="Z65:AD65"/>
-    <mergeCell ref="AE66:AH66"/>
-    <mergeCell ref="K65:Q65"/>
-    <mergeCell ref="R65:Y65"/>
-    <mergeCell ref="K66:Q66"/>
-    <mergeCell ref="E60:J60"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="V60:AH60"/>
-    <mergeCell ref="E67:J67"/>
-    <mergeCell ref="K67:Q67"/>
-    <mergeCell ref="R67:Y67"/>
-    <mergeCell ref="Z67:AD67"/>
-    <mergeCell ref="AE67:AH67"/>
-    <mergeCell ref="M87:V87"/>
-    <mergeCell ref="E66:J66"/>
-    <mergeCell ref="Z88:AC88"/>
-    <mergeCell ref="Z87:AC87"/>
-    <mergeCell ref="M88:V88"/>
-    <mergeCell ref="R66:Y66"/>
-    <mergeCell ref="Z66:AD66"/>
-    <mergeCell ref="W87:Y87"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="E43:M43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="Q43:U43"/>
-    <mergeCell ref="V43:AC43"/>
-    <mergeCell ref="E44:M44"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="V58:AH59"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="AD49:AG51"/>
-    <mergeCell ref="Z52:AB52"/>
-    <mergeCell ref="AD53:AG53"/>
-    <mergeCell ref="AD52:AG52"/>
-    <mergeCell ref="U50:Y51"/>
-    <mergeCell ref="U52:Y52"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="I141:N141"/>
+    <mergeCell ref="T141:Y141"/>
+    <mergeCell ref="Z141:AE141"/>
+    <mergeCell ref="H139:H140"/>
+    <mergeCell ref="I139:N140"/>
+    <mergeCell ref="O139:Y139"/>
+    <mergeCell ref="Z139:AE140"/>
+    <mergeCell ref="O140:S140"/>
+    <mergeCell ref="T140:Y140"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="5">
@@ -12265,7 +12265,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
@@ -12300,7 +12300,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21" style="28" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="28" bestFit="1" customWidth="1"/>
@@ -12309,7 +12309,7 @@
     <col min="5" max="16384" width="9.33203125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="80" t="s">
         <v>12</v>
       </c>
@@ -12323,7 +12323,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="79" t="s">
         <v>134</v>
       </c>
@@ -12337,7 +12337,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="79" t="s">
         <v>16</v>
       </c>
@@ -12351,7 +12351,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="79" t="s">
         <v>17</v>
       </c>
@@ -12365,7 +12365,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="79" t="s">
         <v>18</v>
       </c>
@@ -12376,7 +12376,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="79" t="s">
         <v>19</v>
       </c>
@@ -12384,7 +12384,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="79" t="s">
         <v>20</v>
       </c>
@@ -12392,27 +12392,27 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="79" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="79" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="79" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="79" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="79" t="s">
         <v>25</v>
       </c>

--- a/サンプルアプリケーション/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10101_ログイン.xlsx
+++ b/サンプルアプリケーション/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10101_ログイン.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2. WA10101(ログイン画面)'!#REF!</definedName>
     <definedName name="_Toc46209822" localSheetId="3">'1.  画面取引定義'!$B$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1.  画面取引定義'!$A$1:$AI$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. WA10101(ログイン画面)'!$A$1:$AI$152</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. WA10101(ログイン画面)'!$A$1:$AI$153</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">データ!$A$1:$E$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
@@ -268,7 +268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="191">
   <si>
     <t>PJ名</t>
   </si>
@@ -1452,40 +1452,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>イ.「(2) 検索処理」の検索結果をもとに、パスワード＝画面入力したパスワード の場合、下記最終ログイン日時の更新を行う。</t>
-    <rPh sb="7" eb="9">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>サイシュウ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>最終ログイン日時</t>
     <phoneticPr fontId="11"/>
   </si>
@@ -1715,6 +1681,50 @@
   </si>
   <si>
     <t>ユーザに対し、ログインID・パスワードでのForm認証を行う。</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>認証失敗回数</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>イ.「(2) 検索処理」の検索結果をもとに、パスワード＝画面入力したパスワード の場合、下記最終ログイン日時と認証失敗回数の更新を行う。</t>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="55" eb="59">
+      <t>ニンショウシッパイ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>オコナ</t>
+    </rPh>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -2372,7 +2382,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="394">
+  <cellXfs count="397">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2830,9 +2840,162 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="31" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2875,148 +3038,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3046,18 +3077,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3109,6 +3128,237 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3120,18 +3370,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3145,42 +3383,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3223,191 +3425,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -4273,12 +4292,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="195">
+      <c r="I25" s="198">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>43656</v>
       </c>
-      <c r="J25" s="195"/>
-      <c r="K25" s="195"/>
+      <c r="J25" s="198"/>
+      <c r="K25" s="198"/>
       <c r="L25" s="19"/>
     </row>
     <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4909,57 +4928,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="196" t="s">
+      <c r="A1" s="247" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="197"/>
-      <c r="C1" s="197"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="243" t="s">
+      <c r="B1" s="248"/>
+      <c r="C1" s="248"/>
+      <c r="D1" s="249"/>
+      <c r="E1" s="217" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="244"/>
-      <c r="G1" s="244"/>
-      <c r="H1" s="244"/>
-      <c r="I1" s="244"/>
-      <c r="J1" s="244"/>
-      <c r="K1" s="244"/>
-      <c r="L1" s="244"/>
-      <c r="M1" s="244"/>
-      <c r="N1" s="245"/>
-      <c r="O1" s="199" t="s">
+      <c r="F1" s="218"/>
+      <c r="G1" s="218"/>
+      <c r="H1" s="218"/>
+      <c r="I1" s="218"/>
+      <c r="J1" s="218"/>
+      <c r="K1" s="218"/>
+      <c r="L1" s="218"/>
+      <c r="M1" s="218"/>
+      <c r="N1" s="219"/>
+      <c r="O1" s="250" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="200"/>
-      <c r="Q1" s="200"/>
-      <c r="R1" s="201"/>
-      <c r="S1" s="249" t="s">
+      <c r="P1" s="251"/>
+      <c r="Q1" s="251"/>
+      <c r="R1" s="252"/>
+      <c r="S1" s="229" t="s">
         <v>140</v>
       </c>
-      <c r="T1" s="250"/>
-      <c r="U1" s="250"/>
-      <c r="V1" s="250"/>
-      <c r="W1" s="250"/>
-      <c r="X1" s="250"/>
-      <c r="Y1" s="250"/>
-      <c r="Z1" s="251"/>
-      <c r="AA1" s="196" t="s">
+      <c r="T1" s="230"/>
+      <c r="U1" s="230"/>
+      <c r="V1" s="230"/>
+      <c r="W1" s="230"/>
+      <c r="X1" s="230"/>
+      <c r="Y1" s="230"/>
+      <c r="Z1" s="231"/>
+      <c r="AA1" s="247" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="198"/>
-      <c r="AC1" s="231" t="str">
+      <c r="AB1" s="249"/>
+      <c r="AC1" s="199" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="232"/>
-      <c r="AE1" s="232"/>
-      <c r="AF1" s="233"/>
-      <c r="AG1" s="237">
+      <c r="AD1" s="200"/>
+      <c r="AE1" s="200"/>
+      <c r="AF1" s="201"/>
+      <c r="AG1" s="205">
         <f>IF(D8="","",D8)</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="238"/>
-      <c r="AI1" s="239"/>
+      <c r="AH1" s="206"/>
+      <c r="AI1" s="207"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
@@ -4967,53 +4986,53 @@
       <c r="AN1" s="10"/>
     </row>
     <row r="2" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="196" t="s">
+      <c r="A2" s="247" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="197"/>
-      <c r="C2" s="197"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="243" t="s">
+      <c r="B2" s="248"/>
+      <c r="C2" s="248"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="217" t="s">
         <v>113</v>
       </c>
-      <c r="F2" s="244"/>
-      <c r="G2" s="244"/>
-      <c r="H2" s="244"/>
-      <c r="I2" s="244"/>
-      <c r="J2" s="244"/>
-      <c r="K2" s="244"/>
-      <c r="L2" s="244"/>
-      <c r="M2" s="244"/>
-      <c r="N2" s="245"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="203"/>
-      <c r="Q2" s="203"/>
-      <c r="R2" s="204"/>
-      <c r="S2" s="252"/>
-      <c r="T2" s="253"/>
-      <c r="U2" s="253"/>
-      <c r="V2" s="253"/>
-      <c r="W2" s="253"/>
-      <c r="X2" s="253"/>
-      <c r="Y2" s="253"/>
-      <c r="Z2" s="254"/>
-      <c r="AA2" s="196" t="s">
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="218"/>
+      <c r="K2" s="218"/>
+      <c r="L2" s="218"/>
+      <c r="M2" s="218"/>
+      <c r="N2" s="219"/>
+      <c r="O2" s="253"/>
+      <c r="P2" s="254"/>
+      <c r="Q2" s="254"/>
+      <c r="R2" s="255"/>
+      <c r="S2" s="232"/>
+      <c r="T2" s="233"/>
+      <c r="U2" s="233"/>
+      <c r="V2" s="233"/>
+      <c r="W2" s="233"/>
+      <c r="X2" s="233"/>
+      <c r="Y2" s="233"/>
+      <c r="Z2" s="234"/>
+      <c r="AA2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="198"/>
-      <c r="AC2" s="240" t="str">
+      <c r="AB2" s="249"/>
+      <c r="AC2" s="208" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="241"/>
-      <c r="AE2" s="241"/>
-      <c r="AF2" s="242"/>
-      <c r="AG2" s="237" t="str">
+      <c r="AD2" s="209"/>
+      <c r="AE2" s="209"/>
+      <c r="AF2" s="210"/>
+      <c r="AG2" s="205" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="238"/>
-      <c r="AI2" s="239"/>
+      <c r="AH2" s="206"/>
+      <c r="AI2" s="207"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
@@ -5021,45 +5040,45 @@
       <c r="AN2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="196" t="s">
+      <c r="A3" s="247" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="197"/>
-      <c r="C3" s="197"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="243" t="s">
+      <c r="B3" s="248"/>
+      <c r="C3" s="248"/>
+      <c r="D3" s="249"/>
+      <c r="E3" s="217" t="s">
         <v>135</v>
       </c>
-      <c r="F3" s="244"/>
-      <c r="G3" s="244"/>
-      <c r="H3" s="244"/>
-      <c r="I3" s="244"/>
-      <c r="J3" s="244"/>
-      <c r="K3" s="244"/>
-      <c r="L3" s="244"/>
-      <c r="M3" s="244"/>
-      <c r="N3" s="245"/>
-      <c r="O3" s="205"/>
-      <c r="P3" s="206"/>
-      <c r="Q3" s="206"/>
-      <c r="R3" s="207"/>
-      <c r="S3" s="255"/>
-      <c r="T3" s="256"/>
-      <c r="U3" s="256"/>
-      <c r="V3" s="256"/>
-      <c r="W3" s="256"/>
-      <c r="X3" s="256"/>
-      <c r="Y3" s="256"/>
-      <c r="Z3" s="257"/>
-      <c r="AA3" s="208"/>
-      <c r="AB3" s="209"/>
-      <c r="AC3" s="231"/>
-      <c r="AD3" s="232"/>
-      <c r="AE3" s="232"/>
-      <c r="AF3" s="233"/>
-      <c r="AG3" s="237"/>
-      <c r="AH3" s="238"/>
-      <c r="AI3" s="239"/>
+      <c r="F3" s="218"/>
+      <c r="G3" s="218"/>
+      <c r="H3" s="218"/>
+      <c r="I3" s="218"/>
+      <c r="J3" s="218"/>
+      <c r="K3" s="218"/>
+      <c r="L3" s="218"/>
+      <c r="M3" s="218"/>
+      <c r="N3" s="219"/>
+      <c r="O3" s="256"/>
+      <c r="P3" s="257"/>
+      <c r="Q3" s="257"/>
+      <c r="R3" s="258"/>
+      <c r="S3" s="235"/>
+      <c r="T3" s="236"/>
+      <c r="U3" s="236"/>
+      <c r="V3" s="236"/>
+      <c r="W3" s="236"/>
+      <c r="X3" s="236"/>
+      <c r="Y3" s="236"/>
+      <c r="Z3" s="237"/>
+      <c r="AA3" s="259"/>
+      <c r="AB3" s="260"/>
+      <c r="AC3" s="199"/>
+      <c r="AD3" s="200"/>
+      <c r="AE3" s="200"/>
+      <c r="AF3" s="201"/>
+      <c r="AG3" s="205"/>
+      <c r="AH3" s="206"/>
+      <c r="AI3" s="207"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -5198,1028 +5217,1028 @@
       <c r="A7" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="222" t="s">
+      <c r="B7" s="214" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="223"/>
-      <c r="D7" s="222" t="s">
+      <c r="C7" s="216"/>
+      <c r="D7" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="224"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="222" t="s">
+      <c r="E7" s="215"/>
+      <c r="F7" s="216"/>
+      <c r="G7" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="224"/>
-      <c r="I7" s="223"/>
-      <c r="J7" s="222" t="s">
+      <c r="H7" s="215"/>
+      <c r="I7" s="216"/>
+      <c r="J7" s="214" t="s">
         <v>86</v>
       </c>
-      <c r="K7" s="224"/>
-      <c r="L7" s="224"/>
-      <c r="M7" s="224"/>
-      <c r="N7" s="224"/>
-      <c r="O7" s="224"/>
-      <c r="P7" s="223"/>
-      <c r="Q7" s="222" t="s">
+      <c r="K7" s="215"/>
+      <c r="L7" s="215"/>
+      <c r="M7" s="215"/>
+      <c r="N7" s="215"/>
+      <c r="O7" s="215"/>
+      <c r="P7" s="216"/>
+      <c r="Q7" s="214" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="224"/>
-      <c r="S7" s="224"/>
-      <c r="T7" s="224"/>
-      <c r="U7" s="224"/>
-      <c r="V7" s="224"/>
-      <c r="W7" s="224"/>
-      <c r="X7" s="224"/>
-      <c r="Y7" s="224"/>
-      <c r="Z7" s="224"/>
-      <c r="AA7" s="224"/>
-      <c r="AB7" s="224"/>
-      <c r="AC7" s="224"/>
-      <c r="AD7" s="224"/>
-      <c r="AE7" s="223"/>
-      <c r="AF7" s="222" t="s">
+      <c r="R7" s="215"/>
+      <c r="S7" s="215"/>
+      <c r="T7" s="215"/>
+      <c r="U7" s="215"/>
+      <c r="V7" s="215"/>
+      <c r="W7" s="215"/>
+      <c r="X7" s="215"/>
+      <c r="Y7" s="215"/>
+      <c r="Z7" s="215"/>
+      <c r="AA7" s="215"/>
+      <c r="AB7" s="215"/>
+      <c r="AC7" s="215"/>
+      <c r="AD7" s="215"/>
+      <c r="AE7" s="216"/>
+      <c r="AF7" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="224"/>
-      <c r="AH7" s="224"/>
-      <c r="AI7" s="223"/>
+      <c r="AG7" s="215"/>
+      <c r="AH7" s="215"/>
+      <c r="AI7" s="216"/>
     </row>
     <row r="8" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="56">
         <v>1</v>
       </c>
-      <c r="B8" s="225" t="s">
+      <c r="B8" s="241" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="226"/>
-      <c r="D8" s="227">
+      <c r="C8" s="242"/>
+      <c r="D8" s="243">
         <v>43656</v>
       </c>
-      <c r="E8" s="228"/>
-      <c r="F8" s="229"/>
-      <c r="G8" s="225" t="s">
+      <c r="E8" s="244"/>
+      <c r="F8" s="245"/>
+      <c r="G8" s="241" t="s">
         <v>108</v>
       </c>
-      <c r="H8" s="230"/>
-      <c r="I8" s="226"/>
-      <c r="J8" s="246" t="s">
+      <c r="H8" s="246"/>
+      <c r="I8" s="242"/>
+      <c r="J8" s="226" t="s">
         <v>109</v>
       </c>
-      <c r="K8" s="247"/>
-      <c r="L8" s="247"/>
-      <c r="M8" s="247"/>
-      <c r="N8" s="247"/>
-      <c r="O8" s="247"/>
-      <c r="P8" s="248"/>
-      <c r="Q8" s="234" t="s">
+      <c r="K8" s="227"/>
+      <c r="L8" s="227"/>
+      <c r="M8" s="227"/>
+      <c r="N8" s="227"/>
+      <c r="O8" s="227"/>
+      <c r="P8" s="228"/>
+      <c r="Q8" s="202" t="s">
         <v>110</v>
       </c>
-      <c r="R8" s="235"/>
-      <c r="S8" s="235"/>
-      <c r="T8" s="235"/>
-      <c r="U8" s="235"/>
-      <c r="V8" s="235"/>
-      <c r="W8" s="235"/>
-      <c r="X8" s="235"/>
-      <c r="Y8" s="235"/>
-      <c r="Z8" s="235"/>
-      <c r="AA8" s="235"/>
-      <c r="AB8" s="235"/>
-      <c r="AC8" s="235"/>
-      <c r="AD8" s="235"/>
-      <c r="AE8" s="236"/>
-      <c r="AF8" s="246" t="s">
+      <c r="R8" s="203"/>
+      <c r="S8" s="203"/>
+      <c r="T8" s="203"/>
+      <c r="U8" s="203"/>
+      <c r="V8" s="203"/>
+      <c r="W8" s="203"/>
+      <c r="X8" s="203"/>
+      <c r="Y8" s="203"/>
+      <c r="Z8" s="203"/>
+      <c r="AA8" s="203"/>
+      <c r="AB8" s="203"/>
+      <c r="AC8" s="203"/>
+      <c r="AD8" s="203"/>
+      <c r="AE8" s="204"/>
+      <c r="AF8" s="226" t="s">
         <v>111</v>
       </c>
-      <c r="AG8" s="247"/>
-      <c r="AH8" s="247"/>
-      <c r="AI8" s="248"/>
+      <c r="AG8" s="227"/>
+      <c r="AH8" s="227"/>
+      <c r="AI8" s="228"/>
     </row>
     <row r="9" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="57"/>
-      <c r="B9" s="216"/>
-      <c r="C9" s="217"/>
-      <c r="D9" s="218"/>
-      <c r="E9" s="219"/>
-      <c r="F9" s="220"/>
-      <c r="G9" s="216"/>
-      <c r="H9" s="221"/>
-      <c r="I9" s="217"/>
-      <c r="J9" s="213"/>
-      <c r="K9" s="214"/>
-      <c r="L9" s="214"/>
-      <c r="M9" s="214"/>
-      <c r="N9" s="214"/>
-      <c r="O9" s="214"/>
-      <c r="P9" s="215"/>
-      <c r="Q9" s="210"/>
-      <c r="R9" s="211"/>
-      <c r="S9" s="211"/>
-      <c r="T9" s="211"/>
-      <c r="U9" s="211"/>
-      <c r="V9" s="211"/>
-      <c r="W9" s="211"/>
-      <c r="X9" s="211"/>
-      <c r="Y9" s="211"/>
-      <c r="Z9" s="211"/>
-      <c r="AA9" s="211"/>
-      <c r="AB9" s="211"/>
-      <c r="AC9" s="211"/>
-      <c r="AD9" s="211"/>
-      <c r="AE9" s="212"/>
-      <c r="AF9" s="213"/>
-      <c r="AG9" s="214"/>
-      <c r="AH9" s="214"/>
-      <c r="AI9" s="215"/>
+      <c r="B9" s="211"/>
+      <c r="C9" s="213"/>
+      <c r="D9" s="238"/>
+      <c r="E9" s="239"/>
+      <c r="F9" s="240"/>
+      <c r="G9" s="211"/>
+      <c r="H9" s="212"/>
+      <c r="I9" s="213"/>
+      <c r="J9" s="223"/>
+      <c r="K9" s="224"/>
+      <c r="L9" s="224"/>
+      <c r="M9" s="224"/>
+      <c r="N9" s="224"/>
+      <c r="O9" s="224"/>
+      <c r="P9" s="225"/>
+      <c r="Q9" s="220"/>
+      <c r="R9" s="221"/>
+      <c r="S9" s="221"/>
+      <c r="T9" s="221"/>
+      <c r="U9" s="221"/>
+      <c r="V9" s="221"/>
+      <c r="W9" s="221"/>
+      <c r="X9" s="221"/>
+      <c r="Y9" s="221"/>
+      <c r="Z9" s="221"/>
+      <c r="AA9" s="221"/>
+      <c r="AB9" s="221"/>
+      <c r="AC9" s="221"/>
+      <c r="AD9" s="221"/>
+      <c r="AE9" s="222"/>
+      <c r="AF9" s="223"/>
+      <c r="AG9" s="224"/>
+      <c r="AH9" s="224"/>
+      <c r="AI9" s="225"/>
     </row>
     <row r="10" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="57"/>
-      <c r="B10" s="216"/>
-      <c r="C10" s="217"/>
-      <c r="D10" s="218"/>
-      <c r="E10" s="219"/>
-      <c r="F10" s="220"/>
-      <c r="G10" s="216"/>
-      <c r="H10" s="221"/>
-      <c r="I10" s="217"/>
-      <c r="J10" s="213"/>
-      <c r="K10" s="214"/>
-      <c r="L10" s="214"/>
-      <c r="M10" s="214"/>
-      <c r="N10" s="214"/>
-      <c r="O10" s="214"/>
-      <c r="P10" s="215"/>
-      <c r="Q10" s="210"/>
-      <c r="R10" s="211"/>
-      <c r="S10" s="211"/>
-      <c r="T10" s="211"/>
-      <c r="U10" s="211"/>
-      <c r="V10" s="211"/>
-      <c r="W10" s="211"/>
-      <c r="X10" s="211"/>
-      <c r="Y10" s="211"/>
-      <c r="Z10" s="211"/>
-      <c r="AA10" s="211"/>
-      <c r="AB10" s="211"/>
-      <c r="AC10" s="211"/>
-      <c r="AD10" s="211"/>
-      <c r="AE10" s="212"/>
-      <c r="AF10" s="213"/>
-      <c r="AG10" s="214"/>
-      <c r="AH10" s="214"/>
-      <c r="AI10" s="215"/>
+      <c r="B10" s="211"/>
+      <c r="C10" s="213"/>
+      <c r="D10" s="238"/>
+      <c r="E10" s="239"/>
+      <c r="F10" s="240"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="212"/>
+      <c r="I10" s="213"/>
+      <c r="J10" s="223"/>
+      <c r="K10" s="224"/>
+      <c r="L10" s="224"/>
+      <c r="M10" s="224"/>
+      <c r="N10" s="224"/>
+      <c r="O10" s="224"/>
+      <c r="P10" s="225"/>
+      <c r="Q10" s="220"/>
+      <c r="R10" s="221"/>
+      <c r="S10" s="221"/>
+      <c r="T10" s="221"/>
+      <c r="U10" s="221"/>
+      <c r="V10" s="221"/>
+      <c r="W10" s="221"/>
+      <c r="X10" s="221"/>
+      <c r="Y10" s="221"/>
+      <c r="Z10" s="221"/>
+      <c r="AA10" s="221"/>
+      <c r="AB10" s="221"/>
+      <c r="AC10" s="221"/>
+      <c r="AD10" s="221"/>
+      <c r="AE10" s="222"/>
+      <c r="AF10" s="223"/>
+      <c r="AG10" s="224"/>
+      <c r="AH10" s="224"/>
+      <c r="AI10" s="225"/>
     </row>
     <row r="11" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="57"/>
-      <c r="B11" s="216"/>
-      <c r="C11" s="217"/>
-      <c r="D11" s="218"/>
-      <c r="E11" s="219"/>
-      <c r="F11" s="220"/>
-      <c r="G11" s="216"/>
-      <c r="H11" s="221"/>
-      <c r="I11" s="217"/>
-      <c r="J11" s="213"/>
-      <c r="K11" s="214"/>
-      <c r="L11" s="214"/>
-      <c r="M11" s="214"/>
-      <c r="N11" s="214"/>
-      <c r="O11" s="214"/>
-      <c r="P11" s="215"/>
-      <c r="Q11" s="210"/>
-      <c r="R11" s="211"/>
-      <c r="S11" s="211"/>
-      <c r="T11" s="211"/>
-      <c r="U11" s="211"/>
-      <c r="V11" s="211"/>
-      <c r="W11" s="211"/>
-      <c r="X11" s="211"/>
-      <c r="Y11" s="211"/>
-      <c r="Z11" s="211"/>
-      <c r="AA11" s="211"/>
-      <c r="AB11" s="211"/>
-      <c r="AC11" s="211"/>
-      <c r="AD11" s="211"/>
-      <c r="AE11" s="212"/>
-      <c r="AF11" s="213"/>
-      <c r="AG11" s="214"/>
-      <c r="AH11" s="214"/>
-      <c r="AI11" s="215"/>
+      <c r="B11" s="211"/>
+      <c r="C11" s="213"/>
+      <c r="D11" s="238"/>
+      <c r="E11" s="239"/>
+      <c r="F11" s="240"/>
+      <c r="G11" s="211"/>
+      <c r="H11" s="212"/>
+      <c r="I11" s="213"/>
+      <c r="J11" s="223"/>
+      <c r="K11" s="224"/>
+      <c r="L11" s="224"/>
+      <c r="M11" s="224"/>
+      <c r="N11" s="224"/>
+      <c r="O11" s="224"/>
+      <c r="P11" s="225"/>
+      <c r="Q11" s="220"/>
+      <c r="R11" s="221"/>
+      <c r="S11" s="221"/>
+      <c r="T11" s="221"/>
+      <c r="U11" s="221"/>
+      <c r="V11" s="221"/>
+      <c r="W11" s="221"/>
+      <c r="X11" s="221"/>
+      <c r="Y11" s="221"/>
+      <c r="Z11" s="221"/>
+      <c r="AA11" s="221"/>
+      <c r="AB11" s="221"/>
+      <c r="AC11" s="221"/>
+      <c r="AD11" s="221"/>
+      <c r="AE11" s="222"/>
+      <c r="AF11" s="223"/>
+      <c r="AG11" s="224"/>
+      <c r="AH11" s="224"/>
+      <c r="AI11" s="225"/>
     </row>
     <row r="12" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="57"/>
-      <c r="B12" s="216"/>
-      <c r="C12" s="217"/>
-      <c r="D12" s="218"/>
-      <c r="E12" s="219"/>
-      <c r="F12" s="220"/>
-      <c r="G12" s="216"/>
-      <c r="H12" s="221"/>
-      <c r="I12" s="217"/>
-      <c r="J12" s="213"/>
-      <c r="K12" s="214"/>
-      <c r="L12" s="214"/>
-      <c r="M12" s="214"/>
-      <c r="N12" s="214"/>
-      <c r="O12" s="214"/>
-      <c r="P12" s="215"/>
-      <c r="Q12" s="210"/>
-      <c r="R12" s="211"/>
-      <c r="S12" s="211"/>
-      <c r="T12" s="211"/>
-      <c r="U12" s="211"/>
-      <c r="V12" s="211"/>
-      <c r="W12" s="211"/>
-      <c r="X12" s="211"/>
-      <c r="Y12" s="211"/>
-      <c r="Z12" s="211"/>
-      <c r="AA12" s="211"/>
-      <c r="AB12" s="211"/>
-      <c r="AC12" s="211"/>
-      <c r="AD12" s="211"/>
-      <c r="AE12" s="212"/>
-      <c r="AF12" s="213"/>
-      <c r="AG12" s="214"/>
-      <c r="AH12" s="214"/>
-      <c r="AI12" s="215"/>
+      <c r="B12" s="211"/>
+      <c r="C12" s="213"/>
+      <c r="D12" s="238"/>
+      <c r="E12" s="239"/>
+      <c r="F12" s="240"/>
+      <c r="G12" s="211"/>
+      <c r="H12" s="212"/>
+      <c r="I12" s="213"/>
+      <c r="J12" s="223"/>
+      <c r="K12" s="224"/>
+      <c r="L12" s="224"/>
+      <c r="M12" s="224"/>
+      <c r="N12" s="224"/>
+      <c r="O12" s="224"/>
+      <c r="P12" s="225"/>
+      <c r="Q12" s="220"/>
+      <c r="R12" s="221"/>
+      <c r="S12" s="221"/>
+      <c r="T12" s="221"/>
+      <c r="U12" s="221"/>
+      <c r="V12" s="221"/>
+      <c r="W12" s="221"/>
+      <c r="X12" s="221"/>
+      <c r="Y12" s="221"/>
+      <c r="Z12" s="221"/>
+      <c r="AA12" s="221"/>
+      <c r="AB12" s="221"/>
+      <c r="AC12" s="221"/>
+      <c r="AD12" s="221"/>
+      <c r="AE12" s="222"/>
+      <c r="AF12" s="223"/>
+      <c r="AG12" s="224"/>
+      <c r="AH12" s="224"/>
+      <c r="AI12" s="225"/>
     </row>
     <row r="13" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="57"/>
-      <c r="B13" s="216"/>
-      <c r="C13" s="217"/>
-      <c r="D13" s="218"/>
-      <c r="E13" s="219"/>
-      <c r="F13" s="220"/>
-      <c r="G13" s="216"/>
-      <c r="H13" s="221"/>
-      <c r="I13" s="217"/>
-      <c r="J13" s="213"/>
-      <c r="K13" s="214"/>
-      <c r="L13" s="214"/>
-      <c r="M13" s="214"/>
-      <c r="N13" s="214"/>
-      <c r="O13" s="214"/>
-      <c r="P13" s="215"/>
-      <c r="Q13" s="210"/>
-      <c r="R13" s="211"/>
-      <c r="S13" s="211"/>
-      <c r="T13" s="211"/>
-      <c r="U13" s="211"/>
-      <c r="V13" s="211"/>
-      <c r="W13" s="211"/>
-      <c r="X13" s="211"/>
-      <c r="Y13" s="211"/>
-      <c r="Z13" s="211"/>
-      <c r="AA13" s="211"/>
-      <c r="AB13" s="211"/>
-      <c r="AC13" s="211"/>
-      <c r="AD13" s="211"/>
-      <c r="AE13" s="212"/>
-      <c r="AF13" s="213"/>
-      <c r="AG13" s="214"/>
-      <c r="AH13" s="214"/>
-      <c r="AI13" s="215"/>
+      <c r="B13" s="211"/>
+      <c r="C13" s="213"/>
+      <c r="D13" s="238"/>
+      <c r="E13" s="239"/>
+      <c r="F13" s="240"/>
+      <c r="G13" s="211"/>
+      <c r="H13" s="212"/>
+      <c r="I13" s="213"/>
+      <c r="J13" s="223"/>
+      <c r="K13" s="224"/>
+      <c r="L13" s="224"/>
+      <c r="M13" s="224"/>
+      <c r="N13" s="224"/>
+      <c r="O13" s="224"/>
+      <c r="P13" s="225"/>
+      <c r="Q13" s="220"/>
+      <c r="R13" s="221"/>
+      <c r="S13" s="221"/>
+      <c r="T13" s="221"/>
+      <c r="U13" s="221"/>
+      <c r="V13" s="221"/>
+      <c r="W13" s="221"/>
+      <c r="X13" s="221"/>
+      <c r="Y13" s="221"/>
+      <c r="Z13" s="221"/>
+      <c r="AA13" s="221"/>
+      <c r="AB13" s="221"/>
+      <c r="AC13" s="221"/>
+      <c r="AD13" s="221"/>
+      <c r="AE13" s="222"/>
+      <c r="AF13" s="223"/>
+      <c r="AG13" s="224"/>
+      <c r="AH13" s="224"/>
+      <c r="AI13" s="225"/>
     </row>
     <row r="14" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="57"/>
-      <c r="B14" s="216"/>
-      <c r="C14" s="217"/>
-      <c r="D14" s="218"/>
-      <c r="E14" s="219"/>
-      <c r="F14" s="220"/>
-      <c r="G14" s="216"/>
-      <c r="H14" s="221"/>
-      <c r="I14" s="217"/>
-      <c r="J14" s="213"/>
-      <c r="K14" s="214"/>
-      <c r="L14" s="214"/>
-      <c r="M14" s="214"/>
-      <c r="N14" s="214"/>
-      <c r="O14" s="214"/>
-      <c r="P14" s="215"/>
-      <c r="Q14" s="210"/>
-      <c r="R14" s="211"/>
-      <c r="S14" s="211"/>
-      <c r="T14" s="211"/>
-      <c r="U14" s="211"/>
-      <c r="V14" s="211"/>
-      <c r="W14" s="211"/>
-      <c r="X14" s="211"/>
-      <c r="Y14" s="211"/>
-      <c r="Z14" s="211"/>
-      <c r="AA14" s="211"/>
-      <c r="AB14" s="211"/>
-      <c r="AC14" s="211"/>
-      <c r="AD14" s="211"/>
-      <c r="AE14" s="212"/>
-      <c r="AF14" s="213"/>
-      <c r="AG14" s="214"/>
-      <c r="AH14" s="214"/>
-      <c r="AI14" s="215"/>
+      <c r="B14" s="211"/>
+      <c r="C14" s="213"/>
+      <c r="D14" s="238"/>
+      <c r="E14" s="239"/>
+      <c r="F14" s="240"/>
+      <c r="G14" s="211"/>
+      <c r="H14" s="212"/>
+      <c r="I14" s="213"/>
+      <c r="J14" s="223"/>
+      <c r="K14" s="224"/>
+      <c r="L14" s="224"/>
+      <c r="M14" s="224"/>
+      <c r="N14" s="224"/>
+      <c r="O14" s="224"/>
+      <c r="P14" s="225"/>
+      <c r="Q14" s="220"/>
+      <c r="R14" s="221"/>
+      <c r="S14" s="221"/>
+      <c r="T14" s="221"/>
+      <c r="U14" s="221"/>
+      <c r="V14" s="221"/>
+      <c r="W14" s="221"/>
+      <c r="X14" s="221"/>
+      <c r="Y14" s="221"/>
+      <c r="Z14" s="221"/>
+      <c r="AA14" s="221"/>
+      <c r="AB14" s="221"/>
+      <c r="AC14" s="221"/>
+      <c r="AD14" s="221"/>
+      <c r="AE14" s="222"/>
+      <c r="AF14" s="223"/>
+      <c r="AG14" s="224"/>
+      <c r="AH14" s="224"/>
+      <c r="AI14" s="225"/>
     </row>
     <row r="15" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="57"/>
-      <c r="B15" s="216"/>
-      <c r="C15" s="217"/>
-      <c r="D15" s="218"/>
-      <c r="E15" s="219"/>
-      <c r="F15" s="220"/>
-      <c r="G15" s="216"/>
-      <c r="H15" s="221"/>
-      <c r="I15" s="217"/>
-      <c r="J15" s="213"/>
-      <c r="K15" s="214"/>
-      <c r="L15" s="214"/>
-      <c r="M15" s="214"/>
-      <c r="N15" s="214"/>
-      <c r="O15" s="214"/>
-      <c r="P15" s="215"/>
-      <c r="Q15" s="210"/>
-      <c r="R15" s="211"/>
-      <c r="S15" s="211"/>
-      <c r="T15" s="211"/>
-      <c r="U15" s="211"/>
-      <c r="V15" s="211"/>
-      <c r="W15" s="211"/>
-      <c r="X15" s="211"/>
-      <c r="Y15" s="211"/>
-      <c r="Z15" s="211"/>
-      <c r="AA15" s="211"/>
-      <c r="AB15" s="211"/>
-      <c r="AC15" s="211"/>
-      <c r="AD15" s="211"/>
-      <c r="AE15" s="212"/>
-      <c r="AF15" s="213"/>
-      <c r="AG15" s="214"/>
-      <c r="AH15" s="214"/>
-      <c r="AI15" s="215"/>
+      <c r="B15" s="211"/>
+      <c r="C15" s="213"/>
+      <c r="D15" s="238"/>
+      <c r="E15" s="239"/>
+      <c r="F15" s="240"/>
+      <c r="G15" s="211"/>
+      <c r="H15" s="212"/>
+      <c r="I15" s="213"/>
+      <c r="J15" s="223"/>
+      <c r="K15" s="224"/>
+      <c r="L15" s="224"/>
+      <c r="M15" s="224"/>
+      <c r="N15" s="224"/>
+      <c r="O15" s="224"/>
+      <c r="P15" s="225"/>
+      <c r="Q15" s="220"/>
+      <c r="R15" s="221"/>
+      <c r="S15" s="221"/>
+      <c r="T15" s="221"/>
+      <c r="U15" s="221"/>
+      <c r="V15" s="221"/>
+      <c r="W15" s="221"/>
+      <c r="X15" s="221"/>
+      <c r="Y15" s="221"/>
+      <c r="Z15" s="221"/>
+      <c r="AA15" s="221"/>
+      <c r="AB15" s="221"/>
+      <c r="AC15" s="221"/>
+      <c r="AD15" s="221"/>
+      <c r="AE15" s="222"/>
+      <c r="AF15" s="223"/>
+      <c r="AG15" s="224"/>
+      <c r="AH15" s="224"/>
+      <c r="AI15" s="225"/>
     </row>
     <row r="16" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="57"/>
-      <c r="B16" s="216"/>
-      <c r="C16" s="217"/>
-      <c r="D16" s="218"/>
-      <c r="E16" s="219"/>
-      <c r="F16" s="220"/>
-      <c r="G16" s="216"/>
-      <c r="H16" s="221"/>
-      <c r="I16" s="217"/>
-      <c r="J16" s="213"/>
-      <c r="K16" s="214"/>
-      <c r="L16" s="214"/>
-      <c r="M16" s="214"/>
-      <c r="N16" s="214"/>
-      <c r="O16" s="214"/>
-      <c r="P16" s="215"/>
-      <c r="Q16" s="210"/>
-      <c r="R16" s="211"/>
-      <c r="S16" s="211"/>
-      <c r="T16" s="211"/>
-      <c r="U16" s="211"/>
-      <c r="V16" s="211"/>
-      <c r="W16" s="211"/>
-      <c r="X16" s="211"/>
-      <c r="Y16" s="211"/>
-      <c r="Z16" s="211"/>
-      <c r="AA16" s="211"/>
-      <c r="AB16" s="211"/>
-      <c r="AC16" s="211"/>
-      <c r="AD16" s="211"/>
-      <c r="AE16" s="212"/>
-      <c r="AF16" s="213"/>
-      <c r="AG16" s="214"/>
-      <c r="AH16" s="214"/>
-      <c r="AI16" s="215"/>
+      <c r="B16" s="211"/>
+      <c r="C16" s="213"/>
+      <c r="D16" s="238"/>
+      <c r="E16" s="239"/>
+      <c r="F16" s="240"/>
+      <c r="G16" s="211"/>
+      <c r="H16" s="212"/>
+      <c r="I16" s="213"/>
+      <c r="J16" s="223"/>
+      <c r="K16" s="224"/>
+      <c r="L16" s="224"/>
+      <c r="M16" s="224"/>
+      <c r="N16" s="224"/>
+      <c r="O16" s="224"/>
+      <c r="P16" s="225"/>
+      <c r="Q16" s="220"/>
+      <c r="R16" s="221"/>
+      <c r="S16" s="221"/>
+      <c r="T16" s="221"/>
+      <c r="U16" s="221"/>
+      <c r="V16" s="221"/>
+      <c r="W16" s="221"/>
+      <c r="X16" s="221"/>
+      <c r="Y16" s="221"/>
+      <c r="Z16" s="221"/>
+      <c r="AA16" s="221"/>
+      <c r="AB16" s="221"/>
+      <c r="AC16" s="221"/>
+      <c r="AD16" s="221"/>
+      <c r="AE16" s="222"/>
+      <c r="AF16" s="223"/>
+      <c r="AG16" s="224"/>
+      <c r="AH16" s="224"/>
+      <c r="AI16" s="225"/>
     </row>
     <row r="17" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="57"/>
-      <c r="B17" s="216"/>
-      <c r="C17" s="217"/>
-      <c r="D17" s="218"/>
-      <c r="E17" s="219"/>
-      <c r="F17" s="220"/>
-      <c r="G17" s="216"/>
-      <c r="H17" s="221"/>
-      <c r="I17" s="217"/>
-      <c r="J17" s="213"/>
-      <c r="K17" s="214"/>
-      <c r="L17" s="214"/>
-      <c r="M17" s="214"/>
-      <c r="N17" s="214"/>
-      <c r="O17" s="214"/>
-      <c r="P17" s="215"/>
-      <c r="Q17" s="210"/>
-      <c r="R17" s="211"/>
-      <c r="S17" s="211"/>
-      <c r="T17" s="211"/>
-      <c r="U17" s="211"/>
-      <c r="V17" s="211"/>
-      <c r="W17" s="211"/>
-      <c r="X17" s="211"/>
-      <c r="Y17" s="211"/>
-      <c r="Z17" s="211"/>
-      <c r="AA17" s="211"/>
-      <c r="AB17" s="211"/>
-      <c r="AC17" s="211"/>
-      <c r="AD17" s="211"/>
-      <c r="AE17" s="212"/>
-      <c r="AF17" s="213"/>
-      <c r="AG17" s="214"/>
-      <c r="AH17" s="214"/>
-      <c r="AI17" s="215"/>
+      <c r="B17" s="211"/>
+      <c r="C17" s="213"/>
+      <c r="D17" s="238"/>
+      <c r="E17" s="239"/>
+      <c r="F17" s="240"/>
+      <c r="G17" s="211"/>
+      <c r="H17" s="212"/>
+      <c r="I17" s="213"/>
+      <c r="J17" s="223"/>
+      <c r="K17" s="224"/>
+      <c r="L17" s="224"/>
+      <c r="M17" s="224"/>
+      <c r="N17" s="224"/>
+      <c r="O17" s="224"/>
+      <c r="P17" s="225"/>
+      <c r="Q17" s="220"/>
+      <c r="R17" s="221"/>
+      <c r="S17" s="221"/>
+      <c r="T17" s="221"/>
+      <c r="U17" s="221"/>
+      <c r="V17" s="221"/>
+      <c r="W17" s="221"/>
+      <c r="X17" s="221"/>
+      <c r="Y17" s="221"/>
+      <c r="Z17" s="221"/>
+      <c r="AA17" s="221"/>
+      <c r="AB17" s="221"/>
+      <c r="AC17" s="221"/>
+      <c r="AD17" s="221"/>
+      <c r="AE17" s="222"/>
+      <c r="AF17" s="223"/>
+      <c r="AG17" s="224"/>
+      <c r="AH17" s="224"/>
+      <c r="AI17" s="225"/>
     </row>
     <row r="18" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="57"/>
-      <c r="B18" s="216"/>
-      <c r="C18" s="217"/>
-      <c r="D18" s="218"/>
-      <c r="E18" s="219"/>
-      <c r="F18" s="220"/>
-      <c r="G18" s="216"/>
-      <c r="H18" s="221"/>
-      <c r="I18" s="217"/>
-      <c r="J18" s="213"/>
-      <c r="K18" s="214"/>
-      <c r="L18" s="214"/>
-      <c r="M18" s="214"/>
-      <c r="N18" s="214"/>
-      <c r="O18" s="214"/>
-      <c r="P18" s="215"/>
-      <c r="Q18" s="210"/>
-      <c r="R18" s="211"/>
-      <c r="S18" s="211"/>
-      <c r="T18" s="211"/>
-      <c r="U18" s="211"/>
-      <c r="V18" s="211"/>
-      <c r="W18" s="211"/>
-      <c r="X18" s="211"/>
-      <c r="Y18" s="211"/>
-      <c r="Z18" s="211"/>
-      <c r="AA18" s="211"/>
-      <c r="AB18" s="211"/>
-      <c r="AC18" s="211"/>
-      <c r="AD18" s="211"/>
-      <c r="AE18" s="212"/>
-      <c r="AF18" s="213"/>
-      <c r="AG18" s="214"/>
-      <c r="AH18" s="214"/>
-      <c r="AI18" s="215"/>
+      <c r="B18" s="211"/>
+      <c r="C18" s="213"/>
+      <c r="D18" s="238"/>
+      <c r="E18" s="239"/>
+      <c r="F18" s="240"/>
+      <c r="G18" s="211"/>
+      <c r="H18" s="212"/>
+      <c r="I18" s="213"/>
+      <c r="J18" s="223"/>
+      <c r="K18" s="224"/>
+      <c r="L18" s="224"/>
+      <c r="M18" s="224"/>
+      <c r="N18" s="224"/>
+      <c r="O18" s="224"/>
+      <c r="P18" s="225"/>
+      <c r="Q18" s="220"/>
+      <c r="R18" s="221"/>
+      <c r="S18" s="221"/>
+      <c r="T18" s="221"/>
+      <c r="U18" s="221"/>
+      <c r="V18" s="221"/>
+      <c r="W18" s="221"/>
+      <c r="X18" s="221"/>
+      <c r="Y18" s="221"/>
+      <c r="Z18" s="221"/>
+      <c r="AA18" s="221"/>
+      <c r="AB18" s="221"/>
+      <c r="AC18" s="221"/>
+      <c r="AD18" s="221"/>
+      <c r="AE18" s="222"/>
+      <c r="AF18" s="223"/>
+      <c r="AG18" s="224"/>
+      <c r="AH18" s="224"/>
+      <c r="AI18" s="225"/>
     </row>
     <row r="19" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="57"/>
-      <c r="B19" s="216"/>
-      <c r="C19" s="217"/>
-      <c r="D19" s="218"/>
-      <c r="E19" s="219"/>
-      <c r="F19" s="220"/>
-      <c r="G19" s="216"/>
-      <c r="H19" s="221"/>
-      <c r="I19" s="217"/>
-      <c r="J19" s="213"/>
-      <c r="K19" s="214"/>
-      <c r="L19" s="214"/>
-      <c r="M19" s="214"/>
-      <c r="N19" s="214"/>
-      <c r="O19" s="214"/>
-      <c r="P19" s="215"/>
-      <c r="Q19" s="210"/>
-      <c r="R19" s="211"/>
-      <c r="S19" s="211"/>
-      <c r="T19" s="211"/>
-      <c r="U19" s="211"/>
-      <c r="V19" s="211"/>
-      <c r="W19" s="211"/>
-      <c r="X19" s="211"/>
-      <c r="Y19" s="211"/>
-      <c r="Z19" s="211"/>
-      <c r="AA19" s="211"/>
-      <c r="AB19" s="211"/>
-      <c r="AC19" s="211"/>
-      <c r="AD19" s="211"/>
-      <c r="AE19" s="212"/>
-      <c r="AF19" s="213"/>
-      <c r="AG19" s="214"/>
-      <c r="AH19" s="214"/>
-      <c r="AI19" s="215"/>
+      <c r="B19" s="211"/>
+      <c r="C19" s="213"/>
+      <c r="D19" s="238"/>
+      <c r="E19" s="239"/>
+      <c r="F19" s="240"/>
+      <c r="G19" s="211"/>
+      <c r="H19" s="212"/>
+      <c r="I19" s="213"/>
+      <c r="J19" s="223"/>
+      <c r="K19" s="224"/>
+      <c r="L19" s="224"/>
+      <c r="M19" s="224"/>
+      <c r="N19" s="224"/>
+      <c r="O19" s="224"/>
+      <c r="P19" s="225"/>
+      <c r="Q19" s="220"/>
+      <c r="R19" s="221"/>
+      <c r="S19" s="221"/>
+      <c r="T19" s="221"/>
+      <c r="U19" s="221"/>
+      <c r="V19" s="221"/>
+      <c r="W19" s="221"/>
+      <c r="X19" s="221"/>
+      <c r="Y19" s="221"/>
+      <c r="Z19" s="221"/>
+      <c r="AA19" s="221"/>
+      <c r="AB19" s="221"/>
+      <c r="AC19" s="221"/>
+      <c r="AD19" s="221"/>
+      <c r="AE19" s="222"/>
+      <c r="AF19" s="223"/>
+      <c r="AG19" s="224"/>
+      <c r="AH19" s="224"/>
+      <c r="AI19" s="225"/>
     </row>
     <row r="20" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="57"/>
-      <c r="B20" s="216"/>
-      <c r="C20" s="217"/>
-      <c r="D20" s="218"/>
-      <c r="E20" s="219"/>
-      <c r="F20" s="220"/>
-      <c r="G20" s="216"/>
-      <c r="H20" s="221"/>
-      <c r="I20" s="217"/>
-      <c r="J20" s="213"/>
-      <c r="K20" s="214"/>
-      <c r="L20" s="214"/>
-      <c r="M20" s="214"/>
-      <c r="N20" s="214"/>
-      <c r="O20" s="214"/>
-      <c r="P20" s="215"/>
-      <c r="Q20" s="210"/>
-      <c r="R20" s="211"/>
-      <c r="S20" s="211"/>
-      <c r="T20" s="211"/>
-      <c r="U20" s="211"/>
-      <c r="V20" s="211"/>
-      <c r="W20" s="211"/>
-      <c r="X20" s="211"/>
-      <c r="Y20" s="211"/>
-      <c r="Z20" s="211"/>
-      <c r="AA20" s="211"/>
-      <c r="AB20" s="211"/>
-      <c r="AC20" s="211"/>
-      <c r="AD20" s="211"/>
-      <c r="AE20" s="212"/>
-      <c r="AF20" s="213"/>
-      <c r="AG20" s="214"/>
-      <c r="AH20" s="214"/>
-      <c r="AI20" s="215"/>
+      <c r="B20" s="211"/>
+      <c r="C20" s="213"/>
+      <c r="D20" s="238"/>
+      <c r="E20" s="239"/>
+      <c r="F20" s="240"/>
+      <c r="G20" s="211"/>
+      <c r="H20" s="212"/>
+      <c r="I20" s="213"/>
+      <c r="J20" s="223"/>
+      <c r="K20" s="224"/>
+      <c r="L20" s="224"/>
+      <c r="M20" s="224"/>
+      <c r="N20" s="224"/>
+      <c r="O20" s="224"/>
+      <c r="P20" s="225"/>
+      <c r="Q20" s="220"/>
+      <c r="R20" s="221"/>
+      <c r="S20" s="221"/>
+      <c r="T20" s="221"/>
+      <c r="U20" s="221"/>
+      <c r="V20" s="221"/>
+      <c r="W20" s="221"/>
+      <c r="X20" s="221"/>
+      <c r="Y20" s="221"/>
+      <c r="Z20" s="221"/>
+      <c r="AA20" s="221"/>
+      <c r="AB20" s="221"/>
+      <c r="AC20" s="221"/>
+      <c r="AD20" s="221"/>
+      <c r="AE20" s="222"/>
+      <c r="AF20" s="223"/>
+      <c r="AG20" s="224"/>
+      <c r="AH20" s="224"/>
+      <c r="AI20" s="225"/>
     </row>
     <row r="21" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="57"/>
-      <c r="B21" s="216"/>
-      <c r="C21" s="217"/>
-      <c r="D21" s="218"/>
-      <c r="E21" s="219"/>
-      <c r="F21" s="220"/>
-      <c r="G21" s="216"/>
-      <c r="H21" s="221"/>
-      <c r="I21" s="217"/>
-      <c r="J21" s="213"/>
-      <c r="K21" s="214"/>
-      <c r="L21" s="214"/>
-      <c r="M21" s="214"/>
-      <c r="N21" s="214"/>
-      <c r="O21" s="214"/>
-      <c r="P21" s="215"/>
-      <c r="Q21" s="210"/>
-      <c r="R21" s="211"/>
-      <c r="S21" s="211"/>
-      <c r="T21" s="211"/>
-      <c r="U21" s="211"/>
-      <c r="V21" s="211"/>
-      <c r="W21" s="211"/>
-      <c r="X21" s="211"/>
-      <c r="Y21" s="211"/>
-      <c r="Z21" s="211"/>
-      <c r="AA21" s="211"/>
-      <c r="AB21" s="211"/>
-      <c r="AC21" s="211"/>
-      <c r="AD21" s="211"/>
-      <c r="AE21" s="212"/>
-      <c r="AF21" s="213"/>
-      <c r="AG21" s="214"/>
-      <c r="AH21" s="214"/>
-      <c r="AI21" s="215"/>
+      <c r="B21" s="211"/>
+      <c r="C21" s="213"/>
+      <c r="D21" s="238"/>
+      <c r="E21" s="239"/>
+      <c r="F21" s="240"/>
+      <c r="G21" s="211"/>
+      <c r="H21" s="212"/>
+      <c r="I21" s="213"/>
+      <c r="J21" s="223"/>
+      <c r="K21" s="224"/>
+      <c r="L21" s="224"/>
+      <c r="M21" s="224"/>
+      <c r="N21" s="224"/>
+      <c r="O21" s="224"/>
+      <c r="P21" s="225"/>
+      <c r="Q21" s="220"/>
+      <c r="R21" s="221"/>
+      <c r="S21" s="221"/>
+      <c r="T21" s="221"/>
+      <c r="U21" s="221"/>
+      <c r="V21" s="221"/>
+      <c r="W21" s="221"/>
+      <c r="X21" s="221"/>
+      <c r="Y21" s="221"/>
+      <c r="Z21" s="221"/>
+      <c r="AA21" s="221"/>
+      <c r="AB21" s="221"/>
+      <c r="AC21" s="221"/>
+      <c r="AD21" s="221"/>
+      <c r="AE21" s="222"/>
+      <c r="AF21" s="223"/>
+      <c r="AG21" s="224"/>
+      <c r="AH21" s="224"/>
+      <c r="AI21" s="225"/>
     </row>
     <row r="22" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="57"/>
-      <c r="B22" s="216"/>
-      <c r="C22" s="217"/>
-      <c r="D22" s="218"/>
-      <c r="E22" s="219"/>
-      <c r="F22" s="220"/>
-      <c r="G22" s="216"/>
-      <c r="H22" s="221"/>
-      <c r="I22" s="217"/>
-      <c r="J22" s="213"/>
-      <c r="K22" s="214"/>
-      <c r="L22" s="214"/>
-      <c r="M22" s="214"/>
-      <c r="N22" s="214"/>
-      <c r="O22" s="214"/>
-      <c r="P22" s="215"/>
-      <c r="Q22" s="210"/>
-      <c r="R22" s="211"/>
-      <c r="S22" s="211"/>
-      <c r="T22" s="211"/>
-      <c r="U22" s="211"/>
-      <c r="V22" s="211"/>
-      <c r="W22" s="211"/>
-      <c r="X22" s="211"/>
-      <c r="Y22" s="211"/>
-      <c r="Z22" s="211"/>
-      <c r="AA22" s="211"/>
-      <c r="AB22" s="211"/>
-      <c r="AC22" s="211"/>
-      <c r="AD22" s="211"/>
-      <c r="AE22" s="212"/>
-      <c r="AF22" s="213"/>
-      <c r="AG22" s="214"/>
-      <c r="AH22" s="214"/>
-      <c r="AI22" s="215"/>
+      <c r="B22" s="211"/>
+      <c r="C22" s="213"/>
+      <c r="D22" s="238"/>
+      <c r="E22" s="239"/>
+      <c r="F22" s="240"/>
+      <c r="G22" s="211"/>
+      <c r="H22" s="212"/>
+      <c r="I22" s="213"/>
+      <c r="J22" s="223"/>
+      <c r="K22" s="224"/>
+      <c r="L22" s="224"/>
+      <c r="M22" s="224"/>
+      <c r="N22" s="224"/>
+      <c r="O22" s="224"/>
+      <c r="P22" s="225"/>
+      <c r="Q22" s="220"/>
+      <c r="R22" s="221"/>
+      <c r="S22" s="221"/>
+      <c r="T22" s="221"/>
+      <c r="U22" s="221"/>
+      <c r="V22" s="221"/>
+      <c r="W22" s="221"/>
+      <c r="X22" s="221"/>
+      <c r="Y22" s="221"/>
+      <c r="Z22" s="221"/>
+      <c r="AA22" s="221"/>
+      <c r="AB22" s="221"/>
+      <c r="AC22" s="221"/>
+      <c r="AD22" s="221"/>
+      <c r="AE22" s="222"/>
+      <c r="AF22" s="223"/>
+      <c r="AG22" s="224"/>
+      <c r="AH22" s="224"/>
+      <c r="AI22" s="225"/>
     </row>
     <row r="23" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="57"/>
-      <c r="B23" s="216"/>
-      <c r="C23" s="217"/>
-      <c r="D23" s="218"/>
-      <c r="E23" s="219"/>
-      <c r="F23" s="220"/>
-      <c r="G23" s="216"/>
-      <c r="H23" s="221"/>
-      <c r="I23" s="217"/>
-      <c r="J23" s="213"/>
-      <c r="K23" s="214"/>
-      <c r="L23" s="214"/>
-      <c r="M23" s="214"/>
-      <c r="N23" s="214"/>
-      <c r="O23" s="214"/>
-      <c r="P23" s="215"/>
-      <c r="Q23" s="210"/>
-      <c r="R23" s="211"/>
-      <c r="S23" s="211"/>
-      <c r="T23" s="211"/>
-      <c r="U23" s="211"/>
-      <c r="V23" s="211"/>
-      <c r="W23" s="211"/>
-      <c r="X23" s="211"/>
-      <c r="Y23" s="211"/>
-      <c r="Z23" s="211"/>
-      <c r="AA23" s="211"/>
-      <c r="AB23" s="211"/>
-      <c r="AC23" s="211"/>
-      <c r="AD23" s="211"/>
-      <c r="AE23" s="212"/>
-      <c r="AF23" s="213"/>
-      <c r="AG23" s="214"/>
-      <c r="AH23" s="214"/>
-      <c r="AI23" s="215"/>
+      <c r="B23" s="211"/>
+      <c r="C23" s="213"/>
+      <c r="D23" s="238"/>
+      <c r="E23" s="239"/>
+      <c r="F23" s="240"/>
+      <c r="G23" s="211"/>
+      <c r="H23" s="212"/>
+      <c r="I23" s="213"/>
+      <c r="J23" s="223"/>
+      <c r="K23" s="224"/>
+      <c r="L23" s="224"/>
+      <c r="M23" s="224"/>
+      <c r="N23" s="224"/>
+      <c r="O23" s="224"/>
+      <c r="P23" s="225"/>
+      <c r="Q23" s="220"/>
+      <c r="R23" s="221"/>
+      <c r="S23" s="221"/>
+      <c r="T23" s="221"/>
+      <c r="U23" s="221"/>
+      <c r="V23" s="221"/>
+      <c r="W23" s="221"/>
+      <c r="X23" s="221"/>
+      <c r="Y23" s="221"/>
+      <c r="Z23" s="221"/>
+      <c r="AA23" s="221"/>
+      <c r="AB23" s="221"/>
+      <c r="AC23" s="221"/>
+      <c r="AD23" s="221"/>
+      <c r="AE23" s="222"/>
+      <c r="AF23" s="223"/>
+      <c r="AG23" s="224"/>
+      <c r="AH23" s="224"/>
+      <c r="AI23" s="225"/>
     </row>
     <row r="24" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="57"/>
-      <c r="B24" s="216"/>
-      <c r="C24" s="217"/>
-      <c r="D24" s="218"/>
-      <c r="E24" s="219"/>
-      <c r="F24" s="220"/>
-      <c r="G24" s="216"/>
-      <c r="H24" s="221"/>
-      <c r="I24" s="217"/>
-      <c r="J24" s="213"/>
-      <c r="K24" s="214"/>
-      <c r="L24" s="214"/>
-      <c r="M24" s="214"/>
-      <c r="N24" s="214"/>
-      <c r="O24" s="214"/>
-      <c r="P24" s="215"/>
-      <c r="Q24" s="210"/>
-      <c r="R24" s="211"/>
-      <c r="S24" s="211"/>
-      <c r="T24" s="211"/>
-      <c r="U24" s="211"/>
-      <c r="V24" s="211"/>
-      <c r="W24" s="211"/>
-      <c r="X24" s="211"/>
-      <c r="Y24" s="211"/>
-      <c r="Z24" s="211"/>
-      <c r="AA24" s="211"/>
-      <c r="AB24" s="211"/>
-      <c r="AC24" s="211"/>
-      <c r="AD24" s="211"/>
-      <c r="AE24" s="212"/>
-      <c r="AF24" s="213"/>
-      <c r="AG24" s="214"/>
-      <c r="AH24" s="214"/>
-      <c r="AI24" s="215"/>
+      <c r="B24" s="211"/>
+      <c r="C24" s="213"/>
+      <c r="D24" s="238"/>
+      <c r="E24" s="239"/>
+      <c r="F24" s="240"/>
+      <c r="G24" s="211"/>
+      <c r="H24" s="212"/>
+      <c r="I24" s="213"/>
+      <c r="J24" s="223"/>
+      <c r="K24" s="224"/>
+      <c r="L24" s="224"/>
+      <c r="M24" s="224"/>
+      <c r="N24" s="224"/>
+      <c r="O24" s="224"/>
+      <c r="P24" s="225"/>
+      <c r="Q24" s="220"/>
+      <c r="R24" s="221"/>
+      <c r="S24" s="221"/>
+      <c r="T24" s="221"/>
+      <c r="U24" s="221"/>
+      <c r="V24" s="221"/>
+      <c r="W24" s="221"/>
+      <c r="X24" s="221"/>
+      <c r="Y24" s="221"/>
+      <c r="Z24" s="221"/>
+      <c r="AA24" s="221"/>
+      <c r="AB24" s="221"/>
+      <c r="AC24" s="221"/>
+      <c r="AD24" s="221"/>
+      <c r="AE24" s="222"/>
+      <c r="AF24" s="223"/>
+      <c r="AG24" s="224"/>
+      <c r="AH24" s="224"/>
+      <c r="AI24" s="225"/>
     </row>
     <row r="25" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="57"/>
-      <c r="B25" s="216"/>
-      <c r="C25" s="217"/>
-      <c r="D25" s="218"/>
-      <c r="E25" s="219"/>
-      <c r="F25" s="220"/>
-      <c r="G25" s="216"/>
-      <c r="H25" s="221"/>
-      <c r="I25" s="217"/>
-      <c r="J25" s="213"/>
-      <c r="K25" s="214"/>
-      <c r="L25" s="214"/>
-      <c r="M25" s="214"/>
-      <c r="N25" s="214"/>
-      <c r="O25" s="214"/>
-      <c r="P25" s="215"/>
-      <c r="Q25" s="210"/>
-      <c r="R25" s="211"/>
-      <c r="S25" s="211"/>
-      <c r="T25" s="211"/>
-      <c r="U25" s="211"/>
-      <c r="V25" s="211"/>
-      <c r="W25" s="211"/>
-      <c r="X25" s="211"/>
-      <c r="Y25" s="211"/>
-      <c r="Z25" s="211"/>
-      <c r="AA25" s="211"/>
-      <c r="AB25" s="211"/>
-      <c r="AC25" s="211"/>
-      <c r="AD25" s="211"/>
-      <c r="AE25" s="212"/>
-      <c r="AF25" s="213"/>
-      <c r="AG25" s="214"/>
-      <c r="AH25" s="214"/>
-      <c r="AI25" s="215"/>
+      <c r="B25" s="211"/>
+      <c r="C25" s="213"/>
+      <c r="D25" s="238"/>
+      <c r="E25" s="239"/>
+      <c r="F25" s="240"/>
+      <c r="G25" s="211"/>
+      <c r="H25" s="212"/>
+      <c r="I25" s="213"/>
+      <c r="J25" s="223"/>
+      <c r="K25" s="224"/>
+      <c r="L25" s="224"/>
+      <c r="M25" s="224"/>
+      <c r="N25" s="224"/>
+      <c r="O25" s="224"/>
+      <c r="P25" s="225"/>
+      <c r="Q25" s="220"/>
+      <c r="R25" s="221"/>
+      <c r="S25" s="221"/>
+      <c r="T25" s="221"/>
+      <c r="U25" s="221"/>
+      <c r="V25" s="221"/>
+      <c r="W25" s="221"/>
+      <c r="X25" s="221"/>
+      <c r="Y25" s="221"/>
+      <c r="Z25" s="221"/>
+      <c r="AA25" s="221"/>
+      <c r="AB25" s="221"/>
+      <c r="AC25" s="221"/>
+      <c r="AD25" s="221"/>
+      <c r="AE25" s="222"/>
+      <c r="AF25" s="223"/>
+      <c r="AG25" s="224"/>
+      <c r="AH25" s="224"/>
+      <c r="AI25" s="225"/>
     </row>
     <row r="26" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="57"/>
-      <c r="B26" s="216"/>
-      <c r="C26" s="217"/>
-      <c r="D26" s="218"/>
-      <c r="E26" s="219"/>
-      <c r="F26" s="220"/>
-      <c r="G26" s="216"/>
-      <c r="H26" s="221"/>
-      <c r="I26" s="217"/>
-      <c r="J26" s="213"/>
-      <c r="K26" s="214"/>
-      <c r="L26" s="214"/>
-      <c r="M26" s="214"/>
-      <c r="N26" s="214"/>
-      <c r="O26" s="214"/>
-      <c r="P26" s="215"/>
-      <c r="Q26" s="210"/>
-      <c r="R26" s="211"/>
-      <c r="S26" s="211"/>
-      <c r="T26" s="211"/>
-      <c r="U26" s="211"/>
-      <c r="V26" s="211"/>
-      <c r="W26" s="211"/>
-      <c r="X26" s="211"/>
-      <c r="Y26" s="211"/>
-      <c r="Z26" s="211"/>
-      <c r="AA26" s="211"/>
-      <c r="AB26" s="211"/>
-      <c r="AC26" s="211"/>
-      <c r="AD26" s="211"/>
-      <c r="AE26" s="212"/>
-      <c r="AF26" s="213"/>
-      <c r="AG26" s="214"/>
-      <c r="AH26" s="214"/>
-      <c r="AI26" s="215"/>
+      <c r="B26" s="211"/>
+      <c r="C26" s="213"/>
+      <c r="D26" s="238"/>
+      <c r="E26" s="239"/>
+      <c r="F26" s="240"/>
+      <c r="G26" s="211"/>
+      <c r="H26" s="212"/>
+      <c r="I26" s="213"/>
+      <c r="J26" s="223"/>
+      <c r="K26" s="224"/>
+      <c r="L26" s="224"/>
+      <c r="M26" s="224"/>
+      <c r="N26" s="224"/>
+      <c r="O26" s="224"/>
+      <c r="P26" s="225"/>
+      <c r="Q26" s="220"/>
+      <c r="R26" s="221"/>
+      <c r="S26" s="221"/>
+      <c r="T26" s="221"/>
+      <c r="U26" s="221"/>
+      <c r="V26" s="221"/>
+      <c r="W26" s="221"/>
+      <c r="X26" s="221"/>
+      <c r="Y26" s="221"/>
+      <c r="Z26" s="221"/>
+      <c r="AA26" s="221"/>
+      <c r="AB26" s="221"/>
+      <c r="AC26" s="221"/>
+      <c r="AD26" s="221"/>
+      <c r="AE26" s="222"/>
+      <c r="AF26" s="223"/>
+      <c r="AG26" s="224"/>
+      <c r="AH26" s="224"/>
+      <c r="AI26" s="225"/>
     </row>
     <row r="27" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="57"/>
-      <c r="B27" s="216"/>
-      <c r="C27" s="217"/>
-      <c r="D27" s="218"/>
-      <c r="E27" s="219"/>
-      <c r="F27" s="220"/>
-      <c r="G27" s="216"/>
-      <c r="H27" s="221"/>
-      <c r="I27" s="217"/>
-      <c r="J27" s="213"/>
-      <c r="K27" s="214"/>
-      <c r="L27" s="214"/>
-      <c r="M27" s="214"/>
-      <c r="N27" s="214"/>
-      <c r="O27" s="214"/>
-      <c r="P27" s="215"/>
-      <c r="Q27" s="210"/>
-      <c r="R27" s="211"/>
-      <c r="S27" s="211"/>
-      <c r="T27" s="211"/>
-      <c r="U27" s="211"/>
-      <c r="V27" s="211"/>
-      <c r="W27" s="211"/>
-      <c r="X27" s="211"/>
-      <c r="Y27" s="211"/>
-      <c r="Z27" s="211"/>
-      <c r="AA27" s="211"/>
-      <c r="AB27" s="211"/>
-      <c r="AC27" s="211"/>
-      <c r="AD27" s="211"/>
-      <c r="AE27" s="212"/>
-      <c r="AF27" s="213"/>
-      <c r="AG27" s="214"/>
-      <c r="AH27" s="214"/>
-      <c r="AI27" s="215"/>
+      <c r="B27" s="211"/>
+      <c r="C27" s="213"/>
+      <c r="D27" s="238"/>
+      <c r="E27" s="239"/>
+      <c r="F27" s="240"/>
+      <c r="G27" s="211"/>
+      <c r="H27" s="212"/>
+      <c r="I27" s="213"/>
+      <c r="J27" s="223"/>
+      <c r="K27" s="224"/>
+      <c r="L27" s="224"/>
+      <c r="M27" s="224"/>
+      <c r="N27" s="224"/>
+      <c r="O27" s="224"/>
+      <c r="P27" s="225"/>
+      <c r="Q27" s="220"/>
+      <c r="R27" s="221"/>
+      <c r="S27" s="221"/>
+      <c r="T27" s="221"/>
+      <c r="U27" s="221"/>
+      <c r="V27" s="221"/>
+      <c r="W27" s="221"/>
+      <c r="X27" s="221"/>
+      <c r="Y27" s="221"/>
+      <c r="Z27" s="221"/>
+      <c r="AA27" s="221"/>
+      <c r="AB27" s="221"/>
+      <c r="AC27" s="221"/>
+      <c r="AD27" s="221"/>
+      <c r="AE27" s="222"/>
+      <c r="AF27" s="223"/>
+      <c r="AG27" s="224"/>
+      <c r="AH27" s="224"/>
+      <c r="AI27" s="225"/>
     </row>
     <row r="28" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="57"/>
-      <c r="B28" s="216"/>
-      <c r="C28" s="217"/>
-      <c r="D28" s="218"/>
-      <c r="E28" s="219"/>
-      <c r="F28" s="220"/>
-      <c r="G28" s="216"/>
-      <c r="H28" s="221"/>
-      <c r="I28" s="217"/>
-      <c r="J28" s="213"/>
-      <c r="K28" s="214"/>
-      <c r="L28" s="214"/>
-      <c r="M28" s="214"/>
-      <c r="N28" s="214"/>
-      <c r="O28" s="214"/>
-      <c r="P28" s="215"/>
-      <c r="Q28" s="210"/>
-      <c r="R28" s="211"/>
-      <c r="S28" s="211"/>
-      <c r="T28" s="211"/>
-      <c r="U28" s="211"/>
-      <c r="V28" s="211"/>
-      <c r="W28" s="211"/>
-      <c r="X28" s="211"/>
-      <c r="Y28" s="211"/>
-      <c r="Z28" s="211"/>
-      <c r="AA28" s="211"/>
-      <c r="AB28" s="211"/>
-      <c r="AC28" s="211"/>
-      <c r="AD28" s="211"/>
-      <c r="AE28" s="212"/>
-      <c r="AF28" s="213"/>
-      <c r="AG28" s="214"/>
-      <c r="AH28" s="214"/>
-      <c r="AI28" s="215"/>
+      <c r="B28" s="211"/>
+      <c r="C28" s="213"/>
+      <c r="D28" s="238"/>
+      <c r="E28" s="239"/>
+      <c r="F28" s="240"/>
+      <c r="G28" s="211"/>
+      <c r="H28" s="212"/>
+      <c r="I28" s="213"/>
+      <c r="J28" s="223"/>
+      <c r="K28" s="224"/>
+      <c r="L28" s="224"/>
+      <c r="M28" s="224"/>
+      <c r="N28" s="224"/>
+      <c r="O28" s="224"/>
+      <c r="P28" s="225"/>
+      <c r="Q28" s="220"/>
+      <c r="R28" s="221"/>
+      <c r="S28" s="221"/>
+      <c r="T28" s="221"/>
+      <c r="U28" s="221"/>
+      <c r="V28" s="221"/>
+      <c r="W28" s="221"/>
+      <c r="X28" s="221"/>
+      <c r="Y28" s="221"/>
+      <c r="Z28" s="221"/>
+      <c r="AA28" s="221"/>
+      <c r="AB28" s="221"/>
+      <c r="AC28" s="221"/>
+      <c r="AD28" s="221"/>
+      <c r="AE28" s="222"/>
+      <c r="AF28" s="223"/>
+      <c r="AG28" s="224"/>
+      <c r="AH28" s="224"/>
+      <c r="AI28" s="225"/>
     </row>
     <row r="29" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="57"/>
-      <c r="B29" s="216"/>
-      <c r="C29" s="217"/>
-      <c r="D29" s="218"/>
-      <c r="E29" s="219"/>
-      <c r="F29" s="220"/>
-      <c r="G29" s="216"/>
-      <c r="H29" s="221"/>
-      <c r="I29" s="217"/>
-      <c r="J29" s="213"/>
-      <c r="K29" s="214"/>
-      <c r="L29" s="214"/>
-      <c r="M29" s="214"/>
-      <c r="N29" s="214"/>
-      <c r="O29" s="214"/>
-      <c r="P29" s="215"/>
-      <c r="Q29" s="210"/>
-      <c r="R29" s="211"/>
-      <c r="S29" s="211"/>
-      <c r="T29" s="211"/>
-      <c r="U29" s="211"/>
-      <c r="V29" s="211"/>
-      <c r="W29" s="211"/>
-      <c r="X29" s="211"/>
-      <c r="Y29" s="211"/>
-      <c r="Z29" s="211"/>
-      <c r="AA29" s="211"/>
-      <c r="AB29" s="211"/>
-      <c r="AC29" s="211"/>
-      <c r="AD29" s="211"/>
-      <c r="AE29" s="212"/>
-      <c r="AF29" s="213"/>
-      <c r="AG29" s="214"/>
-      <c r="AH29" s="214"/>
-      <c r="AI29" s="215"/>
+      <c r="B29" s="211"/>
+      <c r="C29" s="213"/>
+      <c r="D29" s="238"/>
+      <c r="E29" s="239"/>
+      <c r="F29" s="240"/>
+      <c r="G29" s="211"/>
+      <c r="H29" s="212"/>
+      <c r="I29" s="213"/>
+      <c r="J29" s="223"/>
+      <c r="K29" s="224"/>
+      <c r="L29" s="224"/>
+      <c r="M29" s="224"/>
+      <c r="N29" s="224"/>
+      <c r="O29" s="224"/>
+      <c r="P29" s="225"/>
+      <c r="Q29" s="220"/>
+      <c r="R29" s="221"/>
+      <c r="S29" s="221"/>
+      <c r="T29" s="221"/>
+      <c r="U29" s="221"/>
+      <c r="V29" s="221"/>
+      <c r="W29" s="221"/>
+      <c r="X29" s="221"/>
+      <c r="Y29" s="221"/>
+      <c r="Z29" s="221"/>
+      <c r="AA29" s="221"/>
+      <c r="AB29" s="221"/>
+      <c r="AC29" s="221"/>
+      <c r="AD29" s="221"/>
+      <c r="AE29" s="222"/>
+      <c r="AF29" s="223"/>
+      <c r="AG29" s="224"/>
+      <c r="AH29" s="224"/>
+      <c r="AI29" s="225"/>
     </row>
     <row r="30" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="57"/>
-      <c r="B30" s="216"/>
-      <c r="C30" s="217"/>
-      <c r="D30" s="218"/>
-      <c r="E30" s="219"/>
-      <c r="F30" s="220"/>
-      <c r="G30" s="216"/>
-      <c r="H30" s="221"/>
-      <c r="I30" s="217"/>
-      <c r="J30" s="213"/>
-      <c r="K30" s="214"/>
-      <c r="L30" s="214"/>
-      <c r="M30" s="214"/>
-      <c r="N30" s="214"/>
-      <c r="O30" s="214"/>
-      <c r="P30" s="215"/>
-      <c r="Q30" s="210"/>
-      <c r="R30" s="211"/>
-      <c r="S30" s="211"/>
-      <c r="T30" s="211"/>
-      <c r="U30" s="211"/>
-      <c r="V30" s="211"/>
-      <c r="W30" s="211"/>
-      <c r="X30" s="211"/>
-      <c r="Y30" s="211"/>
-      <c r="Z30" s="211"/>
-      <c r="AA30" s="211"/>
-      <c r="AB30" s="211"/>
-      <c r="AC30" s="211"/>
-      <c r="AD30" s="211"/>
-      <c r="AE30" s="212"/>
-      <c r="AF30" s="213"/>
-      <c r="AG30" s="214"/>
-      <c r="AH30" s="214"/>
-      <c r="AI30" s="215"/>
+      <c r="B30" s="211"/>
+      <c r="C30" s="213"/>
+      <c r="D30" s="238"/>
+      <c r="E30" s="239"/>
+      <c r="F30" s="240"/>
+      <c r="G30" s="211"/>
+      <c r="H30" s="212"/>
+      <c r="I30" s="213"/>
+      <c r="J30" s="223"/>
+      <c r="K30" s="224"/>
+      <c r="L30" s="224"/>
+      <c r="M30" s="224"/>
+      <c r="N30" s="224"/>
+      <c r="O30" s="224"/>
+      <c r="P30" s="225"/>
+      <c r="Q30" s="220"/>
+      <c r="R30" s="221"/>
+      <c r="S30" s="221"/>
+      <c r="T30" s="221"/>
+      <c r="U30" s="221"/>
+      <c r="V30" s="221"/>
+      <c r="W30" s="221"/>
+      <c r="X30" s="221"/>
+      <c r="Y30" s="221"/>
+      <c r="Z30" s="221"/>
+      <c r="AA30" s="221"/>
+      <c r="AB30" s="221"/>
+      <c r="AC30" s="221"/>
+      <c r="AD30" s="221"/>
+      <c r="AE30" s="222"/>
+      <c r="AF30" s="223"/>
+      <c r="AG30" s="224"/>
+      <c r="AH30" s="224"/>
+      <c r="AI30" s="225"/>
     </row>
     <row r="31" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="57"/>
-      <c r="B31" s="216"/>
-      <c r="C31" s="217"/>
-      <c r="D31" s="218"/>
-      <c r="E31" s="219"/>
-      <c r="F31" s="220"/>
-      <c r="G31" s="216"/>
-      <c r="H31" s="221"/>
-      <c r="I31" s="217"/>
-      <c r="J31" s="213"/>
-      <c r="K31" s="214"/>
-      <c r="L31" s="214"/>
-      <c r="M31" s="214"/>
-      <c r="N31" s="214"/>
-      <c r="O31" s="214"/>
-      <c r="P31" s="215"/>
-      <c r="Q31" s="210"/>
-      <c r="R31" s="211"/>
-      <c r="S31" s="211"/>
-      <c r="T31" s="211"/>
-      <c r="U31" s="211"/>
-      <c r="V31" s="211"/>
-      <c r="W31" s="211"/>
-      <c r="X31" s="211"/>
-      <c r="Y31" s="211"/>
-      <c r="Z31" s="211"/>
-      <c r="AA31" s="211"/>
-      <c r="AB31" s="211"/>
-      <c r="AC31" s="211"/>
-      <c r="AD31" s="211"/>
-      <c r="AE31" s="212"/>
-      <c r="AF31" s="213"/>
-      <c r="AG31" s="214"/>
-      <c r="AH31" s="214"/>
-      <c r="AI31" s="215"/>
+      <c r="B31" s="211"/>
+      <c r="C31" s="213"/>
+      <c r="D31" s="238"/>
+      <c r="E31" s="239"/>
+      <c r="F31" s="240"/>
+      <c r="G31" s="211"/>
+      <c r="H31" s="212"/>
+      <c r="I31" s="213"/>
+      <c r="J31" s="223"/>
+      <c r="K31" s="224"/>
+      <c r="L31" s="224"/>
+      <c r="M31" s="224"/>
+      <c r="N31" s="224"/>
+      <c r="O31" s="224"/>
+      <c r="P31" s="225"/>
+      <c r="Q31" s="220"/>
+      <c r="R31" s="221"/>
+      <c r="S31" s="221"/>
+      <c r="T31" s="221"/>
+      <c r="U31" s="221"/>
+      <c r="V31" s="221"/>
+      <c r="W31" s="221"/>
+      <c r="X31" s="221"/>
+      <c r="Y31" s="221"/>
+      <c r="Z31" s="221"/>
+      <c r="AA31" s="221"/>
+      <c r="AB31" s="221"/>
+      <c r="AC31" s="221"/>
+      <c r="AD31" s="221"/>
+      <c r="AE31" s="222"/>
+      <c r="AF31" s="223"/>
+      <c r="AG31" s="224"/>
+      <c r="AH31" s="224"/>
+      <c r="AI31" s="225"/>
     </row>
     <row r="32" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="57"/>
-      <c r="B32" s="216"/>
-      <c r="C32" s="217"/>
-      <c r="D32" s="218"/>
-      <c r="E32" s="219"/>
-      <c r="F32" s="220"/>
-      <c r="G32" s="216"/>
-      <c r="H32" s="221"/>
-      <c r="I32" s="217"/>
-      <c r="J32" s="213"/>
-      <c r="K32" s="214"/>
-      <c r="L32" s="214"/>
-      <c r="M32" s="214"/>
-      <c r="N32" s="214"/>
-      <c r="O32" s="214"/>
-      <c r="P32" s="215"/>
-      <c r="Q32" s="210"/>
-      <c r="R32" s="211"/>
-      <c r="S32" s="211"/>
-      <c r="T32" s="211"/>
-      <c r="U32" s="211"/>
-      <c r="V32" s="211"/>
-      <c r="W32" s="211"/>
-      <c r="X32" s="211"/>
-      <c r="Y32" s="211"/>
-      <c r="Z32" s="211"/>
-      <c r="AA32" s="211"/>
-      <c r="AB32" s="211"/>
-      <c r="AC32" s="211"/>
-      <c r="AD32" s="211"/>
-      <c r="AE32" s="212"/>
-      <c r="AF32" s="213"/>
-      <c r="AG32" s="214"/>
-      <c r="AH32" s="214"/>
-      <c r="AI32" s="215"/>
+      <c r="B32" s="211"/>
+      <c r="C32" s="213"/>
+      <c r="D32" s="238"/>
+      <c r="E32" s="239"/>
+      <c r="F32" s="240"/>
+      <c r="G32" s="211"/>
+      <c r="H32" s="212"/>
+      <c r="I32" s="213"/>
+      <c r="J32" s="223"/>
+      <c r="K32" s="224"/>
+      <c r="L32" s="224"/>
+      <c r="M32" s="224"/>
+      <c r="N32" s="224"/>
+      <c r="O32" s="224"/>
+      <c r="P32" s="225"/>
+      <c r="Q32" s="220"/>
+      <c r="R32" s="221"/>
+      <c r="S32" s="221"/>
+      <c r="T32" s="221"/>
+      <c r="U32" s="221"/>
+      <c r="V32" s="221"/>
+      <c r="W32" s="221"/>
+      <c r="X32" s="221"/>
+      <c r="Y32" s="221"/>
+      <c r="Z32" s="221"/>
+      <c r="AA32" s="221"/>
+      <c r="AB32" s="221"/>
+      <c r="AC32" s="221"/>
+      <c r="AD32" s="221"/>
+      <c r="AE32" s="222"/>
+      <c r="AF32" s="223"/>
+      <c r="AG32" s="224"/>
+      <c r="AH32" s="224"/>
+      <c r="AI32" s="225"/>
     </row>
     <row r="33" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="57"/>
-      <c r="B33" s="216"/>
-      <c r="C33" s="217"/>
-      <c r="D33" s="218"/>
-      <c r="E33" s="219"/>
-      <c r="F33" s="220"/>
-      <c r="G33" s="216"/>
-      <c r="H33" s="221"/>
-      <c r="I33" s="217"/>
-      <c r="J33" s="213"/>
-      <c r="K33" s="214"/>
-      <c r="L33" s="214"/>
-      <c r="M33" s="214"/>
-      <c r="N33" s="214"/>
-      <c r="O33" s="214"/>
-      <c r="P33" s="215"/>
-      <c r="Q33" s="210"/>
-      <c r="R33" s="211"/>
-      <c r="S33" s="211"/>
-      <c r="T33" s="211"/>
-      <c r="U33" s="211"/>
-      <c r="V33" s="211"/>
-      <c r="W33" s="211"/>
-      <c r="X33" s="211"/>
-      <c r="Y33" s="211"/>
-      <c r="Z33" s="211"/>
-      <c r="AA33" s="211"/>
-      <c r="AB33" s="211"/>
-      <c r="AC33" s="211"/>
-      <c r="AD33" s="211"/>
-      <c r="AE33" s="212"/>
-      <c r="AF33" s="213"/>
-      <c r="AG33" s="214"/>
-      <c r="AH33" s="214"/>
-      <c r="AI33" s="215"/>
+      <c r="B33" s="211"/>
+      <c r="C33" s="213"/>
+      <c r="D33" s="238"/>
+      <c r="E33" s="239"/>
+      <c r="F33" s="240"/>
+      <c r="G33" s="211"/>
+      <c r="H33" s="212"/>
+      <c r="I33" s="213"/>
+      <c r="J33" s="223"/>
+      <c r="K33" s="224"/>
+      <c r="L33" s="224"/>
+      <c r="M33" s="224"/>
+      <c r="N33" s="224"/>
+      <c r="O33" s="224"/>
+      <c r="P33" s="225"/>
+      <c r="Q33" s="220"/>
+      <c r="R33" s="221"/>
+      <c r="S33" s="221"/>
+      <c r="T33" s="221"/>
+      <c r="U33" s="221"/>
+      <c r="V33" s="221"/>
+      <c r="W33" s="221"/>
+      <c r="X33" s="221"/>
+      <c r="Y33" s="221"/>
+      <c r="Z33" s="221"/>
+      <c r="AA33" s="221"/>
+      <c r="AB33" s="221"/>
+      <c r="AC33" s="221"/>
+      <c r="AD33" s="221"/>
+      <c r="AE33" s="222"/>
+      <c r="AF33" s="223"/>
+      <c r="AG33" s="224"/>
+      <c r="AH33" s="224"/>
+      <c r="AI33" s="225"/>
     </row>
     <row r="34" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="28"/>
@@ -6260,161 +6279,6 @@
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -6439,6 +6303,161 @@
     <mergeCell ref="AF22:AI22"/>
     <mergeCell ref="J23:P23"/>
     <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <printOptions horizontalCentered="1"/>
@@ -6595,158 +6614,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="32" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="196" t="s">
+      <c r="A1" s="247" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="197"/>
-      <c r="C1" s="197"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="267" t="str">
+      <c r="B1" s="248"/>
+      <c r="C1" s="248"/>
+      <c r="D1" s="249"/>
+      <c r="E1" s="264" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="244"/>
-      <c r="G1" s="244"/>
-      <c r="H1" s="244"/>
-      <c r="I1" s="244"/>
-      <c r="J1" s="244"/>
-      <c r="K1" s="244"/>
-      <c r="L1" s="244"/>
-      <c r="M1" s="244"/>
-      <c r="N1" s="245"/>
-      <c r="O1" s="199" t="s">
+      <c r="F1" s="218"/>
+      <c r="G1" s="218"/>
+      <c r="H1" s="218"/>
+      <c r="I1" s="218"/>
+      <c r="J1" s="218"/>
+      <c r="K1" s="218"/>
+      <c r="L1" s="218"/>
+      <c r="M1" s="218"/>
+      <c r="N1" s="219"/>
+      <c r="O1" s="250" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="200"/>
-      <c r="Q1" s="200"/>
-      <c r="R1" s="201"/>
-      <c r="S1" s="258" t="str">
+      <c r="P1" s="251"/>
+      <c r="Q1" s="251"/>
+      <c r="R1" s="252"/>
+      <c r="S1" s="265" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10101/ログイン</v>
       </c>
-      <c r="T1" s="259"/>
-      <c r="U1" s="259"/>
-      <c r="V1" s="259"/>
-      <c r="W1" s="259"/>
-      <c r="X1" s="259"/>
-      <c r="Y1" s="259"/>
-      <c r="Z1" s="260"/>
-      <c r="AA1" s="196" t="s">
+      <c r="T1" s="266"/>
+      <c r="U1" s="266"/>
+      <c r="V1" s="266"/>
+      <c r="W1" s="266"/>
+      <c r="X1" s="266"/>
+      <c r="Y1" s="266"/>
+      <c r="Z1" s="267"/>
+      <c r="AA1" s="247" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="198"/>
-      <c r="AC1" s="231" t="str">
+      <c r="AB1" s="249"/>
+      <c r="AC1" s="199" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="232"/>
-      <c r="AE1" s="232"/>
-      <c r="AF1" s="233"/>
-      <c r="AG1" s="268">
+      <c r="AD1" s="200"/>
+      <c r="AE1" s="200"/>
+      <c r="AF1" s="201"/>
+      <c r="AG1" s="261">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="269"/>
-      <c r="AI1" s="270"/>
+      <c r="AH1" s="262"/>
+      <c r="AI1" s="263"/>
     </row>
     <row r="2" spans="1:35" s="32" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="196" t="s">
+      <c r="A2" s="247" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="197"/>
-      <c r="C2" s="197"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="267" t="str">
+      <c r="B2" s="248"/>
+      <c r="C2" s="248"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="264" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="244"/>
-      <c r="G2" s="244"/>
-      <c r="H2" s="244"/>
-      <c r="I2" s="244"/>
-      <c r="J2" s="244"/>
-      <c r="K2" s="244"/>
-      <c r="L2" s="244"/>
-      <c r="M2" s="244"/>
-      <c r="N2" s="245"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="203"/>
-      <c r="Q2" s="203"/>
-      <c r="R2" s="204"/>
-      <c r="S2" s="261"/>
-      <c r="T2" s="262"/>
-      <c r="U2" s="262"/>
-      <c r="V2" s="262"/>
-      <c r="W2" s="262"/>
-      <c r="X2" s="262"/>
-      <c r="Y2" s="262"/>
-      <c r="Z2" s="263"/>
-      <c r="AA2" s="196" t="s">
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="218"/>
+      <c r="K2" s="218"/>
+      <c r="L2" s="218"/>
+      <c r="M2" s="218"/>
+      <c r="N2" s="219"/>
+      <c r="O2" s="253"/>
+      <c r="P2" s="254"/>
+      <c r="Q2" s="254"/>
+      <c r="R2" s="255"/>
+      <c r="S2" s="268"/>
+      <c r="T2" s="269"/>
+      <c r="U2" s="269"/>
+      <c r="V2" s="269"/>
+      <c r="W2" s="269"/>
+      <c r="X2" s="269"/>
+      <c r="Y2" s="269"/>
+      <c r="Z2" s="270"/>
+      <c r="AA2" s="247" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="198"/>
-      <c r="AC2" s="231" t="str">
+      <c r="AB2" s="249"/>
+      <c r="AC2" s="199" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="232"/>
-      <c r="AE2" s="232"/>
-      <c r="AF2" s="233"/>
-      <c r="AG2" s="268" t="str">
+      <c r="AD2" s="200"/>
+      <c r="AE2" s="200"/>
+      <c r="AF2" s="201"/>
+      <c r="AG2" s="261" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="269"/>
-      <c r="AI2" s="270"/>
+      <c r="AH2" s="262"/>
+      <c r="AI2" s="263"/>
     </row>
     <row r="3" spans="1:35" s="32" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="196" t="s">
+      <c r="A3" s="247" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="197"/>
-      <c r="C3" s="197"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="267" t="str">
+      <c r="B3" s="248"/>
+      <c r="C3" s="248"/>
+      <c r="D3" s="249"/>
+      <c r="E3" s="264" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="244"/>
-      <c r="G3" s="244"/>
-      <c r="H3" s="244"/>
-      <c r="I3" s="244"/>
-      <c r="J3" s="244"/>
-      <c r="K3" s="244"/>
-      <c r="L3" s="244"/>
-      <c r="M3" s="244"/>
-      <c r="N3" s="245"/>
-      <c r="O3" s="205"/>
-      <c r="P3" s="206"/>
-      <c r="Q3" s="206"/>
-      <c r="R3" s="207"/>
-      <c r="S3" s="264"/>
-      <c r="T3" s="265"/>
-      <c r="U3" s="265"/>
-      <c r="V3" s="265"/>
-      <c r="W3" s="265"/>
-      <c r="X3" s="265"/>
-      <c r="Y3" s="265"/>
-      <c r="Z3" s="266"/>
-      <c r="AA3" s="196"/>
-      <c r="AB3" s="198"/>
-      <c r="AC3" s="231" t="str">
+      <c r="F3" s="218"/>
+      <c r="G3" s="218"/>
+      <c r="H3" s="218"/>
+      <c r="I3" s="218"/>
+      <c r="J3" s="218"/>
+      <c r="K3" s="218"/>
+      <c r="L3" s="218"/>
+      <c r="M3" s="218"/>
+      <c r="N3" s="219"/>
+      <c r="O3" s="256"/>
+      <c r="P3" s="257"/>
+      <c r="Q3" s="257"/>
+      <c r="R3" s="258"/>
+      <c r="S3" s="271"/>
+      <c r="T3" s="272"/>
+      <c r="U3" s="272"/>
+      <c r="V3" s="272"/>
+      <c r="W3" s="272"/>
+      <c r="X3" s="272"/>
+      <c r="Y3" s="272"/>
+      <c r="Z3" s="273"/>
+      <c r="AA3" s="247"/>
+      <c r="AB3" s="249"/>
+      <c r="AC3" s="199" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="232"/>
-      <c r="AE3" s="232"/>
-      <c r="AF3" s="233"/>
-      <c r="AG3" s="268" t="str">
+      <c r="AD3" s="200"/>
+      <c r="AE3" s="200"/>
+      <c r="AF3" s="201"/>
+      <c r="AG3" s="261" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="269"/>
-      <c r="AI3" s="270"/>
+      <c r="AH3" s="262"/>
+      <c r="AI3" s="263"/>
     </row>
     <row r="4" spans="1:35" s="35" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="29"/>
@@ -6979,7 +6998,7 @@
     <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="31"/>
       <c r="B10" s="41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C10" s="53"/>
       <c r="D10" s="31"/>
@@ -7628,14 +7647,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -7645,6 +7656,14 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -7671,158 +7690,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="196" t="s">
+      <c r="A1" s="247" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="197"/>
-      <c r="C1" s="197"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="267" t="str">
+      <c r="B1" s="248"/>
+      <c r="C1" s="248"/>
+      <c r="D1" s="249"/>
+      <c r="E1" s="264" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="244"/>
-      <c r="G1" s="244"/>
-      <c r="H1" s="244"/>
-      <c r="I1" s="244"/>
-      <c r="J1" s="244"/>
-      <c r="K1" s="244"/>
-      <c r="L1" s="244"/>
-      <c r="M1" s="244"/>
-      <c r="N1" s="245"/>
-      <c r="O1" s="199" t="s">
+      <c r="F1" s="218"/>
+      <c r="G1" s="218"/>
+      <c r="H1" s="218"/>
+      <c r="I1" s="218"/>
+      <c r="J1" s="218"/>
+      <c r="K1" s="218"/>
+      <c r="L1" s="218"/>
+      <c r="M1" s="218"/>
+      <c r="N1" s="219"/>
+      <c r="O1" s="250" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="200"/>
-      <c r="Q1" s="200"/>
-      <c r="R1" s="201"/>
-      <c r="S1" s="258" t="str">
+      <c r="P1" s="251"/>
+      <c r="Q1" s="251"/>
+      <c r="R1" s="252"/>
+      <c r="S1" s="265" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10101/ログイン</v>
       </c>
-      <c r="T1" s="259"/>
-      <c r="U1" s="259"/>
-      <c r="V1" s="259"/>
-      <c r="W1" s="259"/>
-      <c r="X1" s="259"/>
-      <c r="Y1" s="259"/>
-      <c r="Z1" s="260"/>
-      <c r="AA1" s="196" t="s">
+      <c r="T1" s="266"/>
+      <c r="U1" s="266"/>
+      <c r="V1" s="266"/>
+      <c r="W1" s="266"/>
+      <c r="X1" s="266"/>
+      <c r="Y1" s="266"/>
+      <c r="Z1" s="267"/>
+      <c r="AA1" s="247" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="198"/>
-      <c r="AC1" s="231" t="str">
+      <c r="AB1" s="249"/>
+      <c r="AC1" s="199" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="232"/>
-      <c r="AE1" s="232"/>
-      <c r="AF1" s="233"/>
-      <c r="AG1" s="268">
+      <c r="AD1" s="200"/>
+      <c r="AE1" s="200"/>
+      <c r="AF1" s="201"/>
+      <c r="AG1" s="261">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="269"/>
-      <c r="AI1" s="270"/>
+      <c r="AH1" s="262"/>
+      <c r="AI1" s="263"/>
     </row>
     <row r="2" spans="1:35" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="196" t="s">
+      <c r="A2" s="247" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="197"/>
-      <c r="C2" s="197"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="267" t="str">
+      <c r="B2" s="248"/>
+      <c r="C2" s="248"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="264" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="244"/>
-      <c r="G2" s="244"/>
-      <c r="H2" s="244"/>
-      <c r="I2" s="244"/>
-      <c r="J2" s="244"/>
-      <c r="K2" s="244"/>
-      <c r="L2" s="244"/>
-      <c r="M2" s="244"/>
-      <c r="N2" s="245"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="203"/>
-      <c r="Q2" s="203"/>
-      <c r="R2" s="204"/>
-      <c r="S2" s="261"/>
-      <c r="T2" s="262"/>
-      <c r="U2" s="262"/>
-      <c r="V2" s="262"/>
-      <c r="W2" s="262"/>
-      <c r="X2" s="262"/>
-      <c r="Y2" s="262"/>
-      <c r="Z2" s="263"/>
-      <c r="AA2" s="196" t="s">
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="218"/>
+      <c r="K2" s="218"/>
+      <c r="L2" s="218"/>
+      <c r="M2" s="218"/>
+      <c r="N2" s="219"/>
+      <c r="O2" s="253"/>
+      <c r="P2" s="254"/>
+      <c r="Q2" s="254"/>
+      <c r="R2" s="255"/>
+      <c r="S2" s="268"/>
+      <c r="T2" s="269"/>
+      <c r="U2" s="269"/>
+      <c r="V2" s="269"/>
+      <c r="W2" s="269"/>
+      <c r="X2" s="269"/>
+      <c r="Y2" s="269"/>
+      <c r="Z2" s="270"/>
+      <c r="AA2" s="247" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="198"/>
-      <c r="AC2" s="231" t="str">
+      <c r="AB2" s="249"/>
+      <c r="AC2" s="199" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="232"/>
-      <c r="AE2" s="232"/>
-      <c r="AF2" s="233"/>
-      <c r="AG2" s="268" t="str">
+      <c r="AD2" s="200"/>
+      <c r="AE2" s="200"/>
+      <c r="AF2" s="201"/>
+      <c r="AG2" s="261" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="269"/>
-      <c r="AI2" s="270"/>
+      <c r="AH2" s="262"/>
+      <c r="AI2" s="263"/>
     </row>
     <row r="3" spans="1:35" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="196" t="s">
+      <c r="A3" s="247" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="197"/>
-      <c r="C3" s="197"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="267" t="str">
+      <c r="B3" s="248"/>
+      <c r="C3" s="248"/>
+      <c r="D3" s="249"/>
+      <c r="E3" s="264" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="244"/>
-      <c r="G3" s="244"/>
-      <c r="H3" s="244"/>
-      <c r="I3" s="244"/>
-      <c r="J3" s="244"/>
-      <c r="K3" s="244"/>
-      <c r="L3" s="244"/>
-      <c r="M3" s="244"/>
-      <c r="N3" s="245"/>
-      <c r="O3" s="205"/>
-      <c r="P3" s="206"/>
-      <c r="Q3" s="206"/>
-      <c r="R3" s="207"/>
-      <c r="S3" s="264"/>
-      <c r="T3" s="265"/>
-      <c r="U3" s="265"/>
-      <c r="V3" s="265"/>
-      <c r="W3" s="265"/>
-      <c r="X3" s="265"/>
-      <c r="Y3" s="265"/>
-      <c r="Z3" s="266"/>
-      <c r="AA3" s="196"/>
-      <c r="AB3" s="198"/>
-      <c r="AC3" s="231" t="str">
+      <c r="F3" s="218"/>
+      <c r="G3" s="218"/>
+      <c r="H3" s="218"/>
+      <c r="I3" s="218"/>
+      <c r="J3" s="218"/>
+      <c r="K3" s="218"/>
+      <c r="L3" s="218"/>
+      <c r="M3" s="218"/>
+      <c r="N3" s="219"/>
+      <c r="O3" s="256"/>
+      <c r="P3" s="257"/>
+      <c r="Q3" s="257"/>
+      <c r="R3" s="258"/>
+      <c r="S3" s="271"/>
+      <c r="T3" s="272"/>
+      <c r="U3" s="272"/>
+      <c r="V3" s="272"/>
+      <c r="W3" s="272"/>
+      <c r="X3" s="272"/>
+      <c r="Y3" s="272"/>
+      <c r="Z3" s="273"/>
+      <c r="AA3" s="247"/>
+      <c r="AB3" s="249"/>
+      <c r="AC3" s="199" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="232"/>
-      <c r="AE3" s="232"/>
-      <c r="AF3" s="233"/>
-      <c r="AG3" s="268" t="str">
+      <c r="AD3" s="200"/>
+      <c r="AE3" s="200"/>
+      <c r="AF3" s="201"/>
+      <c r="AG3" s="261" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="269"/>
-      <c r="AI3" s="270"/>
+      <c r="AH3" s="262"/>
+      <c r="AI3" s="263"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -7838,90 +7857,90 @@
     <row r="7" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="92"/>
-      <c r="C8" s="281" t="s">
+      <c r="C8" s="284" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="282"/>
-      <c r="E8" s="282"/>
-      <c r="F8" s="283"/>
-      <c r="G8" s="213" t="s">
+      <c r="D8" s="285"/>
+      <c r="E8" s="285"/>
+      <c r="F8" s="286"/>
+      <c r="G8" s="223" t="s">
         <v>138</v>
       </c>
-      <c r="H8" s="284"/>
-      <c r="I8" s="284"/>
-      <c r="J8" s="284"/>
-      <c r="K8" s="284"/>
-      <c r="L8" s="282"/>
-      <c r="M8" s="282"/>
-      <c r="N8" s="282"/>
-      <c r="O8" s="282"/>
-      <c r="P8" s="282"/>
-      <c r="Q8" s="282"/>
-      <c r="R8" s="282"/>
-      <c r="S8" s="282"/>
-      <c r="T8" s="282"/>
-      <c r="U8" s="282"/>
-      <c r="V8" s="282"/>
-      <c r="W8" s="282"/>
-      <c r="X8" s="282"/>
-      <c r="Y8" s="282"/>
-      <c r="Z8" s="282"/>
-      <c r="AA8" s="282"/>
-      <c r="AB8" s="282"/>
-      <c r="AC8" s="282"/>
-      <c r="AD8" s="282"/>
-      <c r="AE8" s="282"/>
-      <c r="AF8" s="282"/>
-      <c r="AG8" s="283"/>
+      <c r="H8" s="287"/>
+      <c r="I8" s="287"/>
+      <c r="J8" s="287"/>
+      <c r="K8" s="287"/>
+      <c r="L8" s="285"/>
+      <c r="M8" s="285"/>
+      <c r="N8" s="285"/>
+      <c r="O8" s="285"/>
+      <c r="P8" s="285"/>
+      <c r="Q8" s="285"/>
+      <c r="R8" s="285"/>
+      <c r="S8" s="285"/>
+      <c r="T8" s="285"/>
+      <c r="U8" s="285"/>
+      <c r="V8" s="285"/>
+      <c r="W8" s="285"/>
+      <c r="X8" s="285"/>
+      <c r="Y8" s="285"/>
+      <c r="Z8" s="285"/>
+      <c r="AA8" s="285"/>
+      <c r="AB8" s="285"/>
+      <c r="AC8" s="285"/>
+      <c r="AD8" s="285"/>
+      <c r="AE8" s="285"/>
+      <c r="AF8" s="285"/>
+      <c r="AG8" s="286"/>
     </row>
     <row r="9" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="92"/>
-      <c r="C9" s="285" t="s">
+      <c r="C9" s="288" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="286"/>
-      <c r="E9" s="286"/>
-      <c r="F9" s="287"/>
-      <c r="G9" s="213" t="s">
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="290"/>
+      <c r="G9" s="223" t="s">
         <v>139</v>
       </c>
-      <c r="H9" s="282"/>
-      <c r="I9" s="282"/>
-      <c r="J9" s="282"/>
-      <c r="K9" s="282"/>
-      <c r="L9" s="282"/>
-      <c r="M9" s="282"/>
-      <c r="N9" s="282"/>
-      <c r="O9" s="282"/>
-      <c r="P9" s="282"/>
-      <c r="Q9" s="282"/>
-      <c r="R9" s="282"/>
-      <c r="S9" s="282"/>
-      <c r="T9" s="282"/>
-      <c r="U9" s="282"/>
-      <c r="V9" s="282"/>
-      <c r="W9" s="282"/>
-      <c r="X9" s="282"/>
-      <c r="Y9" s="282"/>
-      <c r="Z9" s="282"/>
-      <c r="AA9" s="282"/>
-      <c r="AB9" s="282"/>
-      <c r="AC9" s="282"/>
-      <c r="AD9" s="282"/>
-      <c r="AE9" s="282"/>
-      <c r="AF9" s="282"/>
-      <c r="AG9" s="283"/>
+      <c r="H9" s="285"/>
+      <c r="I9" s="285"/>
+      <c r="J9" s="285"/>
+      <c r="K9" s="285"/>
+      <c r="L9" s="285"/>
+      <c r="M9" s="285"/>
+      <c r="N9" s="285"/>
+      <c r="O9" s="285"/>
+      <c r="P9" s="285"/>
+      <c r="Q9" s="285"/>
+      <c r="R9" s="285"/>
+      <c r="S9" s="285"/>
+      <c r="T9" s="285"/>
+      <c r="U9" s="285"/>
+      <c r="V9" s="285"/>
+      <c r="W9" s="285"/>
+      <c r="X9" s="285"/>
+      <c r="Y9" s="285"/>
+      <c r="Z9" s="285"/>
+      <c r="AA9" s="285"/>
+      <c r="AB9" s="285"/>
+      <c r="AC9" s="285"/>
+      <c r="AD9" s="285"/>
+      <c r="AE9" s="285"/>
+      <c r="AF9" s="285"/>
+      <c r="AG9" s="286"/>
     </row>
     <row r="10" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="92"/>
-      <c r="C10" s="272" t="s">
+      <c r="C10" s="275" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="273"/>
-      <c r="E10" s="273"/>
-      <c r="F10" s="274"/>
+      <c r="D10" s="276"/>
+      <c r="E10" s="276"/>
+      <c r="F10" s="277"/>
       <c r="G10" s="163" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H10" s="93"/>
       <c r="I10" s="93"/>
@@ -7952,10 +7971,10 @@
     </row>
     <row r="11" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="92"/>
-      <c r="C11" s="275"/>
-      <c r="D11" s="276"/>
-      <c r="E11" s="276"/>
-      <c r="F11" s="277"/>
+      <c r="C11" s="278"/>
+      <c r="D11" s="279"/>
+      <c r="E11" s="279"/>
+      <c r="F11" s="280"/>
       <c r="G11" s="95"/>
       <c r="H11" s="35"/>
       <c r="I11" s="35"/>
@@ -7986,10 +8005,10 @@
     </row>
     <row r="12" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="92"/>
-      <c r="C12" s="275"/>
-      <c r="D12" s="276"/>
-      <c r="E12" s="276"/>
-      <c r="F12" s="277"/>
+      <c r="C12" s="278"/>
+      <c r="D12" s="279"/>
+      <c r="E12" s="279"/>
+      <c r="F12" s="280"/>
       <c r="G12" s="175"/>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
@@ -8020,10 +8039,10 @@
     </row>
     <row r="13" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="92"/>
-      <c r="C13" s="278"/>
-      <c r="D13" s="279"/>
-      <c r="E13" s="279"/>
-      <c r="F13" s="280"/>
+      <c r="C13" s="281"/>
+      <c r="D13" s="282"/>
+      <c r="E13" s="282"/>
+      <c r="F13" s="283"/>
       <c r="G13" s="97"/>
       <c r="H13" s="98"/>
       <c r="I13" s="98"/>
@@ -8054,14 +8073,14 @@
     </row>
     <row r="14" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="92"/>
-      <c r="C14" s="271" t="s">
+      <c r="C14" s="274" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="271"/>
-      <c r="E14" s="271"/>
-      <c r="F14" s="271"/>
+      <c r="D14" s="274"/>
+      <c r="E14" s="274"/>
+      <c r="F14" s="274"/>
       <c r="G14" s="100" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H14" s="101"/>
       <c r="I14" s="101"/>
@@ -8130,18 +8149,6 @@
     <row r="52" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C10:F13"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:AG8"/>
-    <mergeCell ref="G9:AG9"/>
-    <mergeCell ref="C9:F9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -8153,6 +8160,18 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C10:F13"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:AG8"/>
+    <mergeCell ref="G9:AG9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -8169,7 +8188,7 @@
   <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BG154"/>
+  <dimension ref="A1:BG155"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -8183,160 +8202,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="384" t="s">
+      <c r="A1" s="314" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="385"/>
-      <c r="C1" s="385"/>
-      <c r="D1" s="386"/>
-      <c r="E1" s="267" t="str">
+      <c r="B1" s="315"/>
+      <c r="C1" s="315"/>
+      <c r="D1" s="316"/>
+      <c r="E1" s="264" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="244"/>
-      <c r="G1" s="244"/>
-      <c r="H1" s="244"/>
-      <c r="I1" s="244"/>
-      <c r="J1" s="244"/>
-      <c r="K1" s="244"/>
-      <c r="L1" s="244"/>
-      <c r="M1" s="244"/>
-      <c r="N1" s="245"/>
-      <c r="O1" s="199" t="s">
+      <c r="F1" s="218"/>
+      <c r="G1" s="218"/>
+      <c r="H1" s="218"/>
+      <c r="I1" s="218"/>
+      <c r="J1" s="218"/>
+      <c r="K1" s="218"/>
+      <c r="L1" s="218"/>
+      <c r="M1" s="218"/>
+      <c r="N1" s="219"/>
+      <c r="O1" s="250" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="200"/>
-      <c r="Q1" s="200"/>
-      <c r="R1" s="201"/>
-      <c r="S1" s="258" t="str">
+      <c r="P1" s="251"/>
+      <c r="Q1" s="251"/>
+      <c r="R1" s="252"/>
+      <c r="S1" s="265" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10101/ログイン</v>
       </c>
-      <c r="T1" s="259"/>
-      <c r="U1" s="259"/>
-      <c r="V1" s="259"/>
-      <c r="W1" s="259"/>
-      <c r="X1" s="259"/>
-      <c r="Y1" s="259"/>
-      <c r="Z1" s="260"/>
-      <c r="AA1" s="196" t="s">
+      <c r="T1" s="266"/>
+      <c r="U1" s="266"/>
+      <c r="V1" s="266"/>
+      <c r="W1" s="266"/>
+      <c r="X1" s="266"/>
+      <c r="Y1" s="266"/>
+      <c r="Z1" s="267"/>
+      <c r="AA1" s="247" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="198"/>
-      <c r="AC1" s="231" t="str">
+      <c r="AB1" s="249"/>
+      <c r="AC1" s="199" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="232"/>
-      <c r="AE1" s="232"/>
-      <c r="AF1" s="233"/>
-      <c r="AG1" s="381">
+      <c r="AD1" s="200"/>
+      <c r="AE1" s="200"/>
+      <c r="AF1" s="201"/>
+      <c r="AG1" s="311">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="382"/>
-      <c r="AI1" s="383"/>
+      <c r="AH1" s="312"/>
+      <c r="AI1" s="313"/>
       <c r="AJ1" s="30"/>
     </row>
     <row r="2" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="384" t="s">
+      <c r="A2" s="314" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="385"/>
-      <c r="C2" s="385"/>
-      <c r="D2" s="386"/>
-      <c r="E2" s="267" t="str">
+      <c r="B2" s="315"/>
+      <c r="C2" s="315"/>
+      <c r="D2" s="316"/>
+      <c r="E2" s="264" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="244"/>
-      <c r="G2" s="244"/>
-      <c r="H2" s="244"/>
-      <c r="I2" s="244"/>
-      <c r="J2" s="244"/>
-      <c r="K2" s="244"/>
-      <c r="L2" s="244"/>
-      <c r="M2" s="244"/>
-      <c r="N2" s="245"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="203"/>
-      <c r="Q2" s="203"/>
-      <c r="R2" s="204"/>
-      <c r="S2" s="261"/>
-      <c r="T2" s="262"/>
-      <c r="U2" s="262"/>
-      <c r="V2" s="262"/>
-      <c r="W2" s="262"/>
-      <c r="X2" s="262"/>
-      <c r="Y2" s="262"/>
-      <c r="Z2" s="263"/>
-      <c r="AA2" s="196" t="s">
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="218"/>
+      <c r="K2" s="218"/>
+      <c r="L2" s="218"/>
+      <c r="M2" s="218"/>
+      <c r="N2" s="219"/>
+      <c r="O2" s="253"/>
+      <c r="P2" s="254"/>
+      <c r="Q2" s="254"/>
+      <c r="R2" s="255"/>
+      <c r="S2" s="268"/>
+      <c r="T2" s="269"/>
+      <c r="U2" s="269"/>
+      <c r="V2" s="269"/>
+      <c r="W2" s="269"/>
+      <c r="X2" s="269"/>
+      <c r="Y2" s="269"/>
+      <c r="Z2" s="270"/>
+      <c r="AA2" s="247" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="198"/>
-      <c r="AC2" s="231" t="str">
+      <c r="AB2" s="249"/>
+      <c r="AC2" s="199" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="232"/>
-      <c r="AE2" s="232"/>
-      <c r="AF2" s="233"/>
-      <c r="AG2" s="381" t="str">
+      <c r="AD2" s="200"/>
+      <c r="AE2" s="200"/>
+      <c r="AF2" s="201"/>
+      <c r="AG2" s="311" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="382"/>
-      <c r="AI2" s="383"/>
+      <c r="AH2" s="312"/>
+      <c r="AI2" s="313"/>
       <c r="AJ2" s="30"/>
     </row>
     <row r="3" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="384" t="s">
+      <c r="A3" s="314" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="385"/>
-      <c r="C3" s="385"/>
-      <c r="D3" s="386"/>
-      <c r="E3" s="267" t="str">
+      <c r="B3" s="315"/>
+      <c r="C3" s="315"/>
+      <c r="D3" s="316"/>
+      <c r="E3" s="264" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="244"/>
-      <c r="G3" s="244"/>
-      <c r="H3" s="244"/>
-      <c r="I3" s="244"/>
-      <c r="J3" s="244"/>
-      <c r="K3" s="244"/>
-      <c r="L3" s="244"/>
-      <c r="M3" s="244"/>
-      <c r="N3" s="245"/>
-      <c r="O3" s="205"/>
-      <c r="P3" s="206"/>
-      <c r="Q3" s="206"/>
-      <c r="R3" s="207"/>
-      <c r="S3" s="264"/>
-      <c r="T3" s="265"/>
-      <c r="U3" s="265"/>
-      <c r="V3" s="265"/>
-      <c r="W3" s="265"/>
-      <c r="X3" s="265"/>
-      <c r="Y3" s="265"/>
-      <c r="Z3" s="266"/>
-      <c r="AA3" s="196"/>
-      <c r="AB3" s="198"/>
-      <c r="AC3" s="231" t="str">
+      <c r="F3" s="218"/>
+      <c r="G3" s="218"/>
+      <c r="H3" s="218"/>
+      <c r="I3" s="218"/>
+      <c r="J3" s="218"/>
+      <c r="K3" s="218"/>
+      <c r="L3" s="218"/>
+      <c r="M3" s="218"/>
+      <c r="N3" s="219"/>
+      <c r="O3" s="256"/>
+      <c r="P3" s="257"/>
+      <c r="Q3" s="257"/>
+      <c r="R3" s="258"/>
+      <c r="S3" s="271"/>
+      <c r="T3" s="272"/>
+      <c r="U3" s="272"/>
+      <c r="V3" s="272"/>
+      <c r="W3" s="272"/>
+      <c r="X3" s="272"/>
+      <c r="Y3" s="272"/>
+      <c r="Z3" s="273"/>
+      <c r="AA3" s="247"/>
+      <c r="AB3" s="249"/>
+      <c r="AC3" s="199" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="232"/>
-      <c r="AE3" s="232"/>
-      <c r="AF3" s="233"/>
-      <c r="AG3" s="381" t="str">
+      <c r="AD3" s="200"/>
+      <c r="AE3" s="200"/>
+      <c r="AF3" s="201"/>
+      <c r="AG3" s="311" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="382"/>
-      <c r="AI3" s="383"/>
+      <c r="AH3" s="312"/>
+      <c r="AI3" s="313"/>
       <c r="AJ3" s="30"/>
     </row>
     <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8488,39 +8507,39 @@
       <c r="D43" s="131" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="387" t="s">
+      <c r="E43" s="291" t="s">
         <v>70</v>
       </c>
-      <c r="F43" s="387"/>
-      <c r="G43" s="387"/>
-      <c r="H43" s="387"/>
-      <c r="I43" s="387"/>
-      <c r="J43" s="387"/>
-      <c r="K43" s="387"/>
-      <c r="L43" s="387"/>
-      <c r="M43" s="387"/>
-      <c r="N43" s="387" t="s">
+      <c r="F43" s="291"/>
+      <c r="G43" s="291"/>
+      <c r="H43" s="291"/>
+      <c r="I43" s="291"/>
+      <c r="J43" s="291"/>
+      <c r="K43" s="291"/>
+      <c r="L43" s="291"/>
+      <c r="M43" s="291"/>
+      <c r="N43" s="291" t="s">
         <v>44</v>
       </c>
-      <c r="O43" s="387"/>
-      <c r="P43" s="387"/>
-      <c r="Q43" s="387" t="s">
+      <c r="O43" s="291"/>
+      <c r="P43" s="291"/>
+      <c r="Q43" s="291" t="s">
         <v>26</v>
       </c>
-      <c r="R43" s="387"/>
-      <c r="S43" s="387"/>
-      <c r="T43" s="387"/>
-      <c r="U43" s="387"/>
-      <c r="V43" s="387" t="s">
+      <c r="R43" s="291"/>
+      <c r="S43" s="291"/>
+      <c r="T43" s="291"/>
+      <c r="U43" s="291"/>
+      <c r="V43" s="291" t="s">
         <v>15</v>
       </c>
-      <c r="W43" s="387"/>
-      <c r="X43" s="387"/>
-      <c r="Y43" s="387"/>
-      <c r="Z43" s="387"/>
-      <c r="AA43" s="387"/>
-      <c r="AB43" s="387"/>
-      <c r="AC43" s="387"/>
+      <c r="W43" s="291"/>
+      <c r="X43" s="291"/>
+      <c r="Y43" s="291"/>
+      <c r="Z43" s="291"/>
+      <c r="AA43" s="291"/>
+      <c r="AB43" s="291"/>
+      <c r="AC43" s="291"/>
       <c r="AD43" s="135"/>
       <c r="AE43" s="135"/>
       <c r="AF43" s="135"/>
@@ -8531,39 +8550,39 @@
       <c r="D44" s="153">
         <v>1</v>
       </c>
-      <c r="E44" s="388" t="s">
+      <c r="E44" s="292" t="s">
         <v>120</v>
       </c>
-      <c r="F44" s="354"/>
-      <c r="G44" s="354"/>
-      <c r="H44" s="354"/>
-      <c r="I44" s="354"/>
-      <c r="J44" s="354"/>
-      <c r="K44" s="354"/>
-      <c r="L44" s="354"/>
-      <c r="M44" s="354"/>
-      <c r="N44" s="354" t="s">
+      <c r="F44" s="293"/>
+      <c r="G44" s="293"/>
+      <c r="H44" s="293"/>
+      <c r="I44" s="293"/>
+      <c r="J44" s="293"/>
+      <c r="K44" s="293"/>
+      <c r="L44" s="293"/>
+      <c r="M44" s="293"/>
+      <c r="N44" s="293" t="s">
         <v>90</v>
       </c>
-      <c r="O44" s="354"/>
-      <c r="P44" s="354"/>
-      <c r="Q44" s="344" t="s">
+      <c r="O44" s="293"/>
+      <c r="P44" s="293"/>
+      <c r="Q44" s="362" t="s">
         <v>114</v>
       </c>
-      <c r="R44" s="344"/>
-      <c r="S44" s="344"/>
-      <c r="T44" s="344"/>
-      <c r="U44" s="344"/>
-      <c r="V44" s="345" t="s">
+      <c r="R44" s="362"/>
+      <c r="S44" s="362"/>
+      <c r="T44" s="362"/>
+      <c r="U44" s="362"/>
+      <c r="V44" s="363" t="s">
         <v>124</v>
       </c>
-      <c r="W44" s="344"/>
-      <c r="X44" s="344"/>
-      <c r="Y44" s="344"/>
-      <c r="Z44" s="344"/>
-      <c r="AA44" s="344"/>
-      <c r="AB44" s="344"/>
-      <c r="AC44" s="344"/>
+      <c r="W44" s="362"/>
+      <c r="X44" s="362"/>
+      <c r="Y44" s="362"/>
+      <c r="Z44" s="362"/>
+      <c r="AA44" s="362"/>
+      <c r="AB44" s="362"/>
+      <c r="AC44" s="362"/>
       <c r="AM44" s="35"/>
     </row>
     <row r="45" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8640,42 +8659,42 @@
       <c r="AZ48" s="133"/>
     </row>
     <row r="49" spans="3:53" s="91" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D49" s="294" t="s">
+      <c r="D49" s="353" t="s">
         <v>42</v>
       </c>
-      <c r="E49" s="351" t="s">
+      <c r="E49" s="323" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="352"/>
-      <c r="G49" s="352"/>
-      <c r="H49" s="352"/>
-      <c r="I49" s="352"/>
-      <c r="J49" s="352"/>
-      <c r="K49" s="352"/>
-      <c r="L49" s="352"/>
-      <c r="M49" s="352"/>
-      <c r="N49" s="352"/>
-      <c r="O49" s="352"/>
-      <c r="P49" s="352"/>
-      <c r="Q49" s="352"/>
-      <c r="R49" s="352"/>
-      <c r="S49" s="352"/>
-      <c r="T49" s="352"/>
-      <c r="U49" s="352"/>
-      <c r="V49" s="352"/>
-      <c r="W49" s="352"/>
-      <c r="X49" s="352"/>
-      <c r="Y49" s="352"/>
-      <c r="Z49" s="352"/>
-      <c r="AA49" s="352"/>
-      <c r="AB49" s="352"/>
-      <c r="AC49" s="353"/>
-      <c r="AD49" s="272" t="s">
+      <c r="F49" s="324"/>
+      <c r="G49" s="324"/>
+      <c r="H49" s="324"/>
+      <c r="I49" s="324"/>
+      <c r="J49" s="324"/>
+      <c r="K49" s="324"/>
+      <c r="L49" s="324"/>
+      <c r="M49" s="324"/>
+      <c r="N49" s="324"/>
+      <c r="O49" s="324"/>
+      <c r="P49" s="324"/>
+      <c r="Q49" s="324"/>
+      <c r="R49" s="324"/>
+      <c r="S49" s="324"/>
+      <c r="T49" s="324"/>
+      <c r="U49" s="324"/>
+      <c r="V49" s="324"/>
+      <c r="W49" s="324"/>
+      <c r="X49" s="324"/>
+      <c r="Y49" s="324"/>
+      <c r="Z49" s="324"/>
+      <c r="AA49" s="324"/>
+      <c r="AB49" s="324"/>
+      <c r="AC49" s="325"/>
+      <c r="AD49" s="275" t="s">
         <v>34</v>
       </c>
-      <c r="AE49" s="273"/>
-      <c r="AF49" s="273"/>
-      <c r="AG49" s="274"/>
+      <c r="AE49" s="276"/>
+      <c r="AF49" s="276"/>
+      <c r="AG49" s="277"/>
       <c r="AH49" s="133"/>
       <c r="AI49" s="133"/>
       <c r="AJ49" s="133"/>
@@ -8687,48 +8706,48 @@
       <c r="AN49" s="133"/>
     </row>
     <row r="50" spans="3:53" s="91" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D50" s="337"/>
-      <c r="E50" s="272" t="s">
+      <c r="D50" s="354"/>
+      <c r="E50" s="275" t="s">
         <v>32</v>
       </c>
-      <c r="F50" s="273"/>
-      <c r="G50" s="273"/>
-      <c r="H50" s="274"/>
-      <c r="I50" s="350" t="s">
+      <c r="F50" s="276"/>
+      <c r="G50" s="276"/>
+      <c r="H50" s="277"/>
+      <c r="I50" s="364" t="s">
         <v>40</v>
       </c>
-      <c r="J50" s="339"/>
-      <c r="K50" s="339"/>
-      <c r="L50" s="340"/>
-      <c r="M50" s="338" t="s">
+      <c r="J50" s="357"/>
+      <c r="K50" s="357"/>
+      <c r="L50" s="358"/>
+      <c r="M50" s="356" t="s">
         <v>119</v>
       </c>
-      <c r="N50" s="339"/>
-      <c r="O50" s="339"/>
-      <c r="P50" s="339"/>
-      <c r="Q50" s="339"/>
-      <c r="R50" s="339"/>
-      <c r="S50" s="339"/>
-      <c r="T50" s="340"/>
-      <c r="U50" s="272" t="s">
+      <c r="N50" s="357"/>
+      <c r="O50" s="357"/>
+      <c r="P50" s="357"/>
+      <c r="Q50" s="357"/>
+      <c r="R50" s="357"/>
+      <c r="S50" s="357"/>
+      <c r="T50" s="358"/>
+      <c r="U50" s="275" t="s">
         <v>33</v>
       </c>
-      <c r="V50" s="273"/>
-      <c r="W50" s="273"/>
-      <c r="X50" s="273"/>
-      <c r="Y50" s="274"/>
-      <c r="Z50" s="272" t="s">
+      <c r="V50" s="276"/>
+      <c r="W50" s="276"/>
+      <c r="X50" s="276"/>
+      <c r="Y50" s="277"/>
+      <c r="Z50" s="275" t="s">
         <v>28</v>
       </c>
-      <c r="AA50" s="273"/>
-      <c r="AB50" s="274"/>
-      <c r="AC50" s="294" t="s">
+      <c r="AA50" s="276"/>
+      <c r="AB50" s="277"/>
+      <c r="AC50" s="353" t="s">
         <v>45</v>
       </c>
-      <c r="AD50" s="275"/>
-      <c r="AE50" s="276"/>
-      <c r="AF50" s="276"/>
-      <c r="AG50" s="277"/>
+      <c r="AD50" s="278"/>
+      <c r="AE50" s="279"/>
+      <c r="AF50" s="279"/>
+      <c r="AG50" s="280"/>
       <c r="AH50" s="133"/>
       <c r="AI50" s="133"/>
       <c r="AJ50" s="133"/>
@@ -8744,36 +8763,36 @@
       <c r="AT50" s="133"/>
     </row>
     <row r="51" spans="3:53" s="91" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D51" s="295"/>
-      <c r="E51" s="278"/>
-      <c r="F51" s="279"/>
-      <c r="G51" s="279"/>
-      <c r="H51" s="280"/>
-      <c r="I51" s="341"/>
-      <c r="J51" s="342"/>
-      <c r="K51" s="342"/>
-      <c r="L51" s="343"/>
-      <c r="M51" s="341"/>
-      <c r="N51" s="342"/>
-      <c r="O51" s="342"/>
-      <c r="P51" s="342"/>
-      <c r="Q51" s="342"/>
-      <c r="R51" s="342"/>
-      <c r="S51" s="342"/>
-      <c r="T51" s="343"/>
-      <c r="U51" s="278"/>
-      <c r="V51" s="279"/>
-      <c r="W51" s="279"/>
-      <c r="X51" s="279"/>
-      <c r="Y51" s="280"/>
-      <c r="Z51" s="278"/>
-      <c r="AA51" s="279"/>
-      <c r="AB51" s="280"/>
-      <c r="AC51" s="295"/>
-      <c r="AD51" s="278"/>
-      <c r="AE51" s="279"/>
-      <c r="AF51" s="279"/>
-      <c r="AG51" s="280"/>
+      <c r="D51" s="355"/>
+      <c r="E51" s="281"/>
+      <c r="F51" s="282"/>
+      <c r="G51" s="282"/>
+      <c r="H51" s="283"/>
+      <c r="I51" s="359"/>
+      <c r="J51" s="360"/>
+      <c r="K51" s="360"/>
+      <c r="L51" s="361"/>
+      <c r="M51" s="359"/>
+      <c r="N51" s="360"/>
+      <c r="O51" s="360"/>
+      <c r="P51" s="360"/>
+      <c r="Q51" s="360"/>
+      <c r="R51" s="360"/>
+      <c r="S51" s="360"/>
+      <c r="T51" s="361"/>
+      <c r="U51" s="281"/>
+      <c r="V51" s="282"/>
+      <c r="W51" s="282"/>
+      <c r="X51" s="282"/>
+      <c r="Y51" s="283"/>
+      <c r="Z51" s="281"/>
+      <c r="AA51" s="282"/>
+      <c r="AB51" s="283"/>
+      <c r="AC51" s="355"/>
+      <c r="AD51" s="281"/>
+      <c r="AE51" s="282"/>
+      <c r="AF51" s="282"/>
+      <c r="AG51" s="283"/>
       <c r="AH51" s="133"/>
       <c r="AI51" s="133"/>
       <c r="AJ51" s="133"/>
@@ -8794,55 +8813,55 @@
       <c r="D52" s="138">
         <v>1</v>
       </c>
-      <c r="E52" s="213" t="s">
+      <c r="E52" s="223" t="s">
         <v>142</v>
       </c>
-      <c r="F52" s="284"/>
-      <c r="G52" s="284"/>
-      <c r="H52" s="348"/>
-      <c r="I52" s="349" t="s">
+      <c r="F52" s="287"/>
+      <c r="G52" s="287"/>
+      <c r="H52" s="310"/>
+      <c r="I52" s="309" t="s">
         <v>89</v>
       </c>
-      <c r="J52" s="349"/>
-      <c r="K52" s="349"/>
-      <c r="L52" s="349"/>
-      <c r="M52" s="355" t="s">
+      <c r="J52" s="309"/>
+      <c r="K52" s="309"/>
+      <c r="L52" s="309"/>
+      <c r="M52" s="365" t="s">
         <v>137</v>
       </c>
-      <c r="N52" s="356"/>
-      <c r="O52" s="356"/>
-      <c r="P52" s="356"/>
-      <c r="Q52" s="356"/>
-      <c r="R52" s="356"/>
-      <c r="S52" s="356"/>
-      <c r="T52" s="356"/>
-      <c r="U52" s="346" t="s">
+      <c r="N52" s="366"/>
+      <c r="O52" s="366"/>
+      <c r="P52" s="366"/>
+      <c r="Q52" s="366"/>
+      <c r="R52" s="366"/>
+      <c r="S52" s="366"/>
+      <c r="T52" s="366"/>
+      <c r="U52" s="304" t="s">
         <v>136</v>
       </c>
-      <c r="V52" s="347"/>
-      <c r="W52" s="347"/>
-      <c r="X52" s="347"/>
-      <c r="Y52" s="347"/>
-      <c r="Z52" s="346" t="s">
+      <c r="V52" s="305"/>
+      <c r="W52" s="305"/>
+      <c r="X52" s="305"/>
+      <c r="Y52" s="305"/>
+      <c r="Z52" s="304" t="s">
         <v>136</v>
       </c>
-      <c r="AA52" s="347"/>
-      <c r="AB52" s="347"/>
+      <c r="AA52" s="305"/>
+      <c r="AB52" s="305"/>
       <c r="AC52" s="176" t="s">
         <v>91</v>
       </c>
-      <c r="AD52" s="210" t="s">
+      <c r="AD52" s="220" t="s">
         <v>142</v>
       </c>
-      <c r="AE52" s="292"/>
-      <c r="AF52" s="292"/>
-      <c r="AG52" s="293"/>
+      <c r="AE52" s="306"/>
+      <c r="AF52" s="306"/>
+      <c r="AG52" s="307"/>
       <c r="AH52" s="133"/>
       <c r="AI52" s="133"/>
       <c r="AJ52" s="133"/>
       <c r="AK52" s="133"/>
       <c r="AL52" s="100" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AM52" s="164"/>
       <c r="AN52" s="164"/>
@@ -8857,55 +8876,55 @@
       <c r="D53" s="138">
         <v>2</v>
       </c>
-      <c r="E53" s="213" t="s">
+      <c r="E53" s="223" t="s">
         <v>143</v>
       </c>
-      <c r="F53" s="284"/>
-      <c r="G53" s="284"/>
-      <c r="H53" s="348"/>
-      <c r="I53" s="393" t="s">
-        <v>180</v>
-      </c>
-      <c r="J53" s="349"/>
-      <c r="K53" s="349"/>
-      <c r="L53" s="349"/>
-      <c r="M53" s="332" t="s">
+      <c r="F53" s="287"/>
+      <c r="G53" s="287"/>
+      <c r="H53" s="310"/>
+      <c r="I53" s="308" t="s">
+        <v>179</v>
+      </c>
+      <c r="J53" s="309"/>
+      <c r="K53" s="309"/>
+      <c r="L53" s="309"/>
+      <c r="M53" s="349" t="s">
         <v>80</v>
       </c>
-      <c r="N53" s="333"/>
-      <c r="O53" s="333"/>
-      <c r="P53" s="333"/>
-      <c r="Q53" s="333"/>
-      <c r="R53" s="333"/>
-      <c r="S53" s="333"/>
-      <c r="T53" s="334"/>
-      <c r="U53" s="210" t="s">
-        <v>182</v>
-      </c>
-      <c r="V53" s="292"/>
-      <c r="W53" s="292"/>
-      <c r="X53" s="292"/>
-      <c r="Y53" s="293"/>
-      <c r="Z53" s="346" t="s">
+      <c r="N53" s="350"/>
+      <c r="O53" s="350"/>
+      <c r="P53" s="350"/>
+      <c r="Q53" s="350"/>
+      <c r="R53" s="350"/>
+      <c r="S53" s="350"/>
+      <c r="T53" s="351"/>
+      <c r="U53" s="220" t="s">
+        <v>181</v>
+      </c>
+      <c r="V53" s="306"/>
+      <c r="W53" s="306"/>
+      <c r="X53" s="306"/>
+      <c r="Y53" s="307"/>
+      <c r="Z53" s="304" t="s">
         <v>136</v>
       </c>
-      <c r="AA53" s="347"/>
-      <c r="AB53" s="347"/>
+      <c r="AA53" s="305"/>
+      <c r="AB53" s="305"/>
       <c r="AC53" s="176" t="s">
         <v>91</v>
       </c>
-      <c r="AD53" s="210" t="s">
+      <c r="AD53" s="220" t="s">
         <v>144</v>
       </c>
-      <c r="AE53" s="292"/>
-      <c r="AF53" s="292"/>
-      <c r="AG53" s="293"/>
+      <c r="AE53" s="306"/>
+      <c r="AF53" s="306"/>
+      <c r="AG53" s="307"/>
       <c r="AH53" s="133"/>
       <c r="AI53" s="133"/>
       <c r="AJ53" s="133"/>
       <c r="AK53" s="133"/>
       <c r="AL53" s="100" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AM53" s="164"/>
       <c r="AN53" s="164"/>
@@ -9024,24 +9043,24 @@
       <c r="AW57" s="105"/>
     </row>
     <row r="58" spans="3:53" x14ac:dyDescent="0.15">
-      <c r="D58" s="302" t="s">
+      <c r="D58" s="367" t="s">
         <v>118</v>
       </c>
-      <c r="E58" s="304" t="s">
+      <c r="E58" s="296" t="s">
         <v>50</v>
       </c>
-      <c r="F58" s="305"/>
-      <c r="G58" s="305"/>
-      <c r="H58" s="305"/>
-      <c r="I58" s="305"/>
-      <c r="J58" s="306"/>
-      <c r="K58" s="304" t="s">
+      <c r="F58" s="297"/>
+      <c r="G58" s="297"/>
+      <c r="H58" s="297"/>
+      <c r="I58" s="297"/>
+      <c r="J58" s="298"/>
+      <c r="K58" s="296" t="s">
         <v>51</v>
       </c>
-      <c r="L58" s="305"/>
-      <c r="M58" s="305"/>
-      <c r="N58" s="306"/>
-      <c r="O58" s="389" t="s">
+      <c r="L58" s="297"/>
+      <c r="M58" s="297"/>
+      <c r="N58" s="298"/>
+      <c r="O58" s="294" t="s">
         <v>52</v>
       </c>
       <c r="P58" s="139" t="s">
@@ -9052,21 +9071,21 @@
       <c r="S58" s="140"/>
       <c r="T58" s="140"/>
       <c r="U58" s="140"/>
-      <c r="V58" s="304" t="s">
+      <c r="V58" s="296" t="s">
         <v>31</v>
       </c>
-      <c r="W58" s="305"/>
-      <c r="X58" s="305"/>
-      <c r="Y58" s="305"/>
-      <c r="Z58" s="305"/>
-      <c r="AA58" s="305"/>
-      <c r="AB58" s="305"/>
-      <c r="AC58" s="305"/>
-      <c r="AD58" s="305"/>
-      <c r="AE58" s="305"/>
-      <c r="AF58" s="305"/>
-      <c r="AG58" s="305"/>
-      <c r="AH58" s="306"/>
+      <c r="W58" s="297"/>
+      <c r="X58" s="297"/>
+      <c r="Y58" s="297"/>
+      <c r="Z58" s="297"/>
+      <c r="AA58" s="297"/>
+      <c r="AB58" s="297"/>
+      <c r="AC58" s="297"/>
+      <c r="AD58" s="297"/>
+      <c r="AE58" s="297"/>
+      <c r="AF58" s="297"/>
+      <c r="AG58" s="297"/>
+      <c r="AH58" s="298"/>
       <c r="AK58" s="105"/>
       <c r="AL58" s="105"/>
       <c r="AM58" s="105"/>
@@ -9082,18 +9101,18 @@
       <c r="AW58" s="105"/>
     </row>
     <row r="59" spans="3:53" x14ac:dyDescent="0.15">
-      <c r="D59" s="303"/>
-      <c r="E59" s="307"/>
-      <c r="F59" s="308"/>
-      <c r="G59" s="308"/>
-      <c r="H59" s="308"/>
-      <c r="I59" s="308"/>
-      <c r="J59" s="309"/>
-      <c r="K59" s="307"/>
-      <c r="L59" s="308"/>
-      <c r="M59" s="308"/>
-      <c r="N59" s="309"/>
-      <c r="O59" s="390"/>
+      <c r="D59" s="368"/>
+      <c r="E59" s="299"/>
+      <c r="F59" s="300"/>
+      <c r="G59" s="300"/>
+      <c r="H59" s="300"/>
+      <c r="I59" s="300"/>
+      <c r="J59" s="301"/>
+      <c r="K59" s="299"/>
+      <c r="L59" s="300"/>
+      <c r="M59" s="300"/>
+      <c r="N59" s="301"/>
+      <c r="O59" s="295"/>
       <c r="P59" s="141" t="s">
         <v>53</v>
       </c>
@@ -9106,23 +9125,23 @@
       <c r="S59" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="T59" s="391" t="s">
+      <c r="T59" s="302" t="s">
         <v>60</v>
       </c>
-      <c r="U59" s="392"/>
-      <c r="V59" s="307"/>
-      <c r="W59" s="308"/>
-      <c r="X59" s="308"/>
-      <c r="Y59" s="308"/>
-      <c r="Z59" s="308"/>
-      <c r="AA59" s="308"/>
-      <c r="AB59" s="308"/>
-      <c r="AC59" s="308"/>
-      <c r="AD59" s="308"/>
-      <c r="AE59" s="308"/>
-      <c r="AF59" s="308"/>
-      <c r="AG59" s="308"/>
-      <c r="AH59" s="309"/>
+      <c r="U59" s="303"/>
+      <c r="V59" s="299"/>
+      <c r="W59" s="300"/>
+      <c r="X59" s="300"/>
+      <c r="Y59" s="300"/>
+      <c r="Z59" s="300"/>
+      <c r="AA59" s="300"/>
+      <c r="AB59" s="300"/>
+      <c r="AC59" s="300"/>
+      <c r="AD59" s="300"/>
+      <c r="AE59" s="300"/>
+      <c r="AF59" s="300"/>
+      <c r="AG59" s="300"/>
+      <c r="AH59" s="301"/>
       <c r="AK59" s="105"/>
       <c r="AL59" s="105"/>
       <c r="AM59" s="105"/>
@@ -9141,20 +9160,20 @@
       <c r="D60" s="142">
         <v>1</v>
       </c>
-      <c r="E60" s="313" t="s">
+      <c r="E60" s="333" t="s">
         <v>145</v>
       </c>
-      <c r="F60" s="314"/>
-      <c r="G60" s="314"/>
-      <c r="H60" s="314"/>
-      <c r="I60" s="314"/>
-      <c r="J60" s="315"/>
-      <c r="K60" s="366" t="s">
+      <c r="F60" s="334"/>
+      <c r="G60" s="334"/>
+      <c r="H60" s="334"/>
+      <c r="I60" s="334"/>
+      <c r="J60" s="335"/>
+      <c r="K60" s="332" t="s">
         <v>92</v>
       </c>
-      <c r="L60" s="292"/>
-      <c r="M60" s="292"/>
-      <c r="N60" s="293"/>
+      <c r="L60" s="306"/>
+      <c r="M60" s="306"/>
+      <c r="N60" s="307"/>
       <c r="O60" s="137" t="s">
         <v>93</v>
       </c>
@@ -9170,25 +9189,25 @@
       <c r="S60" s="162" t="s">
         <v>90</v>
       </c>
-      <c r="T60" s="367" t="s">
+      <c r="T60" s="336" t="s">
         <v>90</v>
       </c>
-      <c r="U60" s="368"/>
-      <c r="V60" s="366" t="s">
+      <c r="U60" s="337"/>
+      <c r="V60" s="332" t="s">
         <v>80</v>
       </c>
-      <c r="W60" s="292"/>
-      <c r="X60" s="292"/>
-      <c r="Y60" s="292"/>
-      <c r="Z60" s="292"/>
-      <c r="AA60" s="292"/>
-      <c r="AB60" s="292"/>
-      <c r="AC60" s="292"/>
-      <c r="AD60" s="292"/>
-      <c r="AE60" s="292"/>
-      <c r="AF60" s="292"/>
-      <c r="AG60" s="292"/>
-      <c r="AH60" s="293"/>
+      <c r="W60" s="306"/>
+      <c r="X60" s="306"/>
+      <c r="Y60" s="306"/>
+      <c r="Z60" s="306"/>
+      <c r="AA60" s="306"/>
+      <c r="AB60" s="306"/>
+      <c r="AC60" s="306"/>
+      <c r="AD60" s="306"/>
+      <c r="AE60" s="306"/>
+      <c r="AF60" s="306"/>
+      <c r="AG60" s="306"/>
+      <c r="AH60" s="307"/>
       <c r="AK60" s="105"/>
       <c r="AL60" s="105"/>
       <c r="AM60" s="105"/>
@@ -9314,136 +9333,136 @@
       <c r="D65" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="E65" s="310" t="s">
+      <c r="E65" s="329" t="s">
         <v>73</v>
       </c>
-      <c r="F65" s="311"/>
-      <c r="G65" s="311"/>
-      <c r="H65" s="311"/>
-      <c r="I65" s="311"/>
-      <c r="J65" s="312"/>
-      <c r="K65" s="310" t="s">
+      <c r="F65" s="330"/>
+      <c r="G65" s="330"/>
+      <c r="H65" s="330"/>
+      <c r="I65" s="330"/>
+      <c r="J65" s="369"/>
+      <c r="K65" s="329" t="s">
         <v>39</v>
       </c>
-      <c r="L65" s="311"/>
-      <c r="M65" s="311"/>
-      <c r="N65" s="311"/>
-      <c r="O65" s="311"/>
-      <c r="P65" s="311"/>
-      <c r="Q65" s="335"/>
-      <c r="R65" s="281" t="s">
+      <c r="L65" s="330"/>
+      <c r="M65" s="330"/>
+      <c r="N65" s="330"/>
+      <c r="O65" s="330"/>
+      <c r="P65" s="330"/>
+      <c r="Q65" s="331"/>
+      <c r="R65" s="284" t="s">
         <v>74</v>
       </c>
-      <c r="S65" s="311"/>
-      <c r="T65" s="311"/>
-      <c r="U65" s="311"/>
-      <c r="V65" s="311"/>
-      <c r="W65" s="311"/>
-      <c r="X65" s="311"/>
-      <c r="Y65" s="335"/>
-      <c r="Z65" s="351" t="s">
+      <c r="S65" s="330"/>
+      <c r="T65" s="330"/>
+      <c r="U65" s="330"/>
+      <c r="V65" s="330"/>
+      <c r="W65" s="330"/>
+      <c r="X65" s="330"/>
+      <c r="Y65" s="331"/>
+      <c r="Z65" s="323" t="s">
         <v>27</v>
       </c>
-      <c r="AA65" s="352"/>
-      <c r="AB65" s="352"/>
-      <c r="AC65" s="352"/>
-      <c r="AD65" s="353"/>
-      <c r="AE65" s="360" t="s">
+      <c r="AA65" s="324"/>
+      <c r="AB65" s="324"/>
+      <c r="AC65" s="324"/>
+      <c r="AD65" s="325"/>
+      <c r="AE65" s="320" t="s">
         <v>130</v>
       </c>
-      <c r="AF65" s="361"/>
-      <c r="AG65" s="361"/>
-      <c r="AH65" s="362"/>
+      <c r="AF65" s="321"/>
+      <c r="AG65" s="321"/>
+      <c r="AH65" s="322"/>
     </row>
     <row r="66" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D66" s="145">
         <v>1</v>
       </c>
-      <c r="E66" s="373" t="s">
+      <c r="E66" s="342" t="s">
         <v>95</v>
       </c>
-      <c r="F66" s="370"/>
-      <c r="G66" s="370"/>
-      <c r="H66" s="370"/>
-      <c r="I66" s="370"/>
-      <c r="J66" s="371"/>
-      <c r="K66" s="366" t="s">
+      <c r="F66" s="339"/>
+      <c r="G66" s="339"/>
+      <c r="H66" s="339"/>
+      <c r="I66" s="339"/>
+      <c r="J66" s="340"/>
+      <c r="K66" s="332" t="s">
         <v>96</v>
       </c>
-      <c r="L66" s="292"/>
-      <c r="M66" s="292"/>
-      <c r="N66" s="292"/>
-      <c r="O66" s="292"/>
-      <c r="P66" s="292"/>
-      <c r="Q66" s="293"/>
-      <c r="R66" s="210" t="s">
+      <c r="L66" s="306"/>
+      <c r="M66" s="306"/>
+      <c r="N66" s="306"/>
+      <c r="O66" s="306"/>
+      <c r="P66" s="306"/>
+      <c r="Q66" s="307"/>
+      <c r="R66" s="220" t="s">
         <v>147</v>
       </c>
-      <c r="S66" s="292"/>
-      <c r="T66" s="292"/>
-      <c r="U66" s="292"/>
-      <c r="V66" s="292"/>
-      <c r="W66" s="292"/>
-      <c r="X66" s="292"/>
-      <c r="Y66" s="293"/>
-      <c r="Z66" s="366" t="s">
+      <c r="S66" s="306"/>
+      <c r="T66" s="306"/>
+      <c r="U66" s="306"/>
+      <c r="V66" s="306"/>
+      <c r="W66" s="306"/>
+      <c r="X66" s="306"/>
+      <c r="Y66" s="307"/>
+      <c r="Z66" s="332" t="s">
         <v>94</v>
       </c>
-      <c r="AA66" s="292"/>
-      <c r="AB66" s="292"/>
-      <c r="AC66" s="292"/>
-      <c r="AD66" s="293"/>
-      <c r="AE66" s="363" t="s">
+      <c r="AA66" s="306"/>
+      <c r="AB66" s="306"/>
+      <c r="AC66" s="306"/>
+      <c r="AD66" s="307"/>
+      <c r="AE66" s="326" t="s">
         <v>72</v>
       </c>
-      <c r="AF66" s="364"/>
-      <c r="AG66" s="364"/>
-      <c r="AH66" s="365"/>
+      <c r="AF66" s="327"/>
+      <c r="AG66" s="327"/>
+      <c r="AH66" s="328"/>
     </row>
     <row r="67" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D67" s="145">
         <v>2</v>
       </c>
-      <c r="E67" s="369" t="s">
+      <c r="E67" s="338" t="s">
         <v>139</v>
       </c>
-      <c r="F67" s="370"/>
-      <c r="G67" s="370"/>
-      <c r="H67" s="370"/>
-      <c r="I67" s="370"/>
-      <c r="J67" s="371"/>
-      <c r="K67" s="210" t="s">
+      <c r="F67" s="339"/>
+      <c r="G67" s="339"/>
+      <c r="H67" s="339"/>
+      <c r="I67" s="339"/>
+      <c r="J67" s="340"/>
+      <c r="K67" s="220" t="s">
         <v>146</v>
       </c>
-      <c r="L67" s="292"/>
-      <c r="M67" s="292"/>
-      <c r="N67" s="292"/>
-      <c r="O67" s="292"/>
-      <c r="P67" s="292"/>
-      <c r="Q67" s="293"/>
-      <c r="R67" s="210" t="s">
+      <c r="L67" s="306"/>
+      <c r="M67" s="306"/>
+      <c r="N67" s="306"/>
+      <c r="O67" s="306"/>
+      <c r="P67" s="306"/>
+      <c r="Q67" s="307"/>
+      <c r="R67" s="220" t="s">
         <v>148</v>
       </c>
-      <c r="S67" s="292"/>
-      <c r="T67" s="292"/>
-      <c r="U67" s="292"/>
-      <c r="V67" s="292"/>
-      <c r="W67" s="292"/>
-      <c r="X67" s="292"/>
-      <c r="Y67" s="293"/>
-      <c r="Z67" s="210" t="s">
+      <c r="S67" s="306"/>
+      <c r="T67" s="306"/>
+      <c r="U67" s="306"/>
+      <c r="V67" s="306"/>
+      <c r="W67" s="306"/>
+      <c r="X67" s="306"/>
+      <c r="Y67" s="307"/>
+      <c r="Z67" s="220" t="s">
         <v>166</v>
       </c>
-      <c r="AA67" s="292"/>
-      <c r="AB67" s="292"/>
-      <c r="AC67" s="292"/>
-      <c r="AD67" s="293"/>
-      <c r="AE67" s="363" t="s">
+      <c r="AA67" s="306"/>
+      <c r="AB67" s="306"/>
+      <c r="AC67" s="306"/>
+      <c r="AD67" s="307"/>
+      <c r="AE67" s="326" t="s">
         <v>72</v>
       </c>
-      <c r="AF67" s="364"/>
-      <c r="AG67" s="364"/>
-      <c r="AH67" s="365"/>
+      <c r="AF67" s="327"/>
+      <c r="AG67" s="327"/>
+      <c r="AH67" s="328"/>
     </row>
     <row r="68" spans="1:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D68" s="128"/>
@@ -9887,43 +9906,43 @@
       <c r="F87" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="G87" s="281" t="s">
+      <c r="G87" s="284" t="s">
         <v>69</v>
       </c>
-      <c r="H87" s="311"/>
-      <c r="I87" s="311"/>
-      <c r="J87" s="311"/>
-      <c r="K87" s="311"/>
-      <c r="L87" s="335"/>
-      <c r="M87" s="372" t="s">
+      <c r="H87" s="330"/>
+      <c r="I87" s="330"/>
+      <c r="J87" s="330"/>
+      <c r="K87" s="330"/>
+      <c r="L87" s="331"/>
+      <c r="M87" s="341" t="s">
         <v>77</v>
       </c>
-      <c r="N87" s="311"/>
-      <c r="O87" s="311"/>
-      <c r="P87" s="311"/>
-      <c r="Q87" s="311"/>
-      <c r="R87" s="311"/>
-      <c r="S87" s="311"/>
-      <c r="T87" s="311"/>
-      <c r="U87" s="311"/>
-      <c r="V87" s="335"/>
-      <c r="W87" s="380" t="s">
+      <c r="N87" s="330"/>
+      <c r="O87" s="330"/>
+      <c r="P87" s="330"/>
+      <c r="Q87" s="330"/>
+      <c r="R87" s="330"/>
+      <c r="S87" s="330"/>
+      <c r="T87" s="330"/>
+      <c r="U87" s="330"/>
+      <c r="V87" s="331"/>
+      <c r="W87" s="352" t="s">
         <v>168</v>
       </c>
-      <c r="X87" s="378"/>
-      <c r="Y87" s="379"/>
-      <c r="Z87" s="377" t="s">
+      <c r="X87" s="347"/>
+      <c r="Y87" s="348"/>
+      <c r="Z87" s="346" t="s">
         <v>78</v>
       </c>
-      <c r="AA87" s="378"/>
-      <c r="AB87" s="378"/>
-      <c r="AC87" s="379"/>
-      <c r="AD87" s="329" t="s">
+      <c r="AA87" s="347"/>
+      <c r="AB87" s="347"/>
+      <c r="AC87" s="348"/>
+      <c r="AD87" s="393" t="s">
         <v>131</v>
       </c>
-      <c r="AE87" s="330"/>
-      <c r="AF87" s="330"/>
-      <c r="AG87" s="331"/>
+      <c r="AE87" s="394"/>
+      <c r="AF87" s="394"/>
+      <c r="AG87" s="395"/>
       <c r="AJ87" s="125"/>
       <c r="AK87" s="125"/>
       <c r="AL87" s="125"/>
@@ -9953,43 +9972,43 @@
       <c r="F88" s="148">
         <v>1</v>
       </c>
-      <c r="G88" s="336" t="s">
+      <c r="G88" s="396" t="s">
         <v>71</v>
       </c>
-      <c r="H88" s="333"/>
-      <c r="I88" s="333"/>
-      <c r="J88" s="333"/>
-      <c r="K88" s="333"/>
-      <c r="L88" s="334"/>
-      <c r="M88" s="332" t="s">
+      <c r="H88" s="350"/>
+      <c r="I88" s="350"/>
+      <c r="J88" s="350"/>
+      <c r="K88" s="350"/>
+      <c r="L88" s="351"/>
+      <c r="M88" s="349" t="s">
         <v>87</v>
       </c>
-      <c r="N88" s="333"/>
-      <c r="O88" s="333"/>
-      <c r="P88" s="333"/>
-      <c r="Q88" s="333"/>
-      <c r="R88" s="333"/>
-      <c r="S88" s="333"/>
-      <c r="T88" s="333"/>
-      <c r="U88" s="333"/>
-      <c r="V88" s="334"/>
-      <c r="W88" s="357" t="s">
+      <c r="N88" s="350"/>
+      <c r="O88" s="350"/>
+      <c r="P88" s="350"/>
+      <c r="Q88" s="350"/>
+      <c r="R88" s="350"/>
+      <c r="S88" s="350"/>
+      <c r="T88" s="350"/>
+      <c r="U88" s="350"/>
+      <c r="V88" s="351"/>
+      <c r="W88" s="317" t="s">
         <v>133</v>
       </c>
-      <c r="X88" s="358"/>
-      <c r="Y88" s="359"/>
-      <c r="Z88" s="374" t="s">
+      <c r="X88" s="318"/>
+      <c r="Y88" s="319"/>
+      <c r="Z88" s="343" t="s">
         <v>132</v>
       </c>
-      <c r="AA88" s="375"/>
-      <c r="AB88" s="375"/>
-      <c r="AC88" s="376"/>
-      <c r="AD88" s="332" t="s">
+      <c r="AA88" s="344"/>
+      <c r="AB88" s="344"/>
+      <c r="AC88" s="345"/>
+      <c r="AD88" s="349" t="s">
         <v>121</v>
       </c>
-      <c r="AE88" s="333"/>
-      <c r="AF88" s="333"/>
-      <c r="AG88" s="334"/>
+      <c r="AE88" s="350"/>
+      <c r="AF88" s="350"/>
+      <c r="AG88" s="351"/>
       <c r="AI88" s="125"/>
       <c r="AJ88" s="125"/>
       <c r="AK88" s="125"/>
@@ -10137,72 +10156,72 @@
       </c>
     </row>
     <row r="97" spans="4:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G97" s="299" t="s">
+      <c r="G97" s="377" t="s">
         <v>100</v>
       </c>
-      <c r="H97" s="300"/>
-      <c r="I97" s="300"/>
-      <c r="J97" s="300"/>
-      <c r="K97" s="300"/>
-      <c r="L97" s="300"/>
-      <c r="M97" s="300"/>
-      <c r="N97" s="300"/>
-      <c r="O97" s="300"/>
-      <c r="P97" s="301"/>
-      <c r="Q97" s="316" t="s">
+      <c r="H97" s="378"/>
+      <c r="I97" s="378"/>
+      <c r="J97" s="378"/>
+      <c r="K97" s="378"/>
+      <c r="L97" s="378"/>
+      <c r="M97" s="378"/>
+      <c r="N97" s="378"/>
+      <c r="O97" s="378"/>
+      <c r="P97" s="379"/>
+      <c r="Q97" s="380" t="s">
         <v>101</v>
       </c>
-      <c r="R97" s="317"/>
-      <c r="S97" s="317"/>
-      <c r="T97" s="317"/>
-      <c r="U97" s="317"/>
-      <c r="V97" s="317"/>
-      <c r="W97" s="317"/>
-      <c r="X97" s="317"/>
-      <c r="Y97" s="317"/>
-      <c r="Z97" s="318"/>
+      <c r="R97" s="381"/>
+      <c r="S97" s="381"/>
+      <c r="T97" s="381"/>
+      <c r="U97" s="381"/>
+      <c r="V97" s="381"/>
+      <c r="W97" s="381"/>
+      <c r="X97" s="381"/>
+      <c r="Y97" s="381"/>
+      <c r="Z97" s="382"/>
     </row>
     <row r="98" spans="4:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G98" s="319" t="s">
+      <c r="G98" s="383" t="s">
         <v>145</v>
       </c>
-      <c r="H98" s="320"/>
-      <c r="I98" s="320"/>
-      <c r="J98" s="320"/>
-      <c r="K98" s="320"/>
-      <c r="L98" s="320"/>
-      <c r="M98" s="320"/>
-      <c r="N98" s="320"/>
-      <c r="O98" s="320"/>
-      <c r="P98" s="321"/>
-      <c r="Q98" s="313" t="s">
-        <v>177</v>
-      </c>
-      <c r="R98" s="314"/>
-      <c r="S98" s="314"/>
-      <c r="T98" s="314"/>
-      <c r="U98" s="314"/>
-      <c r="V98" s="314"/>
-      <c r="W98" s="314"/>
-      <c r="X98" s="314"/>
-      <c r="Y98" s="314"/>
-      <c r="Z98" s="315"/>
+      <c r="H98" s="384"/>
+      <c r="I98" s="384"/>
+      <c r="J98" s="384"/>
+      <c r="K98" s="384"/>
+      <c r="L98" s="384"/>
+      <c r="M98" s="384"/>
+      <c r="N98" s="384"/>
+      <c r="O98" s="384"/>
+      <c r="P98" s="385"/>
+      <c r="Q98" s="333" t="s">
+        <v>176</v>
+      </c>
+      <c r="R98" s="334"/>
+      <c r="S98" s="334"/>
+      <c r="T98" s="334"/>
+      <c r="U98" s="334"/>
+      <c r="V98" s="334"/>
+      <c r="W98" s="334"/>
+      <c r="X98" s="334"/>
+      <c r="Y98" s="334"/>
+      <c r="Z98" s="335"/>
       <c r="AG98" s="109"/>
       <c r="AH98" s="109"/>
     </row>
     <row r="99" spans="4:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G99" s="322"/>
-      <c r="H99" s="323"/>
-      <c r="I99" s="323"/>
-      <c r="J99" s="323"/>
-      <c r="K99" s="323"/>
-      <c r="L99" s="323"/>
-      <c r="M99" s="323"/>
-      <c r="N99" s="323"/>
-      <c r="O99" s="323"/>
-      <c r="P99" s="324"/>
+      <c r="G99" s="386"/>
+      <c r="H99" s="387"/>
+      <c r="I99" s="387"/>
+      <c r="J99" s="387"/>
+      <c r="K99" s="387"/>
+      <c r="L99" s="387"/>
+      <c r="M99" s="387"/>
+      <c r="N99" s="387"/>
+      <c r="O99" s="387"/>
+      <c r="P99" s="388"/>
       <c r="Q99" s="190" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R99" s="191"/>
       <c r="S99" s="191"/>
@@ -10217,16 +10236,16 @@
       <c r="AH99" s="109"/>
     </row>
     <row r="100" spans="4:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G100" s="322"/>
-      <c r="H100" s="323"/>
-      <c r="I100" s="323"/>
-      <c r="J100" s="323"/>
-      <c r="K100" s="323"/>
-      <c r="L100" s="323"/>
-      <c r="M100" s="323"/>
-      <c r="N100" s="323"/>
-      <c r="O100" s="323"/>
-      <c r="P100" s="324"/>
+      <c r="G100" s="386"/>
+      <c r="H100" s="387"/>
+      <c r="I100" s="387"/>
+      <c r="J100" s="387"/>
+      <c r="K100" s="387"/>
+      <c r="L100" s="387"/>
+      <c r="M100" s="387"/>
+      <c r="N100" s="387"/>
+      <c r="O100" s="387"/>
+      <c r="P100" s="388"/>
       <c r="Q100" s="174" t="s">
         <v>143</v>
       </c>
@@ -10243,16 +10262,16 @@
       <c r="AH100" s="109"/>
     </row>
     <row r="101" spans="4:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G101" s="322"/>
-      <c r="H101" s="323"/>
-      <c r="I101" s="323"/>
-      <c r="J101" s="323"/>
-      <c r="K101" s="323"/>
-      <c r="L101" s="323"/>
-      <c r="M101" s="323"/>
-      <c r="N101" s="323"/>
-      <c r="O101" s="323"/>
-      <c r="P101" s="324"/>
+      <c r="G101" s="386"/>
+      <c r="H101" s="387"/>
+      <c r="I101" s="387"/>
+      <c r="J101" s="387"/>
+      <c r="K101" s="387"/>
+      <c r="L101" s="387"/>
+      <c r="M101" s="387"/>
+      <c r="N101" s="387"/>
+      <c r="O101" s="387"/>
+      <c r="P101" s="388"/>
       <c r="Q101" s="174" t="s">
         <v>160</v>
       </c>
@@ -10269,54 +10288,54 @@
       <c r="AH101" s="109"/>
     </row>
     <row r="102" spans="4:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G102" s="322"/>
-      <c r="H102" s="323"/>
-      <c r="I102" s="323"/>
-      <c r="J102" s="323"/>
-      <c r="K102" s="323"/>
-      <c r="L102" s="323"/>
-      <c r="M102" s="323"/>
-      <c r="N102" s="323"/>
-      <c r="O102" s="323"/>
-      <c r="P102" s="324"/>
-      <c r="Q102" s="313" t="s">
+      <c r="G102" s="386"/>
+      <c r="H102" s="387"/>
+      <c r="I102" s="387"/>
+      <c r="J102" s="387"/>
+      <c r="K102" s="387"/>
+      <c r="L102" s="387"/>
+      <c r="M102" s="387"/>
+      <c r="N102" s="387"/>
+      <c r="O102" s="387"/>
+      <c r="P102" s="388"/>
+      <c r="Q102" s="333" t="s">
         <v>155</v>
       </c>
-      <c r="R102" s="314"/>
-      <c r="S102" s="314"/>
-      <c r="T102" s="314"/>
-      <c r="U102" s="314"/>
-      <c r="V102" s="314"/>
-      <c r="W102" s="314"/>
-      <c r="X102" s="314"/>
-      <c r="Y102" s="314"/>
-      <c r="Z102" s="315"/>
+      <c r="R102" s="334"/>
+      <c r="S102" s="334"/>
+      <c r="T102" s="334"/>
+      <c r="U102" s="334"/>
+      <c r="V102" s="334"/>
+      <c r="W102" s="334"/>
+      <c r="X102" s="334"/>
+      <c r="Y102" s="334"/>
+      <c r="Z102" s="335"/>
       <c r="AG102" s="109"/>
       <c r="AH102" s="109"/>
     </row>
     <row r="103" spans="4:58" x14ac:dyDescent="0.15">
-      <c r="G103" s="325"/>
-      <c r="H103" s="323"/>
-      <c r="I103" s="323"/>
-      <c r="J103" s="323"/>
-      <c r="K103" s="323"/>
-      <c r="L103" s="323"/>
-      <c r="M103" s="323"/>
-      <c r="N103" s="323"/>
-      <c r="O103" s="323"/>
-      <c r="P103" s="324"/>
-      <c r="Q103" s="313" t="s">
+      <c r="G103" s="389"/>
+      <c r="H103" s="387"/>
+      <c r="I103" s="387"/>
+      <c r="J103" s="387"/>
+      <c r="K103" s="387"/>
+      <c r="L103" s="387"/>
+      <c r="M103" s="387"/>
+      <c r="N103" s="387"/>
+      <c r="O103" s="387"/>
+      <c r="P103" s="388"/>
+      <c r="Q103" s="333" t="s">
         <v>156</v>
       </c>
-      <c r="R103" s="314"/>
-      <c r="S103" s="314"/>
-      <c r="T103" s="314"/>
-      <c r="U103" s="314"/>
-      <c r="V103" s="314"/>
-      <c r="W103" s="314"/>
-      <c r="X103" s="314"/>
-      <c r="Y103" s="314"/>
-      <c r="Z103" s="315"/>
+      <c r="R103" s="334"/>
+      <c r="S103" s="334"/>
+      <c r="T103" s="334"/>
+      <c r="U103" s="334"/>
+      <c r="V103" s="334"/>
+      <c r="W103" s="334"/>
+      <c r="X103" s="334"/>
+      <c r="Y103" s="334"/>
+      <c r="Z103" s="335"/>
       <c r="AC103" s="110"/>
       <c r="AD103" s="110"/>
       <c r="AE103" s="110"/>
@@ -10335,28 +10354,28 @@
       <c r="AY103" s="110"/>
     </row>
     <row r="104" spans="4:58" x14ac:dyDescent="0.15">
-      <c r="G104" s="326" t="s">
+      <c r="G104" s="390" t="s">
         <v>102</v>
       </c>
-      <c r="H104" s="327"/>
-      <c r="I104" s="327"/>
-      <c r="J104" s="327"/>
-      <c r="K104" s="327"/>
-      <c r="L104" s="327"/>
-      <c r="M104" s="327"/>
-      <c r="N104" s="327"/>
-      <c r="O104" s="327"/>
-      <c r="P104" s="327"/>
-      <c r="Q104" s="327"/>
-      <c r="R104" s="327"/>
-      <c r="S104" s="327"/>
-      <c r="T104" s="327"/>
-      <c r="U104" s="327"/>
-      <c r="V104" s="327"/>
-      <c r="W104" s="327"/>
-      <c r="X104" s="327"/>
-      <c r="Y104" s="327"/>
-      <c r="Z104" s="328"/>
+      <c r="H104" s="391"/>
+      <c r="I104" s="391"/>
+      <c r="J104" s="391"/>
+      <c r="K104" s="391"/>
+      <c r="L104" s="391"/>
+      <c r="M104" s="391"/>
+      <c r="N104" s="391"/>
+      <c r="O104" s="391"/>
+      <c r="P104" s="391"/>
+      <c r="Q104" s="391"/>
+      <c r="R104" s="391"/>
+      <c r="S104" s="391"/>
+      <c r="T104" s="391"/>
+      <c r="U104" s="391"/>
+      <c r="V104" s="391"/>
+      <c r="W104" s="391"/>
+      <c r="X104" s="391"/>
+      <c r="Y104" s="391"/>
+      <c r="Z104" s="392"/>
       <c r="AJ104" s="110"/>
       <c r="AK104" s="110"/>
       <c r="AL104" s="110"/>
@@ -10440,7 +10459,7 @@
         <v>103</v>
       </c>
       <c r="Q106" s="177" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R106" s="115"/>
       <c r="S106" s="115"/>
@@ -10657,7 +10676,7 @@
       <c r="E113" s="126"/>
       <c r="F113" s="127"/>
       <c r="G113" s="71" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AJ113" s="110"/>
       <c r="AK113" s="110"/>
@@ -10687,7 +10706,7 @@
       <c r="E114" s="126"/>
       <c r="F114" s="127"/>
       <c r="H114" s="74" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I114" s="193"/>
       <c r="J114" s="193"/>
@@ -10781,7 +10800,7 @@
       <c r="E117" s="126"/>
       <c r="F117" s="127"/>
       <c r="G117" s="71" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AJ117" s="110"/>
       <c r="AK117" s="110"/>
@@ -10811,7 +10830,7 @@
       <c r="E118" s="126"/>
       <c r="F118" s="127"/>
       <c r="H118" s="74" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I118" s="193"/>
       <c r="J118" s="193"/>
@@ -10904,7 +10923,7 @@
       <c r="E121" s="126"/>
       <c r="F121" s="127"/>
       <c r="G121" s="71" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AJ121" s="110"/>
       <c r="AK121" s="110"/>
@@ -10934,7 +10953,7 @@
       <c r="E122" s="126"/>
       <c r="F122" s="127"/>
       <c r="H122" s="74" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I122" s="193"/>
       <c r="J122" s="193"/>
@@ -11027,7 +11046,7 @@
       <c r="E125" s="126"/>
       <c r="F125" s="127"/>
       <c r="G125" s="71" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ125" s="110"/>
       <c r="AK125" s="194"/>
@@ -11058,7 +11077,7 @@
       <c r="F126" s="127"/>
       <c r="G126" s="71"/>
       <c r="H126" s="103" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AJ126" s="110"/>
       <c r="AK126" s="110"/>
@@ -11088,7 +11107,7 @@
       <c r="E127" s="126"/>
       <c r="F127" s="127"/>
       <c r="H127" s="74" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I127" s="193"/>
       <c r="J127" s="193"/>
@@ -11149,38 +11168,38 @@
       <c r="BF128" s="110"/>
     </row>
     <row r="129" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H129" s="294" t="s">
+      <c r="H129" s="353" t="s">
         <v>162</v>
       </c>
-      <c r="I129" s="272" t="s">
+      <c r="I129" s="275" t="s">
         <v>105</v>
       </c>
-      <c r="J129" s="273"/>
-      <c r="K129" s="273"/>
-      <c r="L129" s="273"/>
-      <c r="M129" s="273"/>
-      <c r="N129" s="274"/>
-      <c r="O129" s="296" t="s">
+      <c r="J129" s="276"/>
+      <c r="K129" s="276"/>
+      <c r="L129" s="276"/>
+      <c r="M129" s="276"/>
+      <c r="N129" s="277"/>
+      <c r="O129" s="374" t="s">
         <v>115</v>
       </c>
-      <c r="P129" s="297"/>
-      <c r="Q129" s="297"/>
-      <c r="R129" s="297"/>
-      <c r="S129" s="297"/>
-      <c r="T129" s="297"/>
-      <c r="U129" s="297"/>
-      <c r="V129" s="297"/>
-      <c r="W129" s="297"/>
-      <c r="X129" s="297"/>
-      <c r="Y129" s="298"/>
-      <c r="Z129" s="272" t="s">
+      <c r="P129" s="375"/>
+      <c r="Q129" s="375"/>
+      <c r="R129" s="375"/>
+      <c r="S129" s="375"/>
+      <c r="T129" s="375"/>
+      <c r="U129" s="375"/>
+      <c r="V129" s="375"/>
+      <c r="W129" s="375"/>
+      <c r="X129" s="375"/>
+      <c r="Y129" s="376"/>
+      <c r="Z129" s="275" t="s">
         <v>33</v>
       </c>
-      <c r="AA129" s="273"/>
-      <c r="AB129" s="273"/>
-      <c r="AC129" s="273"/>
-      <c r="AD129" s="273"/>
-      <c r="AE129" s="274"/>
+      <c r="AA129" s="276"/>
+      <c r="AB129" s="276"/>
+      <c r="AC129" s="276"/>
+      <c r="AD129" s="276"/>
+      <c r="AE129" s="277"/>
       <c r="AF129" s="184" t="s">
         <v>31</v>
       </c>
@@ -11188,34 +11207,34 @@
       <c r="AH129" s="186"/>
     </row>
     <row r="130" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H130" s="295"/>
-      <c r="I130" s="278"/>
-      <c r="J130" s="279"/>
-      <c r="K130" s="279"/>
-      <c r="L130" s="279"/>
-      <c r="M130" s="279"/>
-      <c r="N130" s="280"/>
-      <c r="O130" s="296" t="s">
+      <c r="H130" s="355"/>
+      <c r="I130" s="281"/>
+      <c r="J130" s="282"/>
+      <c r="K130" s="282"/>
+      <c r="L130" s="282"/>
+      <c r="M130" s="282"/>
+      <c r="N130" s="283"/>
+      <c r="O130" s="374" t="s">
         <v>116</v>
       </c>
-      <c r="P130" s="297"/>
-      <c r="Q130" s="297"/>
-      <c r="R130" s="297"/>
-      <c r="S130" s="298"/>
-      <c r="T130" s="299" t="s">
+      <c r="P130" s="375"/>
+      <c r="Q130" s="375"/>
+      <c r="R130" s="375"/>
+      <c r="S130" s="376"/>
+      <c r="T130" s="377" t="s">
         <v>106</v>
       </c>
-      <c r="U130" s="300"/>
-      <c r="V130" s="300"/>
-      <c r="W130" s="300"/>
-      <c r="X130" s="300"/>
-      <c r="Y130" s="301"/>
-      <c r="Z130" s="278"/>
-      <c r="AA130" s="279"/>
-      <c r="AB130" s="279"/>
-      <c r="AC130" s="279"/>
-      <c r="AD130" s="279"/>
-      <c r="AE130" s="280"/>
+      <c r="U130" s="378"/>
+      <c r="V130" s="378"/>
+      <c r="W130" s="378"/>
+      <c r="X130" s="378"/>
+      <c r="Y130" s="379"/>
+      <c r="Z130" s="281"/>
+      <c r="AA130" s="282"/>
+      <c r="AB130" s="282"/>
+      <c r="AC130" s="282"/>
+      <c r="AD130" s="282"/>
+      <c r="AE130" s="283"/>
       <c r="AF130" s="187"/>
       <c r="AG130" s="188"/>
       <c r="AH130" s="189"/>
@@ -11224,14 +11243,14 @@
       <c r="H131" s="138">
         <v>1</v>
       </c>
-      <c r="I131" s="288" t="s">
+      <c r="I131" s="370" t="s">
         <v>163</v>
       </c>
-      <c r="J131" s="289"/>
-      <c r="K131" s="289"/>
-      <c r="L131" s="289"/>
-      <c r="M131" s="289"/>
-      <c r="N131" s="290"/>
+      <c r="J131" s="371"/>
+      <c r="K131" s="371"/>
+      <c r="L131" s="371"/>
+      <c r="M131" s="371"/>
+      <c r="N131" s="372"/>
       <c r="O131" s="178" t="s">
         <v>145</v>
       </c>
@@ -11239,22 +11258,22 @@
       <c r="Q131" s="179"/>
       <c r="R131" s="179"/>
       <c r="S131" s="180"/>
-      <c r="T131" s="288" t="s">
+      <c r="T131" s="370" t="s">
         <v>164</v>
       </c>
-      <c r="U131" s="289"/>
-      <c r="V131" s="289"/>
-      <c r="W131" s="289"/>
-      <c r="X131" s="289"/>
-      <c r="Y131" s="290"/>
-      <c r="Z131" s="291" t="s">
+      <c r="U131" s="371"/>
+      <c r="V131" s="371"/>
+      <c r="W131" s="371"/>
+      <c r="X131" s="371"/>
+      <c r="Y131" s="372"/>
+      <c r="Z131" s="373" t="s">
         <v>165</v>
       </c>
-      <c r="AA131" s="292"/>
-      <c r="AB131" s="292"/>
-      <c r="AC131" s="292"/>
-      <c r="AD131" s="292"/>
-      <c r="AE131" s="293"/>
+      <c r="AA131" s="306"/>
+      <c r="AB131" s="306"/>
+      <c r="AC131" s="306"/>
+      <c r="AD131" s="306"/>
+      <c r="AE131" s="307"/>
       <c r="AF131" s="170"/>
       <c r="AG131" s="168"/>
       <c r="AH131" s="169"/>
@@ -11505,7 +11524,7 @@
       <c r="E137" s="126"/>
       <c r="F137" s="127"/>
       <c r="G137" s="71" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="AJ137" s="110"/>
       <c r="AK137" s="110"/>
@@ -11560,38 +11579,38 @@
       <c r="BF138" s="110"/>
     </row>
     <row r="139" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H139" s="294" t="s">
+      <c r="H139" s="353" t="s">
         <v>162</v>
       </c>
-      <c r="I139" s="272" t="s">
+      <c r="I139" s="275" t="s">
         <v>105</v>
       </c>
-      <c r="J139" s="273"/>
-      <c r="K139" s="273"/>
-      <c r="L139" s="273"/>
-      <c r="M139" s="273"/>
-      <c r="N139" s="274"/>
-      <c r="O139" s="296" t="s">
+      <c r="J139" s="276"/>
+      <c r="K139" s="276"/>
+      <c r="L139" s="276"/>
+      <c r="M139" s="276"/>
+      <c r="N139" s="277"/>
+      <c r="O139" s="374" t="s">
         <v>115</v>
       </c>
-      <c r="P139" s="297"/>
-      <c r="Q139" s="297"/>
-      <c r="R139" s="297"/>
-      <c r="S139" s="297"/>
-      <c r="T139" s="297"/>
-      <c r="U139" s="297"/>
-      <c r="V139" s="297"/>
-      <c r="W139" s="297"/>
-      <c r="X139" s="297"/>
-      <c r="Y139" s="298"/>
-      <c r="Z139" s="272" t="s">
+      <c r="P139" s="375"/>
+      <c r="Q139" s="375"/>
+      <c r="R139" s="375"/>
+      <c r="S139" s="375"/>
+      <c r="T139" s="375"/>
+      <c r="U139" s="375"/>
+      <c r="V139" s="375"/>
+      <c r="W139" s="375"/>
+      <c r="X139" s="375"/>
+      <c r="Y139" s="376"/>
+      <c r="Z139" s="275" t="s">
         <v>33</v>
       </c>
-      <c r="AA139" s="273"/>
-      <c r="AB139" s="273"/>
-      <c r="AC139" s="273"/>
-      <c r="AD139" s="273"/>
-      <c r="AE139" s="274"/>
+      <c r="AA139" s="276"/>
+      <c r="AB139" s="276"/>
+      <c r="AC139" s="276"/>
+      <c r="AD139" s="276"/>
+      <c r="AE139" s="277"/>
       <c r="AF139" s="184" t="s">
         <v>31</v>
       </c>
@@ -11599,34 +11618,34 @@
       <c r="AH139" s="186"/>
     </row>
     <row r="140" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H140" s="295"/>
-      <c r="I140" s="278"/>
-      <c r="J140" s="279"/>
-      <c r="K140" s="279"/>
-      <c r="L140" s="279"/>
-      <c r="M140" s="279"/>
-      <c r="N140" s="280"/>
-      <c r="O140" s="296" t="s">
+      <c r="H140" s="355"/>
+      <c r="I140" s="281"/>
+      <c r="J140" s="282"/>
+      <c r="K140" s="282"/>
+      <c r="L140" s="282"/>
+      <c r="M140" s="282"/>
+      <c r="N140" s="283"/>
+      <c r="O140" s="374" t="s">
         <v>116</v>
       </c>
-      <c r="P140" s="297"/>
-      <c r="Q140" s="297"/>
-      <c r="R140" s="297"/>
-      <c r="S140" s="298"/>
-      <c r="T140" s="299" t="s">
+      <c r="P140" s="375"/>
+      <c r="Q140" s="375"/>
+      <c r="R140" s="375"/>
+      <c r="S140" s="376"/>
+      <c r="T140" s="377" t="s">
         <v>106</v>
       </c>
-      <c r="U140" s="300"/>
-      <c r="V140" s="300"/>
-      <c r="W140" s="300"/>
-      <c r="X140" s="300"/>
-      <c r="Y140" s="301"/>
-      <c r="Z140" s="278"/>
-      <c r="AA140" s="279"/>
-      <c r="AB140" s="279"/>
-      <c r="AC140" s="279"/>
-      <c r="AD140" s="279"/>
-      <c r="AE140" s="280"/>
+      <c r="U140" s="378"/>
+      <c r="V140" s="378"/>
+      <c r="W140" s="378"/>
+      <c r="X140" s="378"/>
+      <c r="Y140" s="379"/>
+      <c r="Z140" s="281"/>
+      <c r="AA140" s="282"/>
+      <c r="AB140" s="282"/>
+      <c r="AC140" s="282"/>
+      <c r="AD140" s="282"/>
+      <c r="AE140" s="283"/>
       <c r="AF140" s="187"/>
       <c r="AG140" s="188"/>
       <c r="AH140" s="189"/>
@@ -11635,123 +11654,110 @@
       <c r="H141" s="138">
         <v>1</v>
       </c>
-      <c r="I141" s="288" t="s">
+      <c r="I141" s="370" t="s">
+        <v>169</v>
+      </c>
+      <c r="J141" s="371"/>
+      <c r="K141" s="371"/>
+      <c r="L141" s="371"/>
+      <c r="M141" s="371"/>
+      <c r="N141" s="372"/>
+      <c r="O141" s="178" t="s">
         <v>170</v>
-      </c>
-      <c r="J141" s="289"/>
-      <c r="K141" s="289"/>
-      <c r="L141" s="289"/>
-      <c r="M141" s="289"/>
-      <c r="N141" s="290"/>
-      <c r="O141" s="178" t="s">
-        <v>171</v>
       </c>
       <c r="P141" s="179"/>
       <c r="Q141" s="179"/>
       <c r="R141" s="179"/>
       <c r="S141" s="180"/>
-      <c r="T141" s="288" t="s">
+      <c r="T141" s="370" t="s">
         <v>164</v>
       </c>
-      <c r="U141" s="289"/>
-      <c r="V141" s="289"/>
-      <c r="W141" s="289"/>
-      <c r="X141" s="289"/>
-      <c r="Y141" s="290"/>
-      <c r="Z141" s="291" t="s">
-        <v>172</v>
-      </c>
-      <c r="AA141" s="292"/>
-      <c r="AB141" s="292"/>
-      <c r="AC141" s="292"/>
-      <c r="AD141" s="292"/>
-      <c r="AE141" s="293"/>
+      <c r="U141" s="371"/>
+      <c r="V141" s="371"/>
+      <c r="W141" s="371"/>
+      <c r="X141" s="371"/>
+      <c r="Y141" s="372"/>
+      <c r="Z141" s="373" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA141" s="306"/>
+      <c r="AB141" s="306"/>
+      <c r="AC141" s="306"/>
+      <c r="AD141" s="306"/>
+      <c r="AE141" s="307"/>
       <c r="AF141" s="170"/>
       <c r="AG141" s="168"/>
       <c r="AH141" s="169"/>
     </row>
-    <row r="142" spans="5:59" x14ac:dyDescent="0.15">
-      <c r="H142" s="181" t="s">
+    <row r="142" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H142" s="138">
+        <v>2</v>
+      </c>
+      <c r="I142" s="370" t="s">
+        <v>189</v>
+      </c>
+      <c r="J142" s="371"/>
+      <c r="K142" s="371"/>
+      <c r="L142" s="371"/>
+      <c r="M142" s="371"/>
+      <c r="N142" s="372"/>
+      <c r="O142" s="178" t="s">
+        <v>170</v>
+      </c>
+      <c r="P142" s="179"/>
+      <c r="Q142" s="179"/>
+      <c r="R142" s="179"/>
+      <c r="S142" s="180"/>
+      <c r="T142" s="370" t="s">
+        <v>94</v>
+      </c>
+      <c r="U142" s="371"/>
+      <c r="V142" s="371"/>
+      <c r="W142" s="371"/>
+      <c r="X142" s="371"/>
+      <c r="Y142" s="372"/>
+      <c r="Z142" s="373">
+        <v>0</v>
+      </c>
+      <c r="AA142" s="306"/>
+      <c r="AB142" s="306"/>
+      <c r="AC142" s="306"/>
+      <c r="AD142" s="306"/>
+      <c r="AE142" s="307"/>
+      <c r="AF142" s="197"/>
+      <c r="AG142" s="195"/>
+      <c r="AH142" s="196"/>
+    </row>
+    <row r="143" spans="5:59" x14ac:dyDescent="0.15">
+      <c r="H143" s="181" t="s">
         <v>102</v>
       </c>
-      <c r="I142" s="182"/>
-      <c r="J142" s="182"/>
-      <c r="K142" s="182"/>
-      <c r="L142" s="182"/>
-      <c r="M142" s="182"/>
-      <c r="N142" s="182"/>
-      <c r="O142" s="182"/>
-      <c r="P142" s="182"/>
-      <c r="Q142" s="182"/>
-      <c r="R142" s="182"/>
-      <c r="S142" s="182"/>
-      <c r="T142" s="182"/>
-      <c r="U142" s="182"/>
-      <c r="V142" s="182"/>
-      <c r="W142" s="182"/>
-      <c r="X142" s="182"/>
-      <c r="Y142" s="182"/>
-      <c r="Z142" s="182"/>
-      <c r="AA142" s="182"/>
-      <c r="AB142" s="182"/>
-      <c r="AC142" s="182"/>
-      <c r="AD142" s="182"/>
-      <c r="AE142" s="182"/>
-      <c r="AF142" s="182"/>
-      <c r="AG142" s="182"/>
-      <c r="AH142" s="183"/>
-      <c r="AK142" s="110"/>
-      <c r="AL142" s="110"/>
-      <c r="AM142" s="110"/>
-      <c r="AN142" s="110"/>
-      <c r="AO142" s="110"/>
-      <c r="AP142" s="110"/>
-      <c r="AQ142" s="110"/>
-      <c r="AR142" s="110"/>
-      <c r="AS142" s="110"/>
-      <c r="AT142" s="110"/>
-      <c r="AU142" s="110"/>
-      <c r="AV142" s="110"/>
-      <c r="AW142" s="110"/>
-      <c r="AX142" s="110"/>
-      <c r="AY142" s="110"/>
-      <c r="AZ142" s="110"/>
-      <c r="BA142" s="110"/>
-      <c r="BB142" s="110"/>
-      <c r="BC142" s="110"/>
-      <c r="BD142" s="110"/>
-      <c r="BE142" s="110"/>
-      <c r="BF142" s="110"/>
-      <c r="BG142" s="110"/>
-    </row>
-    <row r="143" spans="5:59" x14ac:dyDescent="0.15">
-      <c r="H143" s="111"/>
-      <c r="I143" s="112"/>
-      <c r="J143" s="112"/>
-      <c r="K143" s="112"/>
-      <c r="L143" s="112"/>
-      <c r="M143" s="112"/>
-      <c r="N143" s="112"/>
-      <c r="O143" s="112"/>
-      <c r="P143" s="112"/>
-      <c r="Q143" s="112"/>
-      <c r="R143" s="112"/>
-      <c r="S143" s="112"/>
-      <c r="T143" s="112"/>
-      <c r="U143" s="112"/>
-      <c r="V143" s="112"/>
-      <c r="W143" s="112"/>
-      <c r="X143" s="112"/>
-      <c r="Y143" s="112"/>
-      <c r="Z143" s="112"/>
-      <c r="AA143" s="112"/>
-      <c r="AB143" s="112"/>
-      <c r="AC143" s="112"/>
-      <c r="AD143" s="112"/>
-      <c r="AE143" s="112"/>
-      <c r="AF143" s="112"/>
-      <c r="AG143" s="112"/>
-      <c r="AH143" s="113"/>
+      <c r="I143" s="182"/>
+      <c r="J143" s="182"/>
+      <c r="K143" s="182"/>
+      <c r="L143" s="182"/>
+      <c r="M143" s="182"/>
+      <c r="N143" s="182"/>
+      <c r="O143" s="182"/>
+      <c r="P143" s="182"/>
+      <c r="Q143" s="182"/>
+      <c r="R143" s="182"/>
+      <c r="S143" s="182"/>
+      <c r="T143" s="182"/>
+      <c r="U143" s="182"/>
+      <c r="V143" s="182"/>
+      <c r="W143" s="182"/>
+      <c r="X143" s="182"/>
+      <c r="Y143" s="182"/>
+      <c r="Z143" s="182"/>
+      <c r="AA143" s="182"/>
+      <c r="AB143" s="182"/>
+      <c r="AC143" s="182"/>
+      <c r="AD143" s="182"/>
+      <c r="AE143" s="182"/>
+      <c r="AF143" s="182"/>
+      <c r="AG143" s="182"/>
+      <c r="AH143" s="183"/>
       <c r="AK143" s="110"/>
       <c r="AL143" s="110"/>
       <c r="AM143" s="110"/>
@@ -11777,37 +11783,33 @@
       <c r="BG143" s="110"/>
     </row>
     <row r="144" spans="5:59" x14ac:dyDescent="0.15">
-      <c r="H144" s="114"/>
-      <c r="I144" s="177" t="s">
-        <v>154</v>
-      </c>
-      <c r="J144" s="115"/>
-      <c r="K144" s="115"/>
-      <c r="L144" s="115"/>
-      <c r="M144" s="116"/>
-      <c r="O144" s="115"/>
-      <c r="P144" s="116" t="s">
-        <v>103</v>
-      </c>
-      <c r="R144" s="177" t="s">
-        <v>153</v>
-      </c>
-      <c r="S144" s="115"/>
-      <c r="T144" s="115"/>
-      <c r="U144" s="115"/>
-      <c r="V144" s="115"/>
-      <c r="W144" s="117"/>
-      <c r="X144" s="115"/>
-      <c r="Y144" s="115"/>
-      <c r="Z144" s="115"/>
-      <c r="AA144" s="115"/>
-      <c r="AB144" s="117"/>
-      <c r="AC144" s="115"/>
-      <c r="AD144" s="117"/>
-      <c r="AE144" s="115"/>
-      <c r="AF144" s="117"/>
-      <c r="AG144" s="115"/>
-      <c r="AH144" s="118"/>
+      <c r="H144" s="111"/>
+      <c r="I144" s="112"/>
+      <c r="J144" s="112"/>
+      <c r="K144" s="112"/>
+      <c r="L144" s="112"/>
+      <c r="M144" s="112"/>
+      <c r="N144" s="112"/>
+      <c r="O144" s="112"/>
+      <c r="P144" s="112"/>
+      <c r="Q144" s="112"/>
+      <c r="R144" s="112"/>
+      <c r="S144" s="112"/>
+      <c r="T144" s="112"/>
+      <c r="U144" s="112"/>
+      <c r="V144" s="112"/>
+      <c r="W144" s="112"/>
+      <c r="X144" s="112"/>
+      <c r="Y144" s="112"/>
+      <c r="Z144" s="112"/>
+      <c r="AA144" s="112"/>
+      <c r="AB144" s="112"/>
+      <c r="AC144" s="112"/>
+      <c r="AD144" s="112"/>
+      <c r="AE144" s="112"/>
+      <c r="AF144" s="112"/>
+      <c r="AG144" s="112"/>
+      <c r="AH144" s="113"/>
       <c r="AK144" s="110"/>
       <c r="AL144" s="110"/>
       <c r="AM144" s="110"/>
@@ -11833,33 +11835,37 @@
       <c r="BG144" s="110"/>
     </row>
     <row r="145" spans="5:59" x14ac:dyDescent="0.15">
-      <c r="H145" s="119"/>
-      <c r="I145" s="120"/>
-      <c r="J145" s="120"/>
-      <c r="K145" s="120"/>
-      <c r="L145" s="120"/>
-      <c r="M145" s="121"/>
-      <c r="N145" s="121"/>
-      <c r="O145" s="120"/>
-      <c r="P145" s="120"/>
-      <c r="Q145" s="120"/>
-      <c r="R145" s="120"/>
-      <c r="S145" s="120"/>
-      <c r="T145" s="120"/>
-      <c r="U145" s="120"/>
-      <c r="V145" s="120"/>
-      <c r="W145" s="122"/>
-      <c r="X145" s="120"/>
-      <c r="Y145" s="120"/>
-      <c r="Z145" s="120"/>
-      <c r="AA145" s="120"/>
-      <c r="AB145" s="122"/>
-      <c r="AC145" s="120"/>
-      <c r="AD145" s="122"/>
-      <c r="AE145" s="120"/>
-      <c r="AF145" s="122"/>
-      <c r="AG145" s="120"/>
-      <c r="AH145" s="123"/>
+      <c r="H145" s="114"/>
+      <c r="I145" s="177" t="s">
+        <v>154</v>
+      </c>
+      <c r="J145" s="115"/>
+      <c r="K145" s="115"/>
+      <c r="L145" s="115"/>
+      <c r="M145" s="116"/>
+      <c r="O145" s="115"/>
+      <c r="P145" s="116" t="s">
+        <v>103</v>
+      </c>
+      <c r="R145" s="177" t="s">
+        <v>153</v>
+      </c>
+      <c r="S145" s="115"/>
+      <c r="T145" s="115"/>
+      <c r="U145" s="115"/>
+      <c r="V145" s="115"/>
+      <c r="W145" s="117"/>
+      <c r="X145" s="115"/>
+      <c r="Y145" s="115"/>
+      <c r="Z145" s="115"/>
+      <c r="AA145" s="115"/>
+      <c r="AB145" s="117"/>
+      <c r="AC145" s="115"/>
+      <c r="AD145" s="117"/>
+      <c r="AE145" s="115"/>
+      <c r="AF145" s="117"/>
+      <c r="AG145" s="115"/>
+      <c r="AH145" s="118"/>
       <c r="AK145" s="110"/>
       <c r="AL145" s="110"/>
       <c r="AM145" s="110"/>
@@ -11885,10 +11891,33 @@
       <c r="BG145" s="110"/>
     </row>
     <row r="146" spans="5:59" x14ac:dyDescent="0.15">
-      <c r="E146" s="126"/>
-      <c r="F146" s="127"/>
-      <c r="G146" s="71"/>
-      <c r="AJ146" s="110"/>
+      <c r="H146" s="119"/>
+      <c r="I146" s="120"/>
+      <c r="J146" s="120"/>
+      <c r="K146" s="120"/>
+      <c r="L146" s="120"/>
+      <c r="M146" s="121"/>
+      <c r="N146" s="121"/>
+      <c r="O146" s="120"/>
+      <c r="P146" s="120"/>
+      <c r="Q146" s="120"/>
+      <c r="R146" s="120"/>
+      <c r="S146" s="120"/>
+      <c r="T146" s="120"/>
+      <c r="U146" s="120"/>
+      <c r="V146" s="120"/>
+      <c r="W146" s="122"/>
+      <c r="X146" s="120"/>
+      <c r="Y146" s="120"/>
+      <c r="Z146" s="120"/>
+      <c r="AA146" s="120"/>
+      <c r="AB146" s="122"/>
+      <c r="AC146" s="120"/>
+      <c r="AD146" s="122"/>
+      <c r="AE146" s="120"/>
+      <c r="AF146" s="122"/>
+      <c r="AG146" s="120"/>
+      <c r="AH146" s="123"/>
       <c r="AK146" s="110"/>
       <c r="AL146" s="110"/>
       <c r="AM146" s="110"/>
@@ -11911,13 +11940,12 @@
       <c r="BD146" s="110"/>
       <c r="BE146" s="110"/>
       <c r="BF146" s="110"/>
+      <c r="BG146" s="110"/>
     </row>
     <row r="147" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E147" s="126"/>
       <c r="F147" s="127"/>
-      <c r="G147" s="71" t="s">
-        <v>178</v>
-      </c>
+      <c r="G147" s="71"/>
       <c r="AJ147" s="110"/>
       <c r="AK147" s="110"/>
       <c r="AL147" s="110"/>
@@ -11945,7 +11973,9 @@
     <row r="148" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E148" s="126"/>
       <c r="F148" s="127"/>
-      <c r="G148" s="71"/>
+      <c r="G148" s="71" t="s">
+        <v>177</v>
+      </c>
       <c r="AJ148" s="110"/>
       <c r="AK148" s="110"/>
       <c r="AL148" s="110"/>
@@ -11972,9 +12002,8 @@
     </row>
     <row r="149" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E149" s="126"/>
-      <c r="F149" s="71" t="s">
-        <v>167</v>
-      </c>
+      <c r="F149" s="127"/>
+      <c r="G149" s="71"/>
       <c r="AJ149" s="110"/>
       <c r="AK149" s="110"/>
       <c r="AL149" s="110"/>
@@ -12001,8 +12030,9 @@
     </row>
     <row r="150" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E150" s="126"/>
-      <c r="F150" s="127"/>
-      <c r="G150" s="71"/>
+      <c r="F150" s="71" t="s">
+        <v>167</v>
+      </c>
       <c r="AJ150" s="110"/>
       <c r="AK150" s="110"/>
       <c r="AL150" s="110"/>
@@ -12029,7 +12059,8 @@
     </row>
     <row r="151" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E151" s="126"/>
-      <c r="F151" s="71"/>
+      <c r="F151" s="127"/>
+      <c r="G151" s="71"/>
       <c r="AJ151" s="110"/>
       <c r="AK151" s="110"/>
       <c r="AL151" s="110"/>
@@ -12056,8 +12087,7 @@
     </row>
     <row r="152" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E152" s="126"/>
-      <c r="F152" s="127"/>
-      <c r="G152" s="71"/>
+      <c r="F152" s="71"/>
       <c r="AJ152" s="110"/>
       <c r="AK152" s="110"/>
       <c r="AL152" s="110"/>
@@ -12112,6 +12142,8 @@
     </row>
     <row r="154" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E154" s="126"/>
+      <c r="F154" s="127"/>
+      <c r="G154" s="71"/>
       <c r="AJ154" s="110"/>
       <c r="AK154" s="110"/>
       <c r="AL154" s="110"/>
@@ -12136,41 +12168,86 @@
       <c r="BE154" s="110"/>
       <c r="BF154" s="110"/>
     </row>
+    <row r="155" spans="5:59" x14ac:dyDescent="0.15">
+      <c r="E155" s="126"/>
+      <c r="AJ155" s="110"/>
+      <c r="AK155" s="110"/>
+      <c r="AL155" s="110"/>
+      <c r="AM155" s="110"/>
+      <c r="AN155" s="110"/>
+      <c r="AO155" s="110"/>
+      <c r="AP155" s="110"/>
+      <c r="AQ155" s="110"/>
+      <c r="AR155" s="110"/>
+      <c r="AS155" s="110"/>
+      <c r="AT155" s="110"/>
+      <c r="AU155" s="110"/>
+      <c r="AV155" s="110"/>
+      <c r="AW155" s="110"/>
+      <c r="AX155" s="110"/>
+      <c r="AY155" s="110"/>
+      <c r="AZ155" s="110"/>
+      <c r="BA155" s="110"/>
+      <c r="BB155" s="110"/>
+      <c r="BC155" s="110"/>
+      <c r="BD155" s="110"/>
+      <c r="BE155" s="110"/>
+      <c r="BF155" s="110"/>
+    </row>
   </sheetData>
-  <mergeCells count="106">
-    <mergeCell ref="E43:M43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="Q43:U43"/>
-    <mergeCell ref="V43:AC43"/>
-    <mergeCell ref="E44:M44"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="V58:AH59"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="AD49:AG51"/>
-    <mergeCell ref="Z52:AB52"/>
-    <mergeCell ref="AD53:AG53"/>
-    <mergeCell ref="AD52:AG52"/>
-    <mergeCell ref="U50:Y51"/>
-    <mergeCell ref="U52:Y52"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="E53:H53"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
+  <mergeCells count="109">
+    <mergeCell ref="I142:N142"/>
+    <mergeCell ref="T142:Y142"/>
+    <mergeCell ref="Z142:AE142"/>
+    <mergeCell ref="I141:N141"/>
+    <mergeCell ref="T141:Y141"/>
+    <mergeCell ref="Z141:AE141"/>
+    <mergeCell ref="H139:H140"/>
+    <mergeCell ref="I139:N140"/>
+    <mergeCell ref="O139:Y139"/>
+    <mergeCell ref="Z139:AE140"/>
+    <mergeCell ref="O140:S140"/>
+    <mergeCell ref="T140:Y140"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:J59"/>
+    <mergeCell ref="K58:N59"/>
+    <mergeCell ref="E65:J65"/>
+    <mergeCell ref="I131:N131"/>
+    <mergeCell ref="T131:Y131"/>
+    <mergeCell ref="Z131:AE131"/>
+    <mergeCell ref="Q102:Z102"/>
+    <mergeCell ref="H129:H130"/>
+    <mergeCell ref="I129:N130"/>
+    <mergeCell ref="O129:Y129"/>
+    <mergeCell ref="Z129:AE130"/>
+    <mergeCell ref="O130:S130"/>
+    <mergeCell ref="T130:Y130"/>
+    <mergeCell ref="G97:P97"/>
+    <mergeCell ref="Q97:Z97"/>
+    <mergeCell ref="G98:P103"/>
+    <mergeCell ref="Q98:Z98"/>
+    <mergeCell ref="Q103:Z103"/>
+    <mergeCell ref="G104:Z104"/>
+    <mergeCell ref="AD87:AG87"/>
+    <mergeCell ref="AD88:AG88"/>
+    <mergeCell ref="G87:L87"/>
+    <mergeCell ref="G88:L88"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="M50:T51"/>
+    <mergeCell ref="Q44:U44"/>
+    <mergeCell ref="V44:AC44"/>
+    <mergeCell ref="U53:Y53"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="I50:L51"/>
+    <mergeCell ref="E50:H51"/>
+    <mergeCell ref="E49:AC49"/>
+    <mergeCell ref="Z50:AB51"/>
+    <mergeCell ref="AC50:AC51"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="M53:T53"/>
+    <mergeCell ref="M52:T52"/>
     <mergeCell ref="W88:Y88"/>
     <mergeCell ref="AE65:AH65"/>
     <mergeCell ref="Z65:AD65"/>
@@ -12195,55 +12272,39 @@
     <mergeCell ref="R66:Y66"/>
     <mergeCell ref="Z66:AD66"/>
     <mergeCell ref="W87:Y87"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="M50:T51"/>
-    <mergeCell ref="Q44:U44"/>
-    <mergeCell ref="V44:AC44"/>
-    <mergeCell ref="U53:Y53"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="I50:L51"/>
-    <mergeCell ref="E50:H51"/>
-    <mergeCell ref="E49:AC49"/>
-    <mergeCell ref="Z50:AB51"/>
-    <mergeCell ref="AC50:AC51"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="M53:T53"/>
-    <mergeCell ref="M52:T52"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:J59"/>
-    <mergeCell ref="K58:N59"/>
-    <mergeCell ref="E65:J65"/>
-    <mergeCell ref="I131:N131"/>
-    <mergeCell ref="T131:Y131"/>
-    <mergeCell ref="Z131:AE131"/>
-    <mergeCell ref="Q102:Z102"/>
-    <mergeCell ref="H129:H130"/>
-    <mergeCell ref="I129:N130"/>
-    <mergeCell ref="O129:Y129"/>
-    <mergeCell ref="Z129:AE130"/>
-    <mergeCell ref="O130:S130"/>
-    <mergeCell ref="T130:Y130"/>
-    <mergeCell ref="G97:P97"/>
-    <mergeCell ref="Q97:Z97"/>
-    <mergeCell ref="G98:P103"/>
-    <mergeCell ref="Q98:Z98"/>
-    <mergeCell ref="Q103:Z103"/>
-    <mergeCell ref="G104:Z104"/>
-    <mergeCell ref="AD87:AG87"/>
-    <mergeCell ref="AD88:AG88"/>
-    <mergeCell ref="G87:L87"/>
-    <mergeCell ref="G88:L88"/>
-    <mergeCell ref="I141:N141"/>
-    <mergeCell ref="T141:Y141"/>
-    <mergeCell ref="Z141:AE141"/>
-    <mergeCell ref="H139:H140"/>
-    <mergeCell ref="I139:N140"/>
-    <mergeCell ref="O139:Y139"/>
-    <mergeCell ref="Z139:AE140"/>
-    <mergeCell ref="O140:S140"/>
-    <mergeCell ref="T140:Y140"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="E43:M43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="Q43:U43"/>
+    <mergeCell ref="V43:AC43"/>
+    <mergeCell ref="E44:M44"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="V58:AH59"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="AD49:AG51"/>
+    <mergeCell ref="Z52:AB52"/>
+    <mergeCell ref="AD53:AG53"/>
+    <mergeCell ref="AD52:AG52"/>
+    <mergeCell ref="U50:Y51"/>
+    <mergeCell ref="U52:Y52"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="E53:H53"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="5">

--- a/サンプルアプリケーション/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10101_ログイン.xlsx
+++ b/サンプルアプリケーション/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(画面)_WA10101_ログイン.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'2. WA10101(ログイン画面)'!#REF!</definedName>
     <definedName name="_Toc46209822" localSheetId="3">'1.  画面取引定義'!$B$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1.  画面取引定義'!$A$1:$AI$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. WA10101(ログイン画面)'!$A$1:$AI$153</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. WA10101(ログイン画面)'!$A$1:$AI$155</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">データ!$A$1:$E$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
@@ -268,7 +268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="194">
   <si>
     <t>PJ名</t>
   </si>
@@ -1725,6 +1725,18 @@
     <rPh sb="65" eb="66">
       <t>オコナ</t>
     </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>ユーザ</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>漢字氏名</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>PM職フラグ</t>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -2382,7 +2394,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="397">
+  <cellXfs count="400">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2852,6 +2864,111 @@
     <xf numFmtId="31" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2888,24 +3005,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2915,24 +3014,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2969,74 +3050,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -3047,36 +3089,6 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3128,49 +3140,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3179,197 +3158,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3383,6 +3176,42 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3425,8 +3254,200 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -4928,57 +4949,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="248"/>
-      <c r="C1" s="248"/>
-      <c r="D1" s="249"/>
-      <c r="E1" s="217" t="s">
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="246" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="218"/>
-      <c r="G1" s="218"/>
-      <c r="H1" s="218"/>
-      <c r="I1" s="218"/>
-      <c r="J1" s="218"/>
-      <c r="K1" s="218"/>
-      <c r="L1" s="218"/>
-      <c r="M1" s="218"/>
-      <c r="N1" s="219"/>
-      <c r="O1" s="250" t="s">
+      <c r="F1" s="247"/>
+      <c r="G1" s="247"/>
+      <c r="H1" s="247"/>
+      <c r="I1" s="247"/>
+      <c r="J1" s="247"/>
+      <c r="K1" s="247"/>
+      <c r="L1" s="247"/>
+      <c r="M1" s="247"/>
+      <c r="N1" s="248"/>
+      <c r="O1" s="202" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="251"/>
-      <c r="Q1" s="251"/>
-      <c r="R1" s="252"/>
-      <c r="S1" s="229" t="s">
+      <c r="P1" s="203"/>
+      <c r="Q1" s="203"/>
+      <c r="R1" s="204"/>
+      <c r="S1" s="252" t="s">
         <v>140</v>
       </c>
-      <c r="T1" s="230"/>
-      <c r="U1" s="230"/>
-      <c r="V1" s="230"/>
-      <c r="W1" s="230"/>
-      <c r="X1" s="230"/>
-      <c r="Y1" s="230"/>
-      <c r="Z1" s="231"/>
-      <c r="AA1" s="247" t="s">
+      <c r="T1" s="253"/>
+      <c r="U1" s="253"/>
+      <c r="V1" s="253"/>
+      <c r="W1" s="253"/>
+      <c r="X1" s="253"/>
+      <c r="Y1" s="253"/>
+      <c r="Z1" s="254"/>
+      <c r="AA1" s="199" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="249"/>
-      <c r="AC1" s="199" t="str">
+      <c r="AB1" s="201"/>
+      <c r="AC1" s="234" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="200"/>
-      <c r="AE1" s="200"/>
-      <c r="AF1" s="201"/>
-      <c r="AG1" s="205">
+      <c r="AD1" s="235"/>
+      <c r="AE1" s="235"/>
+      <c r="AF1" s="236"/>
+      <c r="AG1" s="240">
         <f>IF(D8="","",D8)</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="206"/>
-      <c r="AI1" s="207"/>
+      <c r="AH1" s="241"/>
+      <c r="AI1" s="242"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
@@ -4986,53 +5007,53 @@
       <c r="AN1" s="10"/>
     </row>
     <row r="2" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="247" t="s">
+      <c r="A2" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="248"/>
-      <c r="C2" s="248"/>
-      <c r="D2" s="249"/>
-      <c r="E2" s="217" t="s">
+      <c r="B2" s="200"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="246" t="s">
         <v>113</v>
       </c>
-      <c r="F2" s="218"/>
-      <c r="G2" s="218"/>
-      <c r="H2" s="218"/>
-      <c r="I2" s="218"/>
-      <c r="J2" s="218"/>
-      <c r="K2" s="218"/>
-      <c r="L2" s="218"/>
-      <c r="M2" s="218"/>
-      <c r="N2" s="219"/>
-      <c r="O2" s="253"/>
-      <c r="P2" s="254"/>
-      <c r="Q2" s="254"/>
-      <c r="R2" s="255"/>
-      <c r="S2" s="232"/>
-      <c r="T2" s="233"/>
-      <c r="U2" s="233"/>
-      <c r="V2" s="233"/>
-      <c r="W2" s="233"/>
-      <c r="X2" s="233"/>
-      <c r="Y2" s="233"/>
-      <c r="Z2" s="234"/>
-      <c r="AA2" s="247" t="s">
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
+      <c r="H2" s="247"/>
+      <c r="I2" s="247"/>
+      <c r="J2" s="247"/>
+      <c r="K2" s="247"/>
+      <c r="L2" s="247"/>
+      <c r="M2" s="247"/>
+      <c r="N2" s="248"/>
+      <c r="O2" s="205"/>
+      <c r="P2" s="206"/>
+      <c r="Q2" s="206"/>
+      <c r="R2" s="207"/>
+      <c r="S2" s="255"/>
+      <c r="T2" s="256"/>
+      <c r="U2" s="256"/>
+      <c r="V2" s="256"/>
+      <c r="W2" s="256"/>
+      <c r="X2" s="256"/>
+      <c r="Y2" s="256"/>
+      <c r="Z2" s="257"/>
+      <c r="AA2" s="199" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="249"/>
-      <c r="AC2" s="208" t="str">
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="243" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="209"/>
-      <c r="AE2" s="209"/>
-      <c r="AF2" s="210"/>
-      <c r="AG2" s="205" t="str">
+      <c r="AD2" s="244"/>
+      <c r="AE2" s="244"/>
+      <c r="AF2" s="245"/>
+      <c r="AG2" s="240" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="206"/>
-      <c r="AI2" s="207"/>
+      <c r="AH2" s="241"/>
+      <c r="AI2" s="242"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
@@ -5040,45 +5061,45 @@
       <c r="AN2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="199" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="248"/>
-      <c r="C3" s="248"/>
-      <c r="D3" s="249"/>
-      <c r="E3" s="217" t="s">
+      <c r="B3" s="200"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="246" t="s">
         <v>135</v>
       </c>
-      <c r="F3" s="218"/>
-      <c r="G3" s="218"/>
-      <c r="H3" s="218"/>
-      <c r="I3" s="218"/>
-      <c r="J3" s="218"/>
-      <c r="K3" s="218"/>
-      <c r="L3" s="218"/>
-      <c r="M3" s="218"/>
-      <c r="N3" s="219"/>
-      <c r="O3" s="256"/>
-      <c r="P3" s="257"/>
-      <c r="Q3" s="257"/>
-      <c r="R3" s="258"/>
-      <c r="S3" s="235"/>
-      <c r="T3" s="236"/>
-      <c r="U3" s="236"/>
-      <c r="V3" s="236"/>
-      <c r="W3" s="236"/>
-      <c r="X3" s="236"/>
-      <c r="Y3" s="236"/>
-      <c r="Z3" s="237"/>
-      <c r="AA3" s="259"/>
-      <c r="AB3" s="260"/>
-      <c r="AC3" s="199"/>
-      <c r="AD3" s="200"/>
-      <c r="AE3" s="200"/>
-      <c r="AF3" s="201"/>
-      <c r="AG3" s="205"/>
-      <c r="AH3" s="206"/>
-      <c r="AI3" s="207"/>
+      <c r="F3" s="247"/>
+      <c r="G3" s="247"/>
+      <c r="H3" s="247"/>
+      <c r="I3" s="247"/>
+      <c r="J3" s="247"/>
+      <c r="K3" s="247"/>
+      <c r="L3" s="247"/>
+      <c r="M3" s="247"/>
+      <c r="N3" s="248"/>
+      <c r="O3" s="208"/>
+      <c r="P3" s="209"/>
+      <c r="Q3" s="209"/>
+      <c r="R3" s="210"/>
+      <c r="S3" s="258"/>
+      <c r="T3" s="259"/>
+      <c r="U3" s="259"/>
+      <c r="V3" s="259"/>
+      <c r="W3" s="259"/>
+      <c r="X3" s="259"/>
+      <c r="Y3" s="259"/>
+      <c r="Z3" s="260"/>
+      <c r="AA3" s="211"/>
+      <c r="AB3" s="212"/>
+      <c r="AC3" s="234"/>
+      <c r="AD3" s="235"/>
+      <c r="AE3" s="235"/>
+      <c r="AF3" s="236"/>
+      <c r="AG3" s="240"/>
+      <c r="AH3" s="241"/>
+      <c r="AI3" s="242"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -5217,1028 +5238,1028 @@
       <c r="A7" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="214" t="s">
+      <c r="B7" s="225" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="216"/>
-      <c r="D7" s="214" t="s">
+      <c r="C7" s="226"/>
+      <c r="D7" s="225" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="215"/>
-      <c r="F7" s="216"/>
-      <c r="G7" s="214" t="s">
+      <c r="E7" s="227"/>
+      <c r="F7" s="226"/>
+      <c r="G7" s="225" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="215"/>
-      <c r="I7" s="216"/>
-      <c r="J7" s="214" t="s">
+      <c r="H7" s="227"/>
+      <c r="I7" s="226"/>
+      <c r="J7" s="225" t="s">
         <v>86</v>
       </c>
-      <c r="K7" s="215"/>
-      <c r="L7" s="215"/>
-      <c r="M7" s="215"/>
-      <c r="N7" s="215"/>
-      <c r="O7" s="215"/>
-      <c r="P7" s="216"/>
-      <c r="Q7" s="214" t="s">
+      <c r="K7" s="227"/>
+      <c r="L7" s="227"/>
+      <c r="M7" s="227"/>
+      <c r="N7" s="227"/>
+      <c r="O7" s="227"/>
+      <c r="P7" s="226"/>
+      <c r="Q7" s="225" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="215"/>
-      <c r="S7" s="215"/>
-      <c r="T7" s="215"/>
-      <c r="U7" s="215"/>
-      <c r="V7" s="215"/>
-      <c r="W7" s="215"/>
-      <c r="X7" s="215"/>
-      <c r="Y7" s="215"/>
-      <c r="Z7" s="215"/>
-      <c r="AA7" s="215"/>
-      <c r="AB7" s="215"/>
-      <c r="AC7" s="215"/>
-      <c r="AD7" s="215"/>
-      <c r="AE7" s="216"/>
-      <c r="AF7" s="214" t="s">
+      <c r="R7" s="227"/>
+      <c r="S7" s="227"/>
+      <c r="T7" s="227"/>
+      <c r="U7" s="227"/>
+      <c r="V7" s="227"/>
+      <c r="W7" s="227"/>
+      <c r="X7" s="227"/>
+      <c r="Y7" s="227"/>
+      <c r="Z7" s="227"/>
+      <c r="AA7" s="227"/>
+      <c r="AB7" s="227"/>
+      <c r="AC7" s="227"/>
+      <c r="AD7" s="227"/>
+      <c r="AE7" s="226"/>
+      <c r="AF7" s="225" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="215"/>
-      <c r="AH7" s="215"/>
-      <c r="AI7" s="216"/>
+      <c r="AG7" s="227"/>
+      <c r="AH7" s="227"/>
+      <c r="AI7" s="226"/>
     </row>
     <row r="8" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="56">
         <v>1</v>
       </c>
-      <c r="B8" s="241" t="s">
+      <c r="B8" s="228" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="242"/>
-      <c r="D8" s="243">
+      <c r="C8" s="229"/>
+      <c r="D8" s="230">
         <v>43656</v>
       </c>
-      <c r="E8" s="244"/>
-      <c r="F8" s="245"/>
-      <c r="G8" s="241" t="s">
+      <c r="E8" s="231"/>
+      <c r="F8" s="232"/>
+      <c r="G8" s="228" t="s">
         <v>108</v>
       </c>
-      <c r="H8" s="246"/>
-      <c r="I8" s="242"/>
-      <c r="J8" s="226" t="s">
+      <c r="H8" s="233"/>
+      <c r="I8" s="229"/>
+      <c r="J8" s="249" t="s">
         <v>109</v>
       </c>
-      <c r="K8" s="227"/>
-      <c r="L8" s="227"/>
-      <c r="M8" s="227"/>
-      <c r="N8" s="227"/>
-      <c r="O8" s="227"/>
-      <c r="P8" s="228"/>
-      <c r="Q8" s="202" t="s">
+      <c r="K8" s="250"/>
+      <c r="L8" s="250"/>
+      <c r="M8" s="250"/>
+      <c r="N8" s="250"/>
+      <c r="O8" s="250"/>
+      <c r="P8" s="251"/>
+      <c r="Q8" s="237" t="s">
         <v>110</v>
       </c>
-      <c r="R8" s="203"/>
-      <c r="S8" s="203"/>
-      <c r="T8" s="203"/>
-      <c r="U8" s="203"/>
-      <c r="V8" s="203"/>
-      <c r="W8" s="203"/>
-      <c r="X8" s="203"/>
-      <c r="Y8" s="203"/>
-      <c r="Z8" s="203"/>
-      <c r="AA8" s="203"/>
-      <c r="AB8" s="203"/>
-      <c r="AC8" s="203"/>
-      <c r="AD8" s="203"/>
-      <c r="AE8" s="204"/>
-      <c r="AF8" s="226" t="s">
+      <c r="R8" s="238"/>
+      <c r="S8" s="238"/>
+      <c r="T8" s="238"/>
+      <c r="U8" s="238"/>
+      <c r="V8" s="238"/>
+      <c r="W8" s="238"/>
+      <c r="X8" s="238"/>
+      <c r="Y8" s="238"/>
+      <c r="Z8" s="238"/>
+      <c r="AA8" s="238"/>
+      <c r="AB8" s="238"/>
+      <c r="AC8" s="238"/>
+      <c r="AD8" s="238"/>
+      <c r="AE8" s="239"/>
+      <c r="AF8" s="249" t="s">
         <v>111</v>
       </c>
-      <c r="AG8" s="227"/>
-      <c r="AH8" s="227"/>
-      <c r="AI8" s="228"/>
+      <c r="AG8" s="250"/>
+      <c r="AH8" s="250"/>
+      <c r="AI8" s="251"/>
     </row>
     <row r="9" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="57"/>
-      <c r="B9" s="211"/>
-      <c r="C9" s="213"/>
-      <c r="D9" s="238"/>
-      <c r="E9" s="239"/>
-      <c r="F9" s="240"/>
-      <c r="G9" s="211"/>
-      <c r="H9" s="212"/>
-      <c r="I9" s="213"/>
-      <c r="J9" s="223"/>
-      <c r="K9" s="224"/>
-      <c r="L9" s="224"/>
-      <c r="M9" s="224"/>
-      <c r="N9" s="224"/>
-      <c r="O9" s="224"/>
-      <c r="P9" s="225"/>
-      <c r="Q9" s="220"/>
-      <c r="R9" s="221"/>
-      <c r="S9" s="221"/>
-      <c r="T9" s="221"/>
-      <c r="U9" s="221"/>
-      <c r="V9" s="221"/>
-      <c r="W9" s="221"/>
-      <c r="X9" s="221"/>
-      <c r="Y9" s="221"/>
-      <c r="Z9" s="221"/>
-      <c r="AA9" s="221"/>
-      <c r="AB9" s="221"/>
-      <c r="AC9" s="221"/>
-      <c r="AD9" s="221"/>
-      <c r="AE9" s="222"/>
-      <c r="AF9" s="223"/>
-      <c r="AG9" s="224"/>
-      <c r="AH9" s="224"/>
-      <c r="AI9" s="225"/>
+      <c r="B9" s="219"/>
+      <c r="C9" s="220"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="222"/>
+      <c r="F9" s="223"/>
+      <c r="G9" s="219"/>
+      <c r="H9" s="224"/>
+      <c r="I9" s="220"/>
+      <c r="J9" s="216"/>
+      <c r="K9" s="217"/>
+      <c r="L9" s="217"/>
+      <c r="M9" s="217"/>
+      <c r="N9" s="217"/>
+      <c r="O9" s="217"/>
+      <c r="P9" s="218"/>
+      <c r="Q9" s="213"/>
+      <c r="R9" s="214"/>
+      <c r="S9" s="214"/>
+      <c r="T9" s="214"/>
+      <c r="U9" s="214"/>
+      <c r="V9" s="214"/>
+      <c r="W9" s="214"/>
+      <c r="X9" s="214"/>
+      <c r="Y9" s="214"/>
+      <c r="Z9" s="214"/>
+      <c r="AA9" s="214"/>
+      <c r="AB9" s="214"/>
+      <c r="AC9" s="214"/>
+      <c r="AD9" s="214"/>
+      <c r="AE9" s="215"/>
+      <c r="AF9" s="216"/>
+      <c r="AG9" s="217"/>
+      <c r="AH9" s="217"/>
+      <c r="AI9" s="218"/>
     </row>
     <row r="10" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="57"/>
-      <c r="B10" s="211"/>
-      <c r="C10" s="213"/>
-      <c r="D10" s="238"/>
-      <c r="E10" s="239"/>
-      <c r="F10" s="240"/>
-      <c r="G10" s="211"/>
-      <c r="H10" s="212"/>
-      <c r="I10" s="213"/>
-      <c r="J10" s="223"/>
-      <c r="K10" s="224"/>
-      <c r="L10" s="224"/>
-      <c r="M10" s="224"/>
-      <c r="N10" s="224"/>
-      <c r="O10" s="224"/>
-      <c r="P10" s="225"/>
-      <c r="Q10" s="220"/>
-      <c r="R10" s="221"/>
-      <c r="S10" s="221"/>
-      <c r="T10" s="221"/>
-      <c r="U10" s="221"/>
-      <c r="V10" s="221"/>
-      <c r="W10" s="221"/>
-      <c r="X10" s="221"/>
-      <c r="Y10" s="221"/>
-      <c r="Z10" s="221"/>
-      <c r="AA10" s="221"/>
-      <c r="AB10" s="221"/>
-      <c r="AC10" s="221"/>
-      <c r="AD10" s="221"/>
-      <c r="AE10" s="222"/>
-      <c r="AF10" s="223"/>
-      <c r="AG10" s="224"/>
-      <c r="AH10" s="224"/>
-      <c r="AI10" s="225"/>
+      <c r="B10" s="219"/>
+      <c r="C10" s="220"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="222"/>
+      <c r="F10" s="223"/>
+      <c r="G10" s="219"/>
+      <c r="H10" s="224"/>
+      <c r="I10" s="220"/>
+      <c r="J10" s="216"/>
+      <c r="K10" s="217"/>
+      <c r="L10" s="217"/>
+      <c r="M10" s="217"/>
+      <c r="N10" s="217"/>
+      <c r="O10" s="217"/>
+      <c r="P10" s="218"/>
+      <c r="Q10" s="213"/>
+      <c r="R10" s="214"/>
+      <c r="S10" s="214"/>
+      <c r="T10" s="214"/>
+      <c r="U10" s="214"/>
+      <c r="V10" s="214"/>
+      <c r="W10" s="214"/>
+      <c r="X10" s="214"/>
+      <c r="Y10" s="214"/>
+      <c r="Z10" s="214"/>
+      <c r="AA10" s="214"/>
+      <c r="AB10" s="214"/>
+      <c r="AC10" s="214"/>
+      <c r="AD10" s="214"/>
+      <c r="AE10" s="215"/>
+      <c r="AF10" s="216"/>
+      <c r="AG10" s="217"/>
+      <c r="AH10" s="217"/>
+      <c r="AI10" s="218"/>
     </row>
     <row r="11" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="57"/>
-      <c r="B11" s="211"/>
-      <c r="C11" s="213"/>
-      <c r="D11" s="238"/>
-      <c r="E11" s="239"/>
-      <c r="F11" s="240"/>
-      <c r="G11" s="211"/>
-      <c r="H11" s="212"/>
-      <c r="I11" s="213"/>
-      <c r="J11" s="223"/>
-      <c r="K11" s="224"/>
-      <c r="L11" s="224"/>
-      <c r="M11" s="224"/>
-      <c r="N11" s="224"/>
-      <c r="O11" s="224"/>
-      <c r="P11" s="225"/>
-      <c r="Q11" s="220"/>
-      <c r="R11" s="221"/>
-      <c r="S11" s="221"/>
-      <c r="T11" s="221"/>
-      <c r="U11" s="221"/>
-      <c r="V11" s="221"/>
-      <c r="W11" s="221"/>
-      <c r="X11" s="221"/>
-      <c r="Y11" s="221"/>
-      <c r="Z11" s="221"/>
-      <c r="AA11" s="221"/>
-      <c r="AB11" s="221"/>
-      <c r="AC11" s="221"/>
-      <c r="AD11" s="221"/>
-      <c r="AE11" s="222"/>
-      <c r="AF11" s="223"/>
-      <c r="AG11" s="224"/>
-      <c r="AH11" s="224"/>
-      <c r="AI11" s="225"/>
+      <c r="B11" s="219"/>
+      <c r="C11" s="220"/>
+      <c r="D11" s="221"/>
+      <c r="E11" s="222"/>
+      <c r="F11" s="223"/>
+      <c r="G11" s="219"/>
+      <c r="H11" s="224"/>
+      <c r="I11" s="220"/>
+      <c r="J11" s="216"/>
+      <c r="K11" s="217"/>
+      <c r="L11" s="217"/>
+      <c r="M11" s="217"/>
+      <c r="N11" s="217"/>
+      <c r="O11" s="217"/>
+      <c r="P11" s="218"/>
+      <c r="Q11" s="213"/>
+      <c r="R11" s="214"/>
+      <c r="S11" s="214"/>
+      <c r="T11" s="214"/>
+      <c r="U11" s="214"/>
+      <c r="V11" s="214"/>
+      <c r="W11" s="214"/>
+      <c r="X11" s="214"/>
+      <c r="Y11" s="214"/>
+      <c r="Z11" s="214"/>
+      <c r="AA11" s="214"/>
+      <c r="AB11" s="214"/>
+      <c r="AC11" s="214"/>
+      <c r="AD11" s="214"/>
+      <c r="AE11" s="215"/>
+      <c r="AF11" s="216"/>
+      <c r="AG11" s="217"/>
+      <c r="AH11" s="217"/>
+      <c r="AI11" s="218"/>
     </row>
     <row r="12" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="57"/>
-      <c r="B12" s="211"/>
-      <c r="C12" s="213"/>
-      <c r="D12" s="238"/>
-      <c r="E12" s="239"/>
-      <c r="F12" s="240"/>
-      <c r="G12" s="211"/>
-      <c r="H12" s="212"/>
-      <c r="I12" s="213"/>
-      <c r="J12" s="223"/>
-      <c r="K12" s="224"/>
-      <c r="L12" s="224"/>
-      <c r="M12" s="224"/>
-      <c r="N12" s="224"/>
-      <c r="O12" s="224"/>
-      <c r="P12" s="225"/>
-      <c r="Q12" s="220"/>
-      <c r="R12" s="221"/>
-      <c r="S12" s="221"/>
-      <c r="T12" s="221"/>
-      <c r="U12" s="221"/>
-      <c r="V12" s="221"/>
-      <c r="W12" s="221"/>
-      <c r="X12" s="221"/>
-      <c r="Y12" s="221"/>
-      <c r="Z12" s="221"/>
-      <c r="AA12" s="221"/>
-      <c r="AB12" s="221"/>
-      <c r="AC12" s="221"/>
-      <c r="AD12" s="221"/>
-      <c r="AE12" s="222"/>
-      <c r="AF12" s="223"/>
-      <c r="AG12" s="224"/>
-      <c r="AH12" s="224"/>
-      <c r="AI12" s="225"/>
+      <c r="B12" s="219"/>
+      <c r="C12" s="220"/>
+      <c r="D12" s="221"/>
+      <c r="E12" s="222"/>
+      <c r="F12" s="223"/>
+      <c r="G12" s="219"/>
+      <c r="H12" s="224"/>
+      <c r="I12" s="220"/>
+      <c r="J12" s="216"/>
+      <c r="K12" s="217"/>
+      <c r="L12" s="217"/>
+      <c r="M12" s="217"/>
+      <c r="N12" s="217"/>
+      <c r="O12" s="217"/>
+      <c r="P12" s="218"/>
+      <c r="Q12" s="213"/>
+      <c r="R12" s="214"/>
+      <c r="S12" s="214"/>
+      <c r="T12" s="214"/>
+      <c r="U12" s="214"/>
+      <c r="V12" s="214"/>
+      <c r="W12" s="214"/>
+      <c r="X12" s="214"/>
+      <c r="Y12" s="214"/>
+      <c r="Z12" s="214"/>
+      <c r="AA12" s="214"/>
+      <c r="AB12" s="214"/>
+      <c r="AC12" s="214"/>
+      <c r="AD12" s="214"/>
+      <c r="AE12" s="215"/>
+      <c r="AF12" s="216"/>
+      <c r="AG12" s="217"/>
+      <c r="AH12" s="217"/>
+      <c r="AI12" s="218"/>
     </row>
     <row r="13" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="57"/>
-      <c r="B13" s="211"/>
-      <c r="C13" s="213"/>
-      <c r="D13" s="238"/>
-      <c r="E13" s="239"/>
-      <c r="F13" s="240"/>
-      <c r="G13" s="211"/>
-      <c r="H13" s="212"/>
-      <c r="I13" s="213"/>
-      <c r="J13" s="223"/>
-      <c r="K13" s="224"/>
-      <c r="L13" s="224"/>
-      <c r="M13" s="224"/>
-      <c r="N13" s="224"/>
-      <c r="O13" s="224"/>
-      <c r="P13" s="225"/>
-      <c r="Q13" s="220"/>
-      <c r="R13" s="221"/>
-      <c r="S13" s="221"/>
-      <c r="T13" s="221"/>
-      <c r="U13" s="221"/>
-      <c r="V13" s="221"/>
-      <c r="W13" s="221"/>
-      <c r="X13" s="221"/>
-      <c r="Y13" s="221"/>
-      <c r="Z13" s="221"/>
-      <c r="AA13" s="221"/>
-      <c r="AB13" s="221"/>
-      <c r="AC13" s="221"/>
-      <c r="AD13" s="221"/>
-      <c r="AE13" s="222"/>
-      <c r="AF13" s="223"/>
-      <c r="AG13" s="224"/>
-      <c r="AH13" s="224"/>
-      <c r="AI13" s="225"/>
+      <c r="B13" s="219"/>
+      <c r="C13" s="220"/>
+      <c r="D13" s="221"/>
+      <c r="E13" s="222"/>
+      <c r="F13" s="223"/>
+      <c r="G13" s="219"/>
+      <c r="H13" s="224"/>
+      <c r="I13" s="220"/>
+      <c r="J13" s="216"/>
+      <c r="K13" s="217"/>
+      <c r="L13" s="217"/>
+      <c r="M13" s="217"/>
+      <c r="N13" s="217"/>
+      <c r="O13" s="217"/>
+      <c r="P13" s="218"/>
+      <c r="Q13" s="213"/>
+      <c r="R13" s="214"/>
+      <c r="S13" s="214"/>
+      <c r="T13" s="214"/>
+      <c r="U13" s="214"/>
+      <c r="V13" s="214"/>
+      <c r="W13" s="214"/>
+      <c r="X13" s="214"/>
+      <c r="Y13" s="214"/>
+      <c r="Z13" s="214"/>
+      <c r="AA13" s="214"/>
+      <c r="AB13" s="214"/>
+      <c r="AC13" s="214"/>
+      <c r="AD13" s="214"/>
+      <c r="AE13" s="215"/>
+      <c r="AF13" s="216"/>
+      <c r="AG13" s="217"/>
+      <c r="AH13" s="217"/>
+      <c r="AI13" s="218"/>
     </row>
     <row r="14" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="57"/>
-      <c r="B14" s="211"/>
-      <c r="C14" s="213"/>
-      <c r="D14" s="238"/>
-      <c r="E14" s="239"/>
-      <c r="F14" s="240"/>
-      <c r="G14" s="211"/>
-      <c r="H14" s="212"/>
-      <c r="I14" s="213"/>
-      <c r="J14" s="223"/>
-      <c r="K14" s="224"/>
-      <c r="L14" s="224"/>
-      <c r="M14" s="224"/>
-      <c r="N14" s="224"/>
-      <c r="O14" s="224"/>
-      <c r="P14" s="225"/>
-      <c r="Q14" s="220"/>
-      <c r="R14" s="221"/>
-      <c r="S14" s="221"/>
-      <c r="T14" s="221"/>
-      <c r="U14" s="221"/>
-      <c r="V14" s="221"/>
-      <c r="W14" s="221"/>
-      <c r="X14" s="221"/>
-      <c r="Y14" s="221"/>
-      <c r="Z14" s="221"/>
-      <c r="AA14" s="221"/>
-      <c r="AB14" s="221"/>
-      <c r="AC14" s="221"/>
-      <c r="AD14" s="221"/>
-      <c r="AE14" s="222"/>
-      <c r="AF14" s="223"/>
-      <c r="AG14" s="224"/>
-      <c r="AH14" s="224"/>
-      <c r="AI14" s="225"/>
+      <c r="B14" s="219"/>
+      <c r="C14" s="220"/>
+      <c r="D14" s="221"/>
+      <c r="E14" s="222"/>
+      <c r="F14" s="223"/>
+      <c r="G14" s="219"/>
+      <c r="H14" s="224"/>
+      <c r="I14" s="220"/>
+      <c r="J14" s="216"/>
+      <c r="K14" s="217"/>
+      <c r="L14" s="217"/>
+      <c r="M14" s="217"/>
+      <c r="N14" s="217"/>
+      <c r="O14" s="217"/>
+      <c r="P14" s="218"/>
+      <c r="Q14" s="213"/>
+      <c r="R14" s="214"/>
+      <c r="S14" s="214"/>
+      <c r="T14" s="214"/>
+      <c r="U14" s="214"/>
+      <c r="V14" s="214"/>
+      <c r="W14" s="214"/>
+      <c r="X14" s="214"/>
+      <c r="Y14" s="214"/>
+      <c r="Z14" s="214"/>
+      <c r="AA14" s="214"/>
+      <c r="AB14" s="214"/>
+      <c r="AC14" s="214"/>
+      <c r="AD14" s="214"/>
+      <c r="AE14" s="215"/>
+      <c r="AF14" s="216"/>
+      <c r="AG14" s="217"/>
+      <c r="AH14" s="217"/>
+      <c r="AI14" s="218"/>
     </row>
     <row r="15" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="57"/>
-      <c r="B15" s="211"/>
-      <c r="C15" s="213"/>
-      <c r="D15" s="238"/>
-      <c r="E15" s="239"/>
-      <c r="F15" s="240"/>
-      <c r="G15" s="211"/>
-      <c r="H15" s="212"/>
-      <c r="I15" s="213"/>
-      <c r="J15" s="223"/>
-      <c r="K15" s="224"/>
-      <c r="L15" s="224"/>
-      <c r="M15" s="224"/>
-      <c r="N15" s="224"/>
-      <c r="O15" s="224"/>
-      <c r="P15" s="225"/>
-      <c r="Q15" s="220"/>
-      <c r="R15" s="221"/>
-      <c r="S15" s="221"/>
-      <c r="T15" s="221"/>
-      <c r="U15" s="221"/>
-      <c r="V15" s="221"/>
-      <c r="W15" s="221"/>
-      <c r="X15" s="221"/>
-      <c r="Y15" s="221"/>
-      <c r="Z15" s="221"/>
-      <c r="AA15" s="221"/>
-      <c r="AB15" s="221"/>
-      <c r="AC15" s="221"/>
-      <c r="AD15" s="221"/>
-      <c r="AE15" s="222"/>
-      <c r="AF15" s="223"/>
-      <c r="AG15" s="224"/>
-      <c r="AH15" s="224"/>
-      <c r="AI15" s="225"/>
+      <c r="B15" s="219"/>
+      <c r="C15" s="220"/>
+      <c r="D15" s="221"/>
+      <c r="E15" s="222"/>
+      <c r="F15" s="223"/>
+      <c r="G15" s="219"/>
+      <c r="H15" s="224"/>
+      <c r="I15" s="220"/>
+      <c r="J15" s="216"/>
+      <c r="K15" s="217"/>
+      <c r="L15" s="217"/>
+      <c r="M15" s="217"/>
+      <c r="N15" s="217"/>
+      <c r="O15" s="217"/>
+      <c r="P15" s="218"/>
+      <c r="Q15" s="213"/>
+      <c r="R15" s="214"/>
+      <c r="S15" s="214"/>
+      <c r="T15" s="214"/>
+      <c r="U15" s="214"/>
+      <c r="V15" s="214"/>
+      <c r="W15" s="214"/>
+      <c r="X15" s="214"/>
+      <c r="Y15" s="214"/>
+      <c r="Z15" s="214"/>
+      <c r="AA15" s="214"/>
+      <c r="AB15" s="214"/>
+      <c r="AC15" s="214"/>
+      <c r="AD15" s="214"/>
+      <c r="AE15" s="215"/>
+      <c r="AF15" s="216"/>
+      <c r="AG15" s="217"/>
+      <c r="AH15" s="217"/>
+      <c r="AI15" s="218"/>
     </row>
     <row r="16" spans="1:40" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="57"/>
-      <c r="B16" s="211"/>
-      <c r="C16" s="213"/>
-      <c r="D16" s="238"/>
-      <c r="E16" s="239"/>
-      <c r="F16" s="240"/>
-      <c r="G16" s="211"/>
-      <c r="H16" s="212"/>
-      <c r="I16" s="213"/>
-      <c r="J16" s="223"/>
-      <c r="K16" s="224"/>
-      <c r="L16" s="224"/>
-      <c r="M16" s="224"/>
-      <c r="N16" s="224"/>
-      <c r="O16" s="224"/>
-      <c r="P16" s="225"/>
-      <c r="Q16" s="220"/>
-      <c r="R16" s="221"/>
-      <c r="S16" s="221"/>
-      <c r="T16" s="221"/>
-      <c r="U16" s="221"/>
-      <c r="V16" s="221"/>
-      <c r="W16" s="221"/>
-      <c r="X16" s="221"/>
-      <c r="Y16" s="221"/>
-      <c r="Z16" s="221"/>
-      <c r="AA16" s="221"/>
-      <c r="AB16" s="221"/>
-      <c r="AC16" s="221"/>
-      <c r="AD16" s="221"/>
-      <c r="AE16" s="222"/>
-      <c r="AF16" s="223"/>
-      <c r="AG16" s="224"/>
-      <c r="AH16" s="224"/>
-      <c r="AI16" s="225"/>
+      <c r="B16" s="219"/>
+      <c r="C16" s="220"/>
+      <c r="D16" s="221"/>
+      <c r="E16" s="222"/>
+      <c r="F16" s="223"/>
+      <c r="G16" s="219"/>
+      <c r="H16" s="224"/>
+      <c r="I16" s="220"/>
+      <c r="J16" s="216"/>
+      <c r="K16" s="217"/>
+      <c r="L16" s="217"/>
+      <c r="M16" s="217"/>
+      <c r="N16" s="217"/>
+      <c r="O16" s="217"/>
+      <c r="P16" s="218"/>
+      <c r="Q16" s="213"/>
+      <c r="R16" s="214"/>
+      <c r="S16" s="214"/>
+      <c r="T16" s="214"/>
+      <c r="U16" s="214"/>
+      <c r="V16" s="214"/>
+      <c r="W16" s="214"/>
+      <c r="X16" s="214"/>
+      <c r="Y16" s="214"/>
+      <c r="Z16" s="214"/>
+      <c r="AA16" s="214"/>
+      <c r="AB16" s="214"/>
+      <c r="AC16" s="214"/>
+      <c r="AD16" s="214"/>
+      <c r="AE16" s="215"/>
+      <c r="AF16" s="216"/>
+      <c r="AG16" s="217"/>
+      <c r="AH16" s="217"/>
+      <c r="AI16" s="218"/>
     </row>
     <row r="17" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="57"/>
-      <c r="B17" s="211"/>
-      <c r="C17" s="213"/>
-      <c r="D17" s="238"/>
-      <c r="E17" s="239"/>
-      <c r="F17" s="240"/>
-      <c r="G17" s="211"/>
-      <c r="H17" s="212"/>
-      <c r="I17" s="213"/>
-      <c r="J17" s="223"/>
-      <c r="K17" s="224"/>
-      <c r="L17" s="224"/>
-      <c r="M17" s="224"/>
-      <c r="N17" s="224"/>
-      <c r="O17" s="224"/>
-      <c r="P17" s="225"/>
-      <c r="Q17" s="220"/>
-      <c r="R17" s="221"/>
-      <c r="S17" s="221"/>
-      <c r="T17" s="221"/>
-      <c r="U17" s="221"/>
-      <c r="V17" s="221"/>
-      <c r="W17" s="221"/>
-      <c r="X17" s="221"/>
-      <c r="Y17" s="221"/>
-      <c r="Z17" s="221"/>
-      <c r="AA17" s="221"/>
-      <c r="AB17" s="221"/>
-      <c r="AC17" s="221"/>
-      <c r="AD17" s="221"/>
-      <c r="AE17" s="222"/>
-      <c r="AF17" s="223"/>
-      <c r="AG17" s="224"/>
-      <c r="AH17" s="224"/>
-      <c r="AI17" s="225"/>
+      <c r="B17" s="219"/>
+      <c r="C17" s="220"/>
+      <c r="D17" s="221"/>
+      <c r="E17" s="222"/>
+      <c r="F17" s="223"/>
+      <c r="G17" s="219"/>
+      <c r="H17" s="224"/>
+      <c r="I17" s="220"/>
+      <c r="J17" s="216"/>
+      <c r="K17" s="217"/>
+      <c r="L17" s="217"/>
+      <c r="M17" s="217"/>
+      <c r="N17" s="217"/>
+      <c r="O17" s="217"/>
+      <c r="P17" s="218"/>
+      <c r="Q17" s="213"/>
+      <c r="R17" s="214"/>
+      <c r="S17" s="214"/>
+      <c r="T17" s="214"/>
+      <c r="U17" s="214"/>
+      <c r="V17" s="214"/>
+      <c r="W17" s="214"/>
+      <c r="X17" s="214"/>
+      <c r="Y17" s="214"/>
+      <c r="Z17" s="214"/>
+      <c r="AA17" s="214"/>
+      <c r="AB17" s="214"/>
+      <c r="AC17" s="214"/>
+      <c r="AD17" s="214"/>
+      <c r="AE17" s="215"/>
+      <c r="AF17" s="216"/>
+      <c r="AG17" s="217"/>
+      <c r="AH17" s="217"/>
+      <c r="AI17" s="218"/>
     </row>
     <row r="18" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="57"/>
-      <c r="B18" s="211"/>
-      <c r="C18" s="213"/>
-      <c r="D18" s="238"/>
-      <c r="E18" s="239"/>
-      <c r="F18" s="240"/>
-      <c r="G18" s="211"/>
-      <c r="H18" s="212"/>
-      <c r="I18" s="213"/>
-      <c r="J18" s="223"/>
-      <c r="K18" s="224"/>
-      <c r="L18" s="224"/>
-      <c r="M18" s="224"/>
-      <c r="N18" s="224"/>
-      <c r="O18" s="224"/>
-      <c r="P18" s="225"/>
-      <c r="Q18" s="220"/>
-      <c r="R18" s="221"/>
-      <c r="S18" s="221"/>
-      <c r="T18" s="221"/>
-      <c r="U18" s="221"/>
-      <c r="V18" s="221"/>
-      <c r="W18" s="221"/>
-      <c r="X18" s="221"/>
-      <c r="Y18" s="221"/>
-      <c r="Z18" s="221"/>
-      <c r="AA18" s="221"/>
-      <c r="AB18" s="221"/>
-      <c r="AC18" s="221"/>
-      <c r="AD18" s="221"/>
-      <c r="AE18" s="222"/>
-      <c r="AF18" s="223"/>
-      <c r="AG18" s="224"/>
-      <c r="AH18" s="224"/>
-      <c r="AI18" s="225"/>
+      <c r="B18" s="219"/>
+      <c r="C18" s="220"/>
+      <c r="D18" s="221"/>
+      <c r="E18" s="222"/>
+      <c r="F18" s="223"/>
+      <c r="G18" s="219"/>
+      <c r="H18" s="224"/>
+      <c r="I18" s="220"/>
+      <c r="J18" s="216"/>
+      <c r="K18" s="217"/>
+      <c r="L18" s="217"/>
+      <c r="M18" s="217"/>
+      <c r="N18" s="217"/>
+      <c r="O18" s="217"/>
+      <c r="P18" s="218"/>
+      <c r="Q18" s="213"/>
+      <c r="R18" s="214"/>
+      <c r="S18" s="214"/>
+      <c r="T18" s="214"/>
+      <c r="U18" s="214"/>
+      <c r="V18" s="214"/>
+      <c r="W18" s="214"/>
+      <c r="X18" s="214"/>
+      <c r="Y18" s="214"/>
+      <c r="Z18" s="214"/>
+      <c r="AA18" s="214"/>
+      <c r="AB18" s="214"/>
+      <c r="AC18" s="214"/>
+      <c r="AD18" s="214"/>
+      <c r="AE18" s="215"/>
+      <c r="AF18" s="216"/>
+      <c r="AG18" s="217"/>
+      <c r="AH18" s="217"/>
+      <c r="AI18" s="218"/>
     </row>
     <row r="19" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="57"/>
-      <c r="B19" s="211"/>
-      <c r="C19" s="213"/>
-      <c r="D19" s="238"/>
-      <c r="E19" s="239"/>
-      <c r="F19" s="240"/>
-      <c r="G19" s="211"/>
-      <c r="H19" s="212"/>
-      <c r="I19" s="213"/>
-      <c r="J19" s="223"/>
-      <c r="K19" s="224"/>
-      <c r="L19" s="224"/>
-      <c r="M19" s="224"/>
-      <c r="N19" s="224"/>
-      <c r="O19" s="224"/>
-      <c r="P19" s="225"/>
-      <c r="Q19" s="220"/>
-      <c r="R19" s="221"/>
-      <c r="S19" s="221"/>
-      <c r="T19" s="221"/>
-      <c r="U19" s="221"/>
-      <c r="V19" s="221"/>
-      <c r="W19" s="221"/>
-      <c r="X19" s="221"/>
-      <c r="Y19" s="221"/>
-      <c r="Z19" s="221"/>
-      <c r="AA19" s="221"/>
-      <c r="AB19" s="221"/>
-      <c r="AC19" s="221"/>
-      <c r="AD19" s="221"/>
-      <c r="AE19" s="222"/>
-      <c r="AF19" s="223"/>
-      <c r="AG19" s="224"/>
-      <c r="AH19" s="224"/>
-      <c r="AI19" s="225"/>
+      <c r="B19" s="219"/>
+      <c r="C19" s="220"/>
+      <c r="D19" s="221"/>
+      <c r="E19" s="222"/>
+      <c r="F19" s="223"/>
+      <c r="G19" s="219"/>
+      <c r="H19" s="224"/>
+      <c r="I19" s="220"/>
+      <c r="J19" s="216"/>
+      <c r="K19" s="217"/>
+      <c r="L19" s="217"/>
+      <c r="M19" s="217"/>
+      <c r="N19" s="217"/>
+      <c r="O19" s="217"/>
+      <c r="P19" s="218"/>
+      <c r="Q19" s="213"/>
+      <c r="R19" s="214"/>
+      <c r="S19" s="214"/>
+      <c r="T19" s="214"/>
+      <c r="U19" s="214"/>
+      <c r="V19" s="214"/>
+      <c r="W19" s="214"/>
+      <c r="X19" s="214"/>
+      <c r="Y19" s="214"/>
+      <c r="Z19" s="214"/>
+      <c r="AA19" s="214"/>
+      <c r="AB19" s="214"/>
+      <c r="AC19" s="214"/>
+      <c r="AD19" s="214"/>
+      <c r="AE19" s="215"/>
+      <c r="AF19" s="216"/>
+      <c r="AG19" s="217"/>
+      <c r="AH19" s="217"/>
+      <c r="AI19" s="218"/>
     </row>
     <row r="20" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="57"/>
-      <c r="B20" s="211"/>
-      <c r="C20" s="213"/>
-      <c r="D20" s="238"/>
-      <c r="E20" s="239"/>
-      <c r="F20" s="240"/>
-      <c r="G20" s="211"/>
-      <c r="H20" s="212"/>
-      <c r="I20" s="213"/>
-      <c r="J20" s="223"/>
-      <c r="K20" s="224"/>
-      <c r="L20" s="224"/>
-      <c r="M20" s="224"/>
-      <c r="N20" s="224"/>
-      <c r="O20" s="224"/>
-      <c r="P20" s="225"/>
-      <c r="Q20" s="220"/>
-      <c r="R20" s="221"/>
-      <c r="S20" s="221"/>
-      <c r="T20" s="221"/>
-      <c r="U20" s="221"/>
-      <c r="V20" s="221"/>
-      <c r="W20" s="221"/>
-      <c r="X20" s="221"/>
-      <c r="Y20" s="221"/>
-      <c r="Z20" s="221"/>
-      <c r="AA20" s="221"/>
-      <c r="AB20" s="221"/>
-      <c r="AC20" s="221"/>
-      <c r="AD20" s="221"/>
-      <c r="AE20" s="222"/>
-      <c r="AF20" s="223"/>
-      <c r="AG20" s="224"/>
-      <c r="AH20" s="224"/>
-      <c r="AI20" s="225"/>
+      <c r="B20" s="219"/>
+      <c r="C20" s="220"/>
+      <c r="D20" s="221"/>
+      <c r="E20" s="222"/>
+      <c r="F20" s="223"/>
+      <c r="G20" s="219"/>
+      <c r="H20" s="224"/>
+      <c r="I20" s="220"/>
+      <c r="J20" s="216"/>
+      <c r="K20" s="217"/>
+      <c r="L20" s="217"/>
+      <c r="M20" s="217"/>
+      <c r="N20" s="217"/>
+      <c r="O20" s="217"/>
+      <c r="P20" s="218"/>
+      <c r="Q20" s="213"/>
+      <c r="R20" s="214"/>
+      <c r="S20" s="214"/>
+      <c r="T20" s="214"/>
+      <c r="U20" s="214"/>
+      <c r="V20" s="214"/>
+      <c r="W20" s="214"/>
+      <c r="X20" s="214"/>
+      <c r="Y20" s="214"/>
+      <c r="Z20" s="214"/>
+      <c r="AA20" s="214"/>
+      <c r="AB20" s="214"/>
+      <c r="AC20" s="214"/>
+      <c r="AD20" s="214"/>
+      <c r="AE20" s="215"/>
+      <c r="AF20" s="216"/>
+      <c r="AG20" s="217"/>
+      <c r="AH20" s="217"/>
+      <c r="AI20" s="218"/>
     </row>
     <row r="21" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="57"/>
-      <c r="B21" s="211"/>
-      <c r="C21" s="213"/>
-      <c r="D21" s="238"/>
-      <c r="E21" s="239"/>
-      <c r="F21" s="240"/>
-      <c r="G21" s="211"/>
-      <c r="H21" s="212"/>
-      <c r="I21" s="213"/>
-      <c r="J21" s="223"/>
-      <c r="K21" s="224"/>
-      <c r="L21" s="224"/>
-      <c r="M21" s="224"/>
-      <c r="N21" s="224"/>
-      <c r="O21" s="224"/>
-      <c r="P21" s="225"/>
-      <c r="Q21" s="220"/>
-      <c r="R21" s="221"/>
-      <c r="S21" s="221"/>
-      <c r="T21" s="221"/>
-      <c r="U21" s="221"/>
-      <c r="V21" s="221"/>
-      <c r="W21" s="221"/>
-      <c r="X21" s="221"/>
-      <c r="Y21" s="221"/>
-      <c r="Z21" s="221"/>
-      <c r="AA21" s="221"/>
-      <c r="AB21" s="221"/>
-      <c r="AC21" s="221"/>
-      <c r="AD21" s="221"/>
-      <c r="AE21" s="222"/>
-      <c r="AF21" s="223"/>
-      <c r="AG21" s="224"/>
-      <c r="AH21" s="224"/>
-      <c r="AI21" s="225"/>
+      <c r="B21" s="219"/>
+      <c r="C21" s="220"/>
+      <c r="D21" s="221"/>
+      <c r="E21" s="222"/>
+      <c r="F21" s="223"/>
+      <c r="G21" s="219"/>
+      <c r="H21" s="224"/>
+      <c r="I21" s="220"/>
+      <c r="J21" s="216"/>
+      <c r="K21" s="217"/>
+      <c r="L21" s="217"/>
+      <c r="M21" s="217"/>
+      <c r="N21" s="217"/>
+      <c r="O21" s="217"/>
+      <c r="P21" s="218"/>
+      <c r="Q21" s="213"/>
+      <c r="R21" s="214"/>
+      <c r="S21" s="214"/>
+      <c r="T21" s="214"/>
+      <c r="U21" s="214"/>
+      <c r="V21" s="214"/>
+      <c r="W21" s="214"/>
+      <c r="X21" s="214"/>
+      <c r="Y21" s="214"/>
+      <c r="Z21" s="214"/>
+      <c r="AA21" s="214"/>
+      <c r="AB21" s="214"/>
+      <c r="AC21" s="214"/>
+      <c r="AD21" s="214"/>
+      <c r="AE21" s="215"/>
+      <c r="AF21" s="216"/>
+      <c r="AG21" s="217"/>
+      <c r="AH21" s="217"/>
+      <c r="AI21" s="218"/>
     </row>
     <row r="22" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="57"/>
-      <c r="B22" s="211"/>
-      <c r="C22" s="213"/>
-      <c r="D22" s="238"/>
-      <c r="E22" s="239"/>
-      <c r="F22" s="240"/>
-      <c r="G22" s="211"/>
-      <c r="H22" s="212"/>
-      <c r="I22" s="213"/>
-      <c r="J22" s="223"/>
-      <c r="K22" s="224"/>
-      <c r="L22" s="224"/>
-      <c r="M22" s="224"/>
-      <c r="N22" s="224"/>
-      <c r="O22" s="224"/>
-      <c r="P22" s="225"/>
-      <c r="Q22" s="220"/>
-      <c r="R22" s="221"/>
-      <c r="S22" s="221"/>
-      <c r="T22" s="221"/>
-      <c r="U22" s="221"/>
-      <c r="V22" s="221"/>
-      <c r="W22" s="221"/>
-      <c r="X22" s="221"/>
-      <c r="Y22" s="221"/>
-      <c r="Z22" s="221"/>
-      <c r="AA22" s="221"/>
-      <c r="AB22" s="221"/>
-      <c r="AC22" s="221"/>
-      <c r="AD22" s="221"/>
-      <c r="AE22" s="222"/>
-      <c r="AF22" s="223"/>
-      <c r="AG22" s="224"/>
-      <c r="AH22" s="224"/>
-      <c r="AI22" s="225"/>
+      <c r="B22" s="219"/>
+      <c r="C22" s="220"/>
+      <c r="D22" s="221"/>
+      <c r="E22" s="222"/>
+      <c r="F22" s="223"/>
+      <c r="G22" s="219"/>
+      <c r="H22" s="224"/>
+      <c r="I22" s="220"/>
+      <c r="J22" s="216"/>
+      <c r="K22" s="217"/>
+      <c r="L22" s="217"/>
+      <c r="M22" s="217"/>
+      <c r="N22" s="217"/>
+      <c r="O22" s="217"/>
+      <c r="P22" s="218"/>
+      <c r="Q22" s="213"/>
+      <c r="R22" s="214"/>
+      <c r="S22" s="214"/>
+      <c r="T22" s="214"/>
+      <c r="U22" s="214"/>
+      <c r="V22" s="214"/>
+      <c r="W22" s="214"/>
+      <c r="X22" s="214"/>
+      <c r="Y22" s="214"/>
+      <c r="Z22" s="214"/>
+      <c r="AA22" s="214"/>
+      <c r="AB22" s="214"/>
+      <c r="AC22" s="214"/>
+      <c r="AD22" s="214"/>
+      <c r="AE22" s="215"/>
+      <c r="AF22" s="216"/>
+      <c r="AG22" s="217"/>
+      <c r="AH22" s="217"/>
+      <c r="AI22" s="218"/>
     </row>
     <row r="23" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="57"/>
-      <c r="B23" s="211"/>
-      <c r="C23" s="213"/>
-      <c r="D23" s="238"/>
-      <c r="E23" s="239"/>
-      <c r="F23" s="240"/>
-      <c r="G23" s="211"/>
-      <c r="H23" s="212"/>
-      <c r="I23" s="213"/>
-      <c r="J23" s="223"/>
-      <c r="K23" s="224"/>
-      <c r="L23" s="224"/>
-      <c r="M23" s="224"/>
-      <c r="N23" s="224"/>
-      <c r="O23" s="224"/>
-      <c r="P23" s="225"/>
-      <c r="Q23" s="220"/>
-      <c r="R23" s="221"/>
-      <c r="S23" s="221"/>
-      <c r="T23" s="221"/>
-      <c r="U23" s="221"/>
-      <c r="V23" s="221"/>
-      <c r="W23" s="221"/>
-      <c r="X23" s="221"/>
-      <c r="Y23" s="221"/>
-      <c r="Z23" s="221"/>
-      <c r="AA23" s="221"/>
-      <c r="AB23" s="221"/>
-      <c r="AC23" s="221"/>
-      <c r="AD23" s="221"/>
-      <c r="AE23" s="222"/>
-      <c r="AF23" s="223"/>
-      <c r="AG23" s="224"/>
-      <c r="AH23" s="224"/>
-      <c r="AI23" s="225"/>
+      <c r="B23" s="219"/>
+      <c r="C23" s="220"/>
+      <c r="D23" s="221"/>
+      <c r="E23" s="222"/>
+      <c r="F23" s="223"/>
+      <c r="G23" s="219"/>
+      <c r="H23" s="224"/>
+      <c r="I23" s="220"/>
+      <c r="J23" s="216"/>
+      <c r="K23" s="217"/>
+      <c r="L23" s="217"/>
+      <c r="M23" s="217"/>
+      <c r="N23" s="217"/>
+      <c r="O23" s="217"/>
+      <c r="P23" s="218"/>
+      <c r="Q23" s="213"/>
+      <c r="R23" s="214"/>
+      <c r="S23" s="214"/>
+      <c r="T23" s="214"/>
+      <c r="U23" s="214"/>
+      <c r="V23" s="214"/>
+      <c r="W23" s="214"/>
+      <c r="X23" s="214"/>
+      <c r="Y23" s="214"/>
+      <c r="Z23" s="214"/>
+      <c r="AA23" s="214"/>
+      <c r="AB23" s="214"/>
+      <c r="AC23" s="214"/>
+      <c r="AD23" s="214"/>
+      <c r="AE23" s="215"/>
+      <c r="AF23" s="216"/>
+      <c r="AG23" s="217"/>
+      <c r="AH23" s="217"/>
+      <c r="AI23" s="218"/>
     </row>
     <row r="24" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="57"/>
-      <c r="B24" s="211"/>
-      <c r="C24" s="213"/>
-      <c r="D24" s="238"/>
-      <c r="E24" s="239"/>
-      <c r="F24" s="240"/>
-      <c r="G24" s="211"/>
-      <c r="H24" s="212"/>
-      <c r="I24" s="213"/>
-      <c r="J24" s="223"/>
-      <c r="K24" s="224"/>
-      <c r="L24" s="224"/>
-      <c r="M24" s="224"/>
-      <c r="N24" s="224"/>
-      <c r="O24" s="224"/>
-      <c r="P24" s="225"/>
-      <c r="Q24" s="220"/>
-      <c r="R24" s="221"/>
-      <c r="S24" s="221"/>
-      <c r="T24" s="221"/>
-      <c r="U24" s="221"/>
-      <c r="V24" s="221"/>
-      <c r="W24" s="221"/>
-      <c r="X24" s="221"/>
-      <c r="Y24" s="221"/>
-      <c r="Z24" s="221"/>
-      <c r="AA24" s="221"/>
-      <c r="AB24" s="221"/>
-      <c r="AC24" s="221"/>
-      <c r="AD24" s="221"/>
-      <c r="AE24" s="222"/>
-      <c r="AF24" s="223"/>
-      <c r="AG24" s="224"/>
-      <c r="AH24" s="224"/>
-      <c r="AI24" s="225"/>
+      <c r="B24" s="219"/>
+      <c r="C24" s="220"/>
+      <c r="D24" s="221"/>
+      <c r="E24" s="222"/>
+      <c r="F24" s="223"/>
+      <c r="G24" s="219"/>
+      <c r="H24" s="224"/>
+      <c r="I24" s="220"/>
+      <c r="J24" s="216"/>
+      <c r="K24" s="217"/>
+      <c r="L24" s="217"/>
+      <c r="M24" s="217"/>
+      <c r="N24" s="217"/>
+      <c r="O24" s="217"/>
+      <c r="P24" s="218"/>
+      <c r="Q24" s="213"/>
+      <c r="R24" s="214"/>
+      <c r="S24" s="214"/>
+      <c r="T24" s="214"/>
+      <c r="U24" s="214"/>
+      <c r="V24" s="214"/>
+      <c r="W24" s="214"/>
+      <c r="X24" s="214"/>
+      <c r="Y24" s="214"/>
+      <c r="Z24" s="214"/>
+      <c r="AA24" s="214"/>
+      <c r="AB24" s="214"/>
+      <c r="AC24" s="214"/>
+      <c r="AD24" s="214"/>
+      <c r="AE24" s="215"/>
+      <c r="AF24" s="216"/>
+      <c r="AG24" s="217"/>
+      <c r="AH24" s="217"/>
+      <c r="AI24" s="218"/>
     </row>
     <row r="25" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="57"/>
-      <c r="B25" s="211"/>
-      <c r="C25" s="213"/>
-      <c r="D25" s="238"/>
-      <c r="E25" s="239"/>
-      <c r="F25" s="240"/>
-      <c r="G25" s="211"/>
-      <c r="H25" s="212"/>
-      <c r="I25" s="213"/>
-      <c r="J25" s="223"/>
-      <c r="K25" s="224"/>
-      <c r="L25" s="224"/>
-      <c r="M25" s="224"/>
-      <c r="N25" s="224"/>
-      <c r="O25" s="224"/>
-      <c r="P25" s="225"/>
-      <c r="Q25" s="220"/>
-      <c r="R25" s="221"/>
-      <c r="S25" s="221"/>
-      <c r="T25" s="221"/>
-      <c r="U25" s="221"/>
-      <c r="V25" s="221"/>
-      <c r="W25" s="221"/>
-      <c r="X25" s="221"/>
-      <c r="Y25" s="221"/>
-      <c r="Z25" s="221"/>
-      <c r="AA25" s="221"/>
-      <c r="AB25" s="221"/>
-      <c r="AC25" s="221"/>
-      <c r="AD25" s="221"/>
-      <c r="AE25" s="222"/>
-      <c r="AF25" s="223"/>
-      <c r="AG25" s="224"/>
-      <c r="AH25" s="224"/>
-      <c r="AI25" s="225"/>
+      <c r="B25" s="219"/>
+      <c r="C25" s="220"/>
+      <c r="D25" s="221"/>
+      <c r="E25" s="222"/>
+      <c r="F25" s="223"/>
+      <c r="G25" s="219"/>
+      <c r="H25" s="224"/>
+      <c r="I25" s="220"/>
+      <c r="J25" s="216"/>
+      <c r="K25" s="217"/>
+      <c r="L25" s="217"/>
+      <c r="M25" s="217"/>
+      <c r="N25" s="217"/>
+      <c r="O25" s="217"/>
+      <c r="P25" s="218"/>
+      <c r="Q25" s="213"/>
+      <c r="R25" s="214"/>
+      <c r="S25" s="214"/>
+      <c r="T25" s="214"/>
+      <c r="U25" s="214"/>
+      <c r="V25" s="214"/>
+      <c r="W25" s="214"/>
+      <c r="X25" s="214"/>
+      <c r="Y25" s="214"/>
+      <c r="Z25" s="214"/>
+      <c r="AA25" s="214"/>
+      <c r="AB25" s="214"/>
+      <c r="AC25" s="214"/>
+      <c r="AD25" s="214"/>
+      <c r="AE25" s="215"/>
+      <c r="AF25" s="216"/>
+      <c r="AG25" s="217"/>
+      <c r="AH25" s="217"/>
+      <c r="AI25" s="218"/>
     </row>
     <row r="26" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="57"/>
-      <c r="B26" s="211"/>
-      <c r="C26" s="213"/>
-      <c r="D26" s="238"/>
-      <c r="E26" s="239"/>
-      <c r="F26" s="240"/>
-      <c r="G26" s="211"/>
-      <c r="H26" s="212"/>
-      <c r="I26" s="213"/>
-      <c r="J26" s="223"/>
-      <c r="K26" s="224"/>
-      <c r="L26" s="224"/>
-      <c r="M26" s="224"/>
-      <c r="N26" s="224"/>
-      <c r="O26" s="224"/>
-      <c r="P26" s="225"/>
-      <c r="Q26" s="220"/>
-      <c r="R26" s="221"/>
-      <c r="S26" s="221"/>
-      <c r="T26" s="221"/>
-      <c r="U26" s="221"/>
-      <c r="V26" s="221"/>
-      <c r="W26" s="221"/>
-      <c r="X26" s="221"/>
-      <c r="Y26" s="221"/>
-      <c r="Z26" s="221"/>
-      <c r="AA26" s="221"/>
-      <c r="AB26" s="221"/>
-      <c r="AC26" s="221"/>
-      <c r="AD26" s="221"/>
-      <c r="AE26" s="222"/>
-      <c r="AF26" s="223"/>
-      <c r="AG26" s="224"/>
-      <c r="AH26" s="224"/>
-      <c r="AI26" s="225"/>
+      <c r="B26" s="219"/>
+      <c r="C26" s="220"/>
+      <c r="D26" s="221"/>
+      <c r="E26" s="222"/>
+      <c r="F26" s="223"/>
+      <c r="G26" s="219"/>
+      <c r="H26" s="224"/>
+      <c r="I26" s="220"/>
+      <c r="J26" s="216"/>
+      <c r="K26" s="217"/>
+      <c r="L26" s="217"/>
+      <c r="M26" s="217"/>
+      <c r="N26" s="217"/>
+      <c r="O26" s="217"/>
+      <c r="P26" s="218"/>
+      <c r="Q26" s="213"/>
+      <c r="R26" s="214"/>
+      <c r="S26" s="214"/>
+      <c r="T26" s="214"/>
+      <c r="U26" s="214"/>
+      <c r="V26" s="214"/>
+      <c r="W26" s="214"/>
+      <c r="X26" s="214"/>
+      <c r="Y26" s="214"/>
+      <c r="Z26" s="214"/>
+      <c r="AA26" s="214"/>
+      <c r="AB26" s="214"/>
+      <c r="AC26" s="214"/>
+      <c r="AD26" s="214"/>
+      <c r="AE26" s="215"/>
+      <c r="AF26" s="216"/>
+      <c r="AG26" s="217"/>
+      <c r="AH26" s="217"/>
+      <c r="AI26" s="218"/>
     </row>
     <row r="27" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="57"/>
-      <c r="B27" s="211"/>
-      <c r="C27" s="213"/>
-      <c r="D27" s="238"/>
-      <c r="E27" s="239"/>
-      <c r="F27" s="240"/>
-      <c r="G27" s="211"/>
-      <c r="H27" s="212"/>
-      <c r="I27" s="213"/>
-      <c r="J27" s="223"/>
-      <c r="K27" s="224"/>
-      <c r="L27" s="224"/>
-      <c r="M27" s="224"/>
-      <c r="N27" s="224"/>
-      <c r="O27" s="224"/>
-      <c r="P27" s="225"/>
-      <c r="Q27" s="220"/>
-      <c r="R27" s="221"/>
-      <c r="S27" s="221"/>
-      <c r="T27" s="221"/>
-      <c r="U27" s="221"/>
-      <c r="V27" s="221"/>
-      <c r="W27" s="221"/>
-      <c r="X27" s="221"/>
-      <c r="Y27" s="221"/>
-      <c r="Z27" s="221"/>
-      <c r="AA27" s="221"/>
-      <c r="AB27" s="221"/>
-      <c r="AC27" s="221"/>
-      <c r="AD27" s="221"/>
-      <c r="AE27" s="222"/>
-      <c r="AF27" s="223"/>
-      <c r="AG27" s="224"/>
-      <c r="AH27" s="224"/>
-      <c r="AI27" s="225"/>
+      <c r="B27" s="219"/>
+      <c r="C27" s="220"/>
+      <c r="D27" s="221"/>
+      <c r="E27" s="222"/>
+      <c r="F27" s="223"/>
+      <c r="G27" s="219"/>
+      <c r="H27" s="224"/>
+      <c r="I27" s="220"/>
+      <c r="J27" s="216"/>
+      <c r="K27" s="217"/>
+      <c r="L27" s="217"/>
+      <c r="M27" s="217"/>
+      <c r="N27" s="217"/>
+      <c r="O27" s="217"/>
+      <c r="P27" s="218"/>
+      <c r="Q27" s="213"/>
+      <c r="R27" s="214"/>
+      <c r="S27" s="214"/>
+      <c r="T27" s="214"/>
+      <c r="U27" s="214"/>
+      <c r="V27" s="214"/>
+      <c r="W27" s="214"/>
+      <c r="X27" s="214"/>
+      <c r="Y27" s="214"/>
+      <c r="Z27" s="214"/>
+      <c r="AA27" s="214"/>
+      <c r="AB27" s="214"/>
+      <c r="AC27" s="214"/>
+      <c r="AD27" s="214"/>
+      <c r="AE27" s="215"/>
+      <c r="AF27" s="216"/>
+      <c r="AG27" s="217"/>
+      <c r="AH27" s="217"/>
+      <c r="AI27" s="218"/>
     </row>
     <row r="28" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="57"/>
-      <c r="B28" s="211"/>
-      <c r="C28" s="213"/>
-      <c r="D28" s="238"/>
-      <c r="E28" s="239"/>
-      <c r="F28" s="240"/>
-      <c r="G28" s="211"/>
-      <c r="H28" s="212"/>
-      <c r="I28" s="213"/>
-      <c r="J28" s="223"/>
-      <c r="K28" s="224"/>
-      <c r="L28" s="224"/>
-      <c r="M28" s="224"/>
-      <c r="N28" s="224"/>
-      <c r="O28" s="224"/>
-      <c r="P28" s="225"/>
-      <c r="Q28" s="220"/>
-      <c r="R28" s="221"/>
-      <c r="S28" s="221"/>
-      <c r="T28" s="221"/>
-      <c r="U28" s="221"/>
-      <c r="V28" s="221"/>
-      <c r="W28" s="221"/>
-      <c r="X28" s="221"/>
-      <c r="Y28" s="221"/>
-      <c r="Z28" s="221"/>
-      <c r="AA28" s="221"/>
-      <c r="AB28" s="221"/>
-      <c r="AC28" s="221"/>
-      <c r="AD28" s="221"/>
-      <c r="AE28" s="222"/>
-      <c r="AF28" s="223"/>
-      <c r="AG28" s="224"/>
-      <c r="AH28" s="224"/>
-      <c r="AI28" s="225"/>
+      <c r="B28" s="219"/>
+      <c r="C28" s="220"/>
+      <c r="D28" s="221"/>
+      <c r="E28" s="222"/>
+      <c r="F28" s="223"/>
+      <c r="G28" s="219"/>
+      <c r="H28" s="224"/>
+      <c r="I28" s="220"/>
+      <c r="J28" s="216"/>
+      <c r="K28" s="217"/>
+      <c r="L28" s="217"/>
+      <c r="M28" s="217"/>
+      <c r="N28" s="217"/>
+      <c r="O28" s="217"/>
+      <c r="P28" s="218"/>
+      <c r="Q28" s="213"/>
+      <c r="R28" s="214"/>
+      <c r="S28" s="214"/>
+      <c r="T28" s="214"/>
+      <c r="U28" s="214"/>
+      <c r="V28" s="214"/>
+      <c r="W28" s="214"/>
+      <c r="X28" s="214"/>
+      <c r="Y28" s="214"/>
+      <c r="Z28" s="214"/>
+      <c r="AA28" s="214"/>
+      <c r="AB28" s="214"/>
+      <c r="AC28" s="214"/>
+      <c r="AD28" s="214"/>
+      <c r="AE28" s="215"/>
+      <c r="AF28" s="216"/>
+      <c r="AG28" s="217"/>
+      <c r="AH28" s="217"/>
+      <c r="AI28" s="218"/>
     </row>
     <row r="29" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="57"/>
-      <c r="B29" s="211"/>
-      <c r="C29" s="213"/>
-      <c r="D29" s="238"/>
-      <c r="E29" s="239"/>
-      <c r="F29" s="240"/>
-      <c r="G29" s="211"/>
-      <c r="H29" s="212"/>
-      <c r="I29" s="213"/>
-      <c r="J29" s="223"/>
-      <c r="K29" s="224"/>
-      <c r="L29" s="224"/>
-      <c r="M29" s="224"/>
-      <c r="N29" s="224"/>
-      <c r="O29" s="224"/>
-      <c r="P29" s="225"/>
-      <c r="Q29" s="220"/>
-      <c r="R29" s="221"/>
-      <c r="S29" s="221"/>
-      <c r="T29" s="221"/>
-      <c r="U29" s="221"/>
-      <c r="V29" s="221"/>
-      <c r="W29" s="221"/>
-      <c r="X29" s="221"/>
-      <c r="Y29" s="221"/>
-      <c r="Z29" s="221"/>
-      <c r="AA29" s="221"/>
-      <c r="AB29" s="221"/>
-      <c r="AC29" s="221"/>
-      <c r="AD29" s="221"/>
-      <c r="AE29" s="222"/>
-      <c r="AF29" s="223"/>
-      <c r="AG29" s="224"/>
-      <c r="AH29" s="224"/>
-      <c r="AI29" s="225"/>
+      <c r="B29" s="219"/>
+      <c r="C29" s="220"/>
+      <c r="D29" s="221"/>
+      <c r="E29" s="222"/>
+      <c r="F29" s="223"/>
+      <c r="G29" s="219"/>
+      <c r="H29" s="224"/>
+      <c r="I29" s="220"/>
+      <c r="J29" s="216"/>
+      <c r="K29" s="217"/>
+      <c r="L29" s="217"/>
+      <c r="M29" s="217"/>
+      <c r="N29" s="217"/>
+      <c r="O29" s="217"/>
+      <c r="P29" s="218"/>
+      <c r="Q29" s="213"/>
+      <c r="R29" s="214"/>
+      <c r="S29" s="214"/>
+      <c r="T29" s="214"/>
+      <c r="U29" s="214"/>
+      <c r="V29" s="214"/>
+      <c r="W29" s="214"/>
+      <c r="X29" s="214"/>
+      <c r="Y29" s="214"/>
+      <c r="Z29" s="214"/>
+      <c r="AA29" s="214"/>
+      <c r="AB29" s="214"/>
+      <c r="AC29" s="214"/>
+      <c r="AD29" s="214"/>
+      <c r="AE29" s="215"/>
+      <c r="AF29" s="216"/>
+      <c r="AG29" s="217"/>
+      <c r="AH29" s="217"/>
+      <c r="AI29" s="218"/>
     </row>
     <row r="30" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="57"/>
-      <c r="B30" s="211"/>
-      <c r="C30" s="213"/>
-      <c r="D30" s="238"/>
-      <c r="E30" s="239"/>
-      <c r="F30" s="240"/>
-      <c r="G30" s="211"/>
-      <c r="H30" s="212"/>
-      <c r="I30" s="213"/>
-      <c r="J30" s="223"/>
-      <c r="K30" s="224"/>
-      <c r="L30" s="224"/>
-      <c r="M30" s="224"/>
-      <c r="N30" s="224"/>
-      <c r="O30" s="224"/>
-      <c r="P30" s="225"/>
-      <c r="Q30" s="220"/>
-      <c r="R30" s="221"/>
-      <c r="S30" s="221"/>
-      <c r="T30" s="221"/>
-      <c r="U30" s="221"/>
-      <c r="V30" s="221"/>
-      <c r="W30" s="221"/>
-      <c r="X30" s="221"/>
-      <c r="Y30" s="221"/>
-      <c r="Z30" s="221"/>
-      <c r="AA30" s="221"/>
-      <c r="AB30" s="221"/>
-      <c r="AC30" s="221"/>
-      <c r="AD30" s="221"/>
-      <c r="AE30" s="222"/>
-      <c r="AF30" s="223"/>
-      <c r="AG30" s="224"/>
-      <c r="AH30" s="224"/>
-      <c r="AI30" s="225"/>
+      <c r="B30" s="219"/>
+      <c r="C30" s="220"/>
+      <c r="D30" s="221"/>
+      <c r="E30" s="222"/>
+      <c r="F30" s="223"/>
+      <c r="G30" s="219"/>
+      <c r="H30" s="224"/>
+      <c r="I30" s="220"/>
+      <c r="J30" s="216"/>
+      <c r="K30" s="217"/>
+      <c r="L30" s="217"/>
+      <c r="M30" s="217"/>
+      <c r="N30" s="217"/>
+      <c r="O30" s="217"/>
+      <c r="P30" s="218"/>
+      <c r="Q30" s="213"/>
+      <c r="R30" s="214"/>
+      <c r="S30" s="214"/>
+      <c r="T30" s="214"/>
+      <c r="U30" s="214"/>
+      <c r="V30" s="214"/>
+      <c r="W30" s="214"/>
+      <c r="X30" s="214"/>
+      <c r="Y30" s="214"/>
+      <c r="Z30" s="214"/>
+      <c r="AA30" s="214"/>
+      <c r="AB30" s="214"/>
+      <c r="AC30" s="214"/>
+      <c r="AD30" s="214"/>
+      <c r="AE30" s="215"/>
+      <c r="AF30" s="216"/>
+      <c r="AG30" s="217"/>
+      <c r="AH30" s="217"/>
+      <c r="AI30" s="218"/>
     </row>
     <row r="31" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="57"/>
-      <c r="B31" s="211"/>
-      <c r="C31" s="213"/>
-      <c r="D31" s="238"/>
-      <c r="E31" s="239"/>
-      <c r="F31" s="240"/>
-      <c r="G31" s="211"/>
-      <c r="H31" s="212"/>
-      <c r="I31" s="213"/>
-      <c r="J31" s="223"/>
-      <c r="K31" s="224"/>
-      <c r="L31" s="224"/>
-      <c r="M31" s="224"/>
-      <c r="N31" s="224"/>
-      <c r="O31" s="224"/>
-      <c r="P31" s="225"/>
-      <c r="Q31" s="220"/>
-      <c r="R31" s="221"/>
-      <c r="S31" s="221"/>
-      <c r="T31" s="221"/>
-      <c r="U31" s="221"/>
-      <c r="V31" s="221"/>
-      <c r="W31" s="221"/>
-      <c r="X31" s="221"/>
-      <c r="Y31" s="221"/>
-      <c r="Z31" s="221"/>
-      <c r="AA31" s="221"/>
-      <c r="AB31" s="221"/>
-      <c r="AC31" s="221"/>
-      <c r="AD31" s="221"/>
-      <c r="AE31" s="222"/>
-      <c r="AF31" s="223"/>
-      <c r="AG31" s="224"/>
-      <c r="AH31" s="224"/>
-      <c r="AI31" s="225"/>
+      <c r="B31" s="219"/>
+      <c r="C31" s="220"/>
+      <c r="D31" s="221"/>
+      <c r="E31" s="222"/>
+      <c r="F31" s="223"/>
+      <c r="G31" s="219"/>
+      <c r="H31" s="224"/>
+      <c r="I31" s="220"/>
+      <c r="J31" s="216"/>
+      <c r="K31" s="217"/>
+      <c r="L31" s="217"/>
+      <c r="M31" s="217"/>
+      <c r="N31" s="217"/>
+      <c r="O31" s="217"/>
+      <c r="P31" s="218"/>
+      <c r="Q31" s="213"/>
+      <c r="R31" s="214"/>
+      <c r="S31" s="214"/>
+      <c r="T31" s="214"/>
+      <c r="U31" s="214"/>
+      <c r="V31" s="214"/>
+      <c r="W31" s="214"/>
+      <c r="X31" s="214"/>
+      <c r="Y31" s="214"/>
+      <c r="Z31" s="214"/>
+      <c r="AA31" s="214"/>
+      <c r="AB31" s="214"/>
+      <c r="AC31" s="214"/>
+      <c r="AD31" s="214"/>
+      <c r="AE31" s="215"/>
+      <c r="AF31" s="216"/>
+      <c r="AG31" s="217"/>
+      <c r="AH31" s="217"/>
+      <c r="AI31" s="218"/>
     </row>
     <row r="32" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="57"/>
-      <c r="B32" s="211"/>
-      <c r="C32" s="213"/>
-      <c r="D32" s="238"/>
-      <c r="E32" s="239"/>
-      <c r="F32" s="240"/>
-      <c r="G32" s="211"/>
-      <c r="H32" s="212"/>
-      <c r="I32" s="213"/>
-      <c r="J32" s="223"/>
-      <c r="K32" s="224"/>
-      <c r="L32" s="224"/>
-      <c r="M32" s="224"/>
-      <c r="N32" s="224"/>
-      <c r="O32" s="224"/>
-      <c r="P32" s="225"/>
-      <c r="Q32" s="220"/>
-      <c r="R32" s="221"/>
-      <c r="S32" s="221"/>
-      <c r="T32" s="221"/>
-      <c r="U32" s="221"/>
-      <c r="V32" s="221"/>
-      <c r="W32" s="221"/>
-      <c r="X32" s="221"/>
-      <c r="Y32" s="221"/>
-      <c r="Z32" s="221"/>
-      <c r="AA32" s="221"/>
-      <c r="AB32" s="221"/>
-      <c r="AC32" s="221"/>
-      <c r="AD32" s="221"/>
-      <c r="AE32" s="222"/>
-      <c r="AF32" s="223"/>
-      <c r="AG32" s="224"/>
-      <c r="AH32" s="224"/>
-      <c r="AI32" s="225"/>
+      <c r="B32" s="219"/>
+      <c r="C32" s="220"/>
+      <c r="D32" s="221"/>
+      <c r="E32" s="222"/>
+      <c r="F32" s="223"/>
+      <c r="G32" s="219"/>
+      <c r="H32" s="224"/>
+      <c r="I32" s="220"/>
+      <c r="J32" s="216"/>
+      <c r="K32" s="217"/>
+      <c r="L32" s="217"/>
+      <c r="M32" s="217"/>
+      <c r="N32" s="217"/>
+      <c r="O32" s="217"/>
+      <c r="P32" s="218"/>
+      <c r="Q32" s="213"/>
+      <c r="R32" s="214"/>
+      <c r="S32" s="214"/>
+      <c r="T32" s="214"/>
+      <c r="U32" s="214"/>
+      <c r="V32" s="214"/>
+      <c r="W32" s="214"/>
+      <c r="X32" s="214"/>
+      <c r="Y32" s="214"/>
+      <c r="Z32" s="214"/>
+      <c r="AA32" s="214"/>
+      <c r="AB32" s="214"/>
+      <c r="AC32" s="214"/>
+      <c r="AD32" s="214"/>
+      <c r="AE32" s="215"/>
+      <c r="AF32" s="216"/>
+      <c r="AG32" s="217"/>
+      <c r="AH32" s="217"/>
+      <c r="AI32" s="218"/>
     </row>
     <row r="33" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="57"/>
-      <c r="B33" s="211"/>
-      <c r="C33" s="213"/>
-      <c r="D33" s="238"/>
-      <c r="E33" s="239"/>
-      <c r="F33" s="240"/>
-      <c r="G33" s="211"/>
-      <c r="H33" s="212"/>
-      <c r="I33" s="213"/>
-      <c r="J33" s="223"/>
-      <c r="K33" s="224"/>
-      <c r="L33" s="224"/>
-      <c r="M33" s="224"/>
-      <c r="N33" s="224"/>
-      <c r="O33" s="224"/>
-      <c r="P33" s="225"/>
-      <c r="Q33" s="220"/>
-      <c r="R33" s="221"/>
-      <c r="S33" s="221"/>
-      <c r="T33" s="221"/>
-      <c r="U33" s="221"/>
-      <c r="V33" s="221"/>
-      <c r="W33" s="221"/>
-      <c r="X33" s="221"/>
-      <c r="Y33" s="221"/>
-      <c r="Z33" s="221"/>
-      <c r="AA33" s="221"/>
-      <c r="AB33" s="221"/>
-      <c r="AC33" s="221"/>
-      <c r="AD33" s="221"/>
-      <c r="AE33" s="222"/>
-      <c r="AF33" s="223"/>
-      <c r="AG33" s="224"/>
-      <c r="AH33" s="224"/>
-      <c r="AI33" s="225"/>
+      <c r="B33" s="219"/>
+      <c r="C33" s="220"/>
+      <c r="D33" s="221"/>
+      <c r="E33" s="222"/>
+      <c r="F33" s="223"/>
+      <c r="G33" s="219"/>
+      <c r="H33" s="224"/>
+      <c r="I33" s="220"/>
+      <c r="J33" s="216"/>
+      <c r="K33" s="217"/>
+      <c r="L33" s="217"/>
+      <c r="M33" s="217"/>
+      <c r="N33" s="217"/>
+      <c r="O33" s="217"/>
+      <c r="P33" s="218"/>
+      <c r="Q33" s="213"/>
+      <c r="R33" s="214"/>
+      <c r="S33" s="214"/>
+      <c r="T33" s="214"/>
+      <c r="U33" s="214"/>
+      <c r="V33" s="214"/>
+      <c r="W33" s="214"/>
+      <c r="X33" s="214"/>
+      <c r="Y33" s="214"/>
+      <c r="Z33" s="214"/>
+      <c r="AA33" s="214"/>
+      <c r="AB33" s="214"/>
+      <c r="AC33" s="214"/>
+      <c r="AD33" s="214"/>
+      <c r="AE33" s="215"/>
+      <c r="AF33" s="216"/>
+      <c r="AG33" s="217"/>
+      <c r="AH33" s="217"/>
+      <c r="AI33" s="218"/>
     </row>
     <row r="34" spans="1:35" s="55" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="28"/>
@@ -6279,6 +6300,161 @@
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -6303,161 +6479,6 @@
     <mergeCell ref="AF22:AI22"/>
     <mergeCell ref="J23:P23"/>
     <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <printOptions horizontalCentered="1"/>
@@ -6614,158 +6635,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="32" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="248"/>
-      <c r="C1" s="248"/>
-      <c r="D1" s="249"/>
-      <c r="E1" s="264" t="str">
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="270" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="218"/>
-      <c r="G1" s="218"/>
-      <c r="H1" s="218"/>
-      <c r="I1" s="218"/>
-      <c r="J1" s="218"/>
-      <c r="K1" s="218"/>
-      <c r="L1" s="218"/>
-      <c r="M1" s="218"/>
-      <c r="N1" s="219"/>
-      <c r="O1" s="250" t="s">
+      <c r="F1" s="247"/>
+      <c r="G1" s="247"/>
+      <c r="H1" s="247"/>
+      <c r="I1" s="247"/>
+      <c r="J1" s="247"/>
+      <c r="K1" s="247"/>
+      <c r="L1" s="247"/>
+      <c r="M1" s="247"/>
+      <c r="N1" s="248"/>
+      <c r="O1" s="202" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="251"/>
-      <c r="Q1" s="251"/>
-      <c r="R1" s="252"/>
-      <c r="S1" s="265" t="str">
+      <c r="P1" s="203"/>
+      <c r="Q1" s="203"/>
+      <c r="R1" s="204"/>
+      <c r="S1" s="261" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10101/ログイン</v>
       </c>
-      <c r="T1" s="266"/>
-      <c r="U1" s="266"/>
-      <c r="V1" s="266"/>
-      <c r="W1" s="266"/>
-      <c r="X1" s="266"/>
-      <c r="Y1" s="266"/>
-      <c r="Z1" s="267"/>
-      <c r="AA1" s="247" t="s">
+      <c r="T1" s="262"/>
+      <c r="U1" s="262"/>
+      <c r="V1" s="262"/>
+      <c r="W1" s="262"/>
+      <c r="X1" s="262"/>
+      <c r="Y1" s="262"/>
+      <c r="Z1" s="263"/>
+      <c r="AA1" s="199" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="249"/>
-      <c r="AC1" s="199" t="str">
+      <c r="AB1" s="201"/>
+      <c r="AC1" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="200"/>
-      <c r="AE1" s="200"/>
-      <c r="AF1" s="201"/>
-      <c r="AG1" s="261">
+      <c r="AD1" s="235"/>
+      <c r="AE1" s="235"/>
+      <c r="AF1" s="236"/>
+      <c r="AG1" s="271">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="262"/>
-      <c r="AI1" s="263"/>
+      <c r="AH1" s="272"/>
+      <c r="AI1" s="273"/>
     </row>
     <row r="2" spans="1:35" s="32" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="247" t="s">
+      <c r="A2" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="248"/>
-      <c r="C2" s="248"/>
-      <c r="D2" s="249"/>
-      <c r="E2" s="264" t="str">
+      <c r="B2" s="200"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="270" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="218"/>
-      <c r="G2" s="218"/>
-      <c r="H2" s="218"/>
-      <c r="I2" s="218"/>
-      <c r="J2" s="218"/>
-      <c r="K2" s="218"/>
-      <c r="L2" s="218"/>
-      <c r="M2" s="218"/>
-      <c r="N2" s="219"/>
-      <c r="O2" s="253"/>
-      <c r="P2" s="254"/>
-      <c r="Q2" s="254"/>
-      <c r="R2" s="255"/>
-      <c r="S2" s="268"/>
-      <c r="T2" s="269"/>
-      <c r="U2" s="269"/>
-      <c r="V2" s="269"/>
-      <c r="W2" s="269"/>
-      <c r="X2" s="269"/>
-      <c r="Y2" s="269"/>
-      <c r="Z2" s="270"/>
-      <c r="AA2" s="247" t="s">
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
+      <c r="H2" s="247"/>
+      <c r="I2" s="247"/>
+      <c r="J2" s="247"/>
+      <c r="K2" s="247"/>
+      <c r="L2" s="247"/>
+      <c r="M2" s="247"/>
+      <c r="N2" s="248"/>
+      <c r="O2" s="205"/>
+      <c r="P2" s="206"/>
+      <c r="Q2" s="206"/>
+      <c r="R2" s="207"/>
+      <c r="S2" s="264"/>
+      <c r="T2" s="265"/>
+      <c r="U2" s="265"/>
+      <c r="V2" s="265"/>
+      <c r="W2" s="265"/>
+      <c r="X2" s="265"/>
+      <c r="Y2" s="265"/>
+      <c r="Z2" s="266"/>
+      <c r="AA2" s="199" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="249"/>
-      <c r="AC2" s="199" t="str">
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="200"/>
-      <c r="AE2" s="200"/>
-      <c r="AF2" s="201"/>
-      <c r="AG2" s="261" t="str">
+      <c r="AD2" s="235"/>
+      <c r="AE2" s="235"/>
+      <c r="AF2" s="236"/>
+      <c r="AG2" s="271" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="262"/>
-      <c r="AI2" s="263"/>
+      <c r="AH2" s="272"/>
+      <c r="AI2" s="273"/>
     </row>
     <row r="3" spans="1:35" s="32" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="199" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="248"/>
-      <c r="C3" s="248"/>
-      <c r="D3" s="249"/>
-      <c r="E3" s="264" t="str">
+      <c r="B3" s="200"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="270" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="218"/>
-      <c r="G3" s="218"/>
-      <c r="H3" s="218"/>
-      <c r="I3" s="218"/>
-      <c r="J3" s="218"/>
-      <c r="K3" s="218"/>
-      <c r="L3" s="218"/>
-      <c r="M3" s="218"/>
-      <c r="N3" s="219"/>
-      <c r="O3" s="256"/>
-      <c r="P3" s="257"/>
-      <c r="Q3" s="257"/>
-      <c r="R3" s="258"/>
-      <c r="S3" s="271"/>
-      <c r="T3" s="272"/>
-      <c r="U3" s="272"/>
-      <c r="V3" s="272"/>
-      <c r="W3" s="272"/>
-      <c r="X3" s="272"/>
-      <c r="Y3" s="272"/>
-      <c r="Z3" s="273"/>
-      <c r="AA3" s="247"/>
-      <c r="AB3" s="249"/>
-      <c r="AC3" s="199" t="str">
+      <c r="F3" s="247"/>
+      <c r="G3" s="247"/>
+      <c r="H3" s="247"/>
+      <c r="I3" s="247"/>
+      <c r="J3" s="247"/>
+      <c r="K3" s="247"/>
+      <c r="L3" s="247"/>
+      <c r="M3" s="247"/>
+      <c r="N3" s="248"/>
+      <c r="O3" s="208"/>
+      <c r="P3" s="209"/>
+      <c r="Q3" s="209"/>
+      <c r="R3" s="210"/>
+      <c r="S3" s="267"/>
+      <c r="T3" s="268"/>
+      <c r="U3" s="268"/>
+      <c r="V3" s="268"/>
+      <c r="W3" s="268"/>
+      <c r="X3" s="268"/>
+      <c r="Y3" s="268"/>
+      <c r="Z3" s="269"/>
+      <c r="AA3" s="199"/>
+      <c r="AB3" s="201"/>
+      <c r="AC3" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="200"/>
-      <c r="AE3" s="200"/>
-      <c r="AF3" s="201"/>
-      <c r="AG3" s="261" t="str">
+      <c r="AD3" s="235"/>
+      <c r="AE3" s="235"/>
+      <c r="AF3" s="236"/>
+      <c r="AG3" s="271" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="262"/>
-      <c r="AI3" s="263"/>
+      <c r="AH3" s="272"/>
+      <c r="AI3" s="273"/>
     </row>
     <row r="4" spans="1:35" s="35" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="29"/>
@@ -7647,6 +7668,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -7656,14 +7685,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -7690,158 +7711,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="199" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="248"/>
-      <c r="C1" s="248"/>
-      <c r="D1" s="249"/>
-      <c r="E1" s="264" t="str">
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="270" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="218"/>
-      <c r="G1" s="218"/>
-      <c r="H1" s="218"/>
-      <c r="I1" s="218"/>
-      <c r="J1" s="218"/>
-      <c r="K1" s="218"/>
-      <c r="L1" s="218"/>
-      <c r="M1" s="218"/>
-      <c r="N1" s="219"/>
-      <c r="O1" s="250" t="s">
+      <c r="F1" s="247"/>
+      <c r="G1" s="247"/>
+      <c r="H1" s="247"/>
+      <c r="I1" s="247"/>
+      <c r="J1" s="247"/>
+      <c r="K1" s="247"/>
+      <c r="L1" s="247"/>
+      <c r="M1" s="247"/>
+      <c r="N1" s="248"/>
+      <c r="O1" s="202" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="251"/>
-      <c r="Q1" s="251"/>
-      <c r="R1" s="252"/>
-      <c r="S1" s="265" t="str">
+      <c r="P1" s="203"/>
+      <c r="Q1" s="203"/>
+      <c r="R1" s="204"/>
+      <c r="S1" s="261" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10101/ログイン</v>
       </c>
-      <c r="T1" s="266"/>
-      <c r="U1" s="266"/>
-      <c r="V1" s="266"/>
-      <c r="W1" s="266"/>
-      <c r="X1" s="266"/>
-      <c r="Y1" s="266"/>
-      <c r="Z1" s="267"/>
-      <c r="AA1" s="247" t="s">
+      <c r="T1" s="262"/>
+      <c r="U1" s="262"/>
+      <c r="V1" s="262"/>
+      <c r="W1" s="262"/>
+      <c r="X1" s="262"/>
+      <c r="Y1" s="262"/>
+      <c r="Z1" s="263"/>
+      <c r="AA1" s="199" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="249"/>
-      <c r="AC1" s="199" t="str">
+      <c r="AB1" s="201"/>
+      <c r="AC1" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="200"/>
-      <c r="AE1" s="200"/>
-      <c r="AF1" s="201"/>
-      <c r="AG1" s="261">
+      <c r="AD1" s="235"/>
+      <c r="AE1" s="235"/>
+      <c r="AF1" s="236"/>
+      <c r="AG1" s="271">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="262"/>
-      <c r="AI1" s="263"/>
+      <c r="AH1" s="272"/>
+      <c r="AI1" s="273"/>
     </row>
     <row r="2" spans="1:35" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="247" t="s">
+      <c r="A2" s="199" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="248"/>
-      <c r="C2" s="248"/>
-      <c r="D2" s="249"/>
-      <c r="E2" s="264" t="str">
+      <c r="B2" s="200"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="270" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="218"/>
-      <c r="G2" s="218"/>
-      <c r="H2" s="218"/>
-      <c r="I2" s="218"/>
-      <c r="J2" s="218"/>
-      <c r="K2" s="218"/>
-      <c r="L2" s="218"/>
-      <c r="M2" s="218"/>
-      <c r="N2" s="219"/>
-      <c r="O2" s="253"/>
-      <c r="P2" s="254"/>
-      <c r="Q2" s="254"/>
-      <c r="R2" s="255"/>
-      <c r="S2" s="268"/>
-      <c r="T2" s="269"/>
-      <c r="U2" s="269"/>
-      <c r="V2" s="269"/>
-      <c r="W2" s="269"/>
-      <c r="X2" s="269"/>
-      <c r="Y2" s="269"/>
-      <c r="Z2" s="270"/>
-      <c r="AA2" s="247" t="s">
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
+      <c r="H2" s="247"/>
+      <c r="I2" s="247"/>
+      <c r="J2" s="247"/>
+      <c r="K2" s="247"/>
+      <c r="L2" s="247"/>
+      <c r="M2" s="247"/>
+      <c r="N2" s="248"/>
+      <c r="O2" s="205"/>
+      <c r="P2" s="206"/>
+      <c r="Q2" s="206"/>
+      <c r="R2" s="207"/>
+      <c r="S2" s="264"/>
+      <c r="T2" s="265"/>
+      <c r="U2" s="265"/>
+      <c r="V2" s="265"/>
+      <c r="W2" s="265"/>
+      <c r="X2" s="265"/>
+      <c r="Y2" s="265"/>
+      <c r="Z2" s="266"/>
+      <c r="AA2" s="199" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="249"/>
-      <c r="AC2" s="199" t="str">
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="200"/>
-      <c r="AE2" s="200"/>
-      <c r="AF2" s="201"/>
-      <c r="AG2" s="261" t="str">
+      <c r="AD2" s="235"/>
+      <c r="AE2" s="235"/>
+      <c r="AF2" s="236"/>
+      <c r="AG2" s="271" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="262"/>
-      <c r="AI2" s="263"/>
+      <c r="AH2" s="272"/>
+      <c r="AI2" s="273"/>
     </row>
     <row r="3" spans="1:35" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="247" t="s">
+      <c r="A3" s="199" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="248"/>
-      <c r="C3" s="248"/>
-      <c r="D3" s="249"/>
-      <c r="E3" s="264" t="str">
+      <c r="B3" s="200"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="270" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="218"/>
-      <c r="G3" s="218"/>
-      <c r="H3" s="218"/>
-      <c r="I3" s="218"/>
-      <c r="J3" s="218"/>
-      <c r="K3" s="218"/>
-      <c r="L3" s="218"/>
-      <c r="M3" s="218"/>
-      <c r="N3" s="219"/>
-      <c r="O3" s="256"/>
-      <c r="P3" s="257"/>
-      <c r="Q3" s="257"/>
-      <c r="R3" s="258"/>
-      <c r="S3" s="271"/>
-      <c r="T3" s="272"/>
-      <c r="U3" s="272"/>
-      <c r="V3" s="272"/>
-      <c r="W3" s="272"/>
-      <c r="X3" s="272"/>
-      <c r="Y3" s="272"/>
-      <c r="Z3" s="273"/>
-      <c r="AA3" s="247"/>
-      <c r="AB3" s="249"/>
-      <c r="AC3" s="199" t="str">
+      <c r="F3" s="247"/>
+      <c r="G3" s="247"/>
+      <c r="H3" s="247"/>
+      <c r="I3" s="247"/>
+      <c r="J3" s="247"/>
+      <c r="K3" s="247"/>
+      <c r="L3" s="247"/>
+      <c r="M3" s="247"/>
+      <c r="N3" s="248"/>
+      <c r="O3" s="208"/>
+      <c r="P3" s="209"/>
+      <c r="Q3" s="209"/>
+      <c r="R3" s="210"/>
+      <c r="S3" s="267"/>
+      <c r="T3" s="268"/>
+      <c r="U3" s="268"/>
+      <c r="V3" s="268"/>
+      <c r="W3" s="268"/>
+      <c r="X3" s="268"/>
+      <c r="Y3" s="268"/>
+      <c r="Z3" s="269"/>
+      <c r="AA3" s="199"/>
+      <c r="AB3" s="201"/>
+      <c r="AC3" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="200"/>
-      <c r="AE3" s="200"/>
-      <c r="AF3" s="201"/>
-      <c r="AG3" s="261" t="str">
+      <c r="AD3" s="235"/>
+      <c r="AE3" s="235"/>
+      <c r="AF3" s="236"/>
+      <c r="AG3" s="271" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="262"/>
-      <c r="AI3" s="263"/>
+      <c r="AH3" s="272"/>
+      <c r="AI3" s="273"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" s="91" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -7863,7 +7884,7 @@
       <c r="D8" s="285"/>
       <c r="E8" s="285"/>
       <c r="F8" s="286"/>
-      <c r="G8" s="223" t="s">
+      <c r="G8" s="216" t="s">
         <v>138</v>
       </c>
       <c r="H8" s="287"/>
@@ -7901,7 +7922,7 @@
       <c r="D9" s="289"/>
       <c r="E9" s="289"/>
       <c r="F9" s="290"/>
-      <c r="G9" s="223" t="s">
+      <c r="G9" s="216" t="s">
         <v>139</v>
       </c>
       <c r="H9" s="285"/>
@@ -8149,6 +8170,18 @@
     <row r="52" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C10:F13"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:AG8"/>
+    <mergeCell ref="G9:AG9"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -8160,18 +8193,6 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C10:F13"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:AG8"/>
-    <mergeCell ref="G9:AG9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -8188,7 +8209,7 @@
   <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BG155"/>
+  <dimension ref="A1:BG157"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -8202,160 +8223,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="314" t="s">
+      <c r="A1" s="387" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="315"/>
-      <c r="C1" s="315"/>
-      <c r="D1" s="316"/>
-      <c r="E1" s="264" t="str">
+      <c r="B1" s="388"/>
+      <c r="C1" s="388"/>
+      <c r="D1" s="389"/>
+      <c r="E1" s="270" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="218"/>
-      <c r="G1" s="218"/>
-      <c r="H1" s="218"/>
-      <c r="I1" s="218"/>
-      <c r="J1" s="218"/>
-      <c r="K1" s="218"/>
-      <c r="L1" s="218"/>
-      <c r="M1" s="218"/>
-      <c r="N1" s="219"/>
-      <c r="O1" s="250" t="s">
+      <c r="F1" s="247"/>
+      <c r="G1" s="247"/>
+      <c r="H1" s="247"/>
+      <c r="I1" s="247"/>
+      <c r="J1" s="247"/>
+      <c r="K1" s="247"/>
+      <c r="L1" s="247"/>
+      <c r="M1" s="247"/>
+      <c r="N1" s="248"/>
+      <c r="O1" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="251"/>
-      <c r="Q1" s="251"/>
-      <c r="R1" s="252"/>
-      <c r="S1" s="265" t="str">
+      <c r="P1" s="203"/>
+      <c r="Q1" s="203"/>
+      <c r="R1" s="204"/>
+      <c r="S1" s="261" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書（画面）
 WA10101/ログイン</v>
       </c>
-      <c r="T1" s="266"/>
-      <c r="U1" s="266"/>
-      <c r="V1" s="266"/>
-      <c r="W1" s="266"/>
-      <c r="X1" s="266"/>
-      <c r="Y1" s="266"/>
-      <c r="Z1" s="267"/>
-      <c r="AA1" s="247" t="s">
+      <c r="T1" s="262"/>
+      <c r="U1" s="262"/>
+      <c r="V1" s="262"/>
+      <c r="W1" s="262"/>
+      <c r="X1" s="262"/>
+      <c r="Y1" s="262"/>
+      <c r="Z1" s="263"/>
+      <c r="AA1" s="199" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="249"/>
-      <c r="AC1" s="199" t="str">
+      <c r="AB1" s="201"/>
+      <c r="AC1" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="200"/>
-      <c r="AE1" s="200"/>
-      <c r="AF1" s="201"/>
-      <c r="AG1" s="311">
+      <c r="AD1" s="235"/>
+      <c r="AE1" s="235"/>
+      <c r="AF1" s="236"/>
+      <c r="AG1" s="384">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43656</v>
       </c>
-      <c r="AH1" s="312"/>
-      <c r="AI1" s="313"/>
+      <c r="AH1" s="385"/>
+      <c r="AI1" s="386"/>
       <c r="AJ1" s="30"/>
     </row>
     <row r="2" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="314" t="s">
+      <c r="A2" s="387" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="315"/>
-      <c r="C2" s="315"/>
-      <c r="D2" s="316"/>
-      <c r="E2" s="264" t="str">
+      <c r="B2" s="388"/>
+      <c r="C2" s="388"/>
+      <c r="D2" s="389"/>
+      <c r="E2" s="270" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="218"/>
-      <c r="G2" s="218"/>
-      <c r="H2" s="218"/>
-      <c r="I2" s="218"/>
-      <c r="J2" s="218"/>
-      <c r="K2" s="218"/>
-      <c r="L2" s="218"/>
-      <c r="M2" s="218"/>
-      <c r="N2" s="219"/>
-      <c r="O2" s="253"/>
-      <c r="P2" s="254"/>
-      <c r="Q2" s="254"/>
-      <c r="R2" s="255"/>
-      <c r="S2" s="268"/>
-      <c r="T2" s="269"/>
-      <c r="U2" s="269"/>
-      <c r="V2" s="269"/>
-      <c r="W2" s="269"/>
-      <c r="X2" s="269"/>
-      <c r="Y2" s="269"/>
-      <c r="Z2" s="270"/>
-      <c r="AA2" s="247" t="s">
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
+      <c r="H2" s="247"/>
+      <c r="I2" s="247"/>
+      <c r="J2" s="247"/>
+      <c r="K2" s="247"/>
+      <c r="L2" s="247"/>
+      <c r="M2" s="247"/>
+      <c r="N2" s="248"/>
+      <c r="O2" s="205"/>
+      <c r="P2" s="206"/>
+      <c r="Q2" s="206"/>
+      <c r="R2" s="207"/>
+      <c r="S2" s="264"/>
+      <c r="T2" s="265"/>
+      <c r="U2" s="265"/>
+      <c r="V2" s="265"/>
+      <c r="W2" s="265"/>
+      <c r="X2" s="265"/>
+      <c r="Y2" s="265"/>
+      <c r="Z2" s="266"/>
+      <c r="AA2" s="199" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="249"/>
-      <c r="AC2" s="199" t="str">
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="200"/>
-      <c r="AE2" s="200"/>
-      <c r="AF2" s="201"/>
-      <c r="AG2" s="311" t="str">
+      <c r="AD2" s="235"/>
+      <c r="AE2" s="235"/>
+      <c r="AF2" s="236"/>
+      <c r="AG2" s="384" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="312"/>
-      <c r="AI2" s="313"/>
+      <c r="AH2" s="385"/>
+      <c r="AI2" s="386"/>
       <c r="AJ2" s="30"/>
     </row>
     <row r="3" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="314" t="s">
+      <c r="A3" s="387" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="315"/>
-      <c r="C3" s="315"/>
-      <c r="D3" s="316"/>
-      <c r="E3" s="264" t="str">
+      <c r="B3" s="388"/>
+      <c r="C3" s="388"/>
+      <c r="D3" s="389"/>
+      <c r="E3" s="270" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="218"/>
-      <c r="G3" s="218"/>
-      <c r="H3" s="218"/>
-      <c r="I3" s="218"/>
-      <c r="J3" s="218"/>
-      <c r="K3" s="218"/>
-      <c r="L3" s="218"/>
-      <c r="M3" s="218"/>
-      <c r="N3" s="219"/>
-      <c r="O3" s="256"/>
-      <c r="P3" s="257"/>
-      <c r="Q3" s="257"/>
-      <c r="R3" s="258"/>
-      <c r="S3" s="271"/>
-      <c r="T3" s="272"/>
-      <c r="U3" s="272"/>
-      <c r="V3" s="272"/>
-      <c r="W3" s="272"/>
-      <c r="X3" s="272"/>
-      <c r="Y3" s="272"/>
-      <c r="Z3" s="273"/>
-      <c r="AA3" s="247"/>
-      <c r="AB3" s="249"/>
-      <c r="AC3" s="199" t="str">
+      <c r="F3" s="247"/>
+      <c r="G3" s="247"/>
+      <c r="H3" s="247"/>
+      <c r="I3" s="247"/>
+      <c r="J3" s="247"/>
+      <c r="K3" s="247"/>
+      <c r="L3" s="247"/>
+      <c r="M3" s="247"/>
+      <c r="N3" s="248"/>
+      <c r="O3" s="208"/>
+      <c r="P3" s="209"/>
+      <c r="Q3" s="209"/>
+      <c r="R3" s="210"/>
+      <c r="S3" s="267"/>
+      <c r="T3" s="268"/>
+      <c r="U3" s="268"/>
+      <c r="V3" s="268"/>
+      <c r="W3" s="268"/>
+      <c r="X3" s="268"/>
+      <c r="Y3" s="268"/>
+      <c r="Z3" s="269"/>
+      <c r="AA3" s="199"/>
+      <c r="AB3" s="201"/>
+      <c r="AC3" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="200"/>
-      <c r="AE3" s="200"/>
-      <c r="AF3" s="201"/>
-      <c r="AG3" s="311" t="str">
+      <c r="AD3" s="235"/>
+      <c r="AE3" s="235"/>
+      <c r="AF3" s="236"/>
+      <c r="AG3" s="384" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="312"/>
-      <c r="AI3" s="313"/>
+      <c r="AH3" s="385"/>
+      <c r="AI3" s="386"/>
       <c r="AJ3" s="30"/>
     </row>
     <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8507,39 +8528,39 @@
       <c r="D43" s="131" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="291" t="s">
+      <c r="E43" s="390" t="s">
         <v>70</v>
       </c>
-      <c r="F43" s="291"/>
-      <c r="G43" s="291"/>
-      <c r="H43" s="291"/>
-      <c r="I43" s="291"/>
-      <c r="J43" s="291"/>
-      <c r="K43" s="291"/>
-      <c r="L43" s="291"/>
-      <c r="M43" s="291"/>
-      <c r="N43" s="291" t="s">
+      <c r="F43" s="390"/>
+      <c r="G43" s="390"/>
+      <c r="H43" s="390"/>
+      <c r="I43" s="390"/>
+      <c r="J43" s="390"/>
+      <c r="K43" s="390"/>
+      <c r="L43" s="390"/>
+      <c r="M43" s="390"/>
+      <c r="N43" s="390" t="s">
         <v>44</v>
       </c>
-      <c r="O43" s="291"/>
-      <c r="P43" s="291"/>
-      <c r="Q43" s="291" t="s">
+      <c r="O43" s="390"/>
+      <c r="P43" s="390"/>
+      <c r="Q43" s="390" t="s">
         <v>26</v>
       </c>
-      <c r="R43" s="291"/>
-      <c r="S43" s="291"/>
-      <c r="T43" s="291"/>
-      <c r="U43" s="291"/>
-      <c r="V43" s="291" t="s">
+      <c r="R43" s="390"/>
+      <c r="S43" s="390"/>
+      <c r="T43" s="390"/>
+      <c r="U43" s="390"/>
+      <c r="V43" s="390" t="s">
         <v>15</v>
       </c>
-      <c r="W43" s="291"/>
-      <c r="X43" s="291"/>
-      <c r="Y43" s="291"/>
-      <c r="Z43" s="291"/>
-      <c r="AA43" s="291"/>
-      <c r="AB43" s="291"/>
-      <c r="AC43" s="291"/>
+      <c r="W43" s="390"/>
+      <c r="X43" s="390"/>
+      <c r="Y43" s="390"/>
+      <c r="Z43" s="390"/>
+      <c r="AA43" s="390"/>
+      <c r="AB43" s="390"/>
+      <c r="AC43" s="390"/>
       <c r="AD43" s="135"/>
       <c r="AE43" s="135"/>
       <c r="AF43" s="135"/>
@@ -8550,39 +8571,39 @@
       <c r="D44" s="153">
         <v>1</v>
       </c>
-      <c r="E44" s="292" t="s">
+      <c r="E44" s="391" t="s">
         <v>120</v>
       </c>
-      <c r="F44" s="293"/>
-      <c r="G44" s="293"/>
-      <c r="H44" s="293"/>
-      <c r="I44" s="293"/>
-      <c r="J44" s="293"/>
-      <c r="K44" s="293"/>
-      <c r="L44" s="293"/>
-      <c r="M44" s="293"/>
-      <c r="N44" s="293" t="s">
+      <c r="F44" s="357"/>
+      <c r="G44" s="357"/>
+      <c r="H44" s="357"/>
+      <c r="I44" s="357"/>
+      <c r="J44" s="357"/>
+      <c r="K44" s="357"/>
+      <c r="L44" s="357"/>
+      <c r="M44" s="357"/>
+      <c r="N44" s="357" t="s">
         <v>90</v>
       </c>
-      <c r="O44" s="293"/>
-      <c r="P44" s="293"/>
-      <c r="Q44" s="362" t="s">
+      <c r="O44" s="357"/>
+      <c r="P44" s="357"/>
+      <c r="Q44" s="347" t="s">
         <v>114</v>
       </c>
-      <c r="R44" s="362"/>
-      <c r="S44" s="362"/>
-      <c r="T44" s="362"/>
-      <c r="U44" s="362"/>
-      <c r="V44" s="363" t="s">
+      <c r="R44" s="347"/>
+      <c r="S44" s="347"/>
+      <c r="T44" s="347"/>
+      <c r="U44" s="347"/>
+      <c r="V44" s="348" t="s">
         <v>124</v>
       </c>
-      <c r="W44" s="362"/>
-      <c r="X44" s="362"/>
-      <c r="Y44" s="362"/>
-      <c r="Z44" s="362"/>
-      <c r="AA44" s="362"/>
-      <c r="AB44" s="362"/>
-      <c r="AC44" s="362"/>
+      <c r="W44" s="347"/>
+      <c r="X44" s="347"/>
+      <c r="Y44" s="347"/>
+      <c r="Z44" s="347"/>
+      <c r="AA44" s="347"/>
+      <c r="AB44" s="347"/>
+      <c r="AC44" s="347"/>
       <c r="AM44" s="35"/>
     </row>
     <row r="45" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -8659,36 +8680,36 @@
       <c r="AZ48" s="133"/>
     </row>
     <row r="49" spans="3:53" s="91" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D49" s="353" t="s">
+      <c r="D49" s="297" t="s">
         <v>42</v>
       </c>
-      <c r="E49" s="323" t="s">
+      <c r="E49" s="354" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="324"/>
-      <c r="G49" s="324"/>
-      <c r="H49" s="324"/>
-      <c r="I49" s="324"/>
-      <c r="J49" s="324"/>
-      <c r="K49" s="324"/>
-      <c r="L49" s="324"/>
-      <c r="M49" s="324"/>
-      <c r="N49" s="324"/>
-      <c r="O49" s="324"/>
-      <c r="P49" s="324"/>
-      <c r="Q49" s="324"/>
-      <c r="R49" s="324"/>
-      <c r="S49" s="324"/>
-      <c r="T49" s="324"/>
-      <c r="U49" s="324"/>
-      <c r="V49" s="324"/>
-      <c r="W49" s="324"/>
-      <c r="X49" s="324"/>
-      <c r="Y49" s="324"/>
-      <c r="Z49" s="324"/>
-      <c r="AA49" s="324"/>
-      <c r="AB49" s="324"/>
-      <c r="AC49" s="325"/>
+      <c r="F49" s="355"/>
+      <c r="G49" s="355"/>
+      <c r="H49" s="355"/>
+      <c r="I49" s="355"/>
+      <c r="J49" s="355"/>
+      <c r="K49" s="355"/>
+      <c r="L49" s="355"/>
+      <c r="M49" s="355"/>
+      <c r="N49" s="355"/>
+      <c r="O49" s="355"/>
+      <c r="P49" s="355"/>
+      <c r="Q49" s="355"/>
+      <c r="R49" s="355"/>
+      <c r="S49" s="355"/>
+      <c r="T49" s="355"/>
+      <c r="U49" s="355"/>
+      <c r="V49" s="355"/>
+      <c r="W49" s="355"/>
+      <c r="X49" s="355"/>
+      <c r="Y49" s="355"/>
+      <c r="Z49" s="355"/>
+      <c r="AA49" s="355"/>
+      <c r="AB49" s="355"/>
+      <c r="AC49" s="356"/>
       <c r="AD49" s="275" t="s">
         <v>34</v>
       </c>
@@ -8706,29 +8727,29 @@
       <c r="AN49" s="133"/>
     </row>
     <row r="50" spans="3:53" s="91" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D50" s="354"/>
+      <c r="D50" s="340"/>
       <c r="E50" s="275" t="s">
         <v>32</v>
       </c>
       <c r="F50" s="276"/>
       <c r="G50" s="276"/>
       <c r="H50" s="277"/>
-      <c r="I50" s="364" t="s">
+      <c r="I50" s="353" t="s">
         <v>40</v>
       </c>
-      <c r="J50" s="357"/>
-      <c r="K50" s="357"/>
-      <c r="L50" s="358"/>
-      <c r="M50" s="356" t="s">
+      <c r="J50" s="342"/>
+      <c r="K50" s="342"/>
+      <c r="L50" s="343"/>
+      <c r="M50" s="341" t="s">
         <v>119</v>
       </c>
-      <c r="N50" s="357"/>
-      <c r="O50" s="357"/>
-      <c r="P50" s="357"/>
-      <c r="Q50" s="357"/>
-      <c r="R50" s="357"/>
-      <c r="S50" s="357"/>
-      <c r="T50" s="358"/>
+      <c r="N50" s="342"/>
+      <c r="O50" s="342"/>
+      <c r="P50" s="342"/>
+      <c r="Q50" s="342"/>
+      <c r="R50" s="342"/>
+      <c r="S50" s="342"/>
+      <c r="T50" s="343"/>
       <c r="U50" s="275" t="s">
         <v>33</v>
       </c>
@@ -8741,7 +8762,7 @@
       </c>
       <c r="AA50" s="276"/>
       <c r="AB50" s="277"/>
-      <c r="AC50" s="353" t="s">
+      <c r="AC50" s="297" t="s">
         <v>45</v>
       </c>
       <c r="AD50" s="278"/>
@@ -8763,23 +8784,23 @@
       <c r="AT50" s="133"/>
     </row>
     <row r="51" spans="3:53" s="91" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D51" s="355"/>
+      <c r="D51" s="298"/>
       <c r="E51" s="281"/>
       <c r="F51" s="282"/>
       <c r="G51" s="282"/>
       <c r="H51" s="283"/>
-      <c r="I51" s="359"/>
-      <c r="J51" s="360"/>
-      <c r="K51" s="360"/>
-      <c r="L51" s="361"/>
-      <c r="M51" s="359"/>
-      <c r="N51" s="360"/>
-      <c r="O51" s="360"/>
-      <c r="P51" s="360"/>
-      <c r="Q51" s="360"/>
-      <c r="R51" s="360"/>
-      <c r="S51" s="360"/>
-      <c r="T51" s="361"/>
+      <c r="I51" s="344"/>
+      <c r="J51" s="345"/>
+      <c r="K51" s="345"/>
+      <c r="L51" s="346"/>
+      <c r="M51" s="344"/>
+      <c r="N51" s="345"/>
+      <c r="O51" s="345"/>
+      <c r="P51" s="345"/>
+      <c r="Q51" s="345"/>
+      <c r="R51" s="345"/>
+      <c r="S51" s="345"/>
+      <c r="T51" s="346"/>
       <c r="U51" s="281"/>
       <c r="V51" s="282"/>
       <c r="W51" s="282"/>
@@ -8788,7 +8809,7 @@
       <c r="Z51" s="281"/>
       <c r="AA51" s="282"/>
       <c r="AB51" s="283"/>
-      <c r="AC51" s="355"/>
+      <c r="AC51" s="298"/>
       <c r="AD51" s="281"/>
       <c r="AE51" s="282"/>
       <c r="AF51" s="282"/>
@@ -8813,49 +8834,49 @@
       <c r="D52" s="138">
         <v>1</v>
       </c>
-      <c r="E52" s="223" t="s">
+      <c r="E52" s="216" t="s">
         <v>142</v>
       </c>
       <c r="F52" s="287"/>
       <c r="G52" s="287"/>
-      <c r="H52" s="310"/>
-      <c r="I52" s="309" t="s">
+      <c r="H52" s="351"/>
+      <c r="I52" s="352" t="s">
         <v>89</v>
       </c>
-      <c r="J52" s="309"/>
-      <c r="K52" s="309"/>
-      <c r="L52" s="309"/>
-      <c r="M52" s="365" t="s">
+      <c r="J52" s="352"/>
+      <c r="K52" s="352"/>
+      <c r="L52" s="352"/>
+      <c r="M52" s="358" t="s">
         <v>137</v>
       </c>
-      <c r="N52" s="366"/>
-      <c r="O52" s="366"/>
-      <c r="P52" s="366"/>
-      <c r="Q52" s="366"/>
-      <c r="R52" s="366"/>
-      <c r="S52" s="366"/>
-      <c r="T52" s="366"/>
-      <c r="U52" s="304" t="s">
+      <c r="N52" s="359"/>
+      <c r="O52" s="359"/>
+      <c r="P52" s="359"/>
+      <c r="Q52" s="359"/>
+      <c r="R52" s="359"/>
+      <c r="S52" s="359"/>
+      <c r="T52" s="359"/>
+      <c r="U52" s="349" t="s">
         <v>136</v>
       </c>
-      <c r="V52" s="305"/>
-      <c r="W52" s="305"/>
-      <c r="X52" s="305"/>
-      <c r="Y52" s="305"/>
-      <c r="Z52" s="304" t="s">
+      <c r="V52" s="350"/>
+      <c r="W52" s="350"/>
+      <c r="X52" s="350"/>
+      <c r="Y52" s="350"/>
+      <c r="Z52" s="349" t="s">
         <v>136</v>
       </c>
-      <c r="AA52" s="305"/>
-      <c r="AB52" s="305"/>
+      <c r="AA52" s="350"/>
+      <c r="AB52" s="350"/>
       <c r="AC52" s="176" t="s">
         <v>91</v>
       </c>
-      <c r="AD52" s="220" t="s">
+      <c r="AD52" s="213" t="s">
         <v>142</v>
       </c>
-      <c r="AE52" s="306"/>
-      <c r="AF52" s="306"/>
-      <c r="AG52" s="307"/>
+      <c r="AE52" s="295"/>
+      <c r="AF52" s="295"/>
+      <c r="AG52" s="296"/>
       <c r="AH52" s="133"/>
       <c r="AI52" s="133"/>
       <c r="AJ52" s="133"/>
@@ -8876,49 +8897,49 @@
       <c r="D53" s="138">
         <v>2</v>
       </c>
-      <c r="E53" s="223" t="s">
+      <c r="E53" s="216" t="s">
         <v>143</v>
       </c>
       <c r="F53" s="287"/>
       <c r="G53" s="287"/>
-      <c r="H53" s="310"/>
-      <c r="I53" s="308" t="s">
+      <c r="H53" s="351"/>
+      <c r="I53" s="396" t="s">
         <v>179</v>
       </c>
-      <c r="J53" s="309"/>
-      <c r="K53" s="309"/>
-      <c r="L53" s="309"/>
-      <c r="M53" s="349" t="s">
+      <c r="J53" s="352"/>
+      <c r="K53" s="352"/>
+      <c r="L53" s="352"/>
+      <c r="M53" s="335" t="s">
         <v>80</v>
       </c>
-      <c r="N53" s="350"/>
-      <c r="O53" s="350"/>
-      <c r="P53" s="350"/>
-      <c r="Q53" s="350"/>
-      <c r="R53" s="350"/>
-      <c r="S53" s="350"/>
-      <c r="T53" s="351"/>
-      <c r="U53" s="220" t="s">
+      <c r="N53" s="336"/>
+      <c r="O53" s="336"/>
+      <c r="P53" s="336"/>
+      <c r="Q53" s="336"/>
+      <c r="R53" s="336"/>
+      <c r="S53" s="336"/>
+      <c r="T53" s="337"/>
+      <c r="U53" s="213" t="s">
         <v>181</v>
       </c>
-      <c r="V53" s="306"/>
-      <c r="W53" s="306"/>
-      <c r="X53" s="306"/>
-      <c r="Y53" s="307"/>
-      <c r="Z53" s="304" t="s">
+      <c r="V53" s="295"/>
+      <c r="W53" s="295"/>
+      <c r="X53" s="295"/>
+      <c r="Y53" s="296"/>
+      <c r="Z53" s="349" t="s">
         <v>136</v>
       </c>
-      <c r="AA53" s="305"/>
-      <c r="AB53" s="305"/>
+      <c r="AA53" s="350"/>
+      <c r="AB53" s="350"/>
       <c r="AC53" s="176" t="s">
         <v>91</v>
       </c>
-      <c r="AD53" s="220" t="s">
+      <c r="AD53" s="213" t="s">
         <v>144</v>
       </c>
-      <c r="AE53" s="306"/>
-      <c r="AF53" s="306"/>
-      <c r="AG53" s="307"/>
+      <c r="AE53" s="295"/>
+      <c r="AF53" s="295"/>
+      <c r="AG53" s="296"/>
       <c r="AH53" s="133"/>
       <c r="AI53" s="133"/>
       <c r="AJ53" s="133"/>
@@ -9043,24 +9064,24 @@
       <c r="AW57" s="105"/>
     </row>
     <row r="58" spans="3:53" x14ac:dyDescent="0.15">
-      <c r="D58" s="367" t="s">
+      <c r="D58" s="305" t="s">
         <v>118</v>
       </c>
-      <c r="E58" s="296" t="s">
+      <c r="E58" s="307" t="s">
         <v>50</v>
       </c>
-      <c r="F58" s="297"/>
-      <c r="G58" s="297"/>
-      <c r="H58" s="297"/>
-      <c r="I58" s="297"/>
-      <c r="J58" s="298"/>
-      <c r="K58" s="296" t="s">
+      <c r="F58" s="308"/>
+      <c r="G58" s="308"/>
+      <c r="H58" s="308"/>
+      <c r="I58" s="308"/>
+      <c r="J58" s="309"/>
+      <c r="K58" s="307" t="s">
         <v>51</v>
       </c>
-      <c r="L58" s="297"/>
-      <c r="M58" s="297"/>
-      <c r="N58" s="298"/>
-      <c r="O58" s="294" t="s">
+      <c r="L58" s="308"/>
+      <c r="M58" s="308"/>
+      <c r="N58" s="309"/>
+      <c r="O58" s="392" t="s">
         <v>52</v>
       </c>
       <c r="P58" s="139" t="s">
@@ -9071,21 +9092,21 @@
       <c r="S58" s="140"/>
       <c r="T58" s="140"/>
       <c r="U58" s="140"/>
-      <c r="V58" s="296" t="s">
+      <c r="V58" s="307" t="s">
         <v>31</v>
       </c>
-      <c r="W58" s="297"/>
-      <c r="X58" s="297"/>
-      <c r="Y58" s="297"/>
-      <c r="Z58" s="297"/>
-      <c r="AA58" s="297"/>
-      <c r="AB58" s="297"/>
-      <c r="AC58" s="297"/>
-      <c r="AD58" s="297"/>
-      <c r="AE58" s="297"/>
-      <c r="AF58" s="297"/>
-      <c r="AG58" s="297"/>
-      <c r="AH58" s="298"/>
+      <c r="W58" s="308"/>
+      <c r="X58" s="308"/>
+      <c r="Y58" s="308"/>
+      <c r="Z58" s="308"/>
+      <c r="AA58" s="308"/>
+      <c r="AB58" s="308"/>
+      <c r="AC58" s="308"/>
+      <c r="AD58" s="308"/>
+      <c r="AE58" s="308"/>
+      <c r="AF58" s="308"/>
+      <c r="AG58" s="308"/>
+      <c r="AH58" s="309"/>
       <c r="AK58" s="105"/>
       <c r="AL58" s="105"/>
       <c r="AM58" s="105"/>
@@ -9101,18 +9122,18 @@
       <c r="AW58" s="105"/>
     </row>
     <row r="59" spans="3:53" x14ac:dyDescent="0.15">
-      <c r="D59" s="368"/>
-      <c r="E59" s="299"/>
-      <c r="F59" s="300"/>
-      <c r="G59" s="300"/>
-      <c r="H59" s="300"/>
-      <c r="I59" s="300"/>
-      <c r="J59" s="301"/>
-      <c r="K59" s="299"/>
-      <c r="L59" s="300"/>
-      <c r="M59" s="300"/>
-      <c r="N59" s="301"/>
-      <c r="O59" s="295"/>
+      <c r="D59" s="306"/>
+      <c r="E59" s="310"/>
+      <c r="F59" s="311"/>
+      <c r="G59" s="311"/>
+      <c r="H59" s="311"/>
+      <c r="I59" s="311"/>
+      <c r="J59" s="312"/>
+      <c r="K59" s="310"/>
+      <c r="L59" s="311"/>
+      <c r="M59" s="311"/>
+      <c r="N59" s="312"/>
+      <c r="O59" s="393"/>
       <c r="P59" s="141" t="s">
         <v>53</v>
       </c>
@@ -9125,23 +9146,23 @@
       <c r="S59" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="T59" s="302" t="s">
+      <c r="T59" s="394" t="s">
         <v>60</v>
       </c>
-      <c r="U59" s="303"/>
-      <c r="V59" s="299"/>
-      <c r="W59" s="300"/>
-      <c r="X59" s="300"/>
-      <c r="Y59" s="300"/>
-      <c r="Z59" s="300"/>
-      <c r="AA59" s="300"/>
-      <c r="AB59" s="300"/>
-      <c r="AC59" s="300"/>
-      <c r="AD59" s="300"/>
-      <c r="AE59" s="300"/>
-      <c r="AF59" s="300"/>
-      <c r="AG59" s="300"/>
-      <c r="AH59" s="301"/>
+      <c r="U59" s="395"/>
+      <c r="V59" s="310"/>
+      <c r="W59" s="311"/>
+      <c r="X59" s="311"/>
+      <c r="Y59" s="311"/>
+      <c r="Z59" s="311"/>
+      <c r="AA59" s="311"/>
+      <c r="AB59" s="311"/>
+      <c r="AC59" s="311"/>
+      <c r="AD59" s="311"/>
+      <c r="AE59" s="311"/>
+      <c r="AF59" s="311"/>
+      <c r="AG59" s="311"/>
+      <c r="AH59" s="312"/>
       <c r="AK59" s="105"/>
       <c r="AL59" s="105"/>
       <c r="AM59" s="105"/>
@@ -9160,20 +9181,20 @@
       <c r="D60" s="142">
         <v>1</v>
       </c>
-      <c r="E60" s="333" t="s">
+      <c r="E60" s="316" t="s">
         <v>145</v>
       </c>
-      <c r="F60" s="334"/>
-      <c r="G60" s="334"/>
-      <c r="H60" s="334"/>
-      <c r="I60" s="334"/>
-      <c r="J60" s="335"/>
-      <c r="K60" s="332" t="s">
+      <c r="F60" s="317"/>
+      <c r="G60" s="317"/>
+      <c r="H60" s="317"/>
+      <c r="I60" s="317"/>
+      <c r="J60" s="318"/>
+      <c r="K60" s="369" t="s">
         <v>92</v>
       </c>
-      <c r="L60" s="306"/>
-      <c r="M60" s="306"/>
-      <c r="N60" s="307"/>
+      <c r="L60" s="295"/>
+      <c r="M60" s="295"/>
+      <c r="N60" s="296"/>
       <c r="O60" s="137" t="s">
         <v>93</v>
       </c>
@@ -9189,25 +9210,25 @@
       <c r="S60" s="162" t="s">
         <v>90</v>
       </c>
-      <c r="T60" s="336" t="s">
+      <c r="T60" s="370" t="s">
         <v>90</v>
       </c>
-      <c r="U60" s="337"/>
-      <c r="V60" s="332" t="s">
+      <c r="U60" s="371"/>
+      <c r="V60" s="369" t="s">
         <v>80</v>
       </c>
-      <c r="W60" s="306"/>
-      <c r="X60" s="306"/>
-      <c r="Y60" s="306"/>
-      <c r="Z60" s="306"/>
-      <c r="AA60" s="306"/>
-      <c r="AB60" s="306"/>
-      <c r="AC60" s="306"/>
-      <c r="AD60" s="306"/>
-      <c r="AE60" s="306"/>
-      <c r="AF60" s="306"/>
-      <c r="AG60" s="306"/>
-      <c r="AH60" s="307"/>
+      <c r="W60" s="295"/>
+      <c r="X60" s="295"/>
+      <c r="Y60" s="295"/>
+      <c r="Z60" s="295"/>
+      <c r="AA60" s="295"/>
+      <c r="AB60" s="295"/>
+      <c r="AC60" s="295"/>
+      <c r="AD60" s="295"/>
+      <c r="AE60" s="295"/>
+      <c r="AF60" s="295"/>
+      <c r="AG60" s="295"/>
+      <c r="AH60" s="296"/>
       <c r="AK60" s="105"/>
       <c r="AL60" s="105"/>
       <c r="AM60" s="105"/>
@@ -9333,136 +9354,136 @@
       <c r="D65" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="E65" s="329" t="s">
+      <c r="E65" s="313" t="s">
         <v>73</v>
       </c>
-      <c r="F65" s="330"/>
-      <c r="G65" s="330"/>
-      <c r="H65" s="330"/>
-      <c r="I65" s="330"/>
-      <c r="J65" s="369"/>
-      <c r="K65" s="329" t="s">
+      <c r="F65" s="314"/>
+      <c r="G65" s="314"/>
+      <c r="H65" s="314"/>
+      <c r="I65" s="314"/>
+      <c r="J65" s="315"/>
+      <c r="K65" s="313" t="s">
         <v>39</v>
       </c>
-      <c r="L65" s="330"/>
-      <c r="M65" s="330"/>
-      <c r="N65" s="330"/>
-      <c r="O65" s="330"/>
-      <c r="P65" s="330"/>
-      <c r="Q65" s="331"/>
+      <c r="L65" s="314"/>
+      <c r="M65" s="314"/>
+      <c r="N65" s="314"/>
+      <c r="O65" s="314"/>
+      <c r="P65" s="314"/>
+      <c r="Q65" s="338"/>
       <c r="R65" s="284" t="s">
         <v>74</v>
       </c>
-      <c r="S65" s="330"/>
-      <c r="T65" s="330"/>
-      <c r="U65" s="330"/>
-      <c r="V65" s="330"/>
-      <c r="W65" s="330"/>
-      <c r="X65" s="330"/>
-      <c r="Y65" s="331"/>
-      <c r="Z65" s="323" t="s">
+      <c r="S65" s="314"/>
+      <c r="T65" s="314"/>
+      <c r="U65" s="314"/>
+      <c r="V65" s="314"/>
+      <c r="W65" s="314"/>
+      <c r="X65" s="314"/>
+      <c r="Y65" s="338"/>
+      <c r="Z65" s="354" t="s">
         <v>27</v>
       </c>
-      <c r="AA65" s="324"/>
-      <c r="AB65" s="324"/>
-      <c r="AC65" s="324"/>
-      <c r="AD65" s="325"/>
-      <c r="AE65" s="320" t="s">
+      <c r="AA65" s="355"/>
+      <c r="AB65" s="355"/>
+      <c r="AC65" s="355"/>
+      <c r="AD65" s="356"/>
+      <c r="AE65" s="363" t="s">
         <v>130</v>
       </c>
-      <c r="AF65" s="321"/>
-      <c r="AG65" s="321"/>
-      <c r="AH65" s="322"/>
+      <c r="AF65" s="364"/>
+      <c r="AG65" s="364"/>
+      <c r="AH65" s="365"/>
     </row>
     <row r="66" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D66" s="145">
         <v>1</v>
       </c>
-      <c r="E66" s="342" t="s">
+      <c r="E66" s="376" t="s">
         <v>95</v>
       </c>
-      <c r="F66" s="339"/>
-      <c r="G66" s="339"/>
-      <c r="H66" s="339"/>
-      <c r="I66" s="339"/>
-      <c r="J66" s="340"/>
-      <c r="K66" s="332" t="s">
+      <c r="F66" s="373"/>
+      <c r="G66" s="373"/>
+      <c r="H66" s="373"/>
+      <c r="I66" s="373"/>
+      <c r="J66" s="374"/>
+      <c r="K66" s="369" t="s">
         <v>96</v>
       </c>
-      <c r="L66" s="306"/>
-      <c r="M66" s="306"/>
-      <c r="N66" s="306"/>
-      <c r="O66" s="306"/>
-      <c r="P66" s="306"/>
-      <c r="Q66" s="307"/>
-      <c r="R66" s="220" t="s">
+      <c r="L66" s="295"/>
+      <c r="M66" s="295"/>
+      <c r="N66" s="295"/>
+      <c r="O66" s="295"/>
+      <c r="P66" s="295"/>
+      <c r="Q66" s="296"/>
+      <c r="R66" s="213" t="s">
         <v>147</v>
       </c>
-      <c r="S66" s="306"/>
-      <c r="T66" s="306"/>
-      <c r="U66" s="306"/>
-      <c r="V66" s="306"/>
-      <c r="W66" s="306"/>
-      <c r="X66" s="306"/>
-      <c r="Y66" s="307"/>
-      <c r="Z66" s="332" t="s">
+      <c r="S66" s="295"/>
+      <c r="T66" s="295"/>
+      <c r="U66" s="295"/>
+      <c r="V66" s="295"/>
+      <c r="W66" s="295"/>
+      <c r="X66" s="295"/>
+      <c r="Y66" s="296"/>
+      <c r="Z66" s="369" t="s">
         <v>94</v>
       </c>
-      <c r="AA66" s="306"/>
-      <c r="AB66" s="306"/>
-      <c r="AC66" s="306"/>
-      <c r="AD66" s="307"/>
-      <c r="AE66" s="326" t="s">
+      <c r="AA66" s="295"/>
+      <c r="AB66" s="295"/>
+      <c r="AC66" s="295"/>
+      <c r="AD66" s="296"/>
+      <c r="AE66" s="366" t="s">
         <v>72</v>
       </c>
-      <c r="AF66" s="327"/>
-      <c r="AG66" s="327"/>
-      <c r="AH66" s="328"/>
+      <c r="AF66" s="367"/>
+      <c r="AG66" s="367"/>
+      <c r="AH66" s="368"/>
     </row>
     <row r="67" spans="1:58" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D67" s="145">
         <v>2</v>
       </c>
-      <c r="E67" s="338" t="s">
+      <c r="E67" s="372" t="s">
         <v>139</v>
       </c>
-      <c r="F67" s="339"/>
-      <c r="G67" s="339"/>
-      <c r="H67" s="339"/>
-      <c r="I67" s="339"/>
-      <c r="J67" s="340"/>
-      <c r="K67" s="220" t="s">
+      <c r="F67" s="373"/>
+      <c r="G67" s="373"/>
+      <c r="H67" s="373"/>
+      <c r="I67" s="373"/>
+      <c r="J67" s="374"/>
+      <c r="K67" s="213" t="s">
         <v>146</v>
       </c>
-      <c r="L67" s="306"/>
-      <c r="M67" s="306"/>
-      <c r="N67" s="306"/>
-      <c r="O67" s="306"/>
-      <c r="P67" s="306"/>
-      <c r="Q67" s="307"/>
-      <c r="R67" s="220" t="s">
+      <c r="L67" s="295"/>
+      <c r="M67" s="295"/>
+      <c r="N67" s="295"/>
+      <c r="O67" s="295"/>
+      <c r="P67" s="295"/>
+      <c r="Q67" s="296"/>
+      <c r="R67" s="213" t="s">
         <v>148</v>
       </c>
-      <c r="S67" s="306"/>
-      <c r="T67" s="306"/>
-      <c r="U67" s="306"/>
-      <c r="V67" s="306"/>
-      <c r="W67" s="306"/>
-      <c r="X67" s="306"/>
-      <c r="Y67" s="307"/>
-      <c r="Z67" s="220" t="s">
+      <c r="S67" s="295"/>
+      <c r="T67" s="295"/>
+      <c r="U67" s="295"/>
+      <c r="V67" s="295"/>
+      <c r="W67" s="295"/>
+      <c r="X67" s="295"/>
+      <c r="Y67" s="296"/>
+      <c r="Z67" s="213" t="s">
         <v>166</v>
       </c>
-      <c r="AA67" s="306"/>
-      <c r="AB67" s="306"/>
-      <c r="AC67" s="306"/>
-      <c r="AD67" s="307"/>
-      <c r="AE67" s="326" t="s">
+      <c r="AA67" s="295"/>
+      <c r="AB67" s="295"/>
+      <c r="AC67" s="295"/>
+      <c r="AD67" s="296"/>
+      <c r="AE67" s="366" t="s">
         <v>72</v>
       </c>
-      <c r="AF67" s="327"/>
-      <c r="AG67" s="327"/>
-      <c r="AH67" s="328"/>
+      <c r="AF67" s="367"/>
+      <c r="AG67" s="367"/>
+      <c r="AH67" s="368"/>
     </row>
     <row r="68" spans="1:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D68" s="128"/>
@@ -9909,40 +9930,40 @@
       <c r="G87" s="284" t="s">
         <v>69</v>
       </c>
-      <c r="H87" s="330"/>
-      <c r="I87" s="330"/>
-      <c r="J87" s="330"/>
-      <c r="K87" s="330"/>
-      <c r="L87" s="331"/>
-      <c r="M87" s="341" t="s">
+      <c r="H87" s="314"/>
+      <c r="I87" s="314"/>
+      <c r="J87" s="314"/>
+      <c r="K87" s="314"/>
+      <c r="L87" s="338"/>
+      <c r="M87" s="375" t="s">
         <v>77</v>
       </c>
-      <c r="N87" s="330"/>
-      <c r="O87" s="330"/>
-      <c r="P87" s="330"/>
-      <c r="Q87" s="330"/>
-      <c r="R87" s="330"/>
-      <c r="S87" s="330"/>
-      <c r="T87" s="330"/>
-      <c r="U87" s="330"/>
-      <c r="V87" s="331"/>
-      <c r="W87" s="352" t="s">
+      <c r="N87" s="314"/>
+      <c r="O87" s="314"/>
+      <c r="P87" s="314"/>
+      <c r="Q87" s="314"/>
+      <c r="R87" s="314"/>
+      <c r="S87" s="314"/>
+      <c r="T87" s="314"/>
+      <c r="U87" s="314"/>
+      <c r="V87" s="338"/>
+      <c r="W87" s="383" t="s">
         <v>168</v>
       </c>
-      <c r="X87" s="347"/>
-      <c r="Y87" s="348"/>
-      <c r="Z87" s="346" t="s">
+      <c r="X87" s="381"/>
+      <c r="Y87" s="382"/>
+      <c r="Z87" s="380" t="s">
         <v>78</v>
       </c>
-      <c r="AA87" s="347"/>
-      <c r="AB87" s="347"/>
-      <c r="AC87" s="348"/>
-      <c r="AD87" s="393" t="s">
+      <c r="AA87" s="381"/>
+      <c r="AB87" s="381"/>
+      <c r="AC87" s="382"/>
+      <c r="AD87" s="332" t="s">
         <v>131</v>
       </c>
-      <c r="AE87" s="394"/>
-      <c r="AF87" s="394"/>
-      <c r="AG87" s="395"/>
+      <c r="AE87" s="333"/>
+      <c r="AF87" s="333"/>
+      <c r="AG87" s="334"/>
       <c r="AJ87" s="125"/>
       <c r="AK87" s="125"/>
       <c r="AL87" s="125"/>
@@ -9972,43 +9993,43 @@
       <c r="F88" s="148">
         <v>1</v>
       </c>
-      <c r="G88" s="396" t="s">
+      <c r="G88" s="339" t="s">
         <v>71</v>
       </c>
-      <c r="H88" s="350"/>
-      <c r="I88" s="350"/>
-      <c r="J88" s="350"/>
-      <c r="K88" s="350"/>
-      <c r="L88" s="351"/>
-      <c r="M88" s="349" t="s">
+      <c r="H88" s="336"/>
+      <c r="I88" s="336"/>
+      <c r="J88" s="336"/>
+      <c r="K88" s="336"/>
+      <c r="L88" s="337"/>
+      <c r="M88" s="335" t="s">
         <v>87</v>
       </c>
-      <c r="N88" s="350"/>
-      <c r="O88" s="350"/>
-      <c r="P88" s="350"/>
-      <c r="Q88" s="350"/>
-      <c r="R88" s="350"/>
-      <c r="S88" s="350"/>
-      <c r="T88" s="350"/>
-      <c r="U88" s="350"/>
-      <c r="V88" s="351"/>
-      <c r="W88" s="317" t="s">
+      <c r="N88" s="336"/>
+      <c r="O88" s="336"/>
+      <c r="P88" s="336"/>
+      <c r="Q88" s="336"/>
+      <c r="R88" s="336"/>
+      <c r="S88" s="336"/>
+      <c r="T88" s="336"/>
+      <c r="U88" s="336"/>
+      <c r="V88" s="337"/>
+      <c r="W88" s="360" t="s">
         <v>133</v>
       </c>
-      <c r="X88" s="318"/>
-      <c r="Y88" s="319"/>
-      <c r="Z88" s="343" t="s">
+      <c r="X88" s="361"/>
+      <c r="Y88" s="362"/>
+      <c r="Z88" s="377" t="s">
         <v>132</v>
       </c>
-      <c r="AA88" s="344"/>
-      <c r="AB88" s="344"/>
-      <c r="AC88" s="345"/>
-      <c r="AD88" s="349" t="s">
+      <c r="AA88" s="378"/>
+      <c r="AB88" s="378"/>
+      <c r="AC88" s="379"/>
+      <c r="AD88" s="335" t="s">
         <v>121</v>
       </c>
-      <c r="AE88" s="350"/>
-      <c r="AF88" s="350"/>
-      <c r="AG88" s="351"/>
+      <c r="AE88" s="336"/>
+      <c r="AF88" s="336"/>
+      <c r="AG88" s="337"/>
       <c r="AI88" s="125"/>
       <c r="AJ88" s="125"/>
       <c r="AK88" s="125"/>
@@ -10155,71 +10176,71 @@
         <v>152</v>
       </c>
     </row>
-    <row r="97" spans="4:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G97" s="377" t="s">
+    <row r="97" spans="5:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G97" s="302" t="s">
         <v>100</v>
       </c>
-      <c r="H97" s="378"/>
-      <c r="I97" s="378"/>
-      <c r="J97" s="378"/>
-      <c r="K97" s="378"/>
-      <c r="L97" s="378"/>
-      <c r="M97" s="378"/>
-      <c r="N97" s="378"/>
-      <c r="O97" s="378"/>
-      <c r="P97" s="379"/>
-      <c r="Q97" s="380" t="s">
+      <c r="H97" s="303"/>
+      <c r="I97" s="303"/>
+      <c r="J97" s="303"/>
+      <c r="K97" s="303"/>
+      <c r="L97" s="303"/>
+      <c r="M97" s="303"/>
+      <c r="N97" s="303"/>
+      <c r="O97" s="303"/>
+      <c r="P97" s="304"/>
+      <c r="Q97" s="319" t="s">
         <v>101</v>
       </c>
-      <c r="R97" s="381"/>
-      <c r="S97" s="381"/>
-      <c r="T97" s="381"/>
-      <c r="U97" s="381"/>
-      <c r="V97" s="381"/>
-      <c r="W97" s="381"/>
-      <c r="X97" s="381"/>
-      <c r="Y97" s="381"/>
-      <c r="Z97" s="382"/>
-    </row>
-    <row r="98" spans="4:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G98" s="383" t="s">
+      <c r="R97" s="320"/>
+      <c r="S97" s="320"/>
+      <c r="T97" s="320"/>
+      <c r="U97" s="320"/>
+      <c r="V97" s="320"/>
+      <c r="W97" s="320"/>
+      <c r="X97" s="320"/>
+      <c r="Y97" s="320"/>
+      <c r="Z97" s="321"/>
+    </row>
+    <row r="98" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G98" s="322" t="s">
         <v>145</v>
       </c>
-      <c r="H98" s="384"/>
-      <c r="I98" s="384"/>
-      <c r="J98" s="384"/>
-      <c r="K98" s="384"/>
-      <c r="L98" s="384"/>
-      <c r="M98" s="384"/>
-      <c r="N98" s="384"/>
-      <c r="O98" s="384"/>
-      <c r="P98" s="385"/>
-      <c r="Q98" s="333" t="s">
+      <c r="H98" s="323"/>
+      <c r="I98" s="323"/>
+      <c r="J98" s="323"/>
+      <c r="K98" s="323"/>
+      <c r="L98" s="323"/>
+      <c r="M98" s="323"/>
+      <c r="N98" s="323"/>
+      <c r="O98" s="323"/>
+      <c r="P98" s="324"/>
+      <c r="Q98" s="316" t="s">
         <v>176</v>
       </c>
-      <c r="R98" s="334"/>
-      <c r="S98" s="334"/>
-      <c r="T98" s="334"/>
-      <c r="U98" s="334"/>
-      <c r="V98" s="334"/>
-      <c r="W98" s="334"/>
-      <c r="X98" s="334"/>
-      <c r="Y98" s="334"/>
-      <c r="Z98" s="335"/>
+      <c r="R98" s="317"/>
+      <c r="S98" s="317"/>
+      <c r="T98" s="317"/>
+      <c r="U98" s="317"/>
+      <c r="V98" s="317"/>
+      <c r="W98" s="317"/>
+      <c r="X98" s="317"/>
+      <c r="Y98" s="317"/>
+      <c r="Z98" s="318"/>
       <c r="AG98" s="109"/>
       <c r="AH98" s="109"/>
     </row>
-    <row r="99" spans="4:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G99" s="386"/>
-      <c r="H99" s="387"/>
-      <c r="I99" s="387"/>
-      <c r="J99" s="387"/>
-      <c r="K99" s="387"/>
-      <c r="L99" s="387"/>
-      <c r="M99" s="387"/>
-      <c r="N99" s="387"/>
-      <c r="O99" s="387"/>
-      <c r="P99" s="388"/>
+    <row r="99" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G99" s="325"/>
+      <c r="H99" s="326"/>
+      <c r="I99" s="326"/>
+      <c r="J99" s="326"/>
+      <c r="K99" s="326"/>
+      <c r="L99" s="326"/>
+      <c r="M99" s="326"/>
+      <c r="N99" s="326"/>
+      <c r="O99" s="326"/>
+      <c r="P99" s="327"/>
       <c r="Q99" s="190" t="s">
         <v>174</v>
       </c>
@@ -10235,17 +10256,17 @@
       <c r="AG99" s="109"/>
       <c r="AH99" s="109"/>
     </row>
-    <row r="100" spans="4:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G100" s="386"/>
-      <c r="H100" s="387"/>
-      <c r="I100" s="387"/>
-      <c r="J100" s="387"/>
-      <c r="K100" s="387"/>
-      <c r="L100" s="387"/>
-      <c r="M100" s="387"/>
-      <c r="N100" s="387"/>
-      <c r="O100" s="387"/>
-      <c r="P100" s="388"/>
+    <row r="100" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G100" s="325"/>
+      <c r="H100" s="326"/>
+      <c r="I100" s="326"/>
+      <c r="J100" s="326"/>
+      <c r="K100" s="326"/>
+      <c r="L100" s="326"/>
+      <c r="M100" s="326"/>
+      <c r="N100" s="326"/>
+      <c r="O100" s="326"/>
+      <c r="P100" s="327"/>
       <c r="Q100" s="174" t="s">
         <v>143</v>
       </c>
@@ -10261,17 +10282,17 @@
       <c r="AG100" s="109"/>
       <c r="AH100" s="109"/>
     </row>
-    <row r="101" spans="4:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G101" s="386"/>
-      <c r="H101" s="387"/>
-      <c r="I101" s="387"/>
-      <c r="J101" s="387"/>
-      <c r="K101" s="387"/>
-      <c r="L101" s="387"/>
-      <c r="M101" s="387"/>
-      <c r="N101" s="387"/>
-      <c r="O101" s="387"/>
-      <c r="P101" s="388"/>
+    <row r="101" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G101" s="325"/>
+      <c r="H101" s="326"/>
+      <c r="I101" s="326"/>
+      <c r="J101" s="326"/>
+      <c r="K101" s="326"/>
+      <c r="L101" s="326"/>
+      <c r="M101" s="326"/>
+      <c r="N101" s="326"/>
+      <c r="O101" s="326"/>
+      <c r="P101" s="327"/>
       <c r="Q101" s="174" t="s">
         <v>160</v>
       </c>
@@ -10287,55 +10308,55 @@
       <c r="AG101" s="109"/>
       <c r="AH101" s="109"/>
     </row>
-    <row r="102" spans="4:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G102" s="386"/>
-      <c r="H102" s="387"/>
-      <c r="I102" s="387"/>
-      <c r="J102" s="387"/>
-      <c r="K102" s="387"/>
-      <c r="L102" s="387"/>
-      <c r="M102" s="387"/>
-      <c r="N102" s="387"/>
-      <c r="O102" s="387"/>
-      <c r="P102" s="388"/>
-      <c r="Q102" s="333" t="s">
+    <row r="102" spans="5:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G102" s="325"/>
+      <c r="H102" s="326"/>
+      <c r="I102" s="326"/>
+      <c r="J102" s="326"/>
+      <c r="K102" s="326"/>
+      <c r="L102" s="326"/>
+      <c r="M102" s="326"/>
+      <c r="N102" s="326"/>
+      <c r="O102" s="326"/>
+      <c r="P102" s="327"/>
+      <c r="Q102" s="316" t="s">
         <v>155</v>
       </c>
-      <c r="R102" s="334"/>
-      <c r="S102" s="334"/>
-      <c r="T102" s="334"/>
-      <c r="U102" s="334"/>
-      <c r="V102" s="334"/>
-      <c r="W102" s="334"/>
-      <c r="X102" s="334"/>
-      <c r="Y102" s="334"/>
-      <c r="Z102" s="335"/>
+      <c r="R102" s="317"/>
+      <c r="S102" s="317"/>
+      <c r="T102" s="317"/>
+      <c r="U102" s="317"/>
+      <c r="V102" s="317"/>
+      <c r="W102" s="317"/>
+      <c r="X102" s="317"/>
+      <c r="Y102" s="317"/>
+      <c r="Z102" s="318"/>
       <c r="AG102" s="109"/>
       <c r="AH102" s="109"/>
     </row>
-    <row r="103" spans="4:58" x14ac:dyDescent="0.15">
-      <c r="G103" s="389"/>
-      <c r="H103" s="387"/>
-      <c r="I103" s="387"/>
-      <c r="J103" s="387"/>
-      <c r="K103" s="387"/>
-      <c r="L103" s="387"/>
-      <c r="M103" s="387"/>
-      <c r="N103" s="387"/>
-      <c r="O103" s="387"/>
-      <c r="P103" s="388"/>
-      <c r="Q103" s="333" t="s">
+    <row r="103" spans="5:58" x14ac:dyDescent="0.15">
+      <c r="G103" s="328"/>
+      <c r="H103" s="326"/>
+      <c r="I103" s="326"/>
+      <c r="J103" s="326"/>
+      <c r="K103" s="326"/>
+      <c r="L103" s="326"/>
+      <c r="M103" s="326"/>
+      <c r="N103" s="326"/>
+      <c r="O103" s="326"/>
+      <c r="P103" s="327"/>
+      <c r="Q103" s="316" t="s">
         <v>156</v>
       </c>
-      <c r="R103" s="334"/>
-      <c r="S103" s="334"/>
-      <c r="T103" s="334"/>
-      <c r="U103" s="334"/>
-      <c r="V103" s="334"/>
-      <c r="W103" s="334"/>
-      <c r="X103" s="334"/>
-      <c r="Y103" s="334"/>
-      <c r="Z103" s="335"/>
+      <c r="R103" s="317"/>
+      <c r="S103" s="317"/>
+      <c r="T103" s="317"/>
+      <c r="U103" s="317"/>
+      <c r="V103" s="317"/>
+      <c r="W103" s="317"/>
+      <c r="X103" s="317"/>
+      <c r="Y103" s="317"/>
+      <c r="Z103" s="318"/>
       <c r="AC103" s="110"/>
       <c r="AD103" s="110"/>
       <c r="AE103" s="110"/>
@@ -10353,35 +10374,37 @@
       <c r="AX103" s="110"/>
       <c r="AY103" s="110"/>
     </row>
-    <row r="104" spans="4:58" x14ac:dyDescent="0.15">
-      <c r="G104" s="390" t="s">
-        <v>102</v>
-      </c>
-      <c r="H104" s="391"/>
-      <c r="I104" s="391"/>
-      <c r="J104" s="391"/>
-      <c r="K104" s="391"/>
-      <c r="L104" s="391"/>
-      <c r="M104" s="391"/>
-      <c r="N104" s="391"/>
-      <c r="O104" s="391"/>
-      <c r="P104" s="391"/>
-      <c r="Q104" s="391"/>
-      <c r="R104" s="391"/>
-      <c r="S104" s="391"/>
-      <c r="T104" s="391"/>
-      <c r="U104" s="391"/>
-      <c r="V104" s="391"/>
-      <c r="W104" s="391"/>
-      <c r="X104" s="391"/>
-      <c r="Y104" s="391"/>
-      <c r="Z104" s="392"/>
-      <c r="AJ104" s="110"/>
-      <c r="AK104" s="110"/>
-      <c r="AL104" s="110"/>
-      <c r="AM104" s="110"/>
-      <c r="AN104" s="110"/>
-      <c r="AO104" s="110"/>
+    <row r="104" spans="5:58" x14ac:dyDescent="0.15">
+      <c r="G104" s="322" t="s">
+        <v>191</v>
+      </c>
+      <c r="H104" s="323"/>
+      <c r="I104" s="323"/>
+      <c r="J104" s="323"/>
+      <c r="K104" s="323"/>
+      <c r="L104" s="323"/>
+      <c r="M104" s="323"/>
+      <c r="N104" s="323"/>
+      <c r="O104" s="323"/>
+      <c r="P104" s="324"/>
+      <c r="Q104" s="316" t="s">
+        <v>192</v>
+      </c>
+      <c r="R104" s="317"/>
+      <c r="S104" s="317"/>
+      <c r="T104" s="317"/>
+      <c r="U104" s="317"/>
+      <c r="V104" s="317"/>
+      <c r="W104" s="317"/>
+      <c r="X104" s="317"/>
+      <c r="Y104" s="317"/>
+      <c r="Z104" s="318"/>
+      <c r="AC104" s="110"/>
+      <c r="AD104" s="110"/>
+      <c r="AE104" s="110"/>
+      <c r="AF104" s="110"/>
+      <c r="AG104" s="109"/>
+      <c r="AH104" s="109"/>
       <c r="AP104" s="110"/>
       <c r="AQ104" s="110"/>
       <c r="AR104" s="110"/>
@@ -10392,41 +10415,36 @@
       <c r="AW104" s="110"/>
       <c r="AX104" s="110"/>
       <c r="AY104" s="110"/>
-      <c r="AZ104" s="110"/>
-      <c r="BA104" s="110"/>
-      <c r="BB104" s="110"/>
-      <c r="BC104" s="110"/>
-      <c r="BD104" s="110"/>
-      <c r="BE104" s="110"/>
-      <c r="BF104" s="110"/>
-    </row>
-    <row r="105" spans="4:58" x14ac:dyDescent="0.15">
-      <c r="G105" s="111"/>
-      <c r="H105" s="112"/>
-      <c r="I105" s="112"/>
-      <c r="J105" s="112"/>
-      <c r="K105" s="112"/>
-      <c r="L105" s="112"/>
-      <c r="M105" s="112"/>
-      <c r="N105" s="112"/>
-      <c r="O105" s="112"/>
-      <c r="P105" s="112"/>
-      <c r="Q105" s="112"/>
-      <c r="R105" s="112"/>
-      <c r="S105" s="112"/>
-      <c r="T105" s="112"/>
-      <c r="U105" s="112"/>
-      <c r="V105" s="112"/>
-      <c r="W105" s="112"/>
-      <c r="X105" s="112"/>
-      <c r="Y105" s="112"/>
-      <c r="Z105" s="113"/>
-      <c r="AJ105" s="110"/>
-      <c r="AK105" s="110"/>
-      <c r="AL105" s="110"/>
-      <c r="AM105" s="110"/>
-      <c r="AN105" s="110"/>
-      <c r="AO105" s="110"/>
+    </row>
+    <row r="105" spans="5:58" x14ac:dyDescent="0.15">
+      <c r="G105" s="397"/>
+      <c r="H105" s="398"/>
+      <c r="I105" s="398"/>
+      <c r="J105" s="398"/>
+      <c r="K105" s="398"/>
+      <c r="L105" s="398"/>
+      <c r="M105" s="398"/>
+      <c r="N105" s="398"/>
+      <c r="O105" s="398"/>
+      <c r="P105" s="399"/>
+      <c r="Q105" s="316" t="s">
+        <v>193</v>
+      </c>
+      <c r="R105" s="317"/>
+      <c r="S105" s="317"/>
+      <c r="T105" s="317"/>
+      <c r="U105" s="317"/>
+      <c r="V105" s="317"/>
+      <c r="W105" s="317"/>
+      <c r="X105" s="317"/>
+      <c r="Y105" s="317"/>
+      <c r="Z105" s="318"/>
+      <c r="AC105" s="110"/>
+      <c r="AD105" s="110"/>
+      <c r="AE105" s="110"/>
+      <c r="AF105" s="110"/>
+      <c r="AG105" s="109"/>
+      <c r="AH105" s="109"/>
       <c r="AP105" s="110"/>
       <c r="AQ105" s="110"/>
       <c r="AR105" s="110"/>
@@ -10437,39 +10455,30 @@
       <c r="AW105" s="110"/>
       <c r="AX105" s="110"/>
       <c r="AY105" s="110"/>
-      <c r="AZ105" s="110"/>
-      <c r="BA105" s="110"/>
-      <c r="BB105" s="110"/>
-      <c r="BC105" s="110"/>
-      <c r="BD105" s="110"/>
-      <c r="BE105" s="110"/>
-      <c r="BF105" s="110"/>
-    </row>
-    <row r="106" spans="4:58" x14ac:dyDescent="0.15">
-      <c r="G106" s="114"/>
-      <c r="H106" s="177" t="s">
-        <v>154</v>
-      </c>
-      <c r="I106" s="115"/>
-      <c r="J106" s="115"/>
-      <c r="K106" s="115"/>
-      <c r="L106" s="116"/>
-      <c r="N106" s="115"/>
-      <c r="O106" s="116" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q106" s="177" t="s">
-        <v>175</v>
-      </c>
-      <c r="R106" s="115"/>
-      <c r="S106" s="115"/>
-      <c r="T106" s="115"/>
-      <c r="U106" s="115"/>
-      <c r="V106" s="117"/>
-      <c r="W106" s="115"/>
-      <c r="X106" s="115"/>
-      <c r="Y106" s="115"/>
-      <c r="Z106" s="118"/>
+    </row>
+    <row r="106" spans="5:58" x14ac:dyDescent="0.15">
+      <c r="G106" s="329" t="s">
+        <v>102</v>
+      </c>
+      <c r="H106" s="330"/>
+      <c r="I106" s="330"/>
+      <c r="J106" s="330"/>
+      <c r="K106" s="330"/>
+      <c r="L106" s="330"/>
+      <c r="M106" s="330"/>
+      <c r="N106" s="330"/>
+      <c r="O106" s="330"/>
+      <c r="P106" s="330"/>
+      <c r="Q106" s="330"/>
+      <c r="R106" s="330"/>
+      <c r="S106" s="330"/>
+      <c r="T106" s="330"/>
+      <c r="U106" s="330"/>
+      <c r="V106" s="330"/>
+      <c r="W106" s="330"/>
+      <c r="X106" s="330"/>
+      <c r="Y106" s="330"/>
+      <c r="Z106" s="331"/>
       <c r="AJ106" s="110"/>
       <c r="AK106" s="110"/>
       <c r="AL106" s="110"/>
@@ -10494,27 +10503,27 @@
       <c r="BE106" s="110"/>
       <c r="BF106" s="110"/>
     </row>
-    <row r="107" spans="4:58" x14ac:dyDescent="0.15">
-      <c r="G107" s="119"/>
-      <c r="H107" s="120"/>
-      <c r="I107" s="120"/>
-      <c r="J107" s="120"/>
-      <c r="K107" s="120"/>
-      <c r="L107" s="121"/>
-      <c r="M107" s="121"/>
-      <c r="N107" s="120"/>
-      <c r="O107" s="120"/>
-      <c r="P107" s="120"/>
-      <c r="Q107" s="120"/>
-      <c r="R107" s="120"/>
-      <c r="S107" s="120"/>
-      <c r="T107" s="120"/>
-      <c r="U107" s="120"/>
-      <c r="V107" s="122"/>
-      <c r="W107" s="120"/>
-      <c r="X107" s="120"/>
-      <c r="Y107" s="120"/>
-      <c r="Z107" s="123"/>
+    <row r="107" spans="5:58" x14ac:dyDescent="0.15">
+      <c r="G107" s="111"/>
+      <c r="H107" s="112"/>
+      <c r="I107" s="112"/>
+      <c r="J107" s="112"/>
+      <c r="K107" s="112"/>
+      <c r="L107" s="112"/>
+      <c r="M107" s="112"/>
+      <c r="N107" s="112"/>
+      <c r="O107" s="112"/>
+      <c r="P107" s="112"/>
+      <c r="Q107" s="112"/>
+      <c r="R107" s="112"/>
+      <c r="S107" s="112"/>
+      <c r="T107" s="112"/>
+      <c r="U107" s="112"/>
+      <c r="V107" s="112"/>
+      <c r="W107" s="112"/>
+      <c r="X107" s="112"/>
+      <c r="Y107" s="112"/>
+      <c r="Z107" s="113"/>
       <c r="AJ107" s="110"/>
       <c r="AK107" s="110"/>
       <c r="AL107" s="110"/>
@@ -10539,18 +10548,22 @@
       <c r="BE107" s="110"/>
       <c r="BF107" s="110"/>
     </row>
-    <row r="108" spans="4:58" x14ac:dyDescent="0.15">
-      <c r="G108" s="115"/>
-      <c r="H108" s="115"/>
+    <row r="108" spans="5:58" x14ac:dyDescent="0.15">
+      <c r="G108" s="114"/>
+      <c r="H108" s="177" t="s">
+        <v>154</v>
+      </c>
       <c r="I108" s="115"/>
       <c r="J108" s="115"/>
       <c r="K108" s="115"/>
       <c r="L108" s="116"/>
-      <c r="M108" s="116"/>
       <c r="N108" s="115"/>
-      <c r="O108" s="115"/>
-      <c r="P108" s="115"/>
-      <c r="Q108" s="115"/>
+      <c r="O108" s="116" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q108" s="177" t="s">
+        <v>175</v>
+      </c>
       <c r="R108" s="115"/>
       <c r="S108" s="115"/>
       <c r="T108" s="115"/>
@@ -10559,7 +10572,7 @@
       <c r="W108" s="115"/>
       <c r="X108" s="115"/>
       <c r="Y108" s="115"/>
-      <c r="Z108" s="124"/>
+      <c r="Z108" s="118"/>
       <c r="AJ108" s="110"/>
       <c r="AK108" s="110"/>
       <c r="AL108" s="110"/>
@@ -10584,36 +10597,72 @@
       <c r="BE108" s="110"/>
       <c r="BF108" s="110"/>
     </row>
-    <row r="109" spans="4:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="AI109" s="125"/>
-      <c r="AJ109" s="125"/>
-      <c r="AK109" s="125"/>
-      <c r="AL109" s="125"/>
-      <c r="AM109" s="125"/>
-      <c r="AN109" s="125"/>
-      <c r="AO109" s="125"/>
-      <c r="AP109" s="125"/>
-      <c r="AQ109" s="125"/>
-      <c r="AR109" s="125"/>
-      <c r="AS109" s="125"/>
-      <c r="AT109" s="125"/>
-      <c r="AU109" s="125"/>
-      <c r="AV109" s="125"/>
-      <c r="AW109" s="125"/>
-      <c r="AX109" s="125"/>
-      <c r="AY109" s="125"/>
-      <c r="AZ109" s="125"/>
-      <c r="BA109" s="125"/>
-      <c r="BB109" s="125"/>
-      <c r="BC109" s="125"/>
-      <c r="BD109" s="125"/>
-      <c r="BE109" s="125"/>
-    </row>
-    <row r="110" spans="4:58" x14ac:dyDescent="0.15">
-      <c r="E110" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="G110" s="107"/>
+    <row r="109" spans="5:58" x14ac:dyDescent="0.15">
+      <c r="G109" s="119"/>
+      <c r="H109" s="120"/>
+      <c r="I109" s="120"/>
+      <c r="J109" s="120"/>
+      <c r="K109" s="120"/>
+      <c r="L109" s="121"/>
+      <c r="M109" s="121"/>
+      <c r="N109" s="120"/>
+      <c r="O109" s="120"/>
+      <c r="P109" s="120"/>
+      <c r="Q109" s="120"/>
+      <c r="R109" s="120"/>
+      <c r="S109" s="120"/>
+      <c r="T109" s="120"/>
+      <c r="U109" s="120"/>
+      <c r="V109" s="122"/>
+      <c r="W109" s="120"/>
+      <c r="X109" s="120"/>
+      <c r="Y109" s="120"/>
+      <c r="Z109" s="123"/>
+      <c r="AJ109" s="110"/>
+      <c r="AK109" s="110"/>
+      <c r="AL109" s="110"/>
+      <c r="AM109" s="110"/>
+      <c r="AN109" s="110"/>
+      <c r="AO109" s="110"/>
+      <c r="AP109" s="110"/>
+      <c r="AQ109" s="110"/>
+      <c r="AR109" s="110"/>
+      <c r="AS109" s="110"/>
+      <c r="AT109" s="110"/>
+      <c r="AU109" s="110"/>
+      <c r="AV109" s="110"/>
+      <c r="AW109" s="110"/>
+      <c r="AX109" s="110"/>
+      <c r="AY109" s="110"/>
+      <c r="AZ109" s="110"/>
+      <c r="BA109" s="110"/>
+      <c r="BB109" s="110"/>
+      <c r="BC109" s="110"/>
+      <c r="BD109" s="110"/>
+      <c r="BE109" s="110"/>
+      <c r="BF109" s="110"/>
+    </row>
+    <row r="110" spans="5:58" x14ac:dyDescent="0.15">
+      <c r="G110" s="115"/>
+      <c r="H110" s="115"/>
+      <c r="I110" s="115"/>
+      <c r="J110" s="115"/>
+      <c r="K110" s="115"/>
+      <c r="L110" s="116"/>
+      <c r="M110" s="116"/>
+      <c r="N110" s="115"/>
+      <c r="O110" s="115"/>
+      <c r="P110" s="115"/>
+      <c r="Q110" s="115"/>
+      <c r="R110" s="115"/>
+      <c r="S110" s="115"/>
+      <c r="T110" s="115"/>
+      <c r="U110" s="115"/>
+      <c r="V110" s="117"/>
+      <c r="W110" s="115"/>
+      <c r="X110" s="115"/>
+      <c r="Y110" s="115"/>
+      <c r="Z110" s="124"/>
       <c r="AJ110" s="110"/>
       <c r="AK110" s="110"/>
       <c r="AL110" s="110"/>
@@ -10638,16 +10687,36 @@
       <c r="BE110" s="110"/>
       <c r="BF110" s="110"/>
     </row>
-    <row r="111" spans="4:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D111" s="29"/>
-      <c r="E111" s="106"/>
-      <c r="F111" s="104"/>
-    </row>
-    <row r="112" spans="4:58" x14ac:dyDescent="0.15">
-      <c r="E112" s="126"/>
-      <c r="F112" s="71" t="s">
-        <v>157</v>
-      </c>
+    <row r="111" spans="5:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AI111" s="125"/>
+      <c r="AJ111" s="125"/>
+      <c r="AK111" s="125"/>
+      <c r="AL111" s="125"/>
+      <c r="AM111" s="125"/>
+      <c r="AN111" s="125"/>
+      <c r="AO111" s="125"/>
+      <c r="AP111" s="125"/>
+      <c r="AQ111" s="125"/>
+      <c r="AR111" s="125"/>
+      <c r="AS111" s="125"/>
+      <c r="AT111" s="125"/>
+      <c r="AU111" s="125"/>
+      <c r="AV111" s="125"/>
+      <c r="AW111" s="125"/>
+      <c r="AX111" s="125"/>
+      <c r="AY111" s="125"/>
+      <c r="AZ111" s="125"/>
+      <c r="BA111" s="125"/>
+      <c r="BB111" s="125"/>
+      <c r="BC111" s="125"/>
+      <c r="BD111" s="125"/>
+      <c r="BE111" s="125"/>
+    </row>
+    <row r="112" spans="5:58" x14ac:dyDescent="0.15">
+      <c r="E112" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G112" s="107"/>
       <c r="AJ112" s="110"/>
       <c r="AK112" s="110"/>
       <c r="AL112" s="110"/>
@@ -10672,49 +10741,16 @@
       <c r="BE112" s="110"/>
       <c r="BF112" s="110"/>
     </row>
-    <row r="113" spans="5:58" x14ac:dyDescent="0.15">
-      <c r="E113" s="126"/>
-      <c r="F113" s="127"/>
-      <c r="G113" s="71" t="s">
-        <v>182</v>
-      </c>
-      <c r="AJ113" s="110"/>
-      <c r="AK113" s="110"/>
-      <c r="AL113" s="110"/>
-      <c r="AM113" s="110"/>
-      <c r="AN113" s="110"/>
-      <c r="AO113" s="110"/>
-      <c r="AP113" s="110"/>
-      <c r="AQ113" s="110"/>
-      <c r="AR113" s="110"/>
-      <c r="AS113" s="110"/>
-      <c r="AT113" s="110"/>
-      <c r="AU113" s="110"/>
-      <c r="AV113" s="110"/>
-      <c r="AW113" s="110"/>
-      <c r="AX113" s="110"/>
-      <c r="AY113" s="110"/>
-      <c r="AZ113" s="110"/>
-      <c r="BA113" s="110"/>
-      <c r="BB113" s="110"/>
-      <c r="BC113" s="110"/>
-      <c r="BD113" s="110"/>
-      <c r="BE113" s="110"/>
-      <c r="BF113" s="110"/>
-    </row>
-    <row r="114" spans="5:58" x14ac:dyDescent="0.15">
+    <row r="113" spans="4:58" s="108" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D113" s="29"/>
+      <c r="E113" s="106"/>
+      <c r="F113" s="104"/>
+    </row>
+    <row r="114" spans="4:58" x14ac:dyDescent="0.15">
       <c r="E114" s="126"/>
-      <c r="F114" s="127"/>
-      <c r="H114" s="74" t="s">
-        <v>178</v>
-      </c>
-      <c r="I114" s="193"/>
-      <c r="J114" s="193"/>
-      <c r="K114" s="193"/>
-      <c r="L114" s="193"/>
-      <c r="M114" s="193"/>
-      <c r="N114" s="193"/>
-      <c r="O114" s="193"/>
+      <c r="F114" s="71" t="s">
+        <v>157</v>
+      </c>
       <c r="AJ114" s="110"/>
       <c r="AK114" s="110"/>
       <c r="AL114" s="110"/>
@@ -10739,10 +10775,12 @@
       <c r="BE114" s="110"/>
       <c r="BF114" s="110"/>
     </row>
-    <row r="115" spans="5:58" x14ac:dyDescent="0.15">
+    <row r="115" spans="4:58" x14ac:dyDescent="0.15">
       <c r="E115" s="126"/>
       <c r="F115" s="127"/>
-      <c r="G115" s="71"/>
+      <c r="G115" s="71" t="s">
+        <v>182</v>
+      </c>
       <c r="AJ115" s="110"/>
       <c r="AK115" s="110"/>
       <c r="AL115" s="110"/>
@@ -10767,11 +10805,19 @@
       <c r="BE115" s="110"/>
       <c r="BF115" s="110"/>
     </row>
-    <row r="116" spans="5:58" x14ac:dyDescent="0.15">
+    <row r="116" spans="4:58" x14ac:dyDescent="0.15">
       <c r="E116" s="126"/>
-      <c r="F116" s="71" t="s">
-        <v>158</v>
-      </c>
+      <c r="F116" s="127"/>
+      <c r="H116" s="74" t="s">
+        <v>178</v>
+      </c>
+      <c r="I116" s="193"/>
+      <c r="J116" s="193"/>
+      <c r="K116" s="193"/>
+      <c r="L116" s="193"/>
+      <c r="M116" s="193"/>
+      <c r="N116" s="193"/>
+      <c r="O116" s="193"/>
       <c r="AJ116" s="110"/>
       <c r="AK116" s="110"/>
       <c r="AL116" s="110"/>
@@ -10796,12 +10842,10 @@
       <c r="BE116" s="110"/>
       <c r="BF116" s="110"/>
     </row>
-    <row r="117" spans="5:58" x14ac:dyDescent="0.15">
+    <row r="117" spans="4:58" x14ac:dyDescent="0.15">
       <c r="E117" s="126"/>
       <c r="F117" s="127"/>
-      <c r="G117" s="71" t="s">
-        <v>183</v>
-      </c>
+      <c r="G117" s="71"/>
       <c r="AJ117" s="110"/>
       <c r="AK117" s="110"/>
       <c r="AL117" s="110"/>
@@ -10826,18 +10870,11 @@
       <c r="BE117" s="110"/>
       <c r="BF117" s="110"/>
     </row>
-    <row r="118" spans="5:58" x14ac:dyDescent="0.15">
+    <row r="118" spans="4:58" x14ac:dyDescent="0.15">
       <c r="E118" s="126"/>
-      <c r="F118" s="127"/>
-      <c r="H118" s="74" t="s">
-        <v>178</v>
-      </c>
-      <c r="I118" s="193"/>
-      <c r="J118" s="193"/>
-      <c r="K118" s="193"/>
-      <c r="L118" s="193"/>
-      <c r="M118" s="193"/>
-      <c r="N118" s="193"/>
+      <c r="F118" s="71" t="s">
+        <v>158</v>
+      </c>
       <c r="AJ118" s="110"/>
       <c r="AK118" s="110"/>
       <c r="AL118" s="110"/>
@@ -10862,10 +10899,12 @@
       <c r="BE118" s="110"/>
       <c r="BF118" s="110"/>
     </row>
-    <row r="119" spans="5:58" x14ac:dyDescent="0.15">
+    <row r="119" spans="4:58" x14ac:dyDescent="0.15">
       <c r="E119" s="126"/>
       <c r="F119" s="127"/>
-      <c r="G119" s="71"/>
+      <c r="G119" s="71" t="s">
+        <v>183</v>
+      </c>
       <c r="AJ119" s="110"/>
       <c r="AK119" s="110"/>
       <c r="AL119" s="110"/>
@@ -10890,11 +10929,18 @@
       <c r="BE119" s="110"/>
       <c r="BF119" s="110"/>
     </row>
-    <row r="120" spans="5:58" x14ac:dyDescent="0.15">
+    <row r="120" spans="4:58" x14ac:dyDescent="0.15">
       <c r="E120" s="126"/>
-      <c r="F120" s="71" t="s">
-        <v>159</v>
-      </c>
+      <c r="F120" s="127"/>
+      <c r="H120" s="74" t="s">
+        <v>178</v>
+      </c>
+      <c r="I120" s="193"/>
+      <c r="J120" s="193"/>
+      <c r="K120" s="193"/>
+      <c r="L120" s="193"/>
+      <c r="M120" s="193"/>
+      <c r="N120" s="193"/>
       <c r="AJ120" s="110"/>
       <c r="AK120" s="110"/>
       <c r="AL120" s="110"/>
@@ -10919,12 +10965,10 @@
       <c r="BE120" s="110"/>
       <c r="BF120" s="110"/>
     </row>
-    <row r="121" spans="5:58" x14ac:dyDescent="0.15">
+    <row r="121" spans="4:58" x14ac:dyDescent="0.15">
       <c r="E121" s="126"/>
       <c r="F121" s="127"/>
-      <c r="G121" s="71" t="s">
-        <v>184</v>
-      </c>
+      <c r="G121" s="71"/>
       <c r="AJ121" s="110"/>
       <c r="AK121" s="110"/>
       <c r="AL121" s="110"/>
@@ -10949,18 +10993,11 @@
       <c r="BE121" s="110"/>
       <c r="BF121" s="110"/>
     </row>
-    <row r="122" spans="5:58" x14ac:dyDescent="0.15">
+    <row r="122" spans="4:58" x14ac:dyDescent="0.15">
       <c r="E122" s="126"/>
-      <c r="F122" s="127"/>
-      <c r="H122" s="74" t="s">
-        <v>178</v>
-      </c>
-      <c r="I122" s="193"/>
-      <c r="J122" s="193"/>
-      <c r="K122" s="193"/>
-      <c r="L122" s="193"/>
-      <c r="M122" s="193"/>
-      <c r="N122" s="193"/>
+      <c r="F122" s="71" t="s">
+        <v>159</v>
+      </c>
       <c r="AJ122" s="110"/>
       <c r="AK122" s="110"/>
       <c r="AL122" s="110"/>
@@ -10985,10 +11022,12 @@
       <c r="BE122" s="110"/>
       <c r="BF122" s="110"/>
     </row>
-    <row r="123" spans="5:58" x14ac:dyDescent="0.15">
+    <row r="123" spans="4:58" x14ac:dyDescent="0.15">
       <c r="E123" s="126"/>
       <c r="F123" s="127"/>
-      <c r="G123" s="71"/>
+      <c r="G123" s="71" t="s">
+        <v>184</v>
+      </c>
       <c r="AJ123" s="110"/>
       <c r="AK123" s="110"/>
       <c r="AL123" s="110"/>
@@ -11013,11 +11052,18 @@
       <c r="BE123" s="110"/>
       <c r="BF123" s="110"/>
     </row>
-    <row r="124" spans="5:58" x14ac:dyDescent="0.15">
+    <row r="124" spans="4:58" x14ac:dyDescent="0.15">
       <c r="E124" s="126"/>
-      <c r="F124" s="71" t="s">
-        <v>161</v>
-      </c>
+      <c r="F124" s="127"/>
+      <c r="H124" s="74" t="s">
+        <v>178</v>
+      </c>
+      <c r="I124" s="193"/>
+      <c r="J124" s="193"/>
+      <c r="K124" s="193"/>
+      <c r="L124" s="193"/>
+      <c r="M124" s="193"/>
+      <c r="N124" s="193"/>
       <c r="AJ124" s="110"/>
       <c r="AK124" s="110"/>
       <c r="AL124" s="110"/>
@@ -11042,14 +11088,12 @@
       <c r="BE124" s="110"/>
       <c r="BF124" s="110"/>
     </row>
-    <row r="125" spans="5:58" x14ac:dyDescent="0.15">
+    <row r="125" spans="4:58" x14ac:dyDescent="0.15">
       <c r="E125" s="126"/>
       <c r="F125" s="127"/>
-      <c r="G125" s="71" t="s">
-        <v>180</v>
-      </c>
+      <c r="G125" s="71"/>
       <c r="AJ125" s="110"/>
-      <c r="AK125" s="194"/>
+      <c r="AK125" s="110"/>
       <c r="AL125" s="110"/>
       <c r="AM125" s="110"/>
       <c r="AN125" s="110"/>
@@ -11072,12 +11116,10 @@
       <c r="BE125" s="110"/>
       <c r="BF125" s="110"/>
     </row>
-    <row r="126" spans="5:58" x14ac:dyDescent="0.15">
+    <row r="126" spans="4:58" x14ac:dyDescent="0.15">
       <c r="E126" s="126"/>
-      <c r="F126" s="127"/>
-      <c r="G126" s="71"/>
-      <c r="H126" s="103" t="s">
-        <v>185</v>
+      <c r="F126" s="71" t="s">
+        <v>161</v>
       </c>
       <c r="AJ126" s="110"/>
       <c r="AK126" s="110"/>
@@ -11103,20 +11145,14 @@
       <c r="BE126" s="110"/>
       <c r="BF126" s="110"/>
     </row>
-    <row r="127" spans="5:58" x14ac:dyDescent="0.15">
+    <row r="127" spans="4:58" x14ac:dyDescent="0.15">
       <c r="E127" s="126"/>
       <c r="F127" s="127"/>
-      <c r="H127" s="74" t="s">
-        <v>178</v>
-      </c>
-      <c r="I127" s="193"/>
-      <c r="J127" s="193"/>
-      <c r="K127" s="193"/>
-      <c r="L127" s="193"/>
-      <c r="M127" s="193"/>
-      <c r="N127" s="193"/>
+      <c r="G127" s="71" t="s">
+        <v>180</v>
+      </c>
       <c r="AJ127" s="110"/>
-      <c r="AK127" s="110"/>
+      <c r="AK127" s="194"/>
       <c r="AL127" s="110"/>
       <c r="AM127" s="110"/>
       <c r="AN127" s="110"/>
@@ -11139,10 +11175,13 @@
       <c r="BE127" s="110"/>
       <c r="BF127" s="110"/>
     </row>
-    <row r="128" spans="5:58" x14ac:dyDescent="0.15">
+    <row r="128" spans="4:58" x14ac:dyDescent="0.15">
       <c r="E128" s="126"/>
       <c r="F128" s="127"/>
       <c r="G128" s="71"/>
+      <c r="H128" s="103" t="s">
+        <v>185</v>
+      </c>
       <c r="AJ128" s="110"/>
       <c r="AK128" s="110"/>
       <c r="AL128" s="110"/>
@@ -11167,255 +11206,211 @@
       <c r="BE128" s="110"/>
       <c r="BF128" s="110"/>
     </row>
-    <row r="129" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H129" s="353" t="s">
+    <row r="129" spans="5:59" x14ac:dyDescent="0.15">
+      <c r="E129" s="126"/>
+      <c r="F129" s="127"/>
+      <c r="H129" s="74" t="s">
+        <v>178</v>
+      </c>
+      <c r="I129" s="193"/>
+      <c r="J129" s="193"/>
+      <c r="K129" s="193"/>
+      <c r="L129" s="193"/>
+      <c r="M129" s="193"/>
+      <c r="N129" s="193"/>
+      <c r="AJ129" s="110"/>
+      <c r="AK129" s="110"/>
+      <c r="AL129" s="110"/>
+      <c r="AM129" s="110"/>
+      <c r="AN129" s="110"/>
+      <c r="AO129" s="110"/>
+      <c r="AP129" s="110"/>
+      <c r="AQ129" s="110"/>
+      <c r="AR129" s="110"/>
+      <c r="AS129" s="110"/>
+      <c r="AT129" s="110"/>
+      <c r="AU129" s="110"/>
+      <c r="AV129" s="110"/>
+      <c r="AW129" s="110"/>
+      <c r="AX129" s="110"/>
+      <c r="AY129" s="110"/>
+      <c r="AZ129" s="110"/>
+      <c r="BA129" s="110"/>
+      <c r="BB129" s="110"/>
+      <c r="BC129" s="110"/>
+      <c r="BD129" s="110"/>
+      <c r="BE129" s="110"/>
+      <c r="BF129" s="110"/>
+    </row>
+    <row r="130" spans="5:59" x14ac:dyDescent="0.15">
+      <c r="E130" s="126"/>
+      <c r="F130" s="127"/>
+      <c r="G130" s="71"/>
+      <c r="AJ130" s="110"/>
+      <c r="AK130" s="110"/>
+      <c r="AL130" s="110"/>
+      <c r="AM130" s="110"/>
+      <c r="AN130" s="110"/>
+      <c r="AO130" s="110"/>
+      <c r="AP130" s="110"/>
+      <c r="AQ130" s="110"/>
+      <c r="AR130" s="110"/>
+      <c r="AS130" s="110"/>
+      <c r="AT130" s="110"/>
+      <c r="AU130" s="110"/>
+      <c r="AV130" s="110"/>
+      <c r="AW130" s="110"/>
+      <c r="AX130" s="110"/>
+      <c r="AY130" s="110"/>
+      <c r="AZ130" s="110"/>
+      <c r="BA130" s="110"/>
+      <c r="BB130" s="110"/>
+      <c r="BC130" s="110"/>
+      <c r="BD130" s="110"/>
+      <c r="BE130" s="110"/>
+      <c r="BF130" s="110"/>
+    </row>
+    <row r="131" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H131" s="297" t="s">
         <v>162</v>
       </c>
-      <c r="I129" s="275" t="s">
+      <c r="I131" s="275" t="s">
         <v>105</v>
       </c>
-      <c r="J129" s="276"/>
-      <c r="K129" s="276"/>
-      <c r="L129" s="276"/>
-      <c r="M129" s="276"/>
-      <c r="N129" s="277"/>
-      <c r="O129" s="374" t="s">
+      <c r="J131" s="276"/>
+      <c r="K131" s="276"/>
+      <c r="L131" s="276"/>
+      <c r="M131" s="276"/>
+      <c r="N131" s="277"/>
+      <c r="O131" s="299" t="s">
         <v>115</v>
       </c>
-      <c r="P129" s="375"/>
-      <c r="Q129" s="375"/>
-      <c r="R129" s="375"/>
-      <c r="S129" s="375"/>
-      <c r="T129" s="375"/>
-      <c r="U129" s="375"/>
-      <c r="V129" s="375"/>
-      <c r="W129" s="375"/>
-      <c r="X129" s="375"/>
-      <c r="Y129" s="376"/>
-      <c r="Z129" s="275" t="s">
+      <c r="P131" s="300"/>
+      <c r="Q131" s="300"/>
+      <c r="R131" s="300"/>
+      <c r="S131" s="300"/>
+      <c r="T131" s="300"/>
+      <c r="U131" s="300"/>
+      <c r="V131" s="300"/>
+      <c r="W131" s="300"/>
+      <c r="X131" s="300"/>
+      <c r="Y131" s="301"/>
+      <c r="Z131" s="275" t="s">
         <v>33</v>
       </c>
-      <c r="AA129" s="276"/>
-      <c r="AB129" s="276"/>
-      <c r="AC129" s="276"/>
-      <c r="AD129" s="276"/>
-      <c r="AE129" s="277"/>
-      <c r="AF129" s="184" t="s">
+      <c r="AA131" s="276"/>
+      <c r="AB131" s="276"/>
+      <c r="AC131" s="276"/>
+      <c r="AD131" s="276"/>
+      <c r="AE131" s="277"/>
+      <c r="AF131" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="AG129" s="185"/>
-      <c r="AH129" s="186"/>
-    </row>
-    <row r="130" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H130" s="355"/>
-      <c r="I130" s="281"/>
-      <c r="J130" s="282"/>
-      <c r="K130" s="282"/>
-      <c r="L130" s="282"/>
-      <c r="M130" s="282"/>
-      <c r="N130" s="283"/>
-      <c r="O130" s="374" t="s">
+      <c r="AG131" s="185"/>
+      <c r="AH131" s="186"/>
+    </row>
+    <row r="132" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H132" s="298"/>
+      <c r="I132" s="281"/>
+      <c r="J132" s="282"/>
+      <c r="K132" s="282"/>
+      <c r="L132" s="282"/>
+      <c r="M132" s="282"/>
+      <c r="N132" s="283"/>
+      <c r="O132" s="299" t="s">
         <v>116</v>
       </c>
-      <c r="P130" s="375"/>
-      <c r="Q130" s="375"/>
-      <c r="R130" s="375"/>
-      <c r="S130" s="376"/>
-      <c r="T130" s="377" t="s">
+      <c r="P132" s="300"/>
+      <c r="Q132" s="300"/>
+      <c r="R132" s="300"/>
+      <c r="S132" s="301"/>
+      <c r="T132" s="302" t="s">
         <v>106</v>
       </c>
-      <c r="U130" s="378"/>
-      <c r="V130" s="378"/>
-      <c r="W130" s="378"/>
-      <c r="X130" s="378"/>
-      <c r="Y130" s="379"/>
-      <c r="Z130" s="281"/>
-      <c r="AA130" s="282"/>
-      <c r="AB130" s="282"/>
-      <c r="AC130" s="282"/>
-      <c r="AD130" s="282"/>
-      <c r="AE130" s="283"/>
-      <c r="AF130" s="187"/>
-      <c r="AG130" s="188"/>
-      <c r="AH130" s="189"/>
-    </row>
-    <row r="131" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H131" s="138">
+      <c r="U132" s="303"/>
+      <c r="V132" s="303"/>
+      <c r="W132" s="303"/>
+      <c r="X132" s="303"/>
+      <c r="Y132" s="304"/>
+      <c r="Z132" s="281"/>
+      <c r="AA132" s="282"/>
+      <c r="AB132" s="282"/>
+      <c r="AC132" s="282"/>
+      <c r="AD132" s="282"/>
+      <c r="AE132" s="283"/>
+      <c r="AF132" s="187"/>
+      <c r="AG132" s="188"/>
+      <c r="AH132" s="189"/>
+    </row>
+    <row r="133" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H133" s="138">
         <v>1</v>
       </c>
-      <c r="I131" s="370" t="s">
+      <c r="I133" s="291" t="s">
         <v>163</v>
       </c>
-      <c r="J131" s="371"/>
-      <c r="K131" s="371"/>
-      <c r="L131" s="371"/>
-      <c r="M131" s="371"/>
-      <c r="N131" s="372"/>
-      <c r="O131" s="178" t="s">
+      <c r="J133" s="292"/>
+      <c r="K133" s="292"/>
+      <c r="L133" s="292"/>
+      <c r="M133" s="292"/>
+      <c r="N133" s="293"/>
+      <c r="O133" s="178" t="s">
         <v>145</v>
       </c>
-      <c r="P131" s="179"/>
-      <c r="Q131" s="179"/>
-      <c r="R131" s="179"/>
-      <c r="S131" s="180"/>
-      <c r="T131" s="370" t="s">
+      <c r="P133" s="179"/>
+      <c r="Q133" s="179"/>
+      <c r="R133" s="179"/>
+      <c r="S133" s="180"/>
+      <c r="T133" s="291" t="s">
         <v>164</v>
       </c>
-      <c r="U131" s="371"/>
-      <c r="V131" s="371"/>
-      <c r="W131" s="371"/>
-      <c r="X131" s="371"/>
-      <c r="Y131" s="372"/>
-      <c r="Z131" s="373" t="s">
+      <c r="U133" s="292"/>
+      <c r="V133" s="292"/>
+      <c r="W133" s="292"/>
+      <c r="X133" s="292"/>
+      <c r="Y133" s="293"/>
+      <c r="Z133" s="294" t="s">
         <v>165</v>
       </c>
-      <c r="AA131" s="306"/>
-      <c r="AB131" s="306"/>
-      <c r="AC131" s="306"/>
-      <c r="AD131" s="306"/>
-      <c r="AE131" s="307"/>
-      <c r="AF131" s="170"/>
-      <c r="AG131" s="168"/>
-      <c r="AH131" s="169"/>
-    </row>
-    <row r="132" spans="5:59" x14ac:dyDescent="0.15">
-      <c r="H132" s="181" t="s">
+      <c r="AA133" s="295"/>
+      <c r="AB133" s="295"/>
+      <c r="AC133" s="295"/>
+      <c r="AD133" s="295"/>
+      <c r="AE133" s="296"/>
+      <c r="AF133" s="170"/>
+      <c r="AG133" s="168"/>
+      <c r="AH133" s="169"/>
+    </row>
+    <row r="134" spans="5:59" x14ac:dyDescent="0.15">
+      <c r="H134" s="181" t="s">
         <v>102</v>
       </c>
-      <c r="I132" s="182"/>
-      <c r="J132" s="182"/>
-      <c r="K132" s="182"/>
-      <c r="L132" s="182"/>
-      <c r="M132" s="182"/>
-      <c r="N132" s="182"/>
-      <c r="O132" s="182"/>
-      <c r="P132" s="182"/>
-      <c r="Q132" s="182"/>
-      <c r="R132" s="182"/>
-      <c r="S132" s="182"/>
-      <c r="T132" s="182"/>
-      <c r="U132" s="182"/>
-      <c r="V132" s="182"/>
-      <c r="W132" s="182"/>
-      <c r="X132" s="182"/>
-      <c r="Y132" s="182"/>
-      <c r="Z132" s="182"/>
-      <c r="AA132" s="182"/>
-      <c r="AB132" s="182"/>
-      <c r="AC132" s="182"/>
-      <c r="AD132" s="182"/>
-      <c r="AE132" s="182"/>
-      <c r="AF132" s="182"/>
-      <c r="AG132" s="182"/>
-      <c r="AH132" s="183"/>
-      <c r="AK132" s="110"/>
-      <c r="AL132" s="110"/>
-      <c r="AM132" s="110"/>
-      <c r="AN132" s="110"/>
-      <c r="AO132" s="110"/>
-      <c r="AP132" s="110"/>
-      <c r="AQ132" s="110"/>
-      <c r="AR132" s="110"/>
-      <c r="AS132" s="110"/>
-      <c r="AT132" s="110"/>
-      <c r="AU132" s="110"/>
-      <c r="AV132" s="110"/>
-      <c r="AW132" s="110"/>
-      <c r="AX132" s="110"/>
-      <c r="AY132" s="110"/>
-      <c r="AZ132" s="110"/>
-      <c r="BA132" s="110"/>
-      <c r="BB132" s="110"/>
-      <c r="BC132" s="110"/>
-      <c r="BD132" s="110"/>
-      <c r="BE132" s="110"/>
-      <c r="BF132" s="110"/>
-      <c r="BG132" s="110"/>
-    </row>
-    <row r="133" spans="5:59" x14ac:dyDescent="0.15">
-      <c r="H133" s="111"/>
-      <c r="I133" s="112"/>
-      <c r="J133" s="112"/>
-      <c r="K133" s="112"/>
-      <c r="L133" s="112"/>
-      <c r="M133" s="112"/>
-      <c r="N133" s="112"/>
-      <c r="O133" s="112"/>
-      <c r="P133" s="112"/>
-      <c r="Q133" s="112"/>
-      <c r="R133" s="112"/>
-      <c r="S133" s="112"/>
-      <c r="T133" s="112"/>
-      <c r="U133" s="112"/>
-      <c r="V133" s="112"/>
-      <c r="W133" s="112"/>
-      <c r="X133" s="112"/>
-      <c r="Y133" s="112"/>
-      <c r="Z133" s="112"/>
-      <c r="AA133" s="112"/>
-      <c r="AB133" s="112"/>
-      <c r="AC133" s="112"/>
-      <c r="AD133" s="112"/>
-      <c r="AE133" s="112"/>
-      <c r="AF133" s="112"/>
-      <c r="AG133" s="112"/>
-      <c r="AH133" s="113"/>
-      <c r="AK133" s="110"/>
-      <c r="AL133" s="110"/>
-      <c r="AM133" s="110"/>
-      <c r="AN133" s="110"/>
-      <c r="AO133" s="110"/>
-      <c r="AP133" s="110"/>
-      <c r="AQ133" s="110"/>
-      <c r="AR133" s="110"/>
-      <c r="AS133" s="110"/>
-      <c r="AT133" s="110"/>
-      <c r="AU133" s="110"/>
-      <c r="AV133" s="110"/>
-      <c r="AW133" s="110"/>
-      <c r="AX133" s="110"/>
-      <c r="AY133" s="110"/>
-      <c r="AZ133" s="110"/>
-      <c r="BA133" s="110"/>
-      <c r="BB133" s="110"/>
-      <c r="BC133" s="110"/>
-      <c r="BD133" s="110"/>
-      <c r="BE133" s="110"/>
-      <c r="BF133" s="110"/>
-      <c r="BG133" s="110"/>
-    </row>
-    <row r="134" spans="5:59" x14ac:dyDescent="0.15">
-      <c r="H134" s="114"/>
-      <c r="I134" s="177" t="s">
-        <v>154</v>
-      </c>
-      <c r="J134" s="115"/>
-      <c r="K134" s="115"/>
-      <c r="L134" s="115"/>
-      <c r="M134" s="116"/>
-      <c r="O134" s="115"/>
-      <c r="P134" s="116" t="s">
-        <v>103</v>
-      </c>
-      <c r="R134" s="177" t="s">
-        <v>153</v>
-      </c>
-      <c r="S134" s="115"/>
-      <c r="T134" s="115"/>
-      <c r="U134" s="115"/>
-      <c r="V134" s="115"/>
-      <c r="W134" s="117"/>
-      <c r="X134" s="115"/>
-      <c r="Y134" s="115"/>
-      <c r="Z134" s="115"/>
-      <c r="AA134" s="115"/>
-      <c r="AB134" s="117"/>
-      <c r="AC134" s="115"/>
-      <c r="AD134" s="117"/>
-      <c r="AE134" s="115"/>
-      <c r="AF134" s="117"/>
-      <c r="AG134" s="115"/>
-      <c r="AH134" s="118"/>
+      <c r="I134" s="182"/>
+      <c r="J134" s="182"/>
+      <c r="K134" s="182"/>
+      <c r="L134" s="182"/>
+      <c r="M134" s="182"/>
+      <c r="N134" s="182"/>
+      <c r="O134" s="182"/>
+      <c r="P134" s="182"/>
+      <c r="Q134" s="182"/>
+      <c r="R134" s="182"/>
+      <c r="S134" s="182"/>
+      <c r="T134" s="182"/>
+      <c r="U134" s="182"/>
+      <c r="V134" s="182"/>
+      <c r="W134" s="182"/>
+      <c r="X134" s="182"/>
+      <c r="Y134" s="182"/>
+      <c r="Z134" s="182"/>
+      <c r="AA134" s="182"/>
+      <c r="AB134" s="182"/>
+      <c r="AC134" s="182"/>
+      <c r="AD134" s="182"/>
+      <c r="AE134" s="182"/>
+      <c r="AF134" s="182"/>
+      <c r="AG134" s="182"/>
+      <c r="AH134" s="183"/>
       <c r="AK134" s="110"/>
       <c r="AL134" s="110"/>
       <c r="AM134" s="110"/>
@@ -11441,33 +11436,33 @@
       <c r="BG134" s="110"/>
     </row>
     <row r="135" spans="5:59" x14ac:dyDescent="0.15">
-      <c r="H135" s="119"/>
-      <c r="I135" s="120"/>
-      <c r="J135" s="120"/>
-      <c r="K135" s="120"/>
-      <c r="L135" s="120"/>
-      <c r="M135" s="121"/>
-      <c r="N135" s="121"/>
-      <c r="O135" s="120"/>
-      <c r="P135" s="120"/>
-      <c r="Q135" s="120"/>
-      <c r="R135" s="120"/>
-      <c r="S135" s="120"/>
-      <c r="T135" s="120"/>
-      <c r="U135" s="120"/>
-      <c r="V135" s="120"/>
-      <c r="W135" s="122"/>
-      <c r="X135" s="120"/>
-      <c r="Y135" s="120"/>
-      <c r="Z135" s="120"/>
-      <c r="AA135" s="120"/>
-      <c r="AB135" s="122"/>
-      <c r="AC135" s="120"/>
-      <c r="AD135" s="122"/>
-      <c r="AE135" s="120"/>
-      <c r="AF135" s="122"/>
-      <c r="AG135" s="120"/>
-      <c r="AH135" s="123"/>
+      <c r="H135" s="111"/>
+      <c r="I135" s="112"/>
+      <c r="J135" s="112"/>
+      <c r="K135" s="112"/>
+      <c r="L135" s="112"/>
+      <c r="M135" s="112"/>
+      <c r="N135" s="112"/>
+      <c r="O135" s="112"/>
+      <c r="P135" s="112"/>
+      <c r="Q135" s="112"/>
+      <c r="R135" s="112"/>
+      <c r="S135" s="112"/>
+      <c r="T135" s="112"/>
+      <c r="U135" s="112"/>
+      <c r="V135" s="112"/>
+      <c r="W135" s="112"/>
+      <c r="X135" s="112"/>
+      <c r="Y135" s="112"/>
+      <c r="Z135" s="112"/>
+      <c r="AA135" s="112"/>
+      <c r="AB135" s="112"/>
+      <c r="AC135" s="112"/>
+      <c r="AD135" s="112"/>
+      <c r="AE135" s="112"/>
+      <c r="AF135" s="112"/>
+      <c r="AG135" s="112"/>
+      <c r="AH135" s="113"/>
       <c r="AK135" s="110"/>
       <c r="AL135" s="110"/>
       <c r="AM135" s="110"/>
@@ -11493,10 +11488,37 @@
       <c r="BG135" s="110"/>
     </row>
     <row r="136" spans="5:59" x14ac:dyDescent="0.15">
-      <c r="E136" s="126"/>
-      <c r="F136" s="127"/>
-      <c r="G136" s="71"/>
-      <c r="AJ136" s="110"/>
+      <c r="H136" s="114"/>
+      <c r="I136" s="177" t="s">
+        <v>154</v>
+      </c>
+      <c r="J136" s="115"/>
+      <c r="K136" s="115"/>
+      <c r="L136" s="115"/>
+      <c r="M136" s="116"/>
+      <c r="O136" s="115"/>
+      <c r="P136" s="116" t="s">
+        <v>103</v>
+      </c>
+      <c r="R136" s="177" t="s">
+        <v>153</v>
+      </c>
+      <c r="S136" s="115"/>
+      <c r="T136" s="115"/>
+      <c r="U136" s="115"/>
+      <c r="V136" s="115"/>
+      <c r="W136" s="117"/>
+      <c r="X136" s="115"/>
+      <c r="Y136" s="115"/>
+      <c r="Z136" s="115"/>
+      <c r="AA136" s="115"/>
+      <c r="AB136" s="117"/>
+      <c r="AC136" s="115"/>
+      <c r="AD136" s="117"/>
+      <c r="AE136" s="115"/>
+      <c r="AF136" s="117"/>
+      <c r="AG136" s="115"/>
+      <c r="AH136" s="118"/>
       <c r="AK136" s="110"/>
       <c r="AL136" s="110"/>
       <c r="AM136" s="110"/>
@@ -11519,14 +11541,36 @@
       <c r="BD136" s="110"/>
       <c r="BE136" s="110"/>
       <c r="BF136" s="110"/>
+      <c r="BG136" s="110"/>
     </row>
     <row r="137" spans="5:59" x14ac:dyDescent="0.15">
-      <c r="E137" s="126"/>
-      <c r="F137" s="127"/>
-      <c r="G137" s="71" t="s">
-        <v>190</v>
-      </c>
-      <c r="AJ137" s="110"/>
+      <c r="H137" s="119"/>
+      <c r="I137" s="120"/>
+      <c r="J137" s="120"/>
+      <c r="K137" s="120"/>
+      <c r="L137" s="120"/>
+      <c r="M137" s="121"/>
+      <c r="N137" s="121"/>
+      <c r="O137" s="120"/>
+      <c r="P137" s="120"/>
+      <c r="Q137" s="120"/>
+      <c r="R137" s="120"/>
+      <c r="S137" s="120"/>
+      <c r="T137" s="120"/>
+      <c r="U137" s="120"/>
+      <c r="V137" s="120"/>
+      <c r="W137" s="122"/>
+      <c r="X137" s="120"/>
+      <c r="Y137" s="120"/>
+      <c r="Z137" s="120"/>
+      <c r="AA137" s="120"/>
+      <c r="AB137" s="122"/>
+      <c r="AC137" s="120"/>
+      <c r="AD137" s="122"/>
+      <c r="AE137" s="120"/>
+      <c r="AF137" s="122"/>
+      <c r="AG137" s="120"/>
+      <c r="AH137" s="123"/>
       <c r="AK137" s="110"/>
       <c r="AL137" s="110"/>
       <c r="AM137" s="110"/>
@@ -11549,6 +11593,7 @@
       <c r="BD137" s="110"/>
       <c r="BE137" s="110"/>
       <c r="BF137" s="110"/>
+      <c r="BG137" s="110"/>
     </row>
     <row r="138" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E138" s="126"/>
@@ -11578,294 +11623,244 @@
       <c r="BE138" s="110"/>
       <c r="BF138" s="110"/>
     </row>
-    <row r="139" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H139" s="353" t="s">
+    <row r="139" spans="5:59" x14ac:dyDescent="0.15">
+      <c r="E139" s="126"/>
+      <c r="F139" s="127"/>
+      <c r="G139" s="71" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ139" s="110"/>
+      <c r="AK139" s="110"/>
+      <c r="AL139" s="110"/>
+      <c r="AM139" s="110"/>
+      <c r="AN139" s="110"/>
+      <c r="AO139" s="110"/>
+      <c r="AP139" s="110"/>
+      <c r="AQ139" s="110"/>
+      <c r="AR139" s="110"/>
+      <c r="AS139" s="110"/>
+      <c r="AT139" s="110"/>
+      <c r="AU139" s="110"/>
+      <c r="AV139" s="110"/>
+      <c r="AW139" s="110"/>
+      <c r="AX139" s="110"/>
+      <c r="AY139" s="110"/>
+      <c r="AZ139" s="110"/>
+      <c r="BA139" s="110"/>
+      <c r="BB139" s="110"/>
+      <c r="BC139" s="110"/>
+      <c r="BD139" s="110"/>
+      <c r="BE139" s="110"/>
+      <c r="BF139" s="110"/>
+    </row>
+    <row r="140" spans="5:59" x14ac:dyDescent="0.15">
+      <c r="E140" s="126"/>
+      <c r="F140" s="127"/>
+      <c r="G140" s="71"/>
+      <c r="AJ140" s="110"/>
+      <c r="AK140" s="110"/>
+      <c r="AL140" s="110"/>
+      <c r="AM140" s="110"/>
+      <c r="AN140" s="110"/>
+      <c r="AO140" s="110"/>
+      <c r="AP140" s="110"/>
+      <c r="AQ140" s="110"/>
+      <c r="AR140" s="110"/>
+      <c r="AS140" s="110"/>
+      <c r="AT140" s="110"/>
+      <c r="AU140" s="110"/>
+      <c r="AV140" s="110"/>
+      <c r="AW140" s="110"/>
+      <c r="AX140" s="110"/>
+      <c r="AY140" s="110"/>
+      <c r="AZ140" s="110"/>
+      <c r="BA140" s="110"/>
+      <c r="BB140" s="110"/>
+      <c r="BC140" s="110"/>
+      <c r="BD140" s="110"/>
+      <c r="BE140" s="110"/>
+      <c r="BF140" s="110"/>
+    </row>
+    <row r="141" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H141" s="297" t="s">
         <v>162</v>
       </c>
-      <c r="I139" s="275" t="s">
+      <c r="I141" s="275" t="s">
         <v>105</v>
       </c>
-      <c r="J139" s="276"/>
-      <c r="K139" s="276"/>
-      <c r="L139" s="276"/>
-      <c r="M139" s="276"/>
-      <c r="N139" s="277"/>
-      <c r="O139" s="374" t="s">
+      <c r="J141" s="276"/>
+      <c r="K141" s="276"/>
+      <c r="L141" s="276"/>
+      <c r="M141" s="276"/>
+      <c r="N141" s="277"/>
+      <c r="O141" s="299" t="s">
         <v>115</v>
       </c>
-      <c r="P139" s="375"/>
-      <c r="Q139" s="375"/>
-      <c r="R139" s="375"/>
-      <c r="S139" s="375"/>
-      <c r="T139" s="375"/>
-      <c r="U139" s="375"/>
-      <c r="V139" s="375"/>
-      <c r="W139" s="375"/>
-      <c r="X139" s="375"/>
-      <c r="Y139" s="376"/>
-      <c r="Z139" s="275" t="s">
+      <c r="P141" s="300"/>
+      <c r="Q141" s="300"/>
+      <c r="R141" s="300"/>
+      <c r="S141" s="300"/>
+      <c r="T141" s="300"/>
+      <c r="U141" s="300"/>
+      <c r="V141" s="300"/>
+      <c r="W141" s="300"/>
+      <c r="X141" s="300"/>
+      <c r="Y141" s="301"/>
+      <c r="Z141" s="275" t="s">
         <v>33</v>
       </c>
-      <c r="AA139" s="276"/>
-      <c r="AB139" s="276"/>
-      <c r="AC139" s="276"/>
-      <c r="AD139" s="276"/>
-      <c r="AE139" s="277"/>
-      <c r="AF139" s="184" t="s">
+      <c r="AA141" s="276"/>
+      <c r="AB141" s="276"/>
+      <c r="AC141" s="276"/>
+      <c r="AD141" s="276"/>
+      <c r="AE141" s="277"/>
+      <c r="AF141" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="AG139" s="185"/>
-      <c r="AH139" s="186"/>
-    </row>
-    <row r="140" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H140" s="355"/>
-      <c r="I140" s="281"/>
-      <c r="J140" s="282"/>
-      <c r="K140" s="282"/>
-      <c r="L140" s="282"/>
-      <c r="M140" s="282"/>
-      <c r="N140" s="283"/>
-      <c r="O140" s="374" t="s">
+      <c r="AG141" s="185"/>
+      <c r="AH141" s="186"/>
+    </row>
+    <row r="142" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H142" s="298"/>
+      <c r="I142" s="281"/>
+      <c r="J142" s="282"/>
+      <c r="K142" s="282"/>
+      <c r="L142" s="282"/>
+      <c r="M142" s="282"/>
+      <c r="N142" s="283"/>
+      <c r="O142" s="299" t="s">
         <v>116</v>
       </c>
-      <c r="P140" s="375"/>
-      <c r="Q140" s="375"/>
-      <c r="R140" s="375"/>
-      <c r="S140" s="376"/>
-      <c r="T140" s="377" t="s">
+      <c r="P142" s="300"/>
+      <c r="Q142" s="300"/>
+      <c r="R142" s="300"/>
+      <c r="S142" s="301"/>
+      <c r="T142" s="302" t="s">
         <v>106</v>
       </c>
-      <c r="U140" s="378"/>
-      <c r="V140" s="378"/>
-      <c r="W140" s="378"/>
-      <c r="X140" s="378"/>
-      <c r="Y140" s="379"/>
-      <c r="Z140" s="281"/>
-      <c r="AA140" s="282"/>
-      <c r="AB140" s="282"/>
-      <c r="AC140" s="282"/>
-      <c r="AD140" s="282"/>
-      <c r="AE140" s="283"/>
-      <c r="AF140" s="187"/>
-      <c r="AG140" s="188"/>
-      <c r="AH140" s="189"/>
-    </row>
-    <row r="141" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H141" s="138">
+      <c r="U142" s="303"/>
+      <c r="V142" s="303"/>
+      <c r="W142" s="303"/>
+      <c r="X142" s="303"/>
+      <c r="Y142" s="304"/>
+      <c r="Z142" s="281"/>
+      <c r="AA142" s="282"/>
+      <c r="AB142" s="282"/>
+      <c r="AC142" s="282"/>
+      <c r="AD142" s="282"/>
+      <c r="AE142" s="283"/>
+      <c r="AF142" s="187"/>
+      <c r="AG142" s="188"/>
+      <c r="AH142" s="189"/>
+    </row>
+    <row r="143" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H143" s="138">
         <v>1</v>
       </c>
-      <c r="I141" s="370" t="s">
+      <c r="I143" s="291" t="s">
         <v>169</v>
       </c>
-      <c r="J141" s="371"/>
-      <c r="K141" s="371"/>
-      <c r="L141" s="371"/>
-      <c r="M141" s="371"/>
-      <c r="N141" s="372"/>
-      <c r="O141" s="178" t="s">
+      <c r="J143" s="292"/>
+      <c r="K143" s="292"/>
+      <c r="L143" s="292"/>
+      <c r="M143" s="292"/>
+      <c r="N143" s="293"/>
+      <c r="O143" s="178" t="s">
         <v>170</v>
       </c>
-      <c r="P141" s="179"/>
-      <c r="Q141" s="179"/>
-      <c r="R141" s="179"/>
-      <c r="S141" s="180"/>
-      <c r="T141" s="370" t="s">
+      <c r="P143" s="179"/>
+      <c r="Q143" s="179"/>
+      <c r="R143" s="179"/>
+      <c r="S143" s="180"/>
+      <c r="T143" s="291" t="s">
         <v>164</v>
       </c>
-      <c r="U141" s="371"/>
-      <c r="V141" s="371"/>
-      <c r="W141" s="371"/>
-      <c r="X141" s="371"/>
-      <c r="Y141" s="372"/>
-      <c r="Z141" s="373" t="s">
+      <c r="U143" s="292"/>
+      <c r="V143" s="292"/>
+      <c r="W143" s="292"/>
+      <c r="X143" s="292"/>
+      <c r="Y143" s="293"/>
+      <c r="Z143" s="294" t="s">
         <v>171</v>
       </c>
-      <c r="AA141" s="306"/>
-      <c r="AB141" s="306"/>
-      <c r="AC141" s="306"/>
-      <c r="AD141" s="306"/>
-      <c r="AE141" s="307"/>
-      <c r="AF141" s="170"/>
-      <c r="AG141" s="168"/>
-      <c r="AH141" s="169"/>
-    </row>
-    <row r="142" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H142" s="138">
+      <c r="AA143" s="295"/>
+      <c r="AB143" s="295"/>
+      <c r="AC143" s="295"/>
+      <c r="AD143" s="295"/>
+      <c r="AE143" s="296"/>
+      <c r="AF143" s="170"/>
+      <c r="AG143" s="168"/>
+      <c r="AH143" s="169"/>
+    </row>
+    <row r="144" spans="5:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H144" s="138">
         <v>2</v>
       </c>
-      <c r="I142" s="370" t="s">
+      <c r="I144" s="291" t="s">
         <v>189</v>
       </c>
-      <c r="J142" s="371"/>
-      <c r="K142" s="371"/>
-      <c r="L142" s="371"/>
-      <c r="M142" s="371"/>
-      <c r="N142" s="372"/>
-      <c r="O142" s="178" t="s">
+      <c r="J144" s="292"/>
+      <c r="K144" s="292"/>
+      <c r="L144" s="292"/>
+      <c r="M144" s="292"/>
+      <c r="N144" s="293"/>
+      <c r="O144" s="178" t="s">
         <v>170</v>
       </c>
-      <c r="P142" s="179"/>
-      <c r="Q142" s="179"/>
-      <c r="R142" s="179"/>
-      <c r="S142" s="180"/>
-      <c r="T142" s="370" t="s">
+      <c r="P144" s="179"/>
+      <c r="Q144" s="179"/>
+      <c r="R144" s="179"/>
+      <c r="S144" s="180"/>
+      <c r="T144" s="291" t="s">
         <v>94</v>
       </c>
-      <c r="U142" s="371"/>
-      <c r="V142" s="371"/>
-      <c r="W142" s="371"/>
-      <c r="X142" s="371"/>
-      <c r="Y142" s="372"/>
-      <c r="Z142" s="373">
+      <c r="U144" s="292"/>
+      <c r="V144" s="292"/>
+      <c r="W144" s="292"/>
+      <c r="X144" s="292"/>
+      <c r="Y144" s="293"/>
+      <c r="Z144" s="294">
         <v>0</v>
       </c>
-      <c r="AA142" s="306"/>
-      <c r="AB142" s="306"/>
-      <c r="AC142" s="306"/>
-      <c r="AD142" s="306"/>
-      <c r="AE142" s="307"/>
-      <c r="AF142" s="197"/>
-      <c r="AG142" s="195"/>
-      <c r="AH142" s="196"/>
-    </row>
-    <row r="143" spans="5:59" x14ac:dyDescent="0.15">
-      <c r="H143" s="181" t="s">
+      <c r="AA144" s="295"/>
+      <c r="AB144" s="295"/>
+      <c r="AC144" s="295"/>
+      <c r="AD144" s="295"/>
+      <c r="AE144" s="296"/>
+      <c r="AF144" s="197"/>
+      <c r="AG144" s="195"/>
+      <c r="AH144" s="196"/>
+    </row>
+    <row r="145" spans="5:59" x14ac:dyDescent="0.15">
+      <c r="H145" s="181" t="s">
         <v>102</v>
       </c>
-      <c r="I143" s="182"/>
-      <c r="J143" s="182"/>
-      <c r="K143" s="182"/>
-      <c r="L143" s="182"/>
-      <c r="M143" s="182"/>
-      <c r="N143" s="182"/>
-      <c r="O143" s="182"/>
-      <c r="P143" s="182"/>
-      <c r="Q143" s="182"/>
-      <c r="R143" s="182"/>
-      <c r="S143" s="182"/>
-      <c r="T143" s="182"/>
-      <c r="U143" s="182"/>
-      <c r="V143" s="182"/>
-      <c r="W143" s="182"/>
-      <c r="X143" s="182"/>
-      <c r="Y143" s="182"/>
-      <c r="Z143" s="182"/>
-      <c r="AA143" s="182"/>
-      <c r="AB143" s="182"/>
-      <c r="AC143" s="182"/>
-      <c r="AD143" s="182"/>
-      <c r="AE143" s="182"/>
-      <c r="AF143" s="182"/>
-      <c r="AG143" s="182"/>
-      <c r="AH143" s="183"/>
-      <c r="AK143" s="110"/>
-      <c r="AL143" s="110"/>
-      <c r="AM143" s="110"/>
-      <c r="AN143" s="110"/>
-      <c r="AO143" s="110"/>
-      <c r="AP143" s="110"/>
-      <c r="AQ143" s="110"/>
-      <c r="AR143" s="110"/>
-      <c r="AS143" s="110"/>
-      <c r="AT143" s="110"/>
-      <c r="AU143" s="110"/>
-      <c r="AV143" s="110"/>
-      <c r="AW143" s="110"/>
-      <c r="AX143" s="110"/>
-      <c r="AY143" s="110"/>
-      <c r="AZ143" s="110"/>
-      <c r="BA143" s="110"/>
-      <c r="BB143" s="110"/>
-      <c r="BC143" s="110"/>
-      <c r="BD143" s="110"/>
-      <c r="BE143" s="110"/>
-      <c r="BF143" s="110"/>
-      <c r="BG143" s="110"/>
-    </row>
-    <row r="144" spans="5:59" x14ac:dyDescent="0.15">
-      <c r="H144" s="111"/>
-      <c r="I144" s="112"/>
-      <c r="J144" s="112"/>
-      <c r="K144" s="112"/>
-      <c r="L144" s="112"/>
-      <c r="M144" s="112"/>
-      <c r="N144" s="112"/>
-      <c r="O144" s="112"/>
-      <c r="P144" s="112"/>
-      <c r="Q144" s="112"/>
-      <c r="R144" s="112"/>
-      <c r="S144" s="112"/>
-      <c r="T144" s="112"/>
-      <c r="U144" s="112"/>
-      <c r="V144" s="112"/>
-      <c r="W144" s="112"/>
-      <c r="X144" s="112"/>
-      <c r="Y144" s="112"/>
-      <c r="Z144" s="112"/>
-      <c r="AA144" s="112"/>
-      <c r="AB144" s="112"/>
-      <c r="AC144" s="112"/>
-      <c r="AD144" s="112"/>
-      <c r="AE144" s="112"/>
-      <c r="AF144" s="112"/>
-      <c r="AG144" s="112"/>
-      <c r="AH144" s="113"/>
-      <c r="AK144" s="110"/>
-      <c r="AL144" s="110"/>
-      <c r="AM144" s="110"/>
-      <c r="AN144" s="110"/>
-      <c r="AO144" s="110"/>
-      <c r="AP144" s="110"/>
-      <c r="AQ144" s="110"/>
-      <c r="AR144" s="110"/>
-      <c r="AS144" s="110"/>
-      <c r="AT144" s="110"/>
-      <c r="AU144" s="110"/>
-      <c r="AV144" s="110"/>
-      <c r="AW144" s="110"/>
-      <c r="AX144" s="110"/>
-      <c r="AY144" s="110"/>
-      <c r="AZ144" s="110"/>
-      <c r="BA144" s="110"/>
-      <c r="BB144" s="110"/>
-      <c r="BC144" s="110"/>
-      <c r="BD144" s="110"/>
-      <c r="BE144" s="110"/>
-      <c r="BF144" s="110"/>
-      <c r="BG144" s="110"/>
-    </row>
-    <row r="145" spans="5:59" x14ac:dyDescent="0.15">
-      <c r="H145" s="114"/>
-      <c r="I145" s="177" t="s">
-        <v>154</v>
-      </c>
-      <c r="J145" s="115"/>
-      <c r="K145" s="115"/>
-      <c r="L145" s="115"/>
-      <c r="M145" s="116"/>
-      <c r="O145" s="115"/>
-      <c r="P145" s="116" t="s">
-        <v>103</v>
-      </c>
-      <c r="R145" s="177" t="s">
-        <v>153</v>
-      </c>
-      <c r="S145" s="115"/>
-      <c r="T145" s="115"/>
-      <c r="U145" s="115"/>
-      <c r="V145" s="115"/>
-      <c r="W145" s="117"/>
-      <c r="X145" s="115"/>
-      <c r="Y145" s="115"/>
-      <c r="Z145" s="115"/>
-      <c r="AA145" s="115"/>
-      <c r="AB145" s="117"/>
-      <c r="AC145" s="115"/>
-      <c r="AD145" s="117"/>
-      <c r="AE145" s="115"/>
-      <c r="AF145" s="117"/>
-      <c r="AG145" s="115"/>
-      <c r="AH145" s="118"/>
+      <c r="I145" s="182"/>
+      <c r="J145" s="182"/>
+      <c r="K145" s="182"/>
+      <c r="L145" s="182"/>
+      <c r="M145" s="182"/>
+      <c r="N145" s="182"/>
+      <c r="O145" s="182"/>
+      <c r="P145" s="182"/>
+      <c r="Q145" s="182"/>
+      <c r="R145" s="182"/>
+      <c r="S145" s="182"/>
+      <c r="T145" s="182"/>
+      <c r="U145" s="182"/>
+      <c r="V145" s="182"/>
+      <c r="W145" s="182"/>
+      <c r="X145" s="182"/>
+      <c r="Y145" s="182"/>
+      <c r="Z145" s="182"/>
+      <c r="AA145" s="182"/>
+      <c r="AB145" s="182"/>
+      <c r="AC145" s="182"/>
+      <c r="AD145" s="182"/>
+      <c r="AE145" s="182"/>
+      <c r="AF145" s="182"/>
+      <c r="AG145" s="182"/>
+      <c r="AH145" s="183"/>
       <c r="AK145" s="110"/>
       <c r="AL145" s="110"/>
       <c r="AM145" s="110"/>
@@ -11891,33 +11886,33 @@
       <c r="BG145" s="110"/>
     </row>
     <row r="146" spans="5:59" x14ac:dyDescent="0.15">
-      <c r="H146" s="119"/>
-      <c r="I146" s="120"/>
-      <c r="J146" s="120"/>
-      <c r="K146" s="120"/>
-      <c r="L146" s="120"/>
-      <c r="M146" s="121"/>
-      <c r="N146" s="121"/>
-      <c r="O146" s="120"/>
-      <c r="P146" s="120"/>
-      <c r="Q146" s="120"/>
-      <c r="R146" s="120"/>
-      <c r="S146" s="120"/>
-      <c r="T146" s="120"/>
-      <c r="U146" s="120"/>
-      <c r="V146" s="120"/>
-      <c r="W146" s="122"/>
-      <c r="X146" s="120"/>
-      <c r="Y146" s="120"/>
-      <c r="Z146" s="120"/>
-      <c r="AA146" s="120"/>
-      <c r="AB146" s="122"/>
-      <c r="AC146" s="120"/>
-      <c r="AD146" s="122"/>
-      <c r="AE146" s="120"/>
-      <c r="AF146" s="122"/>
-      <c r="AG146" s="120"/>
-      <c r="AH146" s="123"/>
+      <c r="H146" s="111"/>
+      <c r="I146" s="112"/>
+      <c r="J146" s="112"/>
+      <c r="K146" s="112"/>
+      <c r="L146" s="112"/>
+      <c r="M146" s="112"/>
+      <c r="N146" s="112"/>
+      <c r="O146" s="112"/>
+      <c r="P146" s="112"/>
+      <c r="Q146" s="112"/>
+      <c r="R146" s="112"/>
+      <c r="S146" s="112"/>
+      <c r="T146" s="112"/>
+      <c r="U146" s="112"/>
+      <c r="V146" s="112"/>
+      <c r="W146" s="112"/>
+      <c r="X146" s="112"/>
+      <c r="Y146" s="112"/>
+      <c r="Z146" s="112"/>
+      <c r="AA146" s="112"/>
+      <c r="AB146" s="112"/>
+      <c r="AC146" s="112"/>
+      <c r="AD146" s="112"/>
+      <c r="AE146" s="112"/>
+      <c r="AF146" s="112"/>
+      <c r="AG146" s="112"/>
+      <c r="AH146" s="113"/>
       <c r="AK146" s="110"/>
       <c r="AL146" s="110"/>
       <c r="AM146" s="110"/>
@@ -11943,10 +11938,37 @@
       <c r="BG146" s="110"/>
     </row>
     <row r="147" spans="5:59" x14ac:dyDescent="0.15">
-      <c r="E147" s="126"/>
-      <c r="F147" s="127"/>
-      <c r="G147" s="71"/>
-      <c r="AJ147" s="110"/>
+      <c r="H147" s="114"/>
+      <c r="I147" s="177" t="s">
+        <v>154</v>
+      </c>
+      <c r="J147" s="115"/>
+      <c r="K147" s="115"/>
+      <c r="L147" s="115"/>
+      <c r="M147" s="116"/>
+      <c r="O147" s="115"/>
+      <c r="P147" s="116" t="s">
+        <v>103</v>
+      </c>
+      <c r="R147" s="177" t="s">
+        <v>153</v>
+      </c>
+      <c r="S147" s="115"/>
+      <c r="T147" s="115"/>
+      <c r="U147" s="115"/>
+      <c r="V147" s="115"/>
+      <c r="W147" s="117"/>
+      <c r="X147" s="115"/>
+      <c r="Y147" s="115"/>
+      <c r="Z147" s="115"/>
+      <c r="AA147" s="115"/>
+      <c r="AB147" s="117"/>
+      <c r="AC147" s="115"/>
+      <c r="AD147" s="117"/>
+      <c r="AE147" s="115"/>
+      <c r="AF147" s="117"/>
+      <c r="AG147" s="115"/>
+      <c r="AH147" s="118"/>
       <c r="AK147" s="110"/>
       <c r="AL147" s="110"/>
       <c r="AM147" s="110"/>
@@ -11969,14 +11991,36 @@
       <c r="BD147" s="110"/>
       <c r="BE147" s="110"/>
       <c r="BF147" s="110"/>
+      <c r="BG147" s="110"/>
     </row>
     <row r="148" spans="5:59" x14ac:dyDescent="0.15">
-      <c r="E148" s="126"/>
-      <c r="F148" s="127"/>
-      <c r="G148" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="AJ148" s="110"/>
+      <c r="H148" s="119"/>
+      <c r="I148" s="120"/>
+      <c r="J148" s="120"/>
+      <c r="K148" s="120"/>
+      <c r="L148" s="120"/>
+      <c r="M148" s="121"/>
+      <c r="N148" s="121"/>
+      <c r="O148" s="120"/>
+      <c r="P148" s="120"/>
+      <c r="Q148" s="120"/>
+      <c r="R148" s="120"/>
+      <c r="S148" s="120"/>
+      <c r="T148" s="120"/>
+      <c r="U148" s="120"/>
+      <c r="V148" s="120"/>
+      <c r="W148" s="122"/>
+      <c r="X148" s="120"/>
+      <c r="Y148" s="120"/>
+      <c r="Z148" s="120"/>
+      <c r="AA148" s="120"/>
+      <c r="AB148" s="122"/>
+      <c r="AC148" s="120"/>
+      <c r="AD148" s="122"/>
+      <c r="AE148" s="120"/>
+      <c r="AF148" s="122"/>
+      <c r="AG148" s="120"/>
+      <c r="AH148" s="123"/>
       <c r="AK148" s="110"/>
       <c r="AL148" s="110"/>
       <c r="AM148" s="110"/>
@@ -11999,6 +12043,7 @@
       <c r="BD148" s="110"/>
       <c r="BE148" s="110"/>
       <c r="BF148" s="110"/>
+      <c r="BG148" s="110"/>
     </row>
     <row r="149" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E149" s="126"/>
@@ -12030,8 +12075,9 @@
     </row>
     <row r="150" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E150" s="126"/>
-      <c r="F150" s="71" t="s">
-        <v>167</v>
+      <c r="F150" s="127"/>
+      <c r="G150" s="71" t="s">
+        <v>177</v>
       </c>
       <c r="AJ150" s="110"/>
       <c r="AK150" s="110"/>
@@ -12087,7 +12133,9 @@
     </row>
     <row r="152" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E152" s="126"/>
-      <c r="F152" s="71"/>
+      <c r="F152" s="71" t="s">
+        <v>167</v>
+      </c>
       <c r="AJ152" s="110"/>
       <c r="AK152" s="110"/>
       <c r="AL152" s="110"/>
@@ -12142,8 +12190,7 @@
     </row>
     <row r="154" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E154" s="126"/>
-      <c r="F154" s="127"/>
-      <c r="G154" s="71"/>
+      <c r="F154" s="71"/>
       <c r="AJ154" s="110"/>
       <c r="AK154" s="110"/>
       <c r="AL154" s="110"/>
@@ -12170,6 +12217,8 @@
     </row>
     <row r="155" spans="5:59" x14ac:dyDescent="0.15">
       <c r="E155" s="126"/>
+      <c r="F155" s="127"/>
+      <c r="G155" s="71"/>
       <c r="AJ155" s="110"/>
       <c r="AK155" s="110"/>
       <c r="AL155" s="110"/>
@@ -12194,60 +12243,98 @@
       <c r="BE155" s="110"/>
       <c r="BF155" s="110"/>
     </row>
+    <row r="156" spans="5:59" x14ac:dyDescent="0.15">
+      <c r="E156" s="126"/>
+      <c r="F156" s="127"/>
+      <c r="G156" s="71"/>
+      <c r="AJ156" s="110"/>
+      <c r="AK156" s="110"/>
+      <c r="AL156" s="110"/>
+      <c r="AM156" s="110"/>
+      <c r="AN156" s="110"/>
+      <c r="AO156" s="110"/>
+      <c r="AP156" s="110"/>
+      <c r="AQ156" s="110"/>
+      <c r="AR156" s="110"/>
+      <c r="AS156" s="110"/>
+      <c r="AT156" s="110"/>
+      <c r="AU156" s="110"/>
+      <c r="AV156" s="110"/>
+      <c r="AW156" s="110"/>
+      <c r="AX156" s="110"/>
+      <c r="AY156" s="110"/>
+      <c r="AZ156" s="110"/>
+      <c r="BA156" s="110"/>
+      <c r="BB156" s="110"/>
+      <c r="BC156" s="110"/>
+      <c r="BD156" s="110"/>
+      <c r="BE156" s="110"/>
+      <c r="BF156" s="110"/>
+    </row>
+    <row r="157" spans="5:59" x14ac:dyDescent="0.15">
+      <c r="E157" s="126"/>
+      <c r="AJ157" s="110"/>
+      <c r="AK157" s="110"/>
+      <c r="AL157" s="110"/>
+      <c r="AM157" s="110"/>
+      <c r="AN157" s="110"/>
+      <c r="AO157" s="110"/>
+      <c r="AP157" s="110"/>
+      <c r="AQ157" s="110"/>
+      <c r="AR157" s="110"/>
+      <c r="AS157" s="110"/>
+      <c r="AT157" s="110"/>
+      <c r="AU157" s="110"/>
+      <c r="AV157" s="110"/>
+      <c r="AW157" s="110"/>
+      <c r="AX157" s="110"/>
+      <c r="AY157" s="110"/>
+      <c r="AZ157" s="110"/>
+      <c r="BA157" s="110"/>
+      <c r="BB157" s="110"/>
+      <c r="BC157" s="110"/>
+      <c r="BD157" s="110"/>
+      <c r="BE157" s="110"/>
+      <c r="BF157" s="110"/>
+    </row>
   </sheetData>
-  <mergeCells count="109">
-    <mergeCell ref="I142:N142"/>
-    <mergeCell ref="T142:Y142"/>
-    <mergeCell ref="Z142:AE142"/>
-    <mergeCell ref="I141:N141"/>
-    <mergeCell ref="T141:Y141"/>
-    <mergeCell ref="Z141:AE141"/>
-    <mergeCell ref="H139:H140"/>
-    <mergeCell ref="I139:N140"/>
-    <mergeCell ref="O139:Y139"/>
-    <mergeCell ref="Z139:AE140"/>
-    <mergeCell ref="O140:S140"/>
-    <mergeCell ref="T140:Y140"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:J59"/>
-    <mergeCell ref="K58:N59"/>
-    <mergeCell ref="E65:J65"/>
-    <mergeCell ref="I131:N131"/>
-    <mergeCell ref="T131:Y131"/>
-    <mergeCell ref="Z131:AE131"/>
-    <mergeCell ref="Q102:Z102"/>
-    <mergeCell ref="H129:H130"/>
-    <mergeCell ref="I129:N130"/>
-    <mergeCell ref="O129:Y129"/>
-    <mergeCell ref="Z129:AE130"/>
-    <mergeCell ref="O130:S130"/>
-    <mergeCell ref="T130:Y130"/>
-    <mergeCell ref="G97:P97"/>
-    <mergeCell ref="Q97:Z97"/>
-    <mergeCell ref="G98:P103"/>
-    <mergeCell ref="Q98:Z98"/>
-    <mergeCell ref="Q103:Z103"/>
-    <mergeCell ref="G104:Z104"/>
-    <mergeCell ref="AD87:AG87"/>
-    <mergeCell ref="AD88:AG88"/>
-    <mergeCell ref="G87:L87"/>
-    <mergeCell ref="G88:L88"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="M50:T51"/>
-    <mergeCell ref="Q44:U44"/>
-    <mergeCell ref="V44:AC44"/>
-    <mergeCell ref="U53:Y53"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="I50:L51"/>
-    <mergeCell ref="E50:H51"/>
-    <mergeCell ref="E49:AC49"/>
-    <mergeCell ref="Z50:AB51"/>
-    <mergeCell ref="AC50:AC51"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="M53:T53"/>
-    <mergeCell ref="M52:T52"/>
+  <mergeCells count="112">
+    <mergeCell ref="G104:P105"/>
+    <mergeCell ref="Q104:Z104"/>
+    <mergeCell ref="Q105:Z105"/>
+    <mergeCell ref="E43:M43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="Q43:U43"/>
+    <mergeCell ref="V43:AC43"/>
+    <mergeCell ref="E44:M44"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="V58:AH59"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="AD49:AG51"/>
+    <mergeCell ref="Z52:AB52"/>
+    <mergeCell ref="AD53:AG53"/>
+    <mergeCell ref="AD52:AG52"/>
+    <mergeCell ref="U50:Y51"/>
+    <mergeCell ref="U52:Y52"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="W88:Y88"/>
     <mergeCell ref="AE65:AH65"/>
     <mergeCell ref="Z65:AD65"/>
@@ -12272,39 +12359,58 @@
     <mergeCell ref="R66:Y66"/>
     <mergeCell ref="Z66:AD66"/>
     <mergeCell ref="W87:Y87"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="E43:M43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="Q43:U43"/>
-    <mergeCell ref="V43:AC43"/>
-    <mergeCell ref="E44:M44"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="V58:AH59"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="AD49:AG51"/>
-    <mergeCell ref="Z52:AB52"/>
-    <mergeCell ref="AD53:AG53"/>
-    <mergeCell ref="AD52:AG52"/>
-    <mergeCell ref="U50:Y51"/>
-    <mergeCell ref="U52:Y52"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="E53:H53"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="M50:T51"/>
+    <mergeCell ref="Q44:U44"/>
+    <mergeCell ref="V44:AC44"/>
+    <mergeCell ref="U53:Y53"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="I50:L51"/>
+    <mergeCell ref="E50:H51"/>
+    <mergeCell ref="E49:AC49"/>
+    <mergeCell ref="Z50:AB51"/>
+    <mergeCell ref="AC50:AC51"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="M53:T53"/>
+    <mergeCell ref="M52:T52"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:J59"/>
+    <mergeCell ref="K58:N59"/>
+    <mergeCell ref="E65:J65"/>
+    <mergeCell ref="I133:N133"/>
+    <mergeCell ref="T133:Y133"/>
+    <mergeCell ref="Z133:AE133"/>
+    <mergeCell ref="Q102:Z102"/>
+    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="I131:N132"/>
+    <mergeCell ref="O131:Y131"/>
+    <mergeCell ref="Z131:AE132"/>
+    <mergeCell ref="O132:S132"/>
+    <mergeCell ref="T132:Y132"/>
+    <mergeCell ref="G97:P97"/>
+    <mergeCell ref="Q97:Z97"/>
+    <mergeCell ref="G98:P103"/>
+    <mergeCell ref="Q98:Z98"/>
+    <mergeCell ref="Q103:Z103"/>
+    <mergeCell ref="G106:Z106"/>
+    <mergeCell ref="AD87:AG87"/>
+    <mergeCell ref="AD88:AG88"/>
+    <mergeCell ref="G87:L87"/>
+    <mergeCell ref="G88:L88"/>
+    <mergeCell ref="I144:N144"/>
+    <mergeCell ref="T144:Y144"/>
+    <mergeCell ref="Z144:AE144"/>
+    <mergeCell ref="I143:N143"/>
+    <mergeCell ref="T143:Y143"/>
+    <mergeCell ref="Z143:AE143"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="I141:N142"/>
+    <mergeCell ref="O141:Y141"/>
+    <mergeCell ref="Z141:AE142"/>
+    <mergeCell ref="O142:S142"/>
+    <mergeCell ref="T142:Y142"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="5">
@@ -12333,7 +12439,7 @@
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="40" max="34" man="1"/>
     <brk id="69" max="34" man="1"/>
-    <brk id="108" max="34" man="1"/>
+    <brk id="110" max="34" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
